--- a/R/data/quiz241021_tmp.xlsx
+++ b/R/data/quiz241021_tmp.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="715" uniqueCount="217">
   <si>
     <t>타임스탬프</t>
   </si>
@@ -524,6 +524,144 @@
   </si>
   <si>
     <t>홍지민</t>
+  </si>
+  <si>
+    <t>sochi1108@naver.com</t>
+  </si>
+  <si>
+    <t>이소정</t>
+  </si>
+  <si>
+    <t>chs6485@naver.com</t>
+  </si>
+  <si>
+    <t>박수환</t>
+  </si>
+  <si>
+    <t>herdy2154@naver.com</t>
+  </si>
+  <si>
+    <t>한녕균</t>
+  </si>
+  <si>
+    <t>minnjae119@gmail.com</t>
+  </si>
+  <si>
+    <t>최민재</t>
+  </si>
+  <si>
+    <t>jhue0901@gmail.com</t>
+  </si>
+  <si>
+    <t>글로벌비지니스학과</t>
+  </si>
+  <si>
+    <t>전하율</t>
+  </si>
+  <si>
+    <t>lovearamis3@gmail.com</t>
+  </si>
+  <si>
+    <t>데이터 테크</t>
+  </si>
+  <si>
+    <t>정현우</t>
+  </si>
+  <si>
+    <t>ss0001234@naver.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">김세은 </t>
+  </si>
+  <si>
+    <t>t01094887068@gmail.com</t>
+  </si>
+  <si>
+    <t>손민재</t>
+  </si>
+  <si>
+    <t>alwnd816@gmail.com</t>
+  </si>
+  <si>
+    <t>한재은</t>
+  </si>
+  <si>
+    <t>cgb01045647472@gmail.com</t>
+  </si>
+  <si>
+    <t>경제학과</t>
+  </si>
+  <si>
+    <t>최기백</t>
+  </si>
+  <si>
+    <t>alsco92001@gmail.com</t>
+  </si>
+  <si>
+    <t>소프트웨어</t>
+  </si>
+  <si>
+    <t>오민채</t>
+  </si>
+  <si>
+    <t>b020305@naver.com</t>
+  </si>
+  <si>
+    <t>배성진</t>
+  </si>
+  <si>
+    <t>minheart7844@gmail.com</t>
+  </si>
+  <si>
+    <t>권민</t>
+  </si>
+  <si>
+    <t>bin_1014@naver.com</t>
+  </si>
+  <si>
+    <t>디지털미디어콘텐츠 전공</t>
+  </si>
+  <si>
+    <t>김명빈</t>
+  </si>
+  <si>
+    <t>suji032091@naver.com</t>
+  </si>
+  <si>
+    <t>이선주</t>
+  </si>
+  <si>
+    <t>choigy050404@gmail.com</t>
+  </si>
+  <si>
+    <t>최가연</t>
+  </si>
+  <si>
+    <t>dlxotjq27@gmail.com</t>
+  </si>
+  <si>
+    <t>이태섭</t>
+  </si>
+  <si>
+    <t>kmmyy209@gmail.com</t>
+  </si>
+  <si>
+    <t>디지털미디어콘텐츠학과</t>
+  </si>
+  <si>
+    <t>김명은</t>
+  </si>
+  <si>
+    <t>0524psu@gmail.com</t>
+  </si>
+  <si>
+    <t>박상언</t>
+  </si>
+  <si>
+    <t>p62170968@gmail.com</t>
+  </si>
+  <si>
+    <t>박성빈</t>
   </si>
 </sst>
 </file>
@@ -554,7 +692,7 @@
       <patternFill patternType="lightGray"/>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="12">
     <border/>
     <border>
       <left style="thin">
@@ -710,25 +848,11 @@
         <color rgb="FF442F65"/>
       </bottom>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFF8F9FA"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF442F65"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFF8F9FA"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF442F65"/>
-      </bottom>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -775,9 +899,6 @@
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="11" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
   </cellXfs>
@@ -838,7 +959,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="A1:O51" displayName="Form_Responses1" name="Form_Responses1" id="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="A1:O71" displayName="Form_Responses1" name="Form_Responses1" id="1">
   <tableColumns count="15">
     <tableColumn name="Column1" id="1"/>
     <tableColumn name="Column2" id="2"/>
@@ -2993,41 +3114,801 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="14">
+      <c r="A51" s="8">
         <v>45587.48281505787</v>
       </c>
-      <c r="B51" s="15" t="s">
+      <c r="B51" s="9" t="s">
         <v>169</v>
       </c>
-      <c r="C51" s="15" t="s">
+      <c r="C51" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="D51" s="15">
+      <c r="D51" s="9">
         <v>2.0243062E7</v>
       </c>
-      <c r="E51" s="15" t="s">
+      <c r="E51" s="9" t="s">
         <v>170</v>
       </c>
-      <c r="F51" s="15" t="s">
+      <c r="F51" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G51" s="15" t="s">
+      <c r="G51" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="H51" s="15" t="s">
+      <c r="H51" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="I51" s="15" t="s">
+      <c r="I51" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="M51" s="15" t="s">
+      <c r="M51" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="N51" s="15" t="s">
+      <c r="N51" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="O51" s="16" t="s">
+      <c r="O51" s="10" t="s">
         <v>57</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="11">
+        <v>45587.6303490162</v>
+      </c>
+      <c r="B52" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="C52" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="D52" s="12">
+        <v>2.0242551E7</v>
+      </c>
+      <c r="E52" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="F52" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="G52" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="H52" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="I52" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="J52" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="K52" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="L52" s="12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="8">
+        <v>45587.63382296296</v>
+      </c>
+      <c r="B53" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="C53" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="D53" s="9">
+        <v>2.0232417E7</v>
+      </c>
+      <c r="E53" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="F53" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G53" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="H53" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I53" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="J53" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="K53" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="L53" s="9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="11">
+        <v>45587.690287523146</v>
+      </c>
+      <c r="B54" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="C54" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="D54" s="12">
+        <v>2.019301E7</v>
+      </c>
+      <c r="E54" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="F54" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="G54" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="H54" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="I54" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="J54" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="K54" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="L54" s="12" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="8">
+        <v>45587.704430405094</v>
+      </c>
+      <c r="B55" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="C55" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="D55" s="9">
+        <v>2.0243257E7</v>
+      </c>
+      <c r="E55" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="F55" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="G55" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="H55" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I55" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="M55" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="N55" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="O55" s="10" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="11">
+        <v>45587.71286829861</v>
+      </c>
+      <c r="B56" s="12" t="s">
+        <v>179</v>
+      </c>
+      <c r="C56" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="D56" s="12">
+        <v>2.024642E7</v>
+      </c>
+      <c r="E56" s="12" t="s">
+        <v>181</v>
+      </c>
+      <c r="F56" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="G56" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="H56" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="I56" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="J56" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="K56" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="L56" s="12" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="8">
+        <v>45587.71681608797</v>
+      </c>
+      <c r="B57" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="C57" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="D57" s="9">
+        <v>2.0203251E7</v>
+      </c>
+      <c r="E57" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="F57" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G57" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="H57" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="I57" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="J57" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="K57" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="L57" s="9" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="11">
+        <v>45587.74327460648</v>
+      </c>
+      <c r="B58" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="C58" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D58" s="12">
+        <v>2.0203211E7</v>
+      </c>
+      <c r="E58" s="12" t="s">
+        <v>186</v>
+      </c>
+      <c r="F58" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="G58" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="H58" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="I58" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="J58" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="K58" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="L58" s="12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="8">
+        <v>45587.748761979165</v>
+      </c>
+      <c r="B59" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="C59" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="D59" s="9">
+        <v>2.0242122E7</v>
+      </c>
+      <c r="E59" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="F59" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G59" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="H59" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="I59" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="M59" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="N59" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="O59" s="10" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="11">
+        <v>45587.79070517361</v>
+      </c>
+      <c r="B60" s="12" t="s">
+        <v>189</v>
+      </c>
+      <c r="C60" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="D60" s="12">
+        <v>2.023306E7</v>
+      </c>
+      <c r="E60" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="F60" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="G60" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="H60" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="I60" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="M60" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="N60" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="O60" s="13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="8">
+        <v>45587.81073131945</v>
+      </c>
+      <c r="B61" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="C61" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="D61" s="9">
+        <v>2.0193003E7</v>
+      </c>
+      <c r="E61" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="F61" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G61" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="H61" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="I61" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="M61" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="N61" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="O61" s="10" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="11">
+        <v>45587.81187796296</v>
+      </c>
+      <c r="B62" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="C62" s="12" t="s">
+        <v>195</v>
+      </c>
+      <c r="D62" s="12">
+        <v>2.0245201E7</v>
+      </c>
+      <c r="E62" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="F62" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="G62" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="H62" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="I62" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="M62" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="N62" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="O62" s="13" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="8">
+        <v>45587.82065252315</v>
+      </c>
+      <c r="B63" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="C63" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="D63" s="9">
+        <v>2.0212418E7</v>
+      </c>
+      <c r="E63" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="F63" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G63" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="H63" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="I63" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="J63" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="K63" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="L63" s="9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="11">
+        <v>45587.82579295139</v>
+      </c>
+      <c r="B64" s="12" t="s">
+        <v>199</v>
+      </c>
+      <c r="C64" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="D64" s="12">
+        <v>2.0242503E7</v>
+      </c>
+      <c r="E64" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="F64" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="G64" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="H64" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="I64" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="J64" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="K64" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="L64" s="12" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="8">
+        <v>45587.8465322338</v>
+      </c>
+      <c r="B65" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="C65" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="D65" s="9">
+        <v>2.0202706E7</v>
+      </c>
+      <c r="E65" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="F65" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G65" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="H65" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="I65" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="J65" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="K65" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="L65" s="9" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="11">
+        <v>45587.908523252314</v>
+      </c>
+      <c r="B66" s="12" t="s">
+        <v>204</v>
+      </c>
+      <c r="C66" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="D66" s="12">
+        <v>2.0227157E7</v>
+      </c>
+      <c r="E66" s="12" t="s">
+        <v>205</v>
+      </c>
+      <c r="F66" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="G66" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="H66" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="I66" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="M66" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="N66" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="O66" s="13" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="8">
+        <v>45587.925471712966</v>
+      </c>
+      <c r="B67" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="C67" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="D67" s="9">
+        <v>2.0246294E7</v>
+      </c>
+      <c r="E67" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="F67" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G67" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="H67" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="I67" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="J67" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="K67" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="L67" s="9" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="11">
+        <v>45587.96434332176</v>
+      </c>
+      <c r="B68" s="12" t="s">
+        <v>208</v>
+      </c>
+      <c r="C68" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="D68" s="12">
+        <v>2.0213023E7</v>
+      </c>
+      <c r="E68" s="12" t="s">
+        <v>209</v>
+      </c>
+      <c r="F68" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="G68" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="H68" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="I68" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="M68" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="N68" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="O68" s="13" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="8">
+        <v>45587.972994270836</v>
+      </c>
+      <c r="B69" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="C69" s="9" t="s">
+        <v>211</v>
+      </c>
+      <c r="D69" s="9">
+        <v>2.0231602E7</v>
+      </c>
+      <c r="E69" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="F69" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G69" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="H69" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="I69" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="M69" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="N69" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="O69" s="10" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="11">
+        <v>45587.97391047454</v>
+      </c>
+      <c r="B70" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="C70" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="D70" s="12">
+        <v>2.0243712E7</v>
+      </c>
+      <c r="E70" s="12" t="s">
+        <v>214</v>
+      </c>
+      <c r="F70" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="G70" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="H70" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="I70" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="J70" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="K70" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="L70" s="12" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="14">
+        <v>45587.98383359954</v>
+      </c>
+      <c r="B71" s="15" t="s">
+        <v>215</v>
+      </c>
+      <c r="C71" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="D71" s="15">
+        <v>2.0193813E7</v>
+      </c>
+      <c r="E71" s="15" t="s">
+        <v>216</v>
+      </c>
+      <c r="F71" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="G71" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="H71" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="I71" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="J71" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="K71" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="L71" s="15" t="s">
+        <v>80</v>
       </c>
     </row>
   </sheetData>

--- a/R/data/quiz241021_tmp.xlsx
+++ b/R/data/quiz241021_tmp.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="715" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="795" uniqueCount="234">
   <si>
     <t>타임스탬프</t>
   </si>
@@ -662,6 +662,57 @@
   </si>
   <si>
     <t>박성빈</t>
+  </si>
+  <si>
+    <t>wonda322@gmail.com</t>
+  </si>
+  <si>
+    <t>원다연</t>
+  </si>
+  <si>
+    <t>rhkwp0323@gmail.com</t>
+  </si>
+  <si>
+    <t>유도영</t>
+  </si>
+  <si>
+    <t>gurybong@naver.com</t>
+  </si>
+  <si>
+    <t>최다원</t>
+  </si>
+  <si>
+    <t>simje9907@gmail.com</t>
+  </si>
+  <si>
+    <t>심재민</t>
+  </si>
+  <si>
+    <t>ertyhx3@gmail.com</t>
+  </si>
+  <si>
+    <t>광고홍보학과</t>
+  </si>
+  <si>
+    <t xml:space="preserve">김미소 </t>
+  </si>
+  <si>
+    <t>jaehun081805@gmail.com</t>
+  </si>
+  <si>
+    <t>이재훈</t>
+  </si>
+  <si>
+    <t>kokoung12@naver.com</t>
+  </si>
+  <si>
+    <t>권호영</t>
+  </si>
+  <si>
+    <t>hug60600@gmail.com</t>
+  </si>
+  <si>
+    <t>황의건</t>
   </si>
 </sst>
 </file>
@@ -692,7 +743,7 @@
       <patternFill patternType="lightGray"/>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="13">
     <border/>
     <border>
       <left style="thin">
@@ -848,11 +899,25 @@
         <color rgb="FF442F65"/>
       </bottom>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFF8F9FA"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF442F65"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFF8F9FA"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF442F65"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -899,6 +964,9 @@
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="11" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="12" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
   </cellXfs>
@@ -959,7 +1027,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="A1:O71" displayName="Form_Responses1" name="Form_Responses1" id="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="A1:O79" displayName="Form_Responses1" name="Form_Responses1" id="1">
   <tableColumns count="15">
     <tableColumn name="Column1" id="1"/>
     <tableColumn name="Column2" id="2"/>
@@ -3874,41 +3942,345 @@
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="14">
+      <c r="A71" s="8">
         <v>45587.98383359954</v>
       </c>
-      <c r="B71" s="15" t="s">
+      <c r="B71" s="9" t="s">
         <v>215</v>
       </c>
-      <c r="C71" s="15" t="s">
+      <c r="C71" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="D71" s="15">
+      <c r="D71" s="9">
         <v>2.0193813E7</v>
       </c>
-      <c r="E71" s="15" t="s">
+      <c r="E71" s="9" t="s">
         <v>216</v>
       </c>
-      <c r="F71" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="G71" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="H71" s="15" t="s">
+      <c r="F71" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G71" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="H71" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="I71" s="15" t="s">
+      <c r="I71" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="J71" s="15" t="s">
+      <c r="J71" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="K71" s="15" t="s">
+      <c r="K71" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="L71" s="15" t="s">
+      <c r="L71" s="9" t="s">
         <v>80</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="11">
+        <v>45588.40961173611</v>
+      </c>
+      <c r="B72" s="12" t="s">
+        <v>217</v>
+      </c>
+      <c r="C72" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="D72" s="12">
+        <v>2.0246414E7</v>
+      </c>
+      <c r="E72" s="12" t="s">
+        <v>218</v>
+      </c>
+      <c r="F72" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="G72" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="H72" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="I72" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="J72" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="K72" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="L72" s="12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="8">
+        <v>45588.41262670139</v>
+      </c>
+      <c r="B73" s="9" t="s">
+        <v>219</v>
+      </c>
+      <c r="C73" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="D73" s="9">
+        <v>2.023521E7</v>
+      </c>
+      <c r="E73" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="F73" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G73" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="H73" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I73" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="J73" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="K73" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="L73" s="9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="11">
+        <v>45588.424596944446</v>
+      </c>
+      <c r="B74" s="12" t="s">
+        <v>221</v>
+      </c>
+      <c r="C74" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="D74" s="12">
+        <v>2.0227136E7</v>
+      </c>
+      <c r="E74" s="12" t="s">
+        <v>222</v>
+      </c>
+      <c r="F74" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="G74" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="H74" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="I74" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="J74" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="K74" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="L74" s="12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="8">
+        <v>45588.52249791667</v>
+      </c>
+      <c r="B75" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="C75" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D75" s="9">
+        <v>2.0242724E7</v>
+      </c>
+      <c r="E75" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="F75" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G75" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="H75" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I75" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="J75" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="K75" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="L75" s="9" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="11">
+        <v>45588.56630711806</v>
+      </c>
+      <c r="B76" s="12" t="s">
+        <v>225</v>
+      </c>
+      <c r="C76" s="12" t="s">
+        <v>226</v>
+      </c>
+      <c r="D76" s="12">
+        <v>2.0242607E7</v>
+      </c>
+      <c r="E76" s="12" t="s">
+        <v>227</v>
+      </c>
+      <c r="F76" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="G76" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="H76" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="I76" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="M76" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="N76" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="O76" s="13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="8">
+        <v>45588.59742346065</v>
+      </c>
+      <c r="B77" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="C77" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D77" s="9">
+        <v>2.0242736E7</v>
+      </c>
+      <c r="E77" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="F77" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G77" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="H77" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="I77" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="M77" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="N77" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="O77" s="10" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="11">
+        <v>45588.62787328704</v>
+      </c>
+      <c r="B78" s="12" t="s">
+        <v>230</v>
+      </c>
+      <c r="C78" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D78" s="12">
+        <v>2.0202911E7</v>
+      </c>
+      <c r="E78" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="F78" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="G78" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="H78" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="I78" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="J78" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="K78" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="L78" s="12" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="14">
+        <v>45588.65401546296</v>
+      </c>
+      <c r="B79" s="15" t="s">
+        <v>232</v>
+      </c>
+      <c r="C79" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="D79" s="15">
+        <v>2.0243065E7</v>
+      </c>
+      <c r="E79" s="15" t="s">
+        <v>233</v>
+      </c>
+      <c r="F79" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="G79" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="H79" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="I79" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="M79" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="N79" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="O79" s="16" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/R/data/quiz241021_tmp.xlsx
+++ b/R/data/quiz241021_tmp.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1065" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1165" uniqueCount="322">
   <si>
     <t>타임스탬프</t>
   </si>
@@ -914,6 +914,69 @@
   </si>
   <si>
     <t>정민규</t>
+  </si>
+  <si>
+    <t>seok9431@gmail.com</t>
+  </si>
+  <si>
+    <t>김석주</t>
+  </si>
+  <si>
+    <t>whovian2@naver.com</t>
+  </si>
+  <si>
+    <t>이새한</t>
+  </si>
+  <si>
+    <t>woonsuck0916@naver.com</t>
+  </si>
+  <si>
+    <t>스마트IoT</t>
+  </si>
+  <si>
+    <t>운석현</t>
+  </si>
+  <si>
+    <t>jjy021026@gmail.com</t>
+  </si>
+  <si>
+    <t>전지환</t>
+  </si>
+  <si>
+    <t>h20241207@glab.hallym.ac.kr</t>
+  </si>
+  <si>
+    <t>문소정</t>
+  </si>
+  <si>
+    <t>mongsik5@naver.com</t>
+  </si>
+  <si>
+    <t>thdwlsrud0@naver.com</t>
+  </si>
+  <si>
+    <t>송진경</t>
+  </si>
+  <si>
+    <t>oepdwrtyy@gmail.com</t>
+  </si>
+  <si>
+    <t>강종현</t>
+  </si>
+  <si>
+    <t>ckswo00@gmail.com</t>
+  </si>
+  <si>
+    <t>빅데이터</t>
+  </si>
+  <si>
+    <t>이찬재</t>
+  </si>
+  <si>
+    <t>zzlsderela3355@gmail.com</t>
+  </si>
+  <si>
+    <t>신예진</t>
   </si>
 </sst>
 </file>
@@ -1214,7 +1277,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:O106" displayName="Form_Responses1" name="Form_Responses1" id="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:O116" displayName="Form_Responses1" name="Form_Responses1" id="1">
   <tableColumns count="15">
     <tableColumn name="타임스탬프" id="1"/>
     <tableColumn name="이메일 주소" id="2"/>
@@ -5454,40 +5517,420 @@
       </c>
     </row>
     <row r="106">
-      <c r="A106" s="15">
+      <c r="A106" s="12">
         <v>45589.65554421296</v>
       </c>
-      <c r="B106" s="16" t="s">
+      <c r="B106" s="13" t="s">
         <v>298</v>
       </c>
-      <c r="C106" s="16" t="s">
+      <c r="C106" s="13" t="s">
         <v>299</v>
       </c>
-      <c r="D106" s="16">
+      <c r="D106" s="13">
         <v>2.0202431E7</v>
       </c>
-      <c r="E106" s="16" t="s">
+      <c r="E106" s="13" t="s">
         <v>300</v>
       </c>
-      <c r="F106" s="16" t="s">
+      <c r="F106" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="G106" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="H106" s="16" t="s">
+      <c r="G106" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H106" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="I106" s="16" t="s">
+      <c r="I106" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="J106" s="16" t="s">
+      <c r="J106" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="K106" s="16" t="s">
+      <c r="K106" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="L106" s="16" t="s">
+      <c r="L106" s="13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="9">
+        <v>45589.67808690973</v>
+      </c>
+      <c r="B107" s="10" t="s">
+        <v>301</v>
+      </c>
+      <c r="C107" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="D107" s="10">
+        <v>2.0243907E7</v>
+      </c>
+      <c r="E107" s="10" t="s">
+        <v>302</v>
+      </c>
+      <c r="F107" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G107" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H107" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="I107" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="J107" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="K107" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="L107" s="10" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="12">
+        <v>45589.68541976852</v>
+      </c>
+      <c r="B108" s="13" t="s">
+        <v>303</v>
+      </c>
+      <c r="C108" s="13" t="s">
+        <v>260</v>
+      </c>
+      <c r="D108" s="13">
+        <v>2.0191226E7</v>
+      </c>
+      <c r="E108" s="13" t="s">
+        <v>304</v>
+      </c>
+      <c r="F108" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G108" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H108" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="I108" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="J108" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="K108" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="L108" s="13" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="9">
+        <v>45589.69730206019</v>
+      </c>
+      <c r="B109" s="10" t="s">
+        <v>305</v>
+      </c>
+      <c r="C109" s="10" t="s">
+        <v>306</v>
+      </c>
+      <c r="D109" s="10">
+        <v>2.0205206E7</v>
+      </c>
+      <c r="E109" s="10" t="s">
+        <v>307</v>
+      </c>
+      <c r="F109" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G109" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H109" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="I109" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="M109" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="N109" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="O109" s="11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="12">
+        <v>45589.7076155324</v>
+      </c>
+      <c r="B110" s="13" t="s">
+        <v>308</v>
+      </c>
+      <c r="C110" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="D110" s="13">
+        <v>2.0214143E7</v>
+      </c>
+      <c r="E110" s="13" t="s">
+        <v>309</v>
+      </c>
+      <c r="F110" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G110" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H110" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="I110" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="M110" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="N110" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="O110" s="14" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="9">
+        <v>45589.71399275463</v>
+      </c>
+      <c r="B111" s="10" t="s">
+        <v>310</v>
+      </c>
+      <c r="C111" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="D111" s="10">
+        <v>2.0241207E7</v>
+      </c>
+      <c r="E111" s="10" t="s">
+        <v>311</v>
+      </c>
+      <c r="F111" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G111" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="H111" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="I111" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="J111" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="K111" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="L111" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="12">
+        <v>45589.72265074074</v>
+      </c>
+      <c r="B112" s="13" t="s">
+        <v>312</v>
+      </c>
+      <c r="C112" s="13" t="s">
+        <v>195</v>
+      </c>
+      <c r="D112" s="13">
+        <v>2.0202809E7</v>
+      </c>
+      <c r="E112" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="F112" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G112" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H112" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="I112" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="M112" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="N112" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="O112" s="14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="9">
+        <v>45589.72509203704</v>
+      </c>
+      <c r="B113" s="10" t="s">
+        <v>313</v>
+      </c>
+      <c r="C113" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="D113" s="10">
+        <v>2.0182339E7</v>
+      </c>
+      <c r="E113" s="10" t="s">
+        <v>314</v>
+      </c>
+      <c r="F113" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G113" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H113" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="I113" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="M113" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="N113" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="O113" s="11" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="12">
+        <v>45589.73695222222</v>
+      </c>
+      <c r="B114" s="13" t="s">
+        <v>315</v>
+      </c>
+      <c r="C114" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="D114" s="13">
+        <v>2.0241003E7</v>
+      </c>
+      <c r="E114" s="13" t="s">
+        <v>316</v>
+      </c>
+      <c r="F114" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G114" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H114" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="I114" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="M114" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="N114" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="O114" s="14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="9">
+        <v>45589.76063109953</v>
+      </c>
+      <c r="B115" s="10" t="s">
+        <v>317</v>
+      </c>
+      <c r="C115" s="10" t="s">
+        <v>318</v>
+      </c>
+      <c r="D115" s="10">
+        <v>2.0217151E7</v>
+      </c>
+      <c r="E115" s="10" t="s">
+        <v>319</v>
+      </c>
+      <c r="F115" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G115" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H115" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="I115" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="J115" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="K115" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="L115" s="10" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="15">
+        <v>45589.77012197916</v>
+      </c>
+      <c r="B116" s="16" t="s">
+        <v>320</v>
+      </c>
+      <c r="C116" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="D116" s="16">
+        <v>2.0246252E7</v>
+      </c>
+      <c r="E116" s="16" t="s">
+        <v>321</v>
+      </c>
+      <c r="F116" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="G116" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="H116" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="I116" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="J116" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="K116" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="L116" s="16" t="s">
         <v>39</v>
       </c>
     </row>

--- a/R/data/quiz241021_tmp.xlsx
+++ b/R/data/quiz241021_tmp.xlsx
@@ -1,17 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kwlee/Documents/class202402/R/data/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EF747D5-BFA2-7C4C-AFEC-BE8770321E83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="500" windowWidth="44800" windowHeight="22940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="설문지 응답 시트1" sheetId="1" r:id="rId4"/>
+    <sheet name="설문지 응답 시트1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1165" uniqueCount="322">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1475" uniqueCount="388">
   <si>
     <t>타임스탬프</t>
   </si>
@@ -977,25 +986,232 @@
   </si>
   <si>
     <t>신예진</t>
+  </si>
+  <si>
+    <t>yssong1919@naver.com</t>
+  </si>
+  <si>
+    <t>송예상</t>
+  </si>
+  <si>
+    <t>znfh527gkfn@naver.com</t>
+  </si>
+  <si>
+    <t>조준연</t>
+  </si>
+  <si>
+    <t>915rlaalstjd@naver.com</t>
+  </si>
+  <si>
+    <t>스마트Iot</t>
+  </si>
+  <si>
+    <t>김민성</t>
+  </si>
+  <si>
+    <t>zmgofk1591@gmail.com</t>
+  </si>
+  <si>
+    <t>AI로봇융합</t>
+  </si>
+  <si>
+    <t>박하늘</t>
+  </si>
+  <si>
+    <t>kimseyoung0130@gmail.com</t>
+  </si>
+  <si>
+    <t>중국학과</t>
+  </si>
+  <si>
+    <t>김세영</t>
+  </si>
+  <si>
+    <t>leecm051202@gmail.com</t>
+  </si>
+  <si>
+    <t>이채민</t>
+  </si>
+  <si>
+    <t>ji040414@naver.com</t>
+  </si>
+  <si>
+    <t>최윤지</t>
+  </si>
+  <si>
+    <t>yujin31836@gmail.com</t>
+  </si>
+  <si>
+    <t>최유진</t>
+  </si>
+  <si>
+    <t>jw010705@naver.com</t>
+  </si>
+  <si>
+    <t>유정우</t>
+  </si>
+  <si>
+    <t>rivernine369@naver.com</t>
+  </si>
+  <si>
+    <t>강재구</t>
+  </si>
+  <si>
+    <t>doheehana@naver.com</t>
+  </si>
+  <si>
+    <t>김도희</t>
+  </si>
+  <si>
+    <t>yhh323@naver.com</t>
+  </si>
+  <si>
+    <t>유형호</t>
+  </si>
+  <si>
+    <t>donghyun6652@gmail.com</t>
+  </si>
+  <si>
+    <t>한동현</t>
+  </si>
+  <si>
+    <t>ming041230@gmail.com</t>
+  </si>
+  <si>
+    <t>서민지</t>
+  </si>
+  <si>
+    <t>sumine0601@naver.com</t>
+  </si>
+  <si>
+    <t>장수민</t>
+  </si>
+  <si>
+    <t>jmkkom@naver.com</t>
+  </si>
+  <si>
+    <t>화학과</t>
+  </si>
+  <si>
+    <t>전민균</t>
+  </si>
+  <si>
+    <t>03jungwoo@naver.com</t>
+  </si>
+  <si>
+    <t>김정우</t>
+  </si>
+  <si>
+    <t>junsa215909@naver.com</t>
+  </si>
+  <si>
+    <t>이승준</t>
+  </si>
+  <si>
+    <t>hje10314@naver.com</t>
+  </si>
+  <si>
+    <t>한지은</t>
+  </si>
+  <si>
+    <t>sally200408@gmail.com</t>
+  </si>
+  <si>
+    <t>박경화</t>
+  </si>
+  <si>
+    <t>bagj11532@gmail.com</t>
+  </si>
+  <si>
+    <t>박준형</t>
+  </si>
+  <si>
+    <t>rlarkfka2255@naver.com</t>
+  </si>
+  <si>
+    <t>김가람</t>
+  </si>
+  <si>
+    <t>1kdcf@naver.com</t>
+  </si>
+  <si>
+    <t>송준영</t>
+  </si>
+  <si>
+    <t>20242528@hallym.ac.kr</t>
+  </si>
+  <si>
+    <t>석진영</t>
+  </si>
+  <si>
+    <t>ms071207@naver.com</t>
+  </si>
+  <si>
+    <t>정민서</t>
+  </si>
+  <si>
+    <t>limjh3027@naver.com</t>
+  </si>
+  <si>
+    <t>임종현</t>
+  </si>
+  <si>
+    <t>uhan0802@gmail.com</t>
+  </si>
+  <si>
+    <t>이유한</t>
+  </si>
+  <si>
+    <t>bgm5082@gmail.com</t>
+  </si>
+  <si>
+    <t>배경민</t>
+  </si>
+  <si>
+    <t>ysh050116@naver.com</t>
+  </si>
+  <si>
+    <t>윤시한</t>
+  </si>
+  <si>
+    <t>4262cyj@naver.com</t>
+  </si>
+  <si>
+    <t>최윤진</t>
+  </si>
+  <si>
+    <t>nayeone0306@naver.com</t>
+  </si>
+  <si>
+    <t>김나연</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="m/d/yyyy h:mm:ss"/>
+    <numFmt numFmtId="176" formatCode="m/d/yyyy\ h:mm:ss"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="3"/>
+      <charset val="129"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1004,11 +1220,17 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="12">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FF442F65"/>
@@ -1022,6 +1244,7 @@
       <bottom style="thin">
         <color rgb="FF442F65"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -1036,6 +1259,7 @@
       <bottom style="thin">
         <color rgb="FF442F65"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -1050,6 +1274,7 @@
       <bottom style="thin">
         <color rgb="FF442F65"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -1064,6 +1289,7 @@
       <bottom style="thin">
         <color rgb="FFFFFFFF"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -1078,6 +1304,7 @@
       <bottom style="thin">
         <color rgb="FFFFFFFF"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -1092,6 +1319,7 @@
       <bottom style="thin">
         <color rgb="FFFFFFFF"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -1106,6 +1334,7 @@
       <bottom style="thin">
         <color rgb="FFF8F9FA"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -1120,6 +1349,7 @@
       <bottom style="thin">
         <color rgb="FFF8F9FA"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -1134,173 +1364,150 @@
       <bottom style="thin">
         <color rgb="FFF8F9FA"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF442F65"/>
       </left>
       <right style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </right>
       <top style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </top>
       <bottom style="thin">
         <color rgb="FF442F65"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </left>
       <right style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </right>
       <top style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </top>
       <bottom style="thin">
         <color rgb="FF442F65"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="12">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf borderId="7" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf borderId="8" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="9" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="5" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="6" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="11" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="3">
     <dxf>
-      <font/>
       <fill>
-        <patternFill patternType="none"/>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF8F9FA"/>
+          <bgColor rgb="FFF8F9FA"/>
+        </patternFill>
       </fill>
-      <border/>
     </dxf>
     <dxf>
-      <font/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFFFF"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FF5B3F86"/>
           <bgColor rgb="FF5B3F86"/>
         </patternFill>
       </fill>
-      <border/>
-    </dxf>
-    <dxf>
-      <font/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFFFF"/>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-      <border/>
-    </dxf>
-    <dxf>
-      <font/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFF8F9FA"/>
-          <bgColor rgb="FFF8F9FA"/>
-        </patternFill>
-      </fill>
-      <border/>
     </dxf>
   </dxfs>
   <tableStyles count="1">
-    <tableStyle count="3" pivot="0" name="설문지 응답 시트1-style">
-      <tableStyleElement dxfId="1" type="headerRow"/>
-      <tableStyleElement dxfId="2" type="firstRowStripe"/>
-      <tableStyleElement dxfId="3" type="secondRowStripe"/>
+    <tableStyle name="설문지 응답 시트1-style" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
+      <tableStyleElement type="headerRow" dxfId="2"/>
+      <tableStyleElement type="firstRowStripe" dxfId="1"/>
+      <tableStyleElement type="secondRowStripe" dxfId="0"/>
     </tableStyle>
   </tableStyles>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:O116" displayName="Form_Responses1" name="Form_Responses1" id="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Form_Responses1" displayName="Form_Responses1" ref="A1:O147">
   <tableColumns count="15">
-    <tableColumn name="타임스탬프" id="1"/>
-    <tableColumn name="이메일 주소" id="2"/>
-    <tableColumn name="학과" id="3"/>
-    <tableColumn name="학번(8숫자)" id="4"/>
-    <tableColumn name="이름" id="5"/>
-    <tableColumn name="1. Salk Vaccine Field Trial에서 Randomized Placebo Control Approach 의 특징 중 부모 동의 받은 어린이들을 치료군과 대조군으로 공평하게 나누기 위하여 도입된 방법은 무엇인가?" id="6"/>
-    <tableColumn name="2. Salk Vaccine Field Trail의 결과를 요약한 표로부터 어느 숫자들이 소아 마비 예방주사의 효과를 명확히 보여주고 있는가?" id="7"/>
-    <tableColumn name="3. 3학년의 전반적인 소아마비 발병율을 잘 나타내고 있는 집단은 다음 중 어느 것인가?" id="8"/>
-    <tableColumn name="Red 인가요, Black인가요?" id="9"/>
-    <tableColumn name="4_R. 야구 방망이와 공 세트가 1달러10센트다. 방망이는 공보다 1달러가 비싸다. 공은 얼마겠는가? (3초 이내 응답)" id="10"/>
-    <tableColumn name="5_R. 기계 다섯 대가 5분 동안 가발 다섯 개를 만든다면, 기계 100대로 가발 100개를 만들려면 몇 분이 걸리겠는가? (3초 이내 응답)" id="11"/>
-    <tableColumn name="6_R. 호수에 수련 잎이 한 무더기 떠 있다. 수련 잎이 차지하는 면적은 날마다 두 배로 늘어난다. 수련 잎이 호수 전체를 뒤덮는 데 48일이 걸린다면, 호수 절반을 뒤덮는 데는 며칠이 걸리겠는가? (3초 이내 응답)" id="12"/>
-    <tableColumn name="4_B. 야구 방망이와 공 세트가 1달러10센트다. 방망이는 공보다 1달러가 비싸다. 공은 얼마겠는가? (3초 이내 응답)" id="13"/>
-    <tableColumn name="5_B. 기계 다섯 대가 5분 동안 가발 다섯 개를 만든다면, 기계 100대로 가발 100개를 만들려면 몇 분이 걸리겠는가? (3초 이내 응답)" id="14"/>
-    <tableColumn name="6_B. 호수에 수련 잎이 한 무더기 떠 있다. 수련 잎이 차지하는 면적은 날마다 두 배로 늘어난다. 수련 잎이 호수 전체를 뒤덮는 데 48일이 걸린다면, 호수 절반을 뒤덮는 데는 며칠이 걸리겠는가? (3초 이내 응답)" id="15"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="타임스탬프"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="이메일 주소"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="학과"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="학번(8숫자)"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="이름"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="1. Salk Vaccine Field Trial에서 Randomized Placebo Control Approach 의 특징 중 부모 동의 받은 어린이들을 치료군과 대조군으로 공평하게 나누기 위하여 도입된 방법은 무엇인가?"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="2. Salk Vaccine Field Trail의 결과를 요약한 표로부터 어느 숫자들이 소아 마비 예방주사의 효과를 명확히 보여주고 있는가?"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="3. 3학년의 전반적인 소아마비 발병율을 잘 나타내고 있는 집단은 다음 중 어느 것인가?"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Red 인가요, Black인가요?"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="4_R. 야구 방망이와 공 세트가 1달러10센트다. 방망이는 공보다 1달러가 비싸다. 공은 얼마겠는가? (3초 이내 응답)"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="5_R. 기계 다섯 대가 5분 동안 가발 다섯 개를 만든다면, 기계 100대로 가발 100개를 만들려면 몇 분이 걸리겠는가? (3초 이내 응답)"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="6_R. 호수에 수련 잎이 한 무더기 떠 있다. 수련 잎이 차지하는 면적은 날마다 두 배로 늘어난다. 수련 잎이 호수 전체를 뒤덮는 데 48일이 걸린다면, 호수 절반을 뒤덮는 데는 며칠이 걸리겠는가? (3초 이내 응답)"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="4_B. 야구 방망이와 공 세트가 1달러10센트다. 방망이는 공보다 1달러가 비싸다. 공은 얼마겠는가? (3초 이내 응답)"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="5_B. 기계 다섯 대가 5분 동안 가발 다섯 개를 만든다면, 기계 100대로 가발 100개를 만들려면 몇 분이 걸리겠는가? (3초 이내 응답)"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="6_B. 호수에 수련 잎이 한 무더기 떠 있다. 수련 잎이 차지하는 면적은 날마다 두 배로 늘어난다. 수련 잎이 호수 전체를 뒤덮는 데 48일이 걸린다면, 호수 절반을 뒤덮는 데는 며칠이 걸리겠는가? (3초 이내 응답)"/>
   </tableColumns>
-  <tableStyleInfo name="설문지 응답 시트1-style" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
+  <tableStyleInfo name="설문지 응답 시트1-style" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -1490,31 +1697,34 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:O147"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A112" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K154" sqref="K154"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col customWidth="1" min="1" max="5" width="18.88"/>
-    <col customWidth="1" min="6" max="7" width="37.63"/>
-    <col customWidth="1" min="8" max="8" width="37.0"/>
-    <col customWidth="1" min="9" max="9" width="18.88"/>
-    <col customWidth="1" min="10" max="15" width="37.63"/>
-    <col customWidth="1" min="16" max="21" width="18.88"/>
+    <col min="1" max="5" width="18.83203125" customWidth="1"/>
+    <col min="6" max="7" width="37.6640625" customWidth="1"/>
+    <col min="8" max="8" width="37" customWidth="1"/>
+    <col min="9" max="9" width="18.83203125" customWidth="1"/>
+    <col min="10" max="15" width="37.6640625" customWidth="1"/>
+    <col min="16" max="21" width="18.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1542,4402 +1752,5581 @@
       <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="N1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="O1" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="5">
-        <v>45585.97669456019</v>
-      </c>
-      <c r="B2" s="6" t="s">
+    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="4">
+        <v>45585.976694560188</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="6">
-        <v>2.0243618E7</v>
-      </c>
-      <c r="E2" s="6" t="s">
+      <c r="D2" s="5">
+        <v>20243618</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="I2" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="6" t="s">
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="N2" s="6" t="s">
+      <c r="N2" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="O2" s="8" t="s">
+      <c r="O2" s="6" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="9">
+    <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="7">
         <v>45586.024457708336</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="10">
-        <v>2.019111E7</v>
-      </c>
-      <c r="E3" s="10" t="s">
+      <c r="D3" s="8">
+        <v>20191110</v>
+      </c>
+      <c r="E3" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="F3" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="H3" s="10" t="s">
+      <c r="G3" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H3" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="I3" s="10" t="s">
+      <c r="I3" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="M3" s="10" t="s">
+      <c r="M3" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="N3" s="10" t="s">
+      <c r="N3" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="O3" s="11" t="s">
+      <c r="O3" s="9" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="12">
-        <v>45586.03844924769</v>
-      </c>
-      <c r="B4" s="13" t="s">
+    <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="4">
+        <v>45586.038449247688</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="D4" s="13">
-        <v>2.0192721E7</v>
-      </c>
-      <c r="E4" s="13" t="s">
+      <c r="D4" s="5">
+        <v>20192721</v>
+      </c>
+      <c r="E4" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="F4" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="G4" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="H4" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="I4" s="13" t="s">
+      <c r="F4" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="I4" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="J4" s="13" t="s">
+      <c r="J4" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="K4" s="13" t="s">
+      <c r="K4" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="L4" s="13" t="s">
+      <c r="L4" s="5" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="9">
-        <v>45586.06759143519</v>
-      </c>
-      <c r="B5" s="10" t="s">
+    <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="7">
+        <v>45586.067591435189</v>
+      </c>
+      <c r="B5" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="D5" s="10">
-        <v>2.020322E7</v>
-      </c>
-      <c r="E5" s="10" t="s">
+      <c r="D5" s="8">
+        <v>20203220</v>
+      </c>
+      <c r="E5" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="F5" s="10" t="s">
+      <c r="F5" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="10" t="s">
+      <c r="G5" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="H5" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="I5" s="10" t="s">
+      <c r="H5" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="I5" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="J5" s="10" t="s">
+      <c r="J5" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="K5" s="10" t="s">
+      <c r="K5" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="L5" s="10" t="s">
+      <c r="L5" s="8" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="12">
+    <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="4">
         <v>45586.098517245366</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="D6" s="13">
-        <v>2.0181628E7</v>
-      </c>
-      <c r="E6" s="13" t="s">
+      <c r="D6" s="5">
+        <v>20181628</v>
+      </c>
+      <c r="E6" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="F6" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="G6" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="H6" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="I6" s="13" t="s">
+      <c r="F6" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="I6" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="M6" s="13" t="s">
+      <c r="M6" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="N6" s="13" t="s">
+      <c r="N6" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="O6" s="14" t="s">
+      <c r="O6" s="6" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="9">
-        <v>45586.1271147338</v>
-      </c>
-      <c r="B7" s="10" t="s">
+    <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="7">
+        <v>45586.127114733797</v>
+      </c>
+      <c r="B7" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="D7" s="10">
-        <v>2.0242518E7</v>
-      </c>
-      <c r="E7" s="10" t="s">
+      <c r="D7" s="8">
+        <v>20242518</v>
+      </c>
+      <c r="E7" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="F7" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="G7" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="H7" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="I7" s="10" t="s">
+      <c r="F7" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="I7" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="J7" s="10" t="s">
+      <c r="J7" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="K7" s="10" t="s">
+      <c r="K7" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="L7" s="10" t="s">
+      <c r="L7" s="8" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="12">
+    <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="4">
         <v>45586.127920486106</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="D8" s="13">
-        <v>2.0182951E7</v>
-      </c>
-      <c r="E8" s="13" t="s">
+      <c r="D8" s="5">
+        <v>20182951</v>
+      </c>
+      <c r="E8" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="F8" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="G8" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="H8" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="I8" s="13" t="s">
+      <c r="F8" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="I8" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="J8" s="13" t="s">
+      <c r="J8" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="K8" s="13" t="s">
+      <c r="K8" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="L8" s="13" t="s">
+      <c r="L8" s="5" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="9">
-        <v>45586.25845317129</v>
-      </c>
-      <c r="B9" s="10" t="s">
+    <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="7">
+        <v>45586.258453171293</v>
+      </c>
+      <c r="B9" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="D9" s="10">
-        <v>2.0202235E7</v>
-      </c>
-      <c r="E9" s="10" t="s">
+      <c r="D9" s="8">
+        <v>20202235</v>
+      </c>
+      <c r="E9" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="F9" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="G9" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="H9" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="I9" s="10" t="s">
+      <c r="F9" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="I9" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="J9" s="10" t="s">
+      <c r="J9" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="K9" s="10" t="s">
+      <c r="K9" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="L9" s="10" t="s">
+      <c r="L9" s="8" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="12">
+    <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="4">
         <v>45586.401208587966</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="C10" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="D10" s="13">
-        <v>2.022109E7</v>
-      </c>
-      <c r="E10" s="13" t="s">
+      <c r="D10" s="5">
+        <v>20221090</v>
+      </c>
+      <c r="E10" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="F10" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="G10" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="H10" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="I10" s="13" t="s">
+      <c r="F10" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="I10" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="M10" s="13" t="s">
+      <c r="M10" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="N10" s="13" t="s">
+      <c r="N10" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="O10" s="14" t="s">
+      <c r="O10" s="6" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="9">
-        <v>45586.42021487268</v>
-      </c>
-      <c r="B11" s="10" t="s">
+    <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="7">
+        <v>45586.420214872684</v>
+      </c>
+      <c r="B11" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="D11" s="10">
-        <v>2.0242339E7</v>
-      </c>
-      <c r="E11" s="10" t="s">
+      <c r="D11" s="8">
+        <v>20242339</v>
+      </c>
+      <c r="E11" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="F11" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="G11" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="H11" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="I11" s="10" t="s">
+      <c r="F11" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="I11" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="J11" s="10" t="s">
+      <c r="J11" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="K11" s="10" t="s">
+      <c r="K11" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="L11" s="10" t="s">
+      <c r="L11" s="8" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="12">
-        <v>45586.44773697917</v>
-      </c>
-      <c r="B12" s="13" t="s">
+    <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="4">
+        <v>45586.447736979171</v>
+      </c>
+      <c r="B12" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="C12" s="13" t="s">
+      <c r="C12" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="D12" s="13">
-        <v>2.0241051E7</v>
-      </c>
-      <c r="E12" s="13" t="s">
+      <c r="D12" s="5">
+        <v>20241051</v>
+      </c>
+      <c r="E12" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="F12" s="13" t="s">
+      <c r="F12" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="G12" s="13" t="s">
+      <c r="G12" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="H12" s="13" t="s">
+      <c r="H12" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="I12" s="13" t="s">
+      <c r="I12" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="J12" s="13" t="s">
+      <c r="J12" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="K12" s="13" t="s">
+      <c r="K12" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="L12" s="13" t="s">
+      <c r="L12" s="5" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="9">
+    <row r="13" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="7">
         <v>45586.453157615746</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="C13" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="D13" s="10">
-        <v>2.0243314E7</v>
-      </c>
-      <c r="E13" s="10" t="s">
+      <c r="D13" s="8">
+        <v>20243314</v>
+      </c>
+      <c r="E13" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="F13" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="G13" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="H13" s="10" t="s">
+      <c r="F13" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H13" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="I13" s="10" t="s">
+      <c r="I13" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="J13" s="10" t="s">
+      <c r="J13" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="K13" s="10" t="s">
+      <c r="K13" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="L13" s="10" t="s">
+      <c r="L13" s="8" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="12">
+    <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="4">
         <v>45586.467188379625</v>
       </c>
-      <c r="B14" s="13" t="s">
+      <c r="B14" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="C14" s="13" t="s">
+      <c r="C14" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="D14" s="13">
-        <v>2.0246405E7</v>
-      </c>
-      <c r="E14" s="13" t="s">
+      <c r="D14" s="5">
+        <v>20246405</v>
+      </c>
+      <c r="E14" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="F14" s="13" t="s">
+      <c r="F14" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="G14" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="H14" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="I14" s="13" t="s">
+      <c r="G14" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="I14" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="M14" s="13" t="s">
+      <c r="M14" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="N14" s="13" t="s">
+      <c r="N14" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="O14" s="14" t="s">
+      <c r="O14" s="6" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="9">
-        <v>45586.5239841088</v>
-      </c>
-      <c r="B15" s="10" t="s">
+    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="7">
+        <v>45586.523984108797</v>
+      </c>
+      <c r="B15" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="C15" s="10" t="s">
+      <c r="C15" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="D15" s="10">
-        <v>2.0246264E7</v>
-      </c>
-      <c r="E15" s="10" t="s">
+      <c r="D15" s="8">
+        <v>20246264</v>
+      </c>
+      <c r="E15" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="F15" s="10" t="s">
+      <c r="F15" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="G15" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="H15" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="I15" s="10" t="s">
+      <c r="G15" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H15" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="I15" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="J15" s="10" t="s">
+      <c r="J15" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="K15" s="10" t="s">
+      <c r="K15" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="L15" s="10" t="s">
+      <c r="L15" s="8" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="12">
-        <v>45586.54784974537</v>
-      </c>
-      <c r="B16" s="13" t="s">
+    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="4">
+        <v>45586.547849745373</v>
+      </c>
+      <c r="B16" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="C16" s="13" t="s">
+      <c r="C16" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="D16" s="13">
-        <v>2.0242981E7</v>
-      </c>
-      <c r="E16" s="13" t="s">
+      <c r="D16" s="5">
+        <v>20242981</v>
+      </c>
+      <c r="E16" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="F16" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="G16" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="H16" s="13" t="s">
+      <c r="F16" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H16" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="I16" s="13" t="s">
+      <c r="I16" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="J16" s="13" t="s">
+      <c r="J16" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="K16" s="13" t="s">
+      <c r="K16" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="L16" s="13" t="s">
+      <c r="L16" s="5" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="9">
-        <v>45586.55201840278</v>
-      </c>
-      <c r="B17" s="10" t="s">
+    <row r="17" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="7">
+        <v>45586.552018402777</v>
+      </c>
+      <c r="B17" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="C17" s="10" t="s">
+      <c r="C17" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="D17" s="10">
-        <v>2.0207089E7</v>
-      </c>
-      <c r="E17" s="10" t="s">
+      <c r="D17" s="8">
+        <v>20207089</v>
+      </c>
+      <c r="E17" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="F17" s="10" t="s">
+      <c r="F17" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="G17" s="10" t="s">
+      <c r="G17" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="H17" s="10" t="s">
+      <c r="H17" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="I17" s="10" t="s">
+      <c r="I17" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="J17" s="10" t="s">
+      <c r="J17" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="K17" s="10" t="s">
+      <c r="K17" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="L17" s="10" t="s">
+      <c r="L17" s="8" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="12">
+    <row r="18" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="4">
         <v>45586.554234317126</v>
       </c>
-      <c r="B18" s="13" t="s">
+      <c r="B18" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="C18" s="13" t="s">
+      <c r="C18" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="D18" s="13">
-        <v>2.0243051E7</v>
-      </c>
-      <c r="E18" s="13" t="s">
+      <c r="D18" s="5">
+        <v>20243051</v>
+      </c>
+      <c r="E18" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="F18" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="G18" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="H18" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="I18" s="13" t="s">
+      <c r="F18" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="I18" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="M18" s="13" t="s">
+      <c r="M18" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="N18" s="13" t="s">
+      <c r="N18" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="O18" s="14" t="s">
+      <c r="O18" s="6" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="9">
+    <row r="19" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="7">
         <v>45586.560146284726</v>
       </c>
-      <c r="B19" s="10" t="s">
+      <c r="B19" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="C19" s="10" t="s">
+      <c r="C19" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="D19" s="10">
-        <v>2.0202415E7</v>
-      </c>
-      <c r="E19" s="10" t="s">
+      <c r="D19" s="8">
+        <v>20202415</v>
+      </c>
+      <c r="E19" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="F19" s="10" t="s">
+      <c r="F19" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="G19" s="10" t="s">
+      <c r="G19" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="H19" s="10" t="s">
+      <c r="H19" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="I19" s="10" t="s">
+      <c r="I19" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="M19" s="10" t="s">
+      <c r="M19" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="N19" s="10" t="s">
+      <c r="N19" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="O19" s="11" t="s">
+      <c r="O19" s="9" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" s="12">
+    <row r="20" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="4">
         <v>45586.560380104165</v>
       </c>
-      <c r="B20" s="13" t="s">
+      <c r="B20" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="C20" s="13" t="s">
+      <c r="C20" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="D20" s="13">
-        <v>2.0246601E7</v>
-      </c>
-      <c r="E20" s="13" t="s">
+      <c r="D20" s="5">
+        <v>20246601</v>
+      </c>
+      <c r="E20" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="F20" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="G20" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="H20" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="I20" s="13" t="s">
+      <c r="F20" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="I20" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="M20" s="13" t="s">
+      <c r="M20" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="N20" s="13" t="s">
+      <c r="N20" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="O20" s="14" t="s">
+      <c r="O20" s="6" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" s="9">
-        <v>45586.61531130787</v>
-      </c>
-      <c r="B21" s="10" t="s">
+    <row r="21" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="7">
+        <v>45586.615311307869</v>
+      </c>
+      <c r="B21" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="C21" s="10" t="s">
+      <c r="C21" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="D21" s="10">
-        <v>2.019381E7</v>
-      </c>
-      <c r="E21" s="10" t="s">
+      <c r="D21" s="8">
+        <v>20193810</v>
+      </c>
+      <c r="E21" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="F21" s="10" t="s">
+      <c r="F21" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="G21" s="10" t="s">
+      <c r="G21" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="H21" s="10" t="s">
+      <c r="H21" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="I21" s="10" t="s">
+      <c r="I21" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="M21" s="10" t="s">
+      <c r="M21" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="N21" s="10" t="s">
+      <c r="N21" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="O21" s="11" t="s">
+      <c r="O21" s="9" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" s="12">
-        <v>45586.64847472223</v>
-      </c>
-      <c r="B22" s="13" t="s">
+    <row r="22" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="4">
+        <v>45586.648474722228</v>
+      </c>
+      <c r="B22" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="C22" s="13" t="s">
+      <c r="C22" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="D22" s="13">
-        <v>2.0243704E7</v>
-      </c>
-      <c r="E22" s="13" t="s">
+      <c r="D22" s="5">
+        <v>20243704</v>
+      </c>
+      <c r="E22" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="F22" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="G22" s="13" t="s">
+      <c r="F22" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G22" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="H22" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="I22" s="13" t="s">
+      <c r="H22" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="I22" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="M22" s="13" t="s">
+      <c r="M22" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="N22" s="13" t="s">
+      <c r="N22" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="O22" s="14" t="s">
+      <c r="O22" s="6" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" s="9">
+    <row r="23" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="7">
         <v>45586.650396122684</v>
       </c>
-      <c r="B23" s="10" t="s">
+      <c r="B23" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="C23" s="10" t="s">
+      <c r="C23" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D23" s="10">
-        <v>2.0213644E7</v>
-      </c>
-      <c r="E23" s="10" t="s">
+      <c r="D23" s="8">
+        <v>20213644</v>
+      </c>
+      <c r="E23" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="F23" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="G23" s="10" t="s">
+      <c r="F23" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="G23" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="H23" s="10" t="s">
+      <c r="H23" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="I23" s="10" t="s">
+      <c r="I23" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="M23" s="10" t="s">
+      <c r="M23" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="N23" s="10" t="s">
+      <c r="N23" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="O23" s="11" t="s">
+      <c r="O23" s="9" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" s="12">
-        <v>45586.67389318287</v>
-      </c>
-      <c r="B24" s="13" t="s">
+    <row r="24" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="4">
+        <v>45586.673893182873</v>
+      </c>
+      <c r="B24" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="C24" s="13" t="s">
+      <c r="C24" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="D24" s="13">
-        <v>2.019517E7</v>
-      </c>
-      <c r="E24" s="13" t="s">
+      <c r="D24" s="5">
+        <v>20195170</v>
+      </c>
+      <c r="E24" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="F24" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="G24" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="H24" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="I24" s="13" t="s">
+      <c r="F24" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H24" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="I24" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="M24" s="13" t="s">
+      <c r="M24" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="N24" s="13" t="s">
+      <c r="N24" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="O24" s="14" t="s">
+      <c r="O24" s="6" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" s="9">
-        <v>45586.67815108797</v>
-      </c>
-      <c r="B25" s="10" t="s">
+    <row r="25" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="7">
+        <v>45586.678151087966</v>
+      </c>
+      <c r="B25" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="C25" s="10" t="s">
+      <c r="C25" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="D25" s="10">
-        <v>2.0182118E7</v>
-      </c>
-      <c r="E25" s="10" t="s">
+      <c r="D25" s="8">
+        <v>20182118</v>
+      </c>
+      <c r="E25" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="F25" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="G25" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="H25" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="I25" s="10" t="s">
+      <c r="F25" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="G25" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H25" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="I25" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="J25" s="10" t="s">
+      <c r="J25" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="K25" s="10" t="s">
+      <c r="K25" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="L25" s="10" t="s">
+      <c r="L25" s="8" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" s="12">
-        <v>45586.68872119213</v>
-      </c>
-      <c r="B26" s="13" t="s">
+    <row r="26" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="4">
+        <v>45586.688721192128</v>
+      </c>
+      <c r="B26" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="C26" s="13" t="s">
+      <c r="C26" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="D26" s="13">
-        <v>2.0202335E7</v>
-      </c>
-      <c r="E26" s="13" t="s">
+      <c r="D26" s="5">
+        <v>20202335</v>
+      </c>
+      <c r="E26" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="F26" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="G26" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="H26" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="I26" s="13" t="s">
+      <c r="F26" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G26" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H26" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="I26" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="J26" s="13" t="s">
+      <c r="J26" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="K26" s="13" t="s">
+      <c r="K26" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="L26" s="13" t="s">
+      <c r="L26" s="5" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" s="9">
-        <v>45586.69750689815</v>
-      </c>
-      <c r="B27" s="10" t="s">
+    <row r="27" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="7">
+        <v>45586.697506898148</v>
+      </c>
+      <c r="B27" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="C27" s="10" t="s">
+      <c r="C27" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="D27" s="10">
-        <v>2.0243821E7</v>
-      </c>
-      <c r="E27" s="10" t="s">
+      <c r="D27" s="8">
+        <v>20243821</v>
+      </c>
+      <c r="E27" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="F27" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="G27" s="10" t="s">
+      <c r="F27" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="G27" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="H27" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="I27" s="10" t="s">
+      <c r="H27" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="I27" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="J27" s="10" t="s">
+      <c r="J27" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="K27" s="10" t="s">
+      <c r="K27" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="L27" s="10" t="s">
+      <c r="L27" s="8" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" s="12">
+    <row r="28" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="4">
         <v>45586.709084166665</v>
       </c>
-      <c r="B28" s="13" t="s">
+      <c r="B28" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="C28" s="13" t="s">
+      <c r="C28" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="D28" s="13">
-        <v>2.0201004E7</v>
-      </c>
-      <c r="E28" s="13" t="s">
+      <c r="D28" s="5">
+        <v>20201004</v>
+      </c>
+      <c r="E28" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="F28" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="G28" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="H28" s="13" t="s">
+      <c r="F28" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G28" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H28" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="I28" s="13" t="s">
+      <c r="I28" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="M28" s="13" t="s">
+      <c r="M28" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="N28" s="13" t="s">
+      <c r="N28" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="O28" s="14" t="s">
+      <c r="O28" s="6" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" s="9">
-        <v>45586.73172671296</v>
-      </c>
-      <c r="B29" s="10" t="s">
+    <row r="29" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="7">
+        <v>45586.731726712962</v>
+      </c>
+      <c r="B29" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="C29" s="10" t="s">
+      <c r="C29" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="D29" s="10">
-        <v>2.024304E7</v>
-      </c>
-      <c r="E29" s="10" t="s">
+      <c r="D29" s="8">
+        <v>20243040</v>
+      </c>
+      <c r="E29" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="F29" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="G29" s="10" t="s">
+      <c r="F29" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="G29" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="H29" s="10" t="s">
+      <c r="H29" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="I29" s="10" t="s">
+      <c r="I29" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="M29" s="10" t="s">
+      <c r="M29" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="N29" s="10" t="s">
+      <c r="N29" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="O29" s="11" t="s">
+      <c r="O29" s="9" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" s="12">
-        <v>45586.73393099537</v>
-      </c>
-      <c r="B30" s="13" t="s">
+    <row r="30" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="4">
+        <v>45586.733930995368</v>
+      </c>
+      <c r="B30" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="C30" s="13" t="s">
+      <c r="C30" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="D30" s="13">
-        <v>2.0242982E7</v>
-      </c>
-      <c r="E30" s="13" t="s">
+      <c r="D30" s="5">
+        <v>20242982</v>
+      </c>
+      <c r="E30" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="F30" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="G30" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="H30" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="I30" s="13" t="s">
+      <c r="F30" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G30" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H30" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="I30" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="M30" s="13" t="s">
+      <c r="M30" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="N30" s="13" t="s">
+      <c r="N30" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="O30" s="14" t="s">
+      <c r="O30" s="6" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" s="9">
-        <v>45586.74157853009</v>
-      </c>
-      <c r="B31" s="10" t="s">
+    <row r="31" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="7">
+        <v>45586.741578530091</v>
+      </c>
+      <c r="B31" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="C31" s="10" t="s">
+      <c r="C31" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="D31" s="10">
-        <v>2.0246783E7</v>
-      </c>
-      <c r="E31" s="10" t="s">
+      <c r="D31" s="8">
+        <v>20246783</v>
+      </c>
+      <c r="E31" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="F31" s="10" t="s">
+      <c r="F31" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="G31" s="10" t="s">
+      <c r="G31" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="H31" s="10" t="s">
+      <c r="H31" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="I31" s="10" t="s">
+      <c r="I31" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="J31" s="10" t="s">
+      <c r="J31" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="K31" s="10" t="s">
+      <c r="K31" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="L31" s="10" t="s">
+      <c r="L31" s="8" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" s="12">
-        <v>45586.74665215278</v>
-      </c>
-      <c r="B32" s="13" t="s">
+    <row r="32" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="4">
+        <v>45586.746652152782</v>
+      </c>
+      <c r="B32" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="C32" s="13" t="s">
+      <c r="C32" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="D32" s="13">
-        <v>2.0212754E7</v>
-      </c>
-      <c r="E32" s="13" t="s">
+      <c r="D32" s="5">
+        <v>20212754</v>
+      </c>
+      <c r="E32" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="F32" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="G32" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="H32" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="I32" s="13" t="s">
+      <c r="F32" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G32" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H32" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="I32" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="J32" s="13" t="s">
+      <c r="J32" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="K32" s="13" t="s">
+      <c r="K32" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="L32" s="13" t="s">
+      <c r="L32" s="5" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" s="9">
-        <v>45586.75963503472</v>
-      </c>
-      <c r="B33" s="10" t="s">
+    <row r="33" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="7">
+        <v>45586.759635034723</v>
+      </c>
+      <c r="B33" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="C33" s="10" t="s">
+      <c r="C33" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="D33" s="10">
-        <v>2.0202915E7</v>
-      </c>
-      <c r="E33" s="10" t="s">
+      <c r="D33" s="8">
+        <v>20202915</v>
+      </c>
+      <c r="E33" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="F33" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="G33" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="H33" s="10" t="s">
+      <c r="F33" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="G33" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H33" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="I33" s="10" t="s">
+      <c r="I33" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="M33" s="10" t="s">
+      <c r="M33" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="N33" s="10" t="s">
+      <c r="N33" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="O33" s="11" t="s">
+      <c r="O33" s="9" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" s="12">
-        <v>45586.76760119213</v>
-      </c>
-      <c r="B34" s="13" t="s">
+    <row r="34" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="4">
+        <v>45586.767601192128</v>
+      </c>
+      <c r="B34" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="C34" s="13" t="s">
+      <c r="C34" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="D34" s="13">
-        <v>2.0243236E7</v>
-      </c>
-      <c r="E34" s="13" t="s">
+      <c r="D34" s="5">
+        <v>20243236</v>
+      </c>
+      <c r="E34" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="F34" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="G34" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="H34" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="I34" s="13" t="s">
+      <c r="F34" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G34" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H34" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="I34" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="M34" s="13" t="s">
+      <c r="M34" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="N34" s="13" t="s">
+      <c r="N34" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="O34" s="14" t="s">
+      <c r="O34" s="6" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" s="9">
-        <v>45586.77277240741</v>
-      </c>
-      <c r="B35" s="10" t="s">
+    <row r="35" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="7">
+        <v>45586.772772407407</v>
+      </c>
+      <c r="B35" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="C35" s="10" t="s">
+      <c r="C35" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="D35" s="10">
-        <v>2.0241077E7</v>
-      </c>
-      <c r="E35" s="10" t="s">
+      <c r="D35" s="8">
+        <v>20241077</v>
+      </c>
+      <c r="E35" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="F35" s="10" t="s">
+      <c r="F35" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="G35" s="10" t="s">
+      <c r="G35" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="H35" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="I35" s="10" t="s">
+      <c r="H35" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="I35" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="J35" s="10" t="s">
+      <c r="J35" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="K35" s="10" t="s">
+      <c r="K35" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="L35" s="10" t="s">
+      <c r="L35" s="8" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" s="12">
+    <row r="36" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="4">
         <v>45586.806140879635</v>
       </c>
-      <c r="B36" s="13" t="s">
+      <c r="B36" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="C36" s="13" t="s">
+      <c r="C36" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D36" s="13">
-        <v>2.0193633E7</v>
-      </c>
-      <c r="E36" s="13" t="s">
+      <c r="D36" s="5">
+        <v>20193633</v>
+      </c>
+      <c r="E36" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="F36" s="13" t="s">
+      <c r="F36" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="G36" s="13" t="s">
+      <c r="G36" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="H36" s="13" t="s">
+      <c r="H36" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="I36" s="13" t="s">
+      <c r="I36" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="M36" s="13" t="s">
+      <c r="M36" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="N36" s="13" t="s">
+      <c r="N36" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="O36" s="14" t="s">
+      <c r="O36" s="6" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" s="9">
-        <v>45586.84475548611</v>
-      </c>
-      <c r="B37" s="10" t="s">
+    <row r="37" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="7">
+        <v>45586.844755486112</v>
+      </c>
+      <c r="B37" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="C37" s="10" t="s">
+      <c r="C37" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="D37" s="10">
-        <v>2.0241204E7</v>
-      </c>
-      <c r="E37" s="10" t="s">
+      <c r="D37" s="8">
+        <v>20241204</v>
+      </c>
+      <c r="E37" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="F37" s="10" t="s">
+      <c r="F37" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="G37" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="H37" s="10" t="s">
+      <c r="G37" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H37" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="I37" s="10" t="s">
+      <c r="I37" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="M37" s="10" t="s">
+      <c r="M37" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="N37" s="10" t="s">
+      <c r="N37" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="O37" s="11" t="s">
+      <c r="O37" s="9" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" s="12">
-        <v>45586.84784510417</v>
-      </c>
-      <c r="B38" s="13" t="s">
+    <row r="38" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="4">
+        <v>45586.847845104166</v>
+      </c>
+      <c r="B38" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="C38" s="13" t="s">
+      <c r="C38" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="D38" s="13">
-        <v>2.0243941E7</v>
-      </c>
-      <c r="E38" s="13" t="s">
+      <c r="D38" s="5">
+        <v>20243941</v>
+      </c>
+      <c r="E38" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="F38" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="G38" s="13" t="s">
+      <c r="F38" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G38" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="H38" s="13" t="s">
+      <c r="H38" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="I38" s="13" t="s">
+      <c r="I38" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="M38" s="13" t="s">
+      <c r="M38" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="N38" s="13" t="s">
+      <c r="N38" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="O38" s="14" t="s">
+      <c r="O38" s="6" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" s="9">
-        <v>45586.84800469907</v>
-      </c>
-      <c r="B39" s="10" t="s">
+    <row r="39" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="7">
+        <v>45586.848004699073</v>
+      </c>
+      <c r="B39" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="C39" s="10" t="s">
+      <c r="C39" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="D39" s="10">
-        <v>2.0246232E7</v>
-      </c>
-      <c r="E39" s="10" t="s">
+      <c r="D39" s="8">
+        <v>20246232</v>
+      </c>
+      <c r="E39" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="F39" s="10" t="s">
+      <c r="F39" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="G39" s="10" t="s">
+      <c r="G39" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="H39" s="10" t="s">
+      <c r="H39" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="I39" s="10" t="s">
+      <c r="I39" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="M39" s="10" t="s">
+      <c r="M39" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="N39" s="10" t="s">
+      <c r="N39" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="O39" s="11" t="s">
+      <c r="O39" s="9" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" s="12">
-        <v>45586.8665650926</v>
-      </c>
-      <c r="B40" s="13" t="s">
+    <row r="40" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A40" s="4">
+        <v>45586.866565092598</v>
+      </c>
+      <c r="B40" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="C40" s="13" t="s">
+      <c r="C40" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="D40" s="13">
-        <v>2.0235248E7</v>
-      </c>
-      <c r="E40" s="13" t="s">
+      <c r="D40" s="5">
+        <v>20235248</v>
+      </c>
+      <c r="E40" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="F40" s="13" t="s">
+      <c r="F40" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="G40" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="H40" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="I40" s="13" t="s">
+      <c r="G40" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H40" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="I40" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="J40" s="13" t="s">
+      <c r="J40" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="K40" s="13" t="s">
+      <c r="K40" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="L40" s="13" t="s">
+      <c r="L40" s="5" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" s="9">
-        <v>45586.88126954861</v>
-      </c>
-      <c r="B41" s="10" t="s">
+    <row r="41" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="7">
+        <v>45586.881269548612</v>
+      </c>
+      <c r="B41" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="C41" s="10" t="s">
+      <c r="C41" s="8" t="s">
         <v>148</v>
       </c>
-      <c r="D41" s="10">
-        <v>2.0213609E7</v>
-      </c>
-      <c r="E41" s="10" t="s">
+      <c r="D41" s="8">
+        <v>20213609</v>
+      </c>
+      <c r="E41" s="8" t="s">
         <v>149</v>
       </c>
-      <c r="F41" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="G41" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="H41" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="I41" s="10" t="s">
+      <c r="F41" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="G41" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H41" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="I41" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="M41" s="10" t="s">
+      <c r="M41" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="N41" s="10" t="s">
+      <c r="N41" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="O41" s="11" t="s">
+      <c r="O41" s="9" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" s="12">
-        <v>45586.97482854167</v>
-      </c>
-      <c r="B42" s="13" t="s">
+    <row r="42" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A42" s="4">
+        <v>45586.974828541672</v>
+      </c>
+      <c r="B42" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="C42" s="13" t="s">
+      <c r="C42" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="D42" s="13">
-        <v>2.0227106E7</v>
-      </c>
-      <c r="E42" s="13" t="s">
+      <c r="D42" s="5">
+        <v>20227106</v>
+      </c>
+      <c r="E42" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="F42" s="13" t="s">
+      <c r="F42" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="G42" s="13" t="s">
+      <c r="G42" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="H42" s="13" t="s">
+      <c r="H42" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="I42" s="13" t="s">
+      <c r="I42" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="M42" s="13" t="s">
+      <c r="M42" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="N42" s="13" t="s">
+      <c r="N42" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="O42" s="14" t="s">
+      <c r="O42" s="6" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" s="9">
-        <v>45586.98342820602</v>
-      </c>
-      <c r="B43" s="10" t="s">
+    <row r="43" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A43" s="7">
+        <v>45586.983428206018</v>
+      </c>
+      <c r="B43" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="C43" s="10" t="s">
+      <c r="C43" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="D43" s="10">
-        <v>2.0243206E7</v>
-      </c>
-      <c r="E43" s="10" t="s">
+      <c r="D43" s="8">
+        <v>20243206</v>
+      </c>
+      <c r="E43" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="F43" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="G43" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="H43" s="10" t="s">
+      <c r="F43" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="G43" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H43" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="I43" s="10" t="s">
+      <c r="I43" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="J43" s="10" t="s">
+      <c r="J43" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="K43" s="10" t="s">
+      <c r="K43" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="L43" s="10" t="s">
+      <c r="L43" s="8" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" s="12">
+    <row r="44" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A44" s="4">
         <v>45587.003998263885</v>
       </c>
-      <c r="B44" s="13" t="s">
+      <c r="B44" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="C44" s="13" t="s">
+      <c r="C44" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="D44" s="13">
-        <v>2.0196523E7</v>
-      </c>
-      <c r="E44" s="13" t="s">
+      <c r="D44" s="5">
+        <v>20196523</v>
+      </c>
+      <c r="E44" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="F44" s="13" t="s">
+      <c r="F44" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="G44" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="H44" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="I44" s="13" t="s">
+      <c r="G44" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H44" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="I44" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="M44" s="13" t="s">
+      <c r="M44" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="N44" s="13" t="s">
+      <c r="N44" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="O44" s="14" t="s">
+      <c r="O44" s="6" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" s="9">
-        <v>45587.04906755787</v>
-      </c>
-      <c r="B45" s="10" t="s">
+    <row r="45" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A45" s="7">
+        <v>45587.049067557869</v>
+      </c>
+      <c r="B45" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="C45" s="10" t="s">
+      <c r="C45" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="D45" s="10">
-        <v>2.0246292E7</v>
-      </c>
-      <c r="E45" s="10" t="s">
+      <c r="D45" s="8">
+        <v>20246292</v>
+      </c>
+      <c r="E45" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="F45" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="G45" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="H45" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="I45" s="10" t="s">
+      <c r="F45" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="G45" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H45" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="I45" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="J45" s="10" t="s">
+      <c r="J45" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="K45" s="10" t="s">
+      <c r="K45" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="L45" s="10" t="s">
+      <c r="L45" s="8" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" s="12">
-        <v>45587.1198365625</v>
-      </c>
-      <c r="B46" s="13" t="s">
+    <row r="46" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A46" s="4">
+        <v>45587.119836562502</v>
+      </c>
+      <c r="B46" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="C46" s="13" t="s">
+      <c r="C46" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="D46" s="13">
-        <v>2.0221059E7</v>
-      </c>
-      <c r="E46" s="13" t="s">
+      <c r="D46" s="5">
+        <v>20221059</v>
+      </c>
+      <c r="E46" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="F46" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="G46" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="H46" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="I46" s="13" t="s">
+      <c r="F46" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G46" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H46" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="I46" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="M46" s="13" t="s">
+      <c r="M46" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="N46" s="13" t="s">
+      <c r="N46" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="O46" s="14" t="s">
+      <c r="O46" s="6" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" s="9">
+    <row r="47" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A47" s="7">
         <v>45587.16884972222</v>
       </c>
-      <c r="B47" s="10" t="s">
+      <c r="B47" s="8" t="s">
         <v>162</v>
       </c>
-      <c r="C47" s="10" t="s">
+      <c r="C47" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="D47" s="10">
-        <v>2.0211097E7</v>
-      </c>
-      <c r="E47" s="10" t="s">
+      <c r="D47" s="8">
+        <v>20211097</v>
+      </c>
+      <c r="E47" s="8" t="s">
         <v>164</v>
       </c>
-      <c r="F47" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="G47" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="H47" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="I47" s="10" t="s">
+      <c r="F47" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="G47" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H47" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="I47" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="J47" s="10" t="s">
+      <c r="J47" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="K47" s="10" t="s">
+      <c r="K47" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="L47" s="10" t="s">
+      <c r="L47" s="8" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="48">
-      <c r="A48" s="12">
-        <v>45587.39551835648</v>
-      </c>
-      <c r="B48" s="13" t="s">
+    <row r="48" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A48" s="4">
+        <v>45587.395518356483</v>
+      </c>
+      <c r="B48" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="C48" s="13" t="s">
+      <c r="C48" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="D48" s="13">
-        <v>2.0246302E7</v>
-      </c>
-      <c r="E48" s="13" t="s">
+      <c r="D48" s="5">
+        <v>20246302</v>
+      </c>
+      <c r="E48" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="F48" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="G48" s="13" t="s">
+      <c r="F48" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G48" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="H48" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="I48" s="13" t="s">
+      <c r="H48" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="I48" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="M48" s="13" t="s">
+      <c r="M48" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="N48" s="13" t="s">
+      <c r="N48" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="O48" s="14" t="s">
+      <c r="O48" s="6" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="49">
-      <c r="A49" s="9">
-        <v>45587.41754675926</v>
-      </c>
-      <c r="B49" s="10" t="s">
+    <row r="49" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A49" s="7">
+        <v>45587.417546759258</v>
+      </c>
+      <c r="B49" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="C49" s="10" t="s">
+      <c r="C49" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="D49" s="10">
-        <v>2.0203019E7</v>
-      </c>
-      <c r="E49" s="10" t="s">
+      <c r="D49" s="8">
+        <v>20203019</v>
+      </c>
+      <c r="E49" s="8" t="s">
         <v>168</v>
       </c>
-      <c r="F49" s="10" t="s">
+      <c r="F49" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="G49" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="H49" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="I49" s="10" t="s">
+      <c r="G49" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H49" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="I49" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="M49" s="10" t="s">
+      <c r="M49" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="N49" s="10" t="s">
+      <c r="N49" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="O49" s="11" t="s">
+      <c r="O49" s="9" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="50">
-      <c r="A50" s="12">
+    <row r="50" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A50" s="4">
         <v>45587.476138171296</v>
       </c>
-      <c r="B50" s="13" t="s">
+      <c r="B50" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="C50" s="13" t="s">
+      <c r="C50" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="D50" s="13">
-        <v>2.0172435E7</v>
-      </c>
-      <c r="E50" s="13" t="s">
+      <c r="D50" s="5">
+        <v>20172435</v>
+      </c>
+      <c r="E50" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="F50" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="G50" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="H50" s="13" t="s">
+      <c r="F50" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G50" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H50" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="I50" s="13" t="s">
+      <c r="I50" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="M50" s="13" t="s">
+      <c r="M50" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="N50" s="13" t="s">
+      <c r="N50" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="O50" s="14" t="s">
+      <c r="O50" s="6" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="51">
-      <c r="A51" s="9">
-        <v>45587.48281505787</v>
-      </c>
-      <c r="B51" s="10" t="s">
+    <row r="51" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A51" s="7">
+        <v>45587.482815057869</v>
+      </c>
+      <c r="B51" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="C51" s="10" t="s">
+      <c r="C51" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="D51" s="10">
-        <v>2.0243062E7</v>
-      </c>
-      <c r="E51" s="10" t="s">
+      <c r="D51" s="8">
+        <v>20243062</v>
+      </c>
+      <c r="E51" s="8" t="s">
         <v>173</v>
       </c>
-      <c r="F51" s="10" t="s">
+      <c r="F51" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="G51" s="10" t="s">
+      <c r="G51" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="H51" s="10" t="s">
+      <c r="H51" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="I51" s="10" t="s">
+      <c r="I51" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="M51" s="10" t="s">
+      <c r="M51" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="N51" s="10" t="s">
+      <c r="N51" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="O51" s="11" t="s">
+      <c r="O51" s="9" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="52">
-      <c r="A52" s="12">
-        <v>45587.6303490162</v>
-      </c>
-      <c r="B52" s="13" t="s">
+    <row r="52" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A52" s="4">
+        <v>45587.630349016203</v>
+      </c>
+      <c r="B52" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="C52" s="13" t="s">
+      <c r="C52" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="D52" s="13">
-        <v>2.0242551E7</v>
-      </c>
-      <c r="E52" s="13" t="s">
+      <c r="D52" s="5">
+        <v>20242551</v>
+      </c>
+      <c r="E52" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="F52" s="13" t="s">
+      <c r="F52" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="G52" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="H52" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="I52" s="13" t="s">
+      <c r="G52" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H52" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="I52" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="J52" s="13" t="s">
+      <c r="J52" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="K52" s="13" t="s">
+      <c r="K52" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="L52" s="13" t="s">
+      <c r="L52" s="5" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="53">
-      <c r="A53" s="9">
-        <v>45587.63382296296</v>
-      </c>
-      <c r="B53" s="10" t="s">
+    <row r="53" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A53" s="7">
+        <v>45587.633822962962</v>
+      </c>
+      <c r="B53" s="8" t="s">
         <v>176</v>
       </c>
-      <c r="C53" s="10" t="s">
+      <c r="C53" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="D53" s="10">
-        <v>2.0232417E7</v>
-      </c>
-      <c r="E53" s="10" t="s">
+      <c r="D53" s="8">
+        <v>20232417</v>
+      </c>
+      <c r="E53" s="8" t="s">
         <v>177</v>
       </c>
-      <c r="F53" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="G53" s="10" t="s">
+      <c r="F53" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="G53" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="H53" s="10" t="s">
+      <c r="H53" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="I53" s="10" t="s">
+      <c r="I53" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="J53" s="10" t="s">
+      <c r="J53" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="K53" s="10" t="s">
+      <c r="K53" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="L53" s="10" t="s">
+      <c r="L53" s="8" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="54">
-      <c r="A54" s="12">
+    <row r="54" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A54" s="4">
         <v>45587.690287523146</v>
       </c>
-      <c r="B54" s="13" t="s">
+      <c r="B54" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="C54" s="13" t="s">
+      <c r="C54" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="D54" s="13">
-        <v>2.019301E7</v>
-      </c>
-      <c r="E54" s="13" t="s">
+      <c r="D54" s="5">
+        <v>20193010</v>
+      </c>
+      <c r="E54" s="5" t="s">
         <v>179</v>
       </c>
-      <c r="F54" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="G54" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="H54" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="I54" s="13" t="s">
+      <c r="F54" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G54" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H54" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="I54" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="J54" s="13" t="s">
+      <c r="J54" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="K54" s="13" t="s">
+      <c r="K54" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="L54" s="13" t="s">
+      <c r="L54" s="5" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="55">
-      <c r="A55" s="9">
+    <row r="55" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A55" s="7">
         <v>45587.704430405094</v>
       </c>
-      <c r="B55" s="10" t="s">
+      <c r="B55" s="8" t="s">
         <v>180</v>
       </c>
-      <c r="C55" s="10" t="s">
+      <c r="C55" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="D55" s="10">
-        <v>2.0243257E7</v>
-      </c>
-      <c r="E55" s="10" t="s">
+      <c r="D55" s="8">
+        <v>20243257</v>
+      </c>
+      <c r="E55" s="8" t="s">
         <v>181</v>
       </c>
-      <c r="F55" s="10" t="s">
+      <c r="F55" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="G55" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="H55" s="10" t="s">
+      <c r="G55" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H55" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="I55" s="10" t="s">
+      <c r="I55" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="M55" s="10" t="s">
+      <c r="M55" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="N55" s="10" t="s">
+      <c r="N55" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="O55" s="11" t="s">
+      <c r="O55" s="9" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="56">
-      <c r="A56" s="12">
-        <v>45587.71286829861</v>
-      </c>
-      <c r="B56" s="13" t="s">
+    <row r="56" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A56" s="4">
+        <v>45587.712868298608</v>
+      </c>
+      <c r="B56" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="C56" s="13" t="s">
+      <c r="C56" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="D56" s="13">
-        <v>2.024642E7</v>
-      </c>
-      <c r="E56" s="13" t="s">
+      <c r="D56" s="5">
+        <v>20246420</v>
+      </c>
+      <c r="E56" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="F56" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="G56" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="H56" s="13" t="s">
+      <c r="F56" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G56" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H56" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="I56" s="13" t="s">
+      <c r="I56" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="J56" s="13" t="s">
+      <c r="J56" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="K56" s="13" t="s">
+      <c r="K56" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="L56" s="13" t="s">
+      <c r="L56" s="5" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="57">
-      <c r="A57" s="9">
-        <v>45587.71681608797</v>
-      </c>
-      <c r="B57" s="10" t="s">
+    <row r="57" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A57" s="7">
+        <v>45587.716816087966</v>
+      </c>
+      <c r="B57" s="8" t="s">
         <v>185</v>
       </c>
-      <c r="C57" s="10" t="s">
+      <c r="C57" s="8" t="s">
         <v>186</v>
       </c>
-      <c r="D57" s="10">
-        <v>2.0203251E7</v>
-      </c>
-      <c r="E57" s="10" t="s">
+      <c r="D57" s="8">
+        <v>20203251</v>
+      </c>
+      <c r="E57" s="8" t="s">
         <v>187</v>
       </c>
-      <c r="F57" s="10" t="s">
+      <c r="F57" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="G57" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="H57" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="I57" s="10" t="s">
+      <c r="G57" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H57" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="I57" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="J57" s="10" t="s">
+      <c r="J57" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="K57" s="10" t="s">
+      <c r="K57" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="L57" s="10" t="s">
+      <c r="L57" s="8" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="58">
-      <c r="A58" s="12">
-        <v>45587.74327460648</v>
-      </c>
-      <c r="B58" s="13" t="s">
+    <row r="58" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A58" s="4">
+        <v>45587.743274606481</v>
+      </c>
+      <c r="B58" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="C58" s="13" t="s">
+      <c r="C58" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="13">
-        <v>2.0203211E7</v>
-      </c>
-      <c r="E58" s="13" t="s">
+      <c r="D58" s="5">
+        <v>20203211</v>
+      </c>
+      <c r="E58" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="F58" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="G58" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="H58" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="I58" s="13" t="s">
+      <c r="F58" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G58" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H58" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="I58" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="J58" s="13" t="s">
+      <c r="J58" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="K58" s="13" t="s">
+      <c r="K58" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="L58" s="13" t="s">
+      <c r="L58" s="5" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="59">
-      <c r="A59" s="9">
+    <row r="59" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A59" s="7">
         <v>45587.748761979165</v>
       </c>
-      <c r="B59" s="10" t="s">
+      <c r="B59" s="8" t="s">
         <v>190</v>
       </c>
-      <c r="C59" s="10" t="s">
+      <c r="C59" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="D59" s="10">
-        <v>2.0242122E7</v>
-      </c>
-      <c r="E59" s="10" t="s">
+      <c r="D59" s="8">
+        <v>20242122</v>
+      </c>
+      <c r="E59" s="8" t="s">
         <v>191</v>
       </c>
-      <c r="F59" s="10" t="s">
+      <c r="F59" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="G59" s="10" t="s">
+      <c r="G59" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="H59" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="I59" s="10" t="s">
+      <c r="H59" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="I59" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="M59" s="10" t="s">
+      <c r="M59" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="N59" s="10" t="s">
+      <c r="N59" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="O59" s="11" t="s">
+      <c r="O59" s="9" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="60">
-      <c r="A60" s="12">
-        <v>45587.79070517361</v>
-      </c>
-      <c r="B60" s="13" t="s">
+    <row r="60" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A60" s="4">
+        <v>45587.790705173611</v>
+      </c>
+      <c r="B60" s="5" t="s">
         <v>192</v>
       </c>
-      <c r="C60" s="13" t="s">
+      <c r="C60" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="D60" s="13">
-        <v>2.023306E7</v>
-      </c>
-      <c r="E60" s="13" t="s">
+      <c r="D60" s="5">
+        <v>20233060</v>
+      </c>
+      <c r="E60" s="5" t="s">
         <v>193</v>
       </c>
-      <c r="F60" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="G60" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="H60" s="13" t="s">
+      <c r="F60" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G60" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H60" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="I60" s="13" t="s">
+      <c r="I60" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="M60" s="13" t="s">
+      <c r="M60" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="N60" s="13" t="s">
+      <c r="N60" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="O60" s="14" t="s">
+      <c r="O60" s="6" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="61">
-      <c r="A61" s="9">
-        <v>45587.81073131945</v>
-      </c>
-      <c r="B61" s="10" t="s">
+    <row r="61" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A61" s="7">
+        <v>45587.810731319449</v>
+      </c>
+      <c r="B61" s="8" t="s">
         <v>194</v>
       </c>
-      <c r="C61" s="10" t="s">
+      <c r="C61" s="8" t="s">
         <v>195</v>
       </c>
-      <c r="D61" s="10">
-        <v>2.0193003E7</v>
-      </c>
-      <c r="E61" s="10" t="s">
+      <c r="D61" s="8">
+        <v>20193003</v>
+      </c>
+      <c r="E61" s="8" t="s">
         <v>196</v>
       </c>
-      <c r="F61" s="10" t="s">
+      <c r="F61" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="G61" s="10" t="s">
+      <c r="G61" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="H61" s="10" t="s">
+      <c r="H61" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="I61" s="10" t="s">
+      <c r="I61" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="M61" s="10" t="s">
+      <c r="M61" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="N61" s="10" t="s">
+      <c r="N61" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="O61" s="11" t="s">
+      <c r="O61" s="9" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="62">
-      <c r="A62" s="12">
-        <v>45587.81187796296</v>
-      </c>
-      <c r="B62" s="13" t="s">
+    <row r="62" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A62" s="4">
+        <v>45587.811877962959</v>
+      </c>
+      <c r="B62" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="C62" s="13" t="s">
+      <c r="C62" s="5" t="s">
         <v>198</v>
       </c>
-      <c r="D62" s="13">
-        <v>2.0245201E7</v>
-      </c>
-      <c r="E62" s="13" t="s">
+      <c r="D62" s="5">
+        <v>20245201</v>
+      </c>
+      <c r="E62" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="F62" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="G62" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="H62" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="I62" s="13" t="s">
+      <c r="F62" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G62" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H62" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="I62" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="M62" s="13" t="s">
+      <c r="M62" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="N62" s="13" t="s">
+      <c r="N62" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="O62" s="14" t="s">
+      <c r="O62" s="6" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="63">
-      <c r="A63" s="9">
-        <v>45587.82065252315</v>
-      </c>
-      <c r="B63" s="10" t="s">
+    <row r="63" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A63" s="7">
+        <v>45587.820652523151</v>
+      </c>
+      <c r="B63" s="8" t="s">
         <v>200</v>
       </c>
-      <c r="C63" s="10" t="s">
+      <c r="C63" s="8" t="s">
         <v>170</v>
       </c>
-      <c r="D63" s="10">
-        <v>2.0212418E7</v>
-      </c>
-      <c r="E63" s="10" t="s">
+      <c r="D63" s="8">
+        <v>20212418</v>
+      </c>
+      <c r="E63" s="8" t="s">
         <v>201</v>
       </c>
-      <c r="F63" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="G63" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="H63" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="I63" s="10" t="s">
+      <c r="F63" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="G63" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H63" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="I63" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="J63" s="10" t="s">
+      <c r="J63" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="K63" s="10" t="s">
+      <c r="K63" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="L63" s="10" t="s">
+      <c r="L63" s="8" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="64">
-      <c r="A64" s="12">
-        <v>45587.82579295139</v>
-      </c>
-      <c r="B64" s="13" t="s">
+    <row r="64" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A64" s="4">
+        <v>45587.825792951393</v>
+      </c>
+      <c r="B64" s="5" t="s">
         <v>202</v>
       </c>
-      <c r="C64" s="13" t="s">
+      <c r="C64" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="D64" s="13">
-        <v>2.0242503E7</v>
-      </c>
-      <c r="E64" s="13" t="s">
+      <c r="D64" s="5">
+        <v>20242503</v>
+      </c>
+      <c r="E64" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="F64" s="13" t="s">
+      <c r="F64" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="G64" s="13" t="s">
+      <c r="G64" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="H64" s="13" t="s">
+      <c r="H64" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="I64" s="13" t="s">
+      <c r="I64" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="J64" s="13" t="s">
+      <c r="J64" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="K64" s="13" t="s">
+      <c r="K64" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="L64" s="13" t="s">
+      <c r="L64" s="5" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="65">
-      <c r="A65" s="9">
-        <v>45587.8465322338</v>
-      </c>
-      <c r="B65" s="10" t="s">
+    <row r="65" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A65" s="7">
+        <v>45587.846532233802</v>
+      </c>
+      <c r="B65" s="8" t="s">
         <v>204</v>
       </c>
-      <c r="C65" s="10" t="s">
+      <c r="C65" s="8" t="s">
         <v>205</v>
       </c>
-      <c r="D65" s="10">
-        <v>2.0202706E7</v>
-      </c>
-      <c r="E65" s="10" t="s">
+      <c r="D65" s="8">
+        <v>20202706</v>
+      </c>
+      <c r="E65" s="8" t="s">
         <v>206</v>
       </c>
-      <c r="F65" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="G65" s="10" t="s">
+      <c r="F65" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="G65" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="H65" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="I65" s="10" t="s">
+      <c r="H65" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="I65" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="J65" s="10" t="s">
+      <c r="J65" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="K65" s="10" t="s">
+      <c r="K65" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="L65" s="10" t="s">
+      <c r="L65" s="8" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="66">
-      <c r="A66" s="12">
+    <row r="66" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A66" s="4">
         <v>45587.908523252314</v>
       </c>
-      <c r="B66" s="13" t="s">
+      <c r="B66" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="C66" s="13" t="s">
+      <c r="C66" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="D66" s="13">
-        <v>2.0227157E7</v>
-      </c>
-      <c r="E66" s="13" t="s">
+      <c r="D66" s="5">
+        <v>20227157</v>
+      </c>
+      <c r="E66" s="5" t="s">
         <v>208</v>
       </c>
-      <c r="F66" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="G66" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="H66" s="13" t="s">
+      <c r="F66" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G66" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H66" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="I66" s="13" t="s">
+      <c r="I66" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="M66" s="13" t="s">
+      <c r="M66" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="N66" s="13" t="s">
+      <c r="N66" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="O66" s="14" t="s">
+      <c r="O66" s="6" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="67">
-      <c r="A67" s="9">
+    <row r="67" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A67" s="7">
         <v>45587.925471712966</v>
       </c>
-      <c r="B67" s="10" t="s">
+      <c r="B67" s="8" t="s">
         <v>209</v>
       </c>
-      <c r="C67" s="10" t="s">
+      <c r="C67" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="D67" s="10">
-        <v>2.0246294E7</v>
-      </c>
-      <c r="E67" s="10" t="s">
+      <c r="D67" s="8">
+        <v>20246294</v>
+      </c>
+      <c r="E67" s="8" t="s">
         <v>210</v>
       </c>
-      <c r="F67" s="10" t="s">
+      <c r="F67" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="G67" s="10" t="s">
+      <c r="G67" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="H67" s="10" t="s">
+      <c r="H67" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="I67" s="10" t="s">
+      <c r="I67" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="J67" s="10" t="s">
+      <c r="J67" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="K67" s="10" t="s">
+      <c r="K67" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="L67" s="10" t="s">
+      <c r="L67" s="8" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="68">
-      <c r="A68" s="12">
-        <v>45587.96434332176</v>
-      </c>
-      <c r="B68" s="13" t="s">
+    <row r="68" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A68" s="4">
+        <v>45587.964343321757</v>
+      </c>
+      <c r="B68" s="5" t="s">
         <v>211</v>
       </c>
-      <c r="C68" s="13" t="s">
+      <c r="C68" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="D68" s="13">
-        <v>2.0213023E7</v>
-      </c>
-      <c r="E68" s="13" t="s">
+      <c r="D68" s="5">
+        <v>20213023</v>
+      </c>
+      <c r="E68" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="F68" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="G68" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="H68" s="13" t="s">
+      <c r="F68" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G68" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H68" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="I68" s="13" t="s">
+      <c r="I68" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="M68" s="13" t="s">
+      <c r="M68" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="N68" s="13" t="s">
+      <c r="N68" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="O68" s="14" t="s">
+      <c r="O68" s="6" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="69">
-      <c r="A69" s="9">
+    <row r="69" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A69" s="7">
         <v>45587.972994270836</v>
       </c>
-      <c r="B69" s="10" t="s">
+      <c r="B69" s="8" t="s">
         <v>213</v>
       </c>
-      <c r="C69" s="10" t="s">
+      <c r="C69" s="8" t="s">
         <v>214</v>
       </c>
-      <c r="D69" s="10">
-        <v>2.0231602E7</v>
-      </c>
-      <c r="E69" s="10" t="s">
+      <c r="D69" s="8">
+        <v>20231602</v>
+      </c>
+      <c r="E69" s="8" t="s">
         <v>215</v>
       </c>
-      <c r="F69" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="G69" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="H69" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="I69" s="10" t="s">
+      <c r="F69" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="G69" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H69" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="I69" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="M69" s="10" t="s">
+      <c r="M69" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="N69" s="10" t="s">
+      <c r="N69" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="O69" s="11" t="s">
+      <c r="O69" s="9" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="70">
-      <c r="A70" s="12">
-        <v>45587.97391047454</v>
-      </c>
-      <c r="B70" s="13" t="s">
+    <row r="70" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A70" s="4">
+        <v>45587.973910474539</v>
+      </c>
+      <c r="B70" s="5" t="s">
         <v>216</v>
       </c>
-      <c r="C70" s="13" t="s">
+      <c r="C70" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="D70" s="13">
-        <v>2.0243712E7</v>
-      </c>
-      <c r="E70" s="13" t="s">
+      <c r="D70" s="5">
+        <v>20243712</v>
+      </c>
+      <c r="E70" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="F70" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="G70" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="H70" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="I70" s="13" t="s">
+      <c r="F70" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G70" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H70" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="I70" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="J70" s="13" t="s">
+      <c r="J70" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="K70" s="13" t="s">
+      <c r="K70" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="L70" s="13" t="s">
+      <c r="L70" s="5" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="71">
-      <c r="A71" s="9">
-        <v>45587.98383359954</v>
-      </c>
-      <c r="B71" s="10" t="s">
+    <row r="71" spans="1:15" ht="13" x14ac:dyDescent="0.15">
+      <c r="A71" s="7">
+        <v>45587.983833599537</v>
+      </c>
+      <c r="B71" s="8" t="s">
         <v>218</v>
       </c>
-      <c r="C71" s="10" t="s">
+      <c r="C71" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="D71" s="10">
-        <v>2.0193813E7</v>
-      </c>
-      <c r="E71" s="10" t="s">
+      <c r="D71" s="8">
+        <v>20193813</v>
+      </c>
+      <c r="E71" s="8" t="s">
         <v>219</v>
       </c>
-      <c r="F71" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="G71" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="H71" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="I71" s="10" t="s">
+      <c r="F71" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="G71" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H71" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="I71" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="J71" s="10" t="s">
+      <c r="J71" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="K71" s="10" t="s">
+      <c r="K71" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="L71" s="10" t="s">
+      <c r="L71" s="8" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="72">
-      <c r="A72" s="12">
-        <v>45588.40961173611</v>
-      </c>
-      <c r="B72" s="13" t="s">
+    <row r="72" spans="1:15" ht="13" x14ac:dyDescent="0.15">
+      <c r="A72" s="4">
+        <v>45588.409611736111</v>
+      </c>
+      <c r="B72" s="5" t="s">
         <v>220</v>
       </c>
-      <c r="C72" s="13" t="s">
+      <c r="C72" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="D72" s="13">
-        <v>2.0246414E7</v>
-      </c>
-      <c r="E72" s="13" t="s">
+      <c r="D72" s="5">
+        <v>20246414</v>
+      </c>
+      <c r="E72" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="F72" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="G72" s="13" t="s">
+      <c r="F72" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G72" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="H72" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="I72" s="13" t="s">
+      <c r="H72" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="I72" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="J72" s="13" t="s">
+      <c r="J72" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="K72" s="13" t="s">
+      <c r="K72" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="L72" s="13" t="s">
+      <c r="L72" s="5" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="73">
-      <c r="A73" s="9">
-        <v>45588.41262670139</v>
-      </c>
-      <c r="B73" s="10" t="s">
+    <row r="73" spans="1:15" ht="13" x14ac:dyDescent="0.15">
+      <c r="A73" s="7">
+        <v>45588.412626701393</v>
+      </c>
+      <c r="B73" s="8" t="s">
         <v>222</v>
       </c>
-      <c r="C73" s="10" t="s">
+      <c r="C73" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="D73" s="10">
-        <v>2.023521E7</v>
-      </c>
-      <c r="E73" s="10" t="s">
+      <c r="D73" s="8">
+        <v>20235210</v>
+      </c>
+      <c r="E73" s="8" t="s">
         <v>223</v>
       </c>
-      <c r="F73" s="10" t="s">
+      <c r="F73" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="G73" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="H73" s="10" t="s">
+      <c r="G73" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H73" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="I73" s="10" t="s">
+      <c r="I73" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="J73" s="10" t="s">
+      <c r="J73" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="K73" s="10" t="s">
+      <c r="K73" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="L73" s="10" t="s">
+      <c r="L73" s="8" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="74">
-      <c r="A74" s="12">
+    <row r="74" spans="1:15" ht="13" x14ac:dyDescent="0.15">
+      <c r="A74" s="4">
         <v>45588.424596944446</v>
       </c>
-      <c r="B74" s="13" t="s">
+      <c r="B74" s="5" t="s">
         <v>224</v>
       </c>
-      <c r="C74" s="13" t="s">
+      <c r="C74" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="D74" s="13">
-        <v>2.0227136E7</v>
-      </c>
-      <c r="E74" s="13" t="s">
+      <c r="D74" s="5">
+        <v>20227136</v>
+      </c>
+      <c r="E74" s="5" t="s">
         <v>225</v>
       </c>
-      <c r="F74" s="13" t="s">
+      <c r="F74" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="G74" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="H74" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="I74" s="13" t="s">
+      <c r="G74" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H74" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="I74" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="J74" s="13" t="s">
+      <c r="J74" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="K74" s="13" t="s">
+      <c r="K74" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="L74" s="13" t="s">
+      <c r="L74" s="5" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="75">
-      <c r="A75" s="9">
-        <v>45588.52249791667</v>
-      </c>
-      <c r="B75" s="10" t="s">
+    <row r="75" spans="1:15" ht="13" x14ac:dyDescent="0.15">
+      <c r="A75" s="7">
+        <v>45588.522497916667</v>
+      </c>
+      <c r="B75" s="8" t="s">
         <v>226</v>
       </c>
-      <c r="C75" s="10" t="s">
+      <c r="C75" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="D75" s="10">
-        <v>2.0242724E7</v>
-      </c>
-      <c r="E75" s="10" t="s">
+      <c r="D75" s="8">
+        <v>20242724</v>
+      </c>
+      <c r="E75" s="8" t="s">
         <v>227</v>
       </c>
-      <c r="F75" s="10" t="s">
+      <c r="F75" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="G75" s="10" t="s">
+      <c r="G75" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="H75" s="10" t="s">
+      <c r="H75" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="I75" s="10" t="s">
+      <c r="I75" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="J75" s="10" t="s">
+      <c r="J75" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="K75" s="10" t="s">
+      <c r="K75" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="L75" s="10" t="s">
+      <c r="L75" s="8" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="76">
-      <c r="A76" s="12">
-        <v>45588.56630711806</v>
-      </c>
-      <c r="B76" s="13" t="s">
+    <row r="76" spans="1:15" ht="13" x14ac:dyDescent="0.15">
+      <c r="A76" s="4">
+        <v>45588.566307118061</v>
+      </c>
+      <c r="B76" s="5" t="s">
         <v>228</v>
       </c>
-      <c r="C76" s="13" t="s">
+      <c r="C76" s="5" t="s">
         <v>229</v>
       </c>
-      <c r="D76" s="13">
-        <v>2.0242607E7</v>
-      </c>
-      <c r="E76" s="13" t="s">
+      <c r="D76" s="5">
+        <v>20242607</v>
+      </c>
+      <c r="E76" s="5" t="s">
         <v>230</v>
       </c>
-      <c r="F76" s="13" t="s">
+      <c r="F76" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="G76" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="H76" s="13" t="s">
+      <c r="G76" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H76" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="I76" s="13" t="s">
+      <c r="I76" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="M76" s="13" t="s">
+      <c r="M76" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="N76" s="13" t="s">
+      <c r="N76" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="O76" s="14" t="s">
+      <c r="O76" s="6" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="77">
-      <c r="A77" s="9">
-        <v>45588.59742346065</v>
-      </c>
-      <c r="B77" s="10" t="s">
+    <row r="77" spans="1:15" ht="13" x14ac:dyDescent="0.15">
+      <c r="A77" s="7">
+        <v>45588.597423460647</v>
+      </c>
+      <c r="B77" s="8" t="s">
         <v>231</v>
       </c>
-      <c r="C77" s="10" t="s">
+      <c r="C77" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="D77" s="10">
-        <v>2.0242736E7</v>
-      </c>
-      <c r="E77" s="10" t="s">
+      <c r="D77" s="8">
+        <v>20242736</v>
+      </c>
+      <c r="E77" s="8" t="s">
         <v>232</v>
       </c>
-      <c r="F77" s="10" t="s">
+      <c r="F77" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="G77" s="10" t="s">
+      <c r="G77" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="H77" s="10" t="s">
+      <c r="H77" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="I77" s="10" t="s">
+      <c r="I77" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="M77" s="10" t="s">
+      <c r="M77" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="N77" s="10" t="s">
+      <c r="N77" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="O77" s="11" t="s">
+      <c r="O77" s="9" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="78">
-      <c r="A78" s="12">
-        <v>45588.62787328704</v>
-      </c>
-      <c r="B78" s="13" t="s">
+    <row r="78" spans="1:15" ht="13" x14ac:dyDescent="0.15">
+      <c r="A78" s="4">
+        <v>45588.627873287041</v>
+      </c>
+      <c r="B78" s="5" t="s">
         <v>233</v>
       </c>
-      <c r="C78" s="13" t="s">
+      <c r="C78" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="D78" s="13">
-        <v>2.0202911E7</v>
-      </c>
-      <c r="E78" s="13" t="s">
+      <c r="D78" s="5">
+        <v>20202911</v>
+      </c>
+      <c r="E78" s="5" t="s">
         <v>234</v>
       </c>
-      <c r="F78" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="G78" s="13" t="s">
+      <c r="F78" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G78" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="H78" s="13" t="s">
+      <c r="H78" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="I78" s="13" t="s">
+      <c r="I78" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="J78" s="13" t="s">
+      <c r="J78" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="K78" s="13" t="s">
+      <c r="K78" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="L78" s="13" t="s">
+      <c r="L78" s="5" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="79">
-      <c r="A79" s="9">
-        <v>45588.65401546296</v>
-      </c>
-      <c r="B79" s="10" t="s">
+    <row r="79" spans="1:15" ht="13" x14ac:dyDescent="0.15">
+      <c r="A79" s="7">
+        <v>45588.654015462962</v>
+      </c>
+      <c r="B79" s="8" t="s">
         <v>235</v>
       </c>
-      <c r="C79" s="10" t="s">
+      <c r="C79" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="D79" s="10">
-        <v>2.0243065E7</v>
-      </c>
-      <c r="E79" s="10" t="s">
+      <c r="D79" s="8">
+        <v>20243065</v>
+      </c>
+      <c r="E79" s="8" t="s">
         <v>236</v>
       </c>
-      <c r="F79" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="G79" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="H79" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="I79" s="10" t="s">
+      <c r="F79" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="G79" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H79" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="I79" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="M79" s="10" t="s">
+      <c r="M79" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="N79" s="10" t="s">
+      <c r="N79" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="O79" s="11" t="s">
+      <c r="O79" s="9" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="80">
-      <c r="A80" s="12">
-        <v>45588.68898659722</v>
-      </c>
-      <c r="B80" s="13" t="s">
+    <row r="80" spans="1:15" ht="13" x14ac:dyDescent="0.15">
+      <c r="A80" s="4">
+        <v>45588.688986597219</v>
+      </c>
+      <c r="B80" s="5" t="s">
         <v>237</v>
       </c>
-      <c r="C80" s="13" t="s">
+      <c r="C80" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="D80" s="13">
-        <v>2.0207065E7</v>
-      </c>
-      <c r="E80" s="13" t="s">
+      <c r="D80" s="5">
+        <v>20207065</v>
+      </c>
+      <c r="E80" s="5" t="s">
         <v>238</v>
       </c>
-      <c r="F80" s="13" t="s">
+      <c r="F80" s="5" t="s">
         <v>239</v>
       </c>
-      <c r="G80" s="13" t="s">
+      <c r="G80" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="H80" s="13" t="s">
+      <c r="H80" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="I80" s="13" t="s">
+      <c r="I80" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="J80" s="13" t="s">
+      <c r="J80" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="K80" s="13" t="s">
+      <c r="K80" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="L80" s="13" t="s">
+      <c r="L80" s="5" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="81">
-      <c r="A81" s="9">
+    <row r="81" spans="1:15" ht="13" x14ac:dyDescent="0.15">
+      <c r="A81" s="7">
         <v>45588.69695957176</v>
       </c>
-      <c r="B81" s="10" t="s">
+      <c r="B81" s="8" t="s">
         <v>240</v>
       </c>
-      <c r="C81" s="10" t="s">
+      <c r="C81" s="8" t="s">
         <v>229</v>
       </c>
-      <c r="D81" s="10">
-        <v>2.0222606E7</v>
-      </c>
-      <c r="E81" s="10" t="s">
+      <c r="D81" s="8">
+        <v>20222606</v>
+      </c>
+      <c r="E81" s="8" t="s">
         <v>241</v>
       </c>
-      <c r="F81" s="10" t="s">
+      <c r="F81" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="G81" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="H81" s="10" t="s">
+      <c r="G81" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H81" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="I81" s="10" t="s">
+      <c r="I81" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="J81" s="10" t="s">
+      <c r="J81" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="K81" s="10" t="s">
+      <c r="K81" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="L81" s="10" t="s">
+      <c r="L81" s="8" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="82">
-      <c r="A82" s="12">
-        <v>45588.70306842592</v>
-      </c>
-      <c r="B82" s="13" t="s">
+    <row r="82" spans="1:15" ht="13" x14ac:dyDescent="0.15">
+      <c r="A82" s="4">
+        <v>45588.703068425923</v>
+      </c>
+      <c r="B82" s="5" t="s">
         <v>242</v>
       </c>
-      <c r="C82" s="13" t="s">
+      <c r="C82" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="D82" s="13">
-        <v>2.0243968E7</v>
-      </c>
-      <c r="E82" s="13" t="s">
+      <c r="D82" s="5">
+        <v>20243968</v>
+      </c>
+      <c r="E82" s="5" t="s">
         <v>243</v>
       </c>
-      <c r="F82" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="G82" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="H82" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="I82" s="13" t="s">
+      <c r="F82" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G82" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H82" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="I82" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="J82" s="13" t="s">
+      <c r="J82" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="K82" s="13" t="s">
+      <c r="K82" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="L82" s="13" t="s">
+      <c r="L82" s="5" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="83">
-      <c r="A83" s="9">
-        <v>45588.73025165509</v>
-      </c>
-      <c r="B83" s="10" t="s">
+    <row r="83" spans="1:15" ht="13" x14ac:dyDescent="0.15">
+      <c r="A83" s="7">
+        <v>45588.730251655092</v>
+      </c>
+      <c r="B83" s="8" t="s">
         <v>244</v>
       </c>
-      <c r="C83" s="10" t="s">
+      <c r="C83" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="D83" s="10">
-        <v>2.0242997E7</v>
-      </c>
-      <c r="E83" s="10" t="s">
+      <c r="D83" s="8">
+        <v>20242997</v>
+      </c>
+      <c r="E83" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="F83" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="G83" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="H83" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="I83" s="10" t="s">
+      <c r="F83" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="G83" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H83" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="I83" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="M83" s="10" t="s">
+      <c r="M83" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="N83" s="10" t="s">
+      <c r="N83" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="O83" s="11" t="s">
+      <c r="O83" s="9" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="84">
-      <c r="A84" s="12">
+    <row r="84" spans="1:15" ht="13" x14ac:dyDescent="0.15">
+      <c r="A84" s="4">
         <v>45588.74301387732</v>
       </c>
-      <c r="B84" s="13" t="s">
+      <c r="B84" s="5" t="s">
         <v>246</v>
       </c>
-      <c r="C84" s="13" t="s">
+      <c r="C84" s="5" t="s">
         <v>247</v>
       </c>
-      <c r="D84" s="13">
-        <v>2.0232527E7</v>
-      </c>
-      <c r="E84" s="13" t="s">
+      <c r="D84" s="5">
+        <v>20232527</v>
+      </c>
+      <c r="E84" s="5" t="s">
         <v>248</v>
       </c>
-      <c r="F84" s="13" t="s">
+      <c r="F84" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="G84" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="H84" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="I84" s="13" t="s">
+      <c r="G84" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H84" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="I84" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="M84" s="13" t="s">
+      <c r="M84" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="N84" s="13" t="s">
+      <c r="N84" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="O84" s="14" t="s">
+      <c r="O84" s="6" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="85">
-      <c r="A85" s="9">
+    <row r="85" spans="1:15" ht="13" x14ac:dyDescent="0.15">
+      <c r="A85" s="7">
         <v>45588.74999142361</v>
       </c>
-      <c r="B85" s="10" t="s">
+      <c r="B85" s="8" t="s">
         <v>249</v>
       </c>
-      <c r="C85" s="10" t="s">
+      <c r="C85" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="D85" s="10">
-        <v>2.0227024E7</v>
-      </c>
-      <c r="E85" s="10" t="s">
+      <c r="D85" s="8">
+        <v>20227024</v>
+      </c>
+      <c r="E85" s="8" t="s">
         <v>250</v>
       </c>
-      <c r="F85" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="G85" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="H85" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="I85" s="10" t="s">
+      <c r="F85" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="G85" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H85" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="I85" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="M85" s="10" t="s">
+      <c r="M85" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="N85" s="10" t="s">
+      <c r="N85" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="O85" s="11" t="s">
+      <c r="O85" s="9" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="86">
-      <c r="A86" s="12">
-        <v>45588.77450975694</v>
-      </c>
-      <c r="B86" s="13" t="s">
+    <row r="86" spans="1:15" ht="13" x14ac:dyDescent="0.15">
+      <c r="A86" s="4">
+        <v>45588.774509756942</v>
+      </c>
+      <c r="B86" s="5" t="s">
         <v>251</v>
       </c>
-      <c r="C86" s="13" t="s">
+      <c r="C86" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="D86" s="13">
-        <v>2.0172896E7</v>
-      </c>
-      <c r="E86" s="13" t="s">
+      <c r="D86" s="5">
+        <v>20172896</v>
+      </c>
+      <c r="E86" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="F86" s="13" t="s">
+      <c r="F86" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="G86" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="H86" s="13" t="s">
+      <c r="G86" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H86" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="I86" s="13" t="s">
+      <c r="I86" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="M86" s="13" t="s">
+      <c r="M86" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="N86" s="13" t="s">
+      <c r="N86" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="O86" s="14" t="s">
+      <c r="O86" s="6" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="87">
-      <c r="A87" s="9">
-        <v>45588.80371403936</v>
-      </c>
-      <c r="B87" s="10" t="s">
+    <row r="87" spans="1:15" ht="13" x14ac:dyDescent="0.15">
+      <c r="A87" s="7">
+        <v>45588.803714039357</v>
+      </c>
+      <c r="B87" s="8" t="s">
         <v>253</v>
       </c>
-      <c r="C87" s="10" t="s">
+      <c r="C87" s="8" t="s">
         <v>151</v>
       </c>
-      <c r="D87" s="10">
-        <v>2.0214116E7</v>
-      </c>
-      <c r="E87" s="10" t="s">
+      <c r="D87" s="8">
+        <v>20214116</v>
+      </c>
+      <c r="E87" s="8" t="s">
         <v>254</v>
       </c>
-      <c r="F87" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="G87" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="H87" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="I87" s="10" t="s">
+      <c r="F87" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="G87" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H87" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="I87" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="J87" s="10" t="s">
+      <c r="J87" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="K87" s="10" t="s">
+      <c r="K87" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="L87" s="10" t="s">
+      <c r="L87" s="8" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="88">
-      <c r="A88" s="12">
-        <v>45588.86009664352</v>
-      </c>
-      <c r="B88" s="13" t="s">
+    <row r="88" spans="1:15" ht="13" x14ac:dyDescent="0.15">
+      <c r="A88" s="4">
+        <v>45588.860096643519</v>
+      </c>
+      <c r="B88" s="5" t="s">
         <v>255</v>
       </c>
-      <c r="C88" s="13" t="s">
+      <c r="C88" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="D88" s="13">
-        <v>2.0242973E7</v>
-      </c>
-      <c r="E88" s="13" t="s">
+      <c r="D88" s="5">
+        <v>20242973</v>
+      </c>
+      <c r="E88" s="5" t="s">
         <v>256</v>
       </c>
-      <c r="F88" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="G88" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="H88" s="13" t="s">
+      <c r="F88" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G88" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H88" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="I88" s="13" t="s">
+      <c r="I88" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="M88" s="13" t="s">
+      <c r="M88" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="N88" s="13" t="s">
+      <c r="N88" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="O88" s="14" t="s">
+      <c r="O88" s="6" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="89">
-      <c r="A89" s="9">
-        <v>45588.90384508102</v>
-      </c>
-      <c r="B89" s="10" t="s">
+    <row r="89" spans="1:15" ht="13" x14ac:dyDescent="0.15">
+      <c r="A89" s="7">
+        <v>45588.903845081019</v>
+      </c>
+      <c r="B89" s="8" t="s">
         <v>257</v>
       </c>
-      <c r="C89" s="10" t="s">
+      <c r="C89" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="D89" s="10">
-        <v>2.0243929E7</v>
-      </c>
-      <c r="E89" s="10" t="s">
+      <c r="D89" s="8">
+        <v>20243929</v>
+      </c>
+      <c r="E89" s="8" t="s">
         <v>258</v>
       </c>
-      <c r="F89" s="10" t="s">
+      <c r="F89" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="G89" s="10" t="s">
+      <c r="G89" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="H89" s="10" t="s">
+      <c r="H89" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="I89" s="10" t="s">
+      <c r="I89" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="M89" s="10" t="s">
+      <c r="M89" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="N89" s="10" t="s">
+      <c r="N89" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="O89" s="11" t="s">
+      <c r="O89" s="9" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="90">
-      <c r="A90" s="12">
-        <v>45588.90600341435</v>
-      </c>
-      <c r="B90" s="13" t="s">
+    <row r="90" spans="1:15" ht="13" x14ac:dyDescent="0.15">
+      <c r="A90" s="4">
+        <v>45588.906003414348</v>
+      </c>
+      <c r="B90" s="5" t="s">
         <v>259</v>
       </c>
-      <c r="C90" s="13" t="s">
+      <c r="C90" s="5" t="s">
         <v>260</v>
       </c>
-      <c r="D90" s="13">
-        <v>2.0203957E7</v>
-      </c>
-      <c r="E90" s="13" t="s">
+      <c r="D90" s="5">
+        <v>20203957</v>
+      </c>
+      <c r="E90" s="5" t="s">
         <v>261</v>
       </c>
-      <c r="F90" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="G90" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="H90" s="13" t="s">
+      <c r="F90" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G90" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H90" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="I90" s="13" t="s">
+      <c r="I90" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="M90" s="13" t="s">
+      <c r="M90" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="N90" s="13" t="s">
+      <c r="N90" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="O90" s="14" t="s">
+      <c r="O90" s="6" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="91">
-      <c r="A91" s="9">
-        <v>45588.92667538194</v>
-      </c>
-      <c r="B91" s="10" t="s">
+    <row r="91" spans="1:15" ht="13" x14ac:dyDescent="0.15">
+      <c r="A91" s="7">
+        <v>45588.926675381939</v>
+      </c>
+      <c r="B91" s="8" t="s">
         <v>262</v>
       </c>
-      <c r="C91" s="10" t="s">
+      <c r="C91" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="D91" s="10">
-        <v>2.0241106E7</v>
-      </c>
-      <c r="E91" s="10" t="s">
+      <c r="D91" s="8">
+        <v>20241106</v>
+      </c>
+      <c r="E91" s="8" t="s">
         <v>263</v>
       </c>
-      <c r="F91" s="10" t="s">
+      <c r="F91" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="G91" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="H91" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="I91" s="10" t="s">
+      <c r="G91" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H91" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="I91" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="M91" s="10" t="s">
+      <c r="M91" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="N91" s="10" t="s">
+      <c r="N91" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="O91" s="11" t="s">
+      <c r="O91" s="9" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="92">
-      <c r="A92" s="12">
+    <row r="92" spans="1:15" ht="13" x14ac:dyDescent="0.15">
+      <c r="A92" s="4">
         <v>45588.930629421295</v>
       </c>
-      <c r="B92" s="13" t="s">
+      <c r="B92" s="5" t="s">
         <v>264</v>
       </c>
-      <c r="C92" s="13" t="s">
+      <c r="C92" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="D92" s="13">
-        <v>2.0193836E7</v>
-      </c>
-      <c r="E92" s="13" t="s">
+      <c r="D92" s="5">
+        <v>20193836</v>
+      </c>
+      <c r="E92" s="5" t="s">
         <v>265</v>
       </c>
-      <c r="F92" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="G92" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="H92" s="13" t="s">
+      <c r="F92" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G92" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H92" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="I92" s="13" t="s">
+      <c r="I92" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="M92" s="13" t="s">
+      <c r="M92" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="N92" s="13" t="s">
+      <c r="N92" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="O92" s="14" t="s">
+      <c r="O92" s="6" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="93">
-      <c r="A93" s="9">
-        <v>45588.93179973379</v>
-      </c>
-      <c r="B93" s="10" t="s">
+    <row r="93" spans="1:15" ht="13" x14ac:dyDescent="0.15">
+      <c r="A93" s="7">
+        <v>45588.931799733793</v>
+      </c>
+      <c r="B93" s="8" t="s">
         <v>266</v>
       </c>
-      <c r="C93" s="10" t="s">
+      <c r="C93" s="8" t="s">
         <v>267</v>
       </c>
-      <c r="D93" s="10">
-        <v>2.0236727E7</v>
-      </c>
-      <c r="E93" s="10" t="s">
+      <c r="D93" s="8">
+        <v>20236727</v>
+      </c>
+      <c r="E93" s="8" t="s">
         <v>268</v>
       </c>
-      <c r="F93" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="G93" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="H93" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="I93" s="10" t="s">
+      <c r="F93" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="G93" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H93" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="I93" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="J93" s="10" t="s">
+      <c r="J93" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="K93" s="10" t="s">
+      <c r="K93" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="L93" s="10" t="s">
+      <c r="L93" s="8" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="94">
-      <c r="A94" s="12">
-        <v>45588.93987716435</v>
-      </c>
-      <c r="B94" s="13" t="s">
+    <row r="94" spans="1:15" ht="13" x14ac:dyDescent="0.15">
+      <c r="A94" s="4">
+        <v>45588.939877164346</v>
+      </c>
+      <c r="B94" s="5" t="s">
         <v>269</v>
       </c>
-      <c r="C94" s="13" t="s">
+      <c r="C94" s="5" t="s">
         <v>270</v>
       </c>
-      <c r="D94" s="13">
-        <v>2.0222526E7</v>
-      </c>
-      <c r="E94" s="13" t="s">
+      <c r="D94" s="5">
+        <v>20222526</v>
+      </c>
+      <c r="E94" s="5" t="s">
         <v>271</v>
       </c>
-      <c r="F94" s="13" t="s">
+      <c r="F94" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="G94" s="13" t="s">
+      <c r="G94" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="H94" s="13" t="s">
+      <c r="H94" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="I94" s="13" t="s">
+      <c r="I94" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="J94" s="13" t="s">
+      <c r="J94" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="K94" s="13" t="s">
+      <c r="K94" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="L94" s="13" t="s">
+      <c r="L94" s="5" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="95">
-      <c r="A95" s="9">
-        <v>45588.94876962963</v>
-      </c>
-      <c r="B95" s="10" t="s">
+    <row r="95" spans="1:15" ht="13" x14ac:dyDescent="0.15">
+      <c r="A95" s="7">
+        <v>45588.948769629627</v>
+      </c>
+      <c r="B95" s="8" t="s">
         <v>272</v>
       </c>
-      <c r="C95" s="10" t="s">
+      <c r="C95" s="8" t="s">
         <v>273</v>
       </c>
-      <c r="D95" s="10">
-        <v>2.0242356E7</v>
-      </c>
-      <c r="E95" s="10" t="s">
+      <c r="D95" s="8">
+        <v>20242356</v>
+      </c>
+      <c r="E95" s="8" t="s">
         <v>274</v>
       </c>
-      <c r="F95" s="10" t="s">
+      <c r="F95" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="G95" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="H95" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="I95" s="10" t="s">
+      <c r="G95" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H95" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="I95" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="M95" s="10" t="s">
+      <c r="M95" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="N95" s="10" t="s">
+      <c r="N95" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="O95" s="11" t="s">
+      <c r="O95" s="9" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="96">
-      <c r="A96" s="12">
-        <v>45588.97738052084</v>
-      </c>
-      <c r="B96" s="13" t="s">
+    <row r="96" spans="1:15" ht="13" x14ac:dyDescent="0.15">
+      <c r="A96" s="4">
+        <v>45588.977380520839</v>
+      </c>
+      <c r="B96" s="5" t="s">
         <v>275</v>
       </c>
-      <c r="C96" s="13" t="s">
+      <c r="C96" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="D96" s="13">
-        <v>2.0194153E7</v>
-      </c>
-      <c r="E96" s="13" t="s">
+      <c r="D96" s="5">
+        <v>20194153</v>
+      </c>
+      <c r="E96" s="5" t="s">
         <v>276</v>
       </c>
-      <c r="F96" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="G96" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="H96" s="13" t="s">
+      <c r="F96" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G96" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H96" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="I96" s="13" t="s">
+      <c r="I96" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="M96" s="13" t="s">
+      <c r="M96" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="N96" s="13" t="s">
+      <c r="N96" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="O96" s="14" t="s">
+      <c r="O96" s="6" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="97">
-      <c r="A97" s="9">
-        <v>45589.04010708333</v>
-      </c>
-      <c r="B97" s="10" t="s">
+    <row r="97" spans="1:15" ht="13" x14ac:dyDescent="0.15">
+      <c r="A97" s="7">
+        <v>45589.040107083332</v>
+      </c>
+      <c r="B97" s="8" t="s">
         <v>277</v>
       </c>
-      <c r="C97" s="10" t="s">
+      <c r="C97" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="D97" s="10">
-        <v>2.022253E7</v>
-      </c>
-      <c r="E97" s="10" t="s">
+      <c r="D97" s="8">
+        <v>20222530</v>
+      </c>
+      <c r="E97" s="8" t="s">
         <v>278</v>
       </c>
-      <c r="F97" s="10" t="s">
+      <c r="F97" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="G97" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="H97" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="I97" s="10" t="s">
+      <c r="G97" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H97" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="I97" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="M97" s="10" t="s">
+      <c r="M97" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="N97" s="10" t="s">
+      <c r="N97" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="O97" s="11" t="s">
+      <c r="O97" s="9" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="98">
-      <c r="A98" s="12">
+    <row r="98" spans="1:15" ht="13" x14ac:dyDescent="0.15">
+      <c r="A98" s="4">
         <v>45589.100165613425</v>
       </c>
-      <c r="B98" s="13" t="s">
+      <c r="B98" s="5" t="s">
         <v>279</v>
       </c>
-      <c r="C98" s="13" t="s">
+      <c r="C98" s="5" t="s">
         <v>280</v>
       </c>
-      <c r="D98" s="13">
-        <v>2.0201103E7</v>
-      </c>
-      <c r="E98" s="13" t="s">
+      <c r="D98" s="5">
+        <v>20201103</v>
+      </c>
+      <c r="E98" s="5" t="s">
         <v>281</v>
       </c>
-      <c r="F98" s="13" t="s">
+      <c r="F98" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="G98" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="H98" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="I98" s="13" t="s">
+      <c r="G98" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H98" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="I98" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="M98" s="13" t="s">
+      <c r="M98" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="N98" s="13" t="s">
+      <c r="N98" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="O98" s="14" t="s">
+      <c r="O98" s="6" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="99">
-      <c r="A99" s="9">
+    <row r="99" spans="1:15" ht="13" x14ac:dyDescent="0.15">
+      <c r="A99" s="7">
         <v>45589.15708503472</v>
       </c>
-      <c r="B99" s="10" t="s">
+      <c r="B99" s="8" t="s">
         <v>282</v>
       </c>
-      <c r="C99" s="10" t="s">
+      <c r="C99" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="D99" s="10">
-        <v>2.0227036E7</v>
-      </c>
-      <c r="E99" s="10" t="s">
+      <c r="D99" s="8">
+        <v>20227036</v>
+      </c>
+      <c r="E99" s="8" t="s">
         <v>283</v>
       </c>
-      <c r="F99" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="G99" s="10" t="s">
+      <c r="F99" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="G99" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="H99" s="10" t="s">
+      <c r="H99" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="I99" s="10" t="s">
+      <c r="I99" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="M99" s="10" t="s">
+      <c r="M99" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="N99" s="10" t="s">
+      <c r="N99" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="O99" s="11" t="s">
+      <c r="O99" s="9" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="100">
-      <c r="A100" s="12">
+    <row r="100" spans="1:15" ht="13" x14ac:dyDescent="0.15">
+      <c r="A100" s="4">
         <v>45589.568398159725</v>
       </c>
-      <c r="B100" s="13" t="s">
+      <c r="B100" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="C100" s="13" t="s">
+      <c r="C100" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="D100" s="13">
-        <v>2.0202817E7</v>
-      </c>
-      <c r="E100" s="13" t="s">
+      <c r="D100" s="5">
+        <v>20202817</v>
+      </c>
+      <c r="E100" s="5" t="s">
         <v>285</v>
       </c>
-      <c r="F100" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="G100" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="H100" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="I100" s="13" t="s">
+      <c r="F100" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G100" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H100" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="I100" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="J100" s="13" t="s">
+      <c r="J100" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="K100" s="13" t="s">
+      <c r="K100" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="L100" s="13" t="s">
+      <c r="L100" s="5" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="101">
-      <c r="A101" s="9">
+    <row r="101" spans="1:15" ht="13" x14ac:dyDescent="0.15">
+      <c r="A101" s="7">
         <v>45589.57184469908</v>
       </c>
-      <c r="B101" s="10" t="s">
+      <c r="B101" s="8" t="s">
         <v>286</v>
       </c>
-      <c r="C101" s="10" t="s">
+      <c r="C101" s="8" t="s">
         <v>287</v>
       </c>
-      <c r="D101" s="10">
-        <v>2.0216526E7</v>
-      </c>
-      <c r="E101" s="10" t="s">
+      <c r="D101" s="8">
+        <v>20216526</v>
+      </c>
+      <c r="E101" s="8" t="s">
         <v>288</v>
       </c>
-      <c r="F101" s="10" t="s">
+      <c r="F101" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="G101" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="H101" s="10" t="s">
+      <c r="G101" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H101" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="I101" s="10" t="s">
+      <c r="I101" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="J101" s="10" t="s">
+      <c r="J101" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="K101" s="10" t="s">
+      <c r="K101" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="L101" s="10" t="s">
+      <c r="L101" s="8" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="102">
-      <c r="A102" s="12">
-        <v>45589.6178625926</v>
-      </c>
-      <c r="B102" s="13" t="s">
+    <row r="102" spans="1:15" ht="13" x14ac:dyDescent="0.15">
+      <c r="A102" s="4">
+        <v>45589.617862592597</v>
+      </c>
+      <c r="B102" s="5" t="s">
         <v>289</v>
       </c>
-      <c r="C102" s="13" t="s">
+      <c r="C102" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="D102" s="13">
-        <v>2.024385E7</v>
-      </c>
-      <c r="E102" s="13" t="s">
+      <c r="D102" s="5">
+        <v>20243850</v>
+      </c>
+      <c r="E102" s="5" t="s">
         <v>290</v>
       </c>
-      <c r="F102" s="13" t="s">
+      <c r="F102" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="G102" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="H102" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="I102" s="13" t="s">
+      <c r="G102" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H102" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="I102" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="J102" s="13" t="s">
+      <c r="J102" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="K102" s="13" t="s">
+      <c r="K102" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="L102" s="13" t="s">
+      <c r="L102" s="5" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="103">
-      <c r="A103" s="9">
-        <v>45589.62291126157</v>
-      </c>
-      <c r="B103" s="10" t="s">
+    <row r="103" spans="1:15" ht="13" x14ac:dyDescent="0.15">
+      <c r="A103" s="7">
+        <v>45589.622911261569</v>
+      </c>
+      <c r="B103" s="8" t="s">
         <v>291</v>
       </c>
-      <c r="C103" s="10" t="s">
+      <c r="C103" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="D103" s="10">
-        <v>2.0243038E7</v>
-      </c>
-      <c r="E103" s="10" t="s">
+      <c r="D103" s="8">
+        <v>20243038</v>
+      </c>
+      <c r="E103" s="8" t="s">
         <v>292</v>
       </c>
-      <c r="F103" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="G103" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="H103" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="I103" s="10" t="s">
+      <c r="F103" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="G103" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H103" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="I103" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="J103" s="10" t="s">
+      <c r="J103" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="K103" s="10" t="s">
+      <c r="K103" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="L103" s="10" t="s">
+      <c r="L103" s="8" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="104">
-      <c r="A104" s="12">
-        <v>45589.64275313658</v>
-      </c>
-      <c r="B104" s="13" t="s">
+    <row r="104" spans="1:15" ht="13" x14ac:dyDescent="0.15">
+      <c r="A104" s="4">
+        <v>45589.642753136577</v>
+      </c>
+      <c r="B104" s="5" t="s">
         <v>293</v>
       </c>
-      <c r="C104" s="13" t="s">
+      <c r="C104" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="D104" s="13">
-        <v>2.0242707E7</v>
-      </c>
-      <c r="E104" s="13" t="s">
+      <c r="D104" s="5">
+        <v>20242707</v>
+      </c>
+      <c r="E104" s="5" t="s">
         <v>294</v>
       </c>
-      <c r="F104" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="G104" s="13" t="s">
+      <c r="F104" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G104" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="H104" s="13" t="s">
+      <c r="H104" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="I104" s="13" t="s">
+      <c r="I104" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="J104" s="13" t="s">
+      <c r="J104" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="K104" s="13" t="s">
+      <c r="K104" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="L104" s="13" t="s">
+      <c r="L104" s="5" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="105">
-      <c r="A105" s="9">
-        <v>45589.64339677083</v>
-      </c>
-      <c r="B105" s="10" t="s">
+    <row r="105" spans="1:15" ht="13" x14ac:dyDescent="0.15">
+      <c r="A105" s="7">
+        <v>45589.643396770829</v>
+      </c>
+      <c r="B105" s="8" t="s">
         <v>295</v>
       </c>
-      <c r="C105" s="10" t="s">
+      <c r="C105" s="8" t="s">
         <v>296</v>
       </c>
-      <c r="D105" s="10">
-        <v>2.0202561E7</v>
-      </c>
-      <c r="E105" s="10" t="s">
+      <c r="D105" s="8">
+        <v>20202561</v>
+      </c>
+      <c r="E105" s="8" t="s">
         <v>297</v>
       </c>
-      <c r="F105" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="G105" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="H105" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="I105" s="10" t="s">
+      <c r="F105" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="G105" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H105" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="I105" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="J105" s="10" t="s">
+      <c r="J105" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="K105" s="10" t="s">
+      <c r="K105" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="L105" s="10" t="s">
+      <c r="L105" s="8" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="106">
-      <c r="A106" s="12">
-        <v>45589.65554421296</v>
-      </c>
-      <c r="B106" s="13" t="s">
+    <row r="106" spans="1:15" ht="13" x14ac:dyDescent="0.15">
+      <c r="A106" s="4">
+        <v>45589.655544212961</v>
+      </c>
+      <c r="B106" s="5" t="s">
         <v>298</v>
       </c>
-      <c r="C106" s="13" t="s">
+      <c r="C106" s="5" t="s">
         <v>299</v>
       </c>
-      <c r="D106" s="13">
-        <v>2.0202431E7</v>
-      </c>
-      <c r="E106" s="13" t="s">
+      <c r="D106" s="5">
+        <v>20202431</v>
+      </c>
+      <c r="E106" s="5" t="s">
         <v>300</v>
       </c>
-      <c r="F106" s="13" t="s">
+      <c r="F106" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="G106" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="H106" s="13" t="s">
+      <c r="G106" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H106" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="I106" s="13" t="s">
+      <c r="I106" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="J106" s="13" t="s">
+      <c r="J106" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="K106" s="13" t="s">
+      <c r="K106" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="L106" s="13" t="s">
+      <c r="L106" s="5" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="107">
-      <c r="A107" s="9">
-        <v>45589.67808690973</v>
-      </c>
-      <c r="B107" s="10" t="s">
+    <row r="107" spans="1:15" ht="13" x14ac:dyDescent="0.15">
+      <c r="A107" s="7">
+        <v>45589.678086909727</v>
+      </c>
+      <c r="B107" s="8" t="s">
         <v>301</v>
       </c>
-      <c r="C107" s="10" t="s">
+      <c r="C107" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="D107" s="10">
-        <v>2.0243907E7</v>
-      </c>
-      <c r="E107" s="10" t="s">
+      <c r="D107" s="8">
+        <v>20243907</v>
+      </c>
+      <c r="E107" s="8" t="s">
         <v>302</v>
       </c>
-      <c r="F107" s="10" t="s">
+      <c r="F107" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="G107" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="H107" s="10" t="s">
+      <c r="G107" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H107" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="I107" s="10" t="s">
+      <c r="I107" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="J107" s="10" t="s">
+      <c r="J107" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="K107" s="10" t="s">
+      <c r="K107" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="L107" s="10" t="s">
+      <c r="L107" s="8" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="108">
-      <c r="A108" s="12">
-        <v>45589.68541976852</v>
-      </c>
-      <c r="B108" s="13" t="s">
+    <row r="108" spans="1:15" ht="13" x14ac:dyDescent="0.15">
+      <c r="A108" s="4">
+        <v>45589.685419768517</v>
+      </c>
+      <c r="B108" s="5" t="s">
         <v>303</v>
       </c>
-      <c r="C108" s="13" t="s">
+      <c r="C108" s="5" t="s">
         <v>260</v>
       </c>
-      <c r="D108" s="13">
-        <v>2.0191226E7</v>
-      </c>
-      <c r="E108" s="13" t="s">
+      <c r="D108" s="5">
+        <v>20191226</v>
+      </c>
+      <c r="E108" s="5" t="s">
         <v>304</v>
       </c>
-      <c r="F108" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="G108" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="H108" s="13" t="s">
+      <c r="F108" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G108" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H108" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="I108" s="13" t="s">
+      <c r="I108" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="J108" s="13" t="s">
+      <c r="J108" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="K108" s="13" t="s">
+      <c r="K108" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="L108" s="13" t="s">
+      <c r="L108" s="5" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="109">
-      <c r="A109" s="9">
-        <v>45589.69730206019</v>
-      </c>
-      <c r="B109" s="10" t="s">
+    <row r="109" spans="1:15" ht="13" x14ac:dyDescent="0.15">
+      <c r="A109" s="7">
+        <v>45589.697302060187</v>
+      </c>
+      <c r="B109" s="8" t="s">
         <v>305</v>
       </c>
-      <c r="C109" s="10" t="s">
+      <c r="C109" s="8" t="s">
         <v>306</v>
       </c>
-      <c r="D109" s="10">
-        <v>2.0205206E7</v>
-      </c>
-      <c r="E109" s="10" t="s">
+      <c r="D109" s="8">
+        <v>20205206</v>
+      </c>
+      <c r="E109" s="8" t="s">
         <v>307</v>
       </c>
-      <c r="F109" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="G109" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="H109" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="I109" s="10" t="s">
+      <c r="F109" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="G109" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H109" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="I109" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="M109" s="10" t="s">
+      <c r="M109" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="N109" s="10" t="s">
+      <c r="N109" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="O109" s="11" t="s">
+      <c r="O109" s="9" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="110">
-      <c r="A110" s="12">
-        <v>45589.7076155324</v>
-      </c>
-      <c r="B110" s="13" t="s">
+    <row r="110" spans="1:15" ht="13" x14ac:dyDescent="0.15">
+      <c r="A110" s="4">
+        <v>45589.707615532403</v>
+      </c>
+      <c r="B110" s="5" t="s">
         <v>308</v>
       </c>
-      <c r="C110" s="13" t="s">
+      <c r="C110" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="D110" s="13">
-        <v>2.0214143E7</v>
-      </c>
-      <c r="E110" s="13" t="s">
+      <c r="D110" s="5">
+        <v>20214143</v>
+      </c>
+      <c r="E110" s="5" t="s">
         <v>309</v>
       </c>
-      <c r="F110" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="G110" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="H110" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="I110" s="13" t="s">
+      <c r="F110" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G110" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H110" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="I110" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="M110" s="13" t="s">
+      <c r="M110" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="N110" s="13" t="s">
+      <c r="N110" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="O110" s="14" t="s">
+      <c r="O110" s="6" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="111">
-      <c r="A111" s="9">
+    <row r="111" spans="1:15" ht="13" x14ac:dyDescent="0.15">
+      <c r="A111" s="7">
         <v>45589.71399275463</v>
       </c>
-      <c r="B111" s="10" t="s">
+      <c r="B111" s="8" t="s">
         <v>310</v>
       </c>
-      <c r="C111" s="10" t="s">
+      <c r="C111" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="D111" s="10">
-        <v>2.0241207E7</v>
-      </c>
-      <c r="E111" s="10" t="s">
+      <c r="D111" s="8">
+        <v>20241207</v>
+      </c>
+      <c r="E111" s="8" t="s">
         <v>311</v>
       </c>
-      <c r="F111" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="G111" s="10" t="s">
+      <c r="F111" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="G111" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="H111" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="I111" s="10" t="s">
+      <c r="H111" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="I111" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="J111" s="10" t="s">
+      <c r="J111" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="K111" s="10" t="s">
+      <c r="K111" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="L111" s="10" t="s">
+      <c r="L111" s="8" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="112">
-      <c r="A112" s="12">
-        <v>45589.72265074074</v>
-      </c>
-      <c r="B112" s="13" t="s">
+    <row r="112" spans="1:15" ht="13" x14ac:dyDescent="0.15">
+      <c r="A112" s="4">
+        <v>45589.722650740739</v>
+      </c>
+      <c r="B112" s="5" t="s">
         <v>312</v>
       </c>
-      <c r="C112" s="13" t="s">
+      <c r="C112" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="D112" s="13">
-        <v>2.0202809E7</v>
-      </c>
-      <c r="E112" s="13" t="s">
+      <c r="D112" s="5">
+        <v>20202809</v>
+      </c>
+      <c r="E112" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="F112" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="G112" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="H112" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="I112" s="13" t="s">
+      <c r="F112" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G112" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H112" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="I112" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="M112" s="13" t="s">
+      <c r="M112" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="N112" s="13" t="s">
+      <c r="N112" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="O112" s="14" t="s">
+      <c r="O112" s="6" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="113">
-      <c r="A113" s="9">
-        <v>45589.72509203704</v>
-      </c>
-      <c r="B113" s="10" t="s">
+    <row r="113" spans="1:15" ht="13" x14ac:dyDescent="0.15">
+      <c r="A113" s="7">
+        <v>45589.725092037042</v>
+      </c>
+      <c r="B113" s="8" t="s">
         <v>313</v>
       </c>
-      <c r="C113" s="10" t="s">
+      <c r="C113" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="D113" s="10">
-        <v>2.0182339E7</v>
-      </c>
-      <c r="E113" s="10" t="s">
+      <c r="D113" s="8">
+        <v>20182339</v>
+      </c>
+      <c r="E113" s="8" t="s">
         <v>314</v>
       </c>
-      <c r="F113" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="G113" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="H113" s="10" t="s">
+      <c r="F113" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="G113" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H113" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="I113" s="10" t="s">
+      <c r="I113" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="M113" s="10" t="s">
+      <c r="M113" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="N113" s="10" t="s">
+      <c r="N113" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="O113" s="11" t="s">
+      <c r="O113" s="9" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="114">
-      <c r="A114" s="12">
-        <v>45589.73695222222</v>
-      </c>
-      <c r="B114" s="13" t="s">
+    <row r="114" spans="1:15" ht="13" x14ac:dyDescent="0.15">
+      <c r="A114" s="4">
+        <v>45589.736952222222</v>
+      </c>
+      <c r="B114" s="5" t="s">
         <v>315</v>
       </c>
-      <c r="C114" s="13" t="s">
+      <c r="C114" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="D114" s="13">
-        <v>2.0241003E7</v>
-      </c>
-      <c r="E114" s="13" t="s">
+      <c r="D114" s="5">
+        <v>20241003</v>
+      </c>
+      <c r="E114" s="5" t="s">
         <v>316</v>
       </c>
-      <c r="F114" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="G114" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="H114" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="I114" s="13" t="s">
+      <c r="F114" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G114" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H114" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="I114" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="M114" s="13" t="s">
+      <c r="M114" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="N114" s="13" t="s">
+      <c r="N114" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="O114" s="14" t="s">
+      <c r="O114" s="6" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="115">
-      <c r="A115" s="9">
-        <v>45589.76063109953</v>
-      </c>
-      <c r="B115" s="10" t="s">
+    <row r="115" spans="1:15" ht="13" x14ac:dyDescent="0.15">
+      <c r="A115" s="7">
+        <v>45589.760631099532</v>
+      </c>
+      <c r="B115" s="8" t="s">
         <v>317</v>
       </c>
-      <c r="C115" s="10" t="s">
+      <c r="C115" s="8" t="s">
         <v>318</v>
       </c>
-      <c r="D115" s="10">
-        <v>2.0217151E7</v>
-      </c>
-      <c r="E115" s="10" t="s">
+      <c r="D115" s="8">
+        <v>20217151</v>
+      </c>
+      <c r="E115" s="8" t="s">
         <v>319</v>
       </c>
-      <c r="F115" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="G115" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="H115" s="10" t="s">
+      <c r="F115" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="G115" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H115" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="I115" s="10" t="s">
+      <c r="I115" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="J115" s="10" t="s">
+      <c r="J115" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="K115" s="10" t="s">
+      <c r="K115" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="L115" s="10" t="s">
+      <c r="L115" s="8" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="116">
-      <c r="A116" s="15">
-        <v>45589.77012197916</v>
-      </c>
-      <c r="B116" s="16" t="s">
+    <row r="116" spans="1:15" ht="13" x14ac:dyDescent="0.15">
+      <c r="A116" s="4">
+        <v>45589.770121979163</v>
+      </c>
+      <c r="B116" s="5" t="s">
         <v>320</v>
       </c>
-      <c r="C116" s="16" t="s">
+      <c r="C116" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="D116" s="16">
-        <v>2.0246252E7</v>
-      </c>
-      <c r="E116" s="16" t="s">
+      <c r="D116" s="5">
+        <v>20246252</v>
+      </c>
+      <c r="E116" s="5" t="s">
         <v>321</v>
       </c>
-      <c r="F116" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="G116" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="H116" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="I116" s="16" t="s">
+      <c r="F116" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G116" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H116" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="I116" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="J116" s="16" t="s">
+      <c r="J116" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="K116" s="16" t="s">
+      <c r="K116" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="L116" s="16" t="s">
+      <c r="L116" s="5" t="s">
         <v>39</v>
       </c>
     </row>
+    <row r="117" spans="1:15" ht="13" x14ac:dyDescent="0.15">
+      <c r="A117" s="7">
+        <v>45589.781362291666</v>
+      </c>
+      <c r="B117" s="8" t="s">
+        <v>322</v>
+      </c>
+      <c r="C117" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="D117" s="8">
+        <v>20227078</v>
+      </c>
+      <c r="E117" s="8" t="s">
+        <v>323</v>
+      </c>
+      <c r="F117" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="G117" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H117" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="I117" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="J117" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="K117" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="L117" s="8" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="118" spans="1:15" ht="13" x14ac:dyDescent="0.15">
+      <c r="A118" s="4">
+        <v>45589.788237083332</v>
+      </c>
+      <c r="B118" s="5" t="s">
+        <v>324</v>
+      </c>
+      <c r="C118" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="D118" s="5">
+        <v>20222359</v>
+      </c>
+      <c r="E118" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="F118" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G118" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H118" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="I118" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="M118" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="N118" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="O118" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="119" spans="1:15" ht="13" x14ac:dyDescent="0.15">
+      <c r="A119" s="7">
+        <v>45589.802542094912</v>
+      </c>
+      <c r="B119" s="8" t="s">
+        <v>326</v>
+      </c>
+      <c r="C119" s="8" t="s">
+        <v>327</v>
+      </c>
+      <c r="D119" s="8">
+        <v>20205133</v>
+      </c>
+      <c r="E119" s="8" t="s">
+        <v>328</v>
+      </c>
+      <c r="F119" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="G119" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H119" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="I119" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="J119" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="K119" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="L119" s="8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="120" spans="1:15" ht="13" x14ac:dyDescent="0.15">
+      <c r="A120" s="4">
+        <v>45589.819998726853</v>
+      </c>
+      <c r="B120" s="5" t="s">
+        <v>329</v>
+      </c>
+      <c r="C120" s="5" t="s">
+        <v>330</v>
+      </c>
+      <c r="D120" s="5">
+        <v>20216731</v>
+      </c>
+      <c r="E120" s="5" t="s">
+        <v>331</v>
+      </c>
+      <c r="F120" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G120" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H120" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="I120" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="J120" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="K120" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="L120" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="121" spans="1:15" ht="13" x14ac:dyDescent="0.15">
+      <c r="A121" s="7">
+        <v>45589.838162581014</v>
+      </c>
+      <c r="B121" s="8" t="s">
+        <v>332</v>
+      </c>
+      <c r="C121" s="8" t="s">
+        <v>333</v>
+      </c>
+      <c r="D121" s="8">
+        <v>20231506</v>
+      </c>
+      <c r="E121" s="8" t="s">
+        <v>334</v>
+      </c>
+      <c r="F121" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="G121" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="H121" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="I121" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="J121" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="K121" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="L121" s="8" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="122" spans="1:15" ht="13" x14ac:dyDescent="0.15">
+      <c r="A122" s="4">
+        <v>45589.856663726852</v>
+      </c>
+      <c r="B122" s="5" t="s">
+        <v>335</v>
+      </c>
+      <c r="C122" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="D122" s="5">
+        <v>20242344</v>
+      </c>
+      <c r="E122" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="F122" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G122" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="H122" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="I122" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="J122" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="K122" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="L122" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="123" spans="1:15" ht="13" x14ac:dyDescent="0.15">
+      <c r="A123" s="7">
+        <v>45589.863424560186</v>
+      </c>
+      <c r="B123" s="8" t="s">
+        <v>337</v>
+      </c>
+      <c r="C123" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="D123" s="8">
+        <v>20233055</v>
+      </c>
+      <c r="E123" s="8" t="s">
+        <v>338</v>
+      </c>
+      <c r="F123" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="G123" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="H123" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="I123" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="J123" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="K123" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="L123" s="8" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="124" spans="1:15" ht="13" x14ac:dyDescent="0.15">
+      <c r="A124" s="4">
+        <v>45589.885637685184</v>
+      </c>
+      <c r="B124" s="5" t="s">
+        <v>339</v>
+      </c>
+      <c r="C124" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="D124" s="5">
+        <v>20243961</v>
+      </c>
+      <c r="E124" s="5" t="s">
+        <v>340</v>
+      </c>
+      <c r="F124" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G124" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H124" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="I124" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="M124" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="N124" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="O124" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="125" spans="1:15" ht="13" x14ac:dyDescent="0.15">
+      <c r="A125" s="7">
+        <v>45589.894851620367</v>
+      </c>
+      <c r="B125" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="C125" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="D125" s="8">
+        <v>20202834</v>
+      </c>
+      <c r="E125" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="F125" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="G125" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H125" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="I125" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="J125" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="K125" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="L125" s="8" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="126" spans="1:15" ht="13" x14ac:dyDescent="0.15">
+      <c r="A126" s="4">
+        <v>45589.898390219911</v>
+      </c>
+      <c r="B126" s="5" t="s">
+        <v>343</v>
+      </c>
+      <c r="C126" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D126" s="5">
+        <v>20212801</v>
+      </c>
+      <c r="E126" s="5" t="s">
+        <v>344</v>
+      </c>
+      <c r="F126" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G126" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="H126" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="I126" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="M126" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="N126" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="O126" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="127" spans="1:15" ht="13" x14ac:dyDescent="0.15">
+      <c r="A127" s="7">
+        <v>45589.900691666669</v>
+      </c>
+      <c r="B127" s="8" t="s">
+        <v>345</v>
+      </c>
+      <c r="C127" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="D127" s="8">
+        <v>20246215</v>
+      </c>
+      <c r="E127" s="8" t="s">
+        <v>346</v>
+      </c>
+      <c r="F127" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="G127" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H127" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="I127" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="M127" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="N127" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="O127" s="9" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="128" spans="1:15" ht="13" x14ac:dyDescent="0.15">
+      <c r="A128" s="4">
+        <v>45589.906502280093</v>
+      </c>
+      <c r="B128" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="C128" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="D128" s="5">
+        <v>20184132</v>
+      </c>
+      <c r="E128" s="5" t="s">
+        <v>348</v>
+      </c>
+      <c r="F128" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G128" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H128" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="I128" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="M128" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="N128" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="O128" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="129" spans="1:15" ht="13" x14ac:dyDescent="0.15">
+      <c r="A129" s="7">
+        <v>45589.938813761575</v>
+      </c>
+      <c r="B129" s="8" t="s">
+        <v>349</v>
+      </c>
+      <c r="C129" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="D129" s="8">
+        <v>20246300</v>
+      </c>
+      <c r="E129" s="8" t="s">
+        <v>350</v>
+      </c>
+      <c r="F129" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G129" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H129" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="I129" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="J129" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="K129" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="L129" s="8" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="130" spans="1:15" ht="13" x14ac:dyDescent="0.15">
+      <c r="A130" s="4">
+        <v>45589.939560185187</v>
+      </c>
+      <c r="B130" s="5" t="s">
+        <v>351</v>
+      </c>
+      <c r="C130" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D130" s="5">
+        <v>20242525</v>
+      </c>
+      <c r="E130" s="5" t="s">
+        <v>352</v>
+      </c>
+      <c r="F130" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G130" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H130" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="I130" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="J130" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="K130" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="L130" s="5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="131" spans="1:15" ht="13" x14ac:dyDescent="0.15">
+      <c r="A131" s="7">
+        <v>45589.942325138887</v>
+      </c>
+      <c r="B131" s="8" t="s">
+        <v>353</v>
+      </c>
+      <c r="C131" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="D131" s="8">
+        <v>20202637</v>
+      </c>
+      <c r="E131" s="8" t="s">
+        <v>354</v>
+      </c>
+      <c r="F131" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="G131" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H131" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="I131" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="M131" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="N131" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="O131" s="9" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="132" spans="1:15" ht="13" x14ac:dyDescent="0.15">
+      <c r="A132" s="4">
+        <v>45589.944831620371</v>
+      </c>
+      <c r="B132" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="C132" s="5" t="s">
+        <v>356</v>
+      </c>
+      <c r="D132" s="5">
+        <v>20203425</v>
+      </c>
+      <c r="E132" s="5" t="s">
+        <v>357</v>
+      </c>
+      <c r="F132" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G132" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H132" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="I132" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="J132" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="K132" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="L132" s="5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="133" spans="1:15" ht="13" x14ac:dyDescent="0.15">
+      <c r="A133" s="7">
+        <v>45589.945280428241</v>
+      </c>
+      <c r="B133" s="8" t="s">
+        <v>358</v>
+      </c>
+      <c r="C133" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D133" s="8">
+        <v>20242515</v>
+      </c>
+      <c r="E133" s="8" t="s">
+        <v>359</v>
+      </c>
+      <c r="F133" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="G133" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="H133" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="I133" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="J133" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="K133" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="L133" s="8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="134" spans="1:15" ht="13" x14ac:dyDescent="0.15">
+      <c r="A134" s="4">
+        <v>45589.951950613424</v>
+      </c>
+      <c r="B134" s="5" t="s">
+        <v>360</v>
+      </c>
+      <c r="C134" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D134" s="5">
+        <v>20203006</v>
+      </c>
+      <c r="E134" s="5" t="s">
+        <v>361</v>
+      </c>
+      <c r="F134" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G134" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H134" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="I134" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="M134" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="N134" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="O134" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="135" spans="1:15" ht="13" x14ac:dyDescent="0.15">
+      <c r="A135" s="7">
+        <v>45589.955070625001</v>
+      </c>
+      <c r="B135" s="8" t="s">
+        <v>362</v>
+      </c>
+      <c r="C135" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="D135" s="8">
+        <v>20222367</v>
+      </c>
+      <c r="E135" s="8" t="s">
+        <v>363</v>
+      </c>
+      <c r="F135" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="G135" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H135" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="I135" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="M135" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="N135" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="O135" s="9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="136" spans="1:15" ht="13" x14ac:dyDescent="0.15">
+      <c r="A136" s="4">
+        <v>45589.969431874997</v>
+      </c>
+      <c r="B136" s="5" t="s">
+        <v>364</v>
+      </c>
+      <c r="C136" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="D136" s="5">
+        <v>20212818</v>
+      </c>
+      <c r="E136" s="5" t="s">
+        <v>365</v>
+      </c>
+      <c r="F136" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G136" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H136" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="I136" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="M136" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="N136" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="O136" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="137" spans="1:15" ht="13" x14ac:dyDescent="0.15">
+      <c r="A137" s="7">
+        <v>45589.972647280098</v>
+      </c>
+      <c r="B137" s="8" t="s">
+        <v>366</v>
+      </c>
+      <c r="C137" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="D137" s="8">
+        <v>20244120</v>
+      </c>
+      <c r="E137" s="8" t="s">
+        <v>367</v>
+      </c>
+      <c r="F137" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="G137" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H137" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="I137" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="J137" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="K137" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="L137" s="8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="138" spans="1:15" ht="13" x14ac:dyDescent="0.15">
+      <c r="A138" s="4">
+        <v>45589.973360162039</v>
+      </c>
+      <c r="B138" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="C138" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D138" s="5">
+        <v>20243804</v>
+      </c>
+      <c r="E138" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="F138" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="G138" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="H138" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="I138" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="M138" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="N138" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="O138" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="139" spans="1:15" ht="13" x14ac:dyDescent="0.15">
+      <c r="A139" s="7">
+        <v>45589.985730243061</v>
+      </c>
+      <c r="B139" s="8" t="s">
+        <v>370</v>
+      </c>
+      <c r="C139" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="D139" s="8">
+        <v>20192901</v>
+      </c>
+      <c r="E139" s="8" t="s">
+        <v>371</v>
+      </c>
+      <c r="F139" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="G139" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H139" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="I139" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="J139" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="K139" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="L139" s="8" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="140" spans="1:15" ht="13" x14ac:dyDescent="0.15">
+      <c r="A140" s="4">
+        <v>45590.022070150459</v>
+      </c>
+      <c r="B140" s="5" t="s">
+        <v>372</v>
+      </c>
+      <c r="C140" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D140" s="5">
+        <v>20242528</v>
+      </c>
+      <c r="E140" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="F140" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="G140" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H140" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="I140" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="M140" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="N140" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="O140" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="141" spans="1:15" ht="13" x14ac:dyDescent="0.15">
+      <c r="A141" s="7">
+        <v>45590.034851145829</v>
+      </c>
+      <c r="B141" s="8" t="s">
+        <v>374</v>
+      </c>
+      <c r="C141" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="D141" s="8">
+        <v>20193644</v>
+      </c>
+      <c r="E141" s="8" t="s">
+        <v>375</v>
+      </c>
+      <c r="F141" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="G141" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H141" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="I141" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="J141" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="K141" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="L141" s="8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="142" spans="1:15" ht="13" x14ac:dyDescent="0.15">
+      <c r="A142" s="4">
+        <v>45590.066654953705</v>
+      </c>
+      <c r="B142" s="5" t="s">
+        <v>376</v>
+      </c>
+      <c r="C142" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="D142" s="5">
+        <v>20242430</v>
+      </c>
+      <c r="E142" s="5" t="s">
+        <v>377</v>
+      </c>
+      <c r="F142" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G142" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H142" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="I142" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="J142" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="K142" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="L142" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="143" spans="1:15" ht="13" x14ac:dyDescent="0.15">
+      <c r="A143" s="7">
+        <v>45590.075516064811</v>
+      </c>
+      <c r="B143" s="8" t="s">
+        <v>378</v>
+      </c>
+      <c r="C143" s="8" t="s">
+        <v>296</v>
+      </c>
+      <c r="D143" s="8">
+        <v>20212555</v>
+      </c>
+      <c r="E143" s="8" t="s">
+        <v>379</v>
+      </c>
+      <c r="F143" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="G143" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="H143" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="I143" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="M143" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="N143" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="O143" s="9" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="144" spans="1:15" ht="13" x14ac:dyDescent="0.15">
+      <c r="A144" s="4">
+        <v>45590.320415474533</v>
+      </c>
+      <c r="B144" s="5" t="s">
+        <v>380</v>
+      </c>
+      <c r="C144" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="D144" s="5">
+        <v>20222960</v>
+      </c>
+      <c r="E144" s="5" t="s">
+        <v>381</v>
+      </c>
+      <c r="F144" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G144" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="H144" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="I144" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="J144" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="K144" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="L144" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="145" spans="1:15" ht="13" x14ac:dyDescent="0.15">
+      <c r="A145" s="7">
+        <v>45590.342832916664</v>
+      </c>
+      <c r="B145" s="8" t="s">
+        <v>382</v>
+      </c>
+      <c r="C145" s="8" t="s">
+        <v>267</v>
+      </c>
+      <c r="D145" s="8">
+        <v>20246752</v>
+      </c>
+      <c r="E145" s="8" t="s">
+        <v>383</v>
+      </c>
+      <c r="F145" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="G145" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H145" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="I145" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="M145" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="N145" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="O145" s="9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="146" spans="1:15" ht="13" x14ac:dyDescent="0.15">
+      <c r="A146" s="4">
+        <v>45590.365371527776</v>
+      </c>
+      <c r="B146" s="5" t="s">
+        <v>384</v>
+      </c>
+      <c r="C146" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="D146" s="5">
+        <v>20243048</v>
+      </c>
+      <c r="E146" s="5" t="s">
+        <v>385</v>
+      </c>
+      <c r="F146" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G146" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H146" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="I146" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="M146" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="N146" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="O146" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="147" spans="1:15" ht="13" x14ac:dyDescent="0.15">
+      <c r="A147" s="10">
+        <v>45590.372018900467</v>
+      </c>
+      <c r="B147" s="11" t="s">
+        <v>386</v>
+      </c>
+      <c r="C147" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="D147" s="11">
+        <v>20246214</v>
+      </c>
+      <c r="E147" s="11" t="s">
+        <v>387</v>
+      </c>
+      <c r="F147" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G147" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="H147" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="I147" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="J147" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="K147" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="L147" s="11" t="s">
+        <v>83</v>
+      </c>
+    </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
 </file>
--- a/R/data/quiz241021_tmp.xlsx
+++ b/R/data/quiz241021_tmp.xlsx
@@ -1,26 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kwlee/Documents/class202402/R/data/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EF747D5-BFA2-7C4C-AFEC-BE8770321E83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="44800" windowHeight="22940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
-  </bookViews>
   <sheets>
-    <sheet name="설문지 응답 시트1" sheetId="1" r:id="rId1"/>
+    <sheet state="visible" name="설문지 응답 시트1" sheetId="1" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1475" uniqueCount="388">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1625" uniqueCount="419">
   <si>
     <t>타임스탬프</t>
   </si>
@@ -1184,34 +1175,118 @@
   </si>
   <si>
     <t>김나연</t>
+  </si>
+  <si>
+    <t>slaim7888@gmail.com</t>
+  </si>
+  <si>
+    <t>이준민</t>
+  </si>
+  <si>
+    <t>dpdlvldzmfkd1218@naver.com</t>
+  </si>
+  <si>
+    <t>이다혜</t>
+  </si>
+  <si>
+    <t>cgim2421@gmail.com</t>
+  </si>
+  <si>
+    <t>김채윤</t>
+  </si>
+  <si>
+    <t>csj450422@gmail.com</t>
+  </si>
+  <si>
+    <t>장승진</t>
+  </si>
+  <si>
+    <t>leenara633@gmail.com</t>
+  </si>
+  <si>
+    <t>이나라</t>
+  </si>
+  <si>
+    <t>k1j40405@gmail.com</t>
+  </si>
+  <si>
+    <t>김진아</t>
+  </si>
+  <si>
+    <t>smainas20@naver.com</t>
+  </si>
+  <si>
+    <t>algus5661@naver.com</t>
+  </si>
+  <si>
+    <t>최미현</t>
+  </si>
+  <si>
+    <t>wjsgkdms4@naver.com</t>
+  </si>
+  <si>
+    <t>전하은</t>
+  </si>
+  <si>
+    <t>zorotod@naver.com</t>
+  </si>
+  <si>
+    <t>생명과학과</t>
+  </si>
+  <si>
+    <t>김승욱</t>
+  </si>
+  <si>
+    <t>xogns3043@naver.com</t>
+  </si>
+  <si>
+    <t>김태훈</t>
+  </si>
+  <si>
+    <t>ehgmldo2@naver.com</t>
+  </si>
+  <si>
+    <t>데이터테크</t>
+  </si>
+  <si>
+    <t>박도희</t>
+  </si>
+  <si>
+    <t>yoonbin0304@naver.com</t>
+  </si>
+  <si>
+    <t>최윤빈</t>
+  </si>
+  <si>
+    <t>leejs7807@gmail.com</t>
+  </si>
+  <si>
+    <t>이종선</t>
+  </si>
+  <si>
+    <t>gangjunu@naver.com</t>
+  </si>
+  <si>
+    <t>강준우</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="m/d/yyyy\ h:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="m/d/yyyy h:mm:ss"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
-      <sz val="10"/>
+      <sz val="10.0"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="Arial"/>
-      <family val="3"/>
-      <charset val="129"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1220,17 +1295,11 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
+      <patternFill patternType="lightGray"/>
     </fill>
   </fills>
   <borders count="12">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
+    <border/>
     <border>
       <left style="thin">
         <color rgb="FF442F65"/>
@@ -1244,7 +1313,6 @@
       <bottom style="thin">
         <color rgb="FF442F65"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -1259,7 +1327,6 @@
       <bottom style="thin">
         <color rgb="FF442F65"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -1274,7 +1341,6 @@
       <bottom style="thin">
         <color rgb="FF442F65"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -1289,7 +1355,6 @@
       <bottom style="thin">
         <color rgb="FFFFFFFF"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -1304,7 +1369,6 @@
       <bottom style="thin">
         <color rgb="FFFFFFFF"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -1319,7 +1383,6 @@
       <bottom style="thin">
         <color rgb="FFFFFFFF"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -1334,7 +1397,6 @@
       <bottom style="thin">
         <color rgb="FFF8F9FA"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -1349,7 +1411,6 @@
       <bottom style="thin">
         <color rgb="FFF8F9FA"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -1364,150 +1425,173 @@
       <bottom style="thin">
         <color rgb="FFF8F9FA"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF442F65"/>
       </left>
       <right style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </right>
       <top style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </top>
       <bottom style="thin">
         <color rgb="FF442F65"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </left>
       <right style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </right>
       <top style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </top>
       <bottom style="thin">
         <color rgb="FF442F65"/>
       </bottom>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="12">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+  <cellXfs count="17">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf borderId="3" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf borderId="4" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf borderId="5" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf borderId="5" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf borderId="6" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf borderId="7" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf borderId="8" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="9" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="5" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="6" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="10" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="11" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle xfId="0" name="Normal" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="4">
     <dxf>
+      <font/>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+      <border/>
+    </dxf>
+    <dxf>
+      <font/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF5B3F86"/>
+          <bgColor rgb="FF5B3F86"/>
+        </patternFill>
+      </fill>
+      <border/>
+    </dxf>
+    <dxf>
+      <font/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFFFF"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <border/>
+    </dxf>
+    <dxf>
+      <font/>
       <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FFF8F9FA"/>
           <bgColor rgb="FFF8F9FA"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFFFF"/>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF5B3F86"/>
-          <bgColor rgb="FF5B3F86"/>
-        </patternFill>
-      </fill>
+      <border/>
     </dxf>
   </dxfs>
   <tableStyles count="1">
-    <tableStyle name="설문지 응답 시트1-style" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="headerRow" dxfId="2"/>
-      <tableStyleElement type="firstRowStripe" dxfId="1"/>
-      <tableStyleElement type="secondRowStripe" dxfId="0"/>
+    <tableStyle count="3" pivot="0" name="설문지 응답 시트1-style">
+      <tableStyleElement dxfId="1" type="headerRow"/>
+      <tableStyleElement dxfId="2" type="firstRowStripe"/>
+      <tableStyleElement dxfId="3" type="secondRowStripe"/>
     </tableStyle>
   </tableStyles>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Form_Responses1" displayName="Form_Responses1" ref="A1:O147">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:O162" displayName="Form_Responses1" name="Form_Responses1" id="1">
   <tableColumns count="15">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="타임스탬프"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="이메일 주소"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="학과"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="학번(8숫자)"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="이름"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="1. Salk Vaccine Field Trial에서 Randomized Placebo Control Approach 의 특징 중 부모 동의 받은 어린이들을 치료군과 대조군으로 공평하게 나누기 위하여 도입된 방법은 무엇인가?"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="2. Salk Vaccine Field Trail의 결과를 요약한 표로부터 어느 숫자들이 소아 마비 예방주사의 효과를 명확히 보여주고 있는가?"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="3. 3학년의 전반적인 소아마비 발병율을 잘 나타내고 있는 집단은 다음 중 어느 것인가?"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Red 인가요, Black인가요?"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="4_R. 야구 방망이와 공 세트가 1달러10센트다. 방망이는 공보다 1달러가 비싸다. 공은 얼마겠는가? (3초 이내 응답)"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="5_R. 기계 다섯 대가 5분 동안 가발 다섯 개를 만든다면, 기계 100대로 가발 100개를 만들려면 몇 분이 걸리겠는가? (3초 이내 응답)"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="6_R. 호수에 수련 잎이 한 무더기 떠 있다. 수련 잎이 차지하는 면적은 날마다 두 배로 늘어난다. 수련 잎이 호수 전체를 뒤덮는 데 48일이 걸린다면, 호수 절반을 뒤덮는 데는 며칠이 걸리겠는가? (3초 이내 응답)"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="4_B. 야구 방망이와 공 세트가 1달러10센트다. 방망이는 공보다 1달러가 비싸다. 공은 얼마겠는가? (3초 이내 응답)"/>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="5_B. 기계 다섯 대가 5분 동안 가발 다섯 개를 만든다면, 기계 100대로 가발 100개를 만들려면 몇 분이 걸리겠는가? (3초 이내 응답)"/>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="6_B. 호수에 수련 잎이 한 무더기 떠 있다. 수련 잎이 차지하는 면적은 날마다 두 배로 늘어난다. 수련 잎이 호수 전체를 뒤덮는 데 48일이 걸린다면, 호수 절반을 뒤덮는 데는 며칠이 걸리겠는가? (3초 이내 응답)"/>
+    <tableColumn name="타임스탬프" id="1"/>
+    <tableColumn name="이메일 주소" id="2"/>
+    <tableColumn name="학과" id="3"/>
+    <tableColumn name="학번(8숫자)" id="4"/>
+    <tableColumn name="이름" id="5"/>
+    <tableColumn name="1. Salk Vaccine Field Trial에서 Randomized Placebo Control Approach 의 특징 중 부모 동의 받은 어린이들을 치료군과 대조군으로 공평하게 나누기 위하여 도입된 방법은 무엇인가?" id="6"/>
+    <tableColumn name="2. Salk Vaccine Field Trail의 결과를 요약한 표로부터 어느 숫자들이 소아 마비 예방주사의 효과를 명확히 보여주고 있는가?" id="7"/>
+    <tableColumn name="3. 3학년의 전반적인 소아마비 발병율을 잘 나타내고 있는 집단은 다음 중 어느 것인가?" id="8"/>
+    <tableColumn name="Red 인가요, Black인가요?" id="9"/>
+    <tableColumn name="4_R. 야구 방망이와 공 세트가 1달러10센트다. 방망이는 공보다 1달러가 비싸다. 공은 얼마겠는가? (3초 이내 응답)" id="10"/>
+    <tableColumn name="5_R. 기계 다섯 대가 5분 동안 가발 다섯 개를 만든다면, 기계 100대로 가발 100개를 만들려면 몇 분이 걸리겠는가? (3초 이내 응답)" id="11"/>
+    <tableColumn name="6_R. 호수에 수련 잎이 한 무더기 떠 있다. 수련 잎이 차지하는 면적은 날마다 두 배로 늘어난다. 수련 잎이 호수 전체를 뒤덮는 데 48일이 걸린다면, 호수 절반을 뒤덮는 데는 며칠이 걸리겠는가? (3초 이내 응답)" id="12"/>
+    <tableColumn name="4_B. 야구 방망이와 공 세트가 1달러10센트다. 방망이는 공보다 1달러가 비싸다. 공은 얼마겠는가? (3초 이내 응답)" id="13"/>
+    <tableColumn name="5_B. 기계 다섯 대가 5분 동안 가발 다섯 개를 만든다면, 기계 100대로 가발 100개를 만들려면 몇 분이 걸리겠는가? (3초 이내 응답)" id="14"/>
+    <tableColumn name="6_B. 호수에 수련 잎이 한 무더기 떠 있다. 수련 잎이 차지하는 면적은 날마다 두 배로 늘어난다. 수련 잎이 호수 전체를 뒤덮는 데 48일이 걸린다면, 호수 절반을 뒤덮는 데는 며칠이 걸리겠는가? (3초 이내 응답)" id="15"/>
   </tableColumns>
-  <tableStyleInfo name="설문지 응답 시트1-style" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="설문지 응답 시트1-style" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
 </table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -1697,34 +1781,31 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:O147"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A112" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K154" sqref="K154"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="5" width="18.83203125" customWidth="1"/>
-    <col min="6" max="7" width="37.6640625" customWidth="1"/>
-    <col min="8" max="8" width="37" customWidth="1"/>
-    <col min="9" max="9" width="18.83203125" customWidth="1"/>
-    <col min="10" max="15" width="37.6640625" customWidth="1"/>
-    <col min="16" max="21" width="18.83203125" customWidth="1"/>
+    <col customWidth="1" min="1" max="5" width="18.88"/>
+    <col customWidth="1" min="6" max="7" width="37.63"/>
+    <col customWidth="1" min="8" max="8" width="37.0"/>
+    <col customWidth="1" min="9" max="9" width="18.88"/>
+    <col customWidth="1" min="10" max="15" width="37.63"/>
+    <col customWidth="1" min="16" max="21" width="18.88"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1752,5581 +1833,6150 @@
       <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="O1" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="4">
-        <v>45585.976694560188</v>
-      </c>
-      <c r="B2" s="5" t="s">
+    <row r="2">
+      <c r="A2" s="5">
+        <v>45585.97669456019</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="5">
-        <v>20243618</v>
-      </c>
-      <c r="E2" s="5" t="s">
+      <c r="D2" s="6">
+        <v>2.0243618E7</v>
+      </c>
+      <c r="E2" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="I2" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5" t="s">
+      <c r="I2" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="N2" s="5" t="s">
+      <c r="N2" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="O2" s="6" t="s">
+      <c r="O2" s="8" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="7">
+    <row r="3">
+      <c r="A3" s="9">
         <v>45586.024457708336</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="8">
-        <v>20191110</v>
-      </c>
-      <c r="E3" s="8" t="s">
+      <c r="D3" s="10">
+        <v>2.019111E7</v>
+      </c>
+      <c r="E3" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="H3" s="8" t="s">
+      <c r="G3" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H3" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="I3" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="M3" s="8" t="s">
+      <c r="I3" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="M3" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="N3" s="8" t="s">
+      <c r="N3" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="O3" s="9" t="s">
+      <c r="O3" s="11" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="4">
-        <v>45586.038449247688</v>
-      </c>
-      <c r="B4" s="5" t="s">
+    <row r="4">
+      <c r="A4" s="12">
+        <v>45586.03844924769</v>
+      </c>
+      <c r="B4" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="D4" s="5">
-        <v>20192721</v>
-      </c>
-      <c r="E4" s="5" t="s">
+      <c r="D4" s="13">
+        <v>2.0192721E7</v>
+      </c>
+      <c r="E4" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="F4" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="I4" s="5" t="s">
+      <c r="F4" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G4" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="I4" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="J4" s="5" t="s">
+      <c r="J4" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="K4" s="5" t="s">
+      <c r="K4" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="L4" s="5" t="s">
+      <c r="L4" s="13" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="7">
-        <v>45586.067591435189</v>
-      </c>
-      <c r="B5" s="8" t="s">
+    <row r="5">
+      <c r="A5" s="9">
+        <v>45586.06759143519</v>
+      </c>
+      <c r="B5" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="D5" s="8">
-        <v>20203220</v>
-      </c>
-      <c r="E5" s="8" t="s">
+      <c r="D5" s="10">
+        <v>2.020322E7</v>
+      </c>
+      <c r="E5" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="F5" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="8" t="s">
+      <c r="G5" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="H5" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="I5" s="8" t="s">
+      <c r="H5" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="I5" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="J5" s="8" t="s">
+      <c r="J5" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="K5" s="8" t="s">
+      <c r="K5" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="L5" s="8" t="s">
+      <c r="L5" s="10" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="4">
+    <row r="6">
+      <c r="A6" s="12">
         <v>45586.098517245366</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="D6" s="5">
-        <v>20181628</v>
-      </c>
-      <c r="E6" s="5" t="s">
+      <c r="D6" s="13">
+        <v>2.0181628E7</v>
+      </c>
+      <c r="E6" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="F6" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="I6" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="M6" s="5" t="s">
+      <c r="F6" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G6" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H6" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="I6" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="M6" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="N6" s="5" t="s">
+      <c r="N6" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="O6" s="6" t="s">
+      <c r="O6" s="14" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="7">
-        <v>45586.127114733797</v>
-      </c>
-      <c r="B7" s="8" t="s">
+    <row r="7">
+      <c r="A7" s="9">
+        <v>45586.1271147338</v>
+      </c>
+      <c r="B7" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="D7" s="8">
-        <v>20242518</v>
-      </c>
-      <c r="E7" s="8" t="s">
+      <c r="D7" s="10">
+        <v>2.0242518E7</v>
+      </c>
+      <c r="E7" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="F7" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="G7" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="H7" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="I7" s="8" t="s">
+      <c r="F7" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H7" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="I7" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="J7" s="8" t="s">
+      <c r="J7" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="K7" s="8" t="s">
+      <c r="K7" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="L7" s="8" t="s">
+      <c r="L7" s="10" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="4">
+    <row r="8">
+      <c r="A8" s="12">
         <v>45586.127920486106</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="D8" s="5">
-        <v>20182951</v>
-      </c>
-      <c r="E8" s="5" t="s">
+      <c r="D8" s="13">
+        <v>2.0182951E7</v>
+      </c>
+      <c r="E8" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="F8" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="I8" s="5" t="s">
+      <c r="F8" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G8" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H8" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="I8" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="J8" s="5" t="s">
+      <c r="J8" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="K8" s="5" t="s">
+      <c r="K8" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="L8" s="5" t="s">
+      <c r="L8" s="13" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="7">
-        <v>45586.258453171293</v>
-      </c>
-      <c r="B9" s="8" t="s">
+    <row r="9">
+      <c r="A9" s="9">
+        <v>45586.25845317129</v>
+      </c>
+      <c r="B9" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="D9" s="8">
-        <v>20202235</v>
-      </c>
-      <c r="E9" s="8" t="s">
+      <c r="D9" s="10">
+        <v>2.0202235E7</v>
+      </c>
+      <c r="E9" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="F9" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="G9" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="H9" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="I9" s="8" t="s">
+      <c r="F9" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H9" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="I9" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="J9" s="8" t="s">
+      <c r="J9" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="K9" s="8" t="s">
+      <c r="K9" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="L9" s="8" t="s">
+      <c r="L9" s="10" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="4">
+    <row r="10">
+      <c r="A10" s="12">
         <v>45586.401208587966</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="D10" s="5">
-        <v>20221090</v>
-      </c>
-      <c r="E10" s="5" t="s">
+      <c r="D10" s="13">
+        <v>2.022109E7</v>
+      </c>
+      <c r="E10" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="F10" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="H10" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="I10" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="M10" s="5" t="s">
+      <c r="F10" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G10" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H10" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="I10" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="M10" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="N10" s="5" t="s">
+      <c r="N10" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="O10" s="6" t="s">
+      <c r="O10" s="14" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="7">
-        <v>45586.420214872684</v>
-      </c>
-      <c r="B11" s="8" t="s">
+    <row r="11">
+      <c r="A11" s="9">
+        <v>45586.42021487268</v>
+      </c>
+      <c r="B11" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="D11" s="8">
-        <v>20242339</v>
-      </c>
-      <c r="E11" s="8" t="s">
+      <c r="D11" s="10">
+        <v>2.0242339E7</v>
+      </c>
+      <c r="E11" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="F11" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="G11" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="H11" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="I11" s="8" t="s">
+      <c r="F11" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G11" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H11" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="I11" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="J11" s="8" t="s">
+      <c r="J11" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="K11" s="8" t="s">
+      <c r="K11" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="L11" s="8" t="s">
+      <c r="L11" s="10" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="4">
-        <v>45586.447736979171</v>
-      </c>
-      <c r="B12" s="5" t="s">
+    <row r="12">
+      <c r="A12" s="12">
+        <v>45586.44773697917</v>
+      </c>
+      <c r="B12" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="D12" s="5">
-        <v>20241051</v>
-      </c>
-      <c r="E12" s="5" t="s">
+      <c r="D12" s="13">
+        <v>2.0241051E7</v>
+      </c>
+      <c r="E12" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="F12" s="5" t="s">
+      <c r="F12" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="G12" s="5" t="s">
+      <c r="G12" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="H12" s="5" t="s">
+      <c r="H12" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="I12" s="5" t="s">
+      <c r="I12" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="J12" s="5" t="s">
+      <c r="J12" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="K12" s="5" t="s">
+      <c r="K12" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="L12" s="5" t="s">
+      <c r="L12" s="13" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="7">
+    <row r="13">
+      <c r="A13" s="9">
         <v>45586.453157615746</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C13" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="D13" s="8">
-        <v>20243314</v>
-      </c>
-      <c r="E13" s="8" t="s">
+      <c r="D13" s="10">
+        <v>2.0243314E7</v>
+      </c>
+      <c r="E13" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="F13" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="G13" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="H13" s="8" t="s">
+      <c r="F13" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G13" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H13" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="I13" s="8" t="s">
+      <c r="I13" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="J13" s="8" t="s">
+      <c r="J13" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="K13" s="8" t="s">
+      <c r="K13" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="L13" s="8" t="s">
+      <c r="L13" s="10" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="4">
+    <row r="14">
+      <c r="A14" s="12">
         <v>45586.467188379625</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="D14" s="5">
-        <v>20246405</v>
-      </c>
-      <c r="E14" s="5" t="s">
+      <c r="D14" s="13">
+        <v>2.0246405E7</v>
+      </c>
+      <c r="E14" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="F14" s="5" t="s">
+      <c r="F14" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="G14" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="H14" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="I14" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="M14" s="5" t="s">
+      <c r="G14" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H14" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="I14" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="M14" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="N14" s="5" t="s">
+      <c r="N14" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="O14" s="6" t="s">
+      <c r="O14" s="14" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="7">
-        <v>45586.523984108797</v>
-      </c>
-      <c r="B15" s="8" t="s">
+    <row r="15">
+      <c r="A15" s="9">
+        <v>45586.5239841088</v>
+      </c>
+      <c r="B15" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="C15" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="D15" s="8">
-        <v>20246264</v>
-      </c>
-      <c r="E15" s="8" t="s">
+      <c r="D15" s="10">
+        <v>2.0246264E7</v>
+      </c>
+      <c r="E15" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="F15" s="8" t="s">
+      <c r="F15" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="G15" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="H15" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="I15" s="8" t="s">
+      <c r="G15" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H15" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="I15" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="J15" s="8" t="s">
+      <c r="J15" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="K15" s="8" t="s">
+      <c r="K15" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="L15" s="8" t="s">
+      <c r="L15" s="10" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="4">
-        <v>45586.547849745373</v>
-      </c>
-      <c r="B16" s="5" t="s">
+    <row r="16">
+      <c r="A16" s="12">
+        <v>45586.54784974537</v>
+      </c>
+      <c r="B16" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="D16" s="5">
-        <v>20242981</v>
-      </c>
-      <c r="E16" s="5" t="s">
+      <c r="D16" s="13">
+        <v>2.0242981E7</v>
+      </c>
+      <c r="E16" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="F16" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="G16" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="H16" s="5" t="s">
+      <c r="F16" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G16" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H16" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="I16" s="5" t="s">
+      <c r="I16" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="J16" s="5" t="s">
+      <c r="J16" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="K16" s="5" t="s">
+      <c r="K16" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="L16" s="5" t="s">
+      <c r="L16" s="13" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="7">
-        <v>45586.552018402777</v>
-      </c>
-      <c r="B17" s="8" t="s">
+    <row r="17">
+      <c r="A17" s="9">
+        <v>45586.55201840278</v>
+      </c>
+      <c r="B17" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="C17" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="D17" s="8">
-        <v>20207089</v>
-      </c>
-      <c r="E17" s="8" t="s">
+      <c r="D17" s="10">
+        <v>2.0207089E7</v>
+      </c>
+      <c r="E17" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="F17" s="8" t="s">
+      <c r="F17" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="G17" s="8" t="s">
+      <c r="G17" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="H17" s="8" t="s">
+      <c r="H17" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="I17" s="8" t="s">
+      <c r="I17" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="J17" s="8" t="s">
+      <c r="J17" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="K17" s="8" t="s">
+      <c r="K17" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="L17" s="8" t="s">
+      <c r="L17" s="10" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="18" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="4">
+    <row r="18">
+      <c r="A18" s="12">
         <v>45586.554234317126</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C18" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="D18" s="5">
-        <v>20243051</v>
-      </c>
-      <c r="E18" s="5" t="s">
+      <c r="D18" s="13">
+        <v>2.0243051E7</v>
+      </c>
+      <c r="E18" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="F18" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="G18" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="H18" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="I18" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="M18" s="5" t="s">
+      <c r="F18" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G18" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H18" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="I18" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="M18" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="N18" s="5" t="s">
+      <c r="N18" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="O18" s="6" t="s">
+      <c r="O18" s="14" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="19" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="7">
+    <row r="19">
+      <c r="A19" s="9">
         <v>45586.560146284726</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="B19" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="C19" s="8" t="s">
+      <c r="C19" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="D19" s="8">
-        <v>20202415</v>
-      </c>
-      <c r="E19" s="8" t="s">
+      <c r="D19" s="10">
+        <v>2.0202415E7</v>
+      </c>
+      <c r="E19" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="F19" s="8" t="s">
+      <c r="F19" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="G19" s="8" t="s">
+      <c r="G19" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="H19" s="8" t="s">
+      <c r="H19" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="I19" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="M19" s="8" t="s">
+      <c r="I19" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="M19" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="N19" s="8" t="s">
+      <c r="N19" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="O19" s="9" t="s">
+      <c r="O19" s="11" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="4">
+    <row r="20">
+      <c r="A20" s="12">
         <v>45586.560380104165</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="C20" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="D20" s="5">
-        <v>20246601</v>
-      </c>
-      <c r="E20" s="5" t="s">
+      <c r="D20" s="13">
+        <v>2.0246601E7</v>
+      </c>
+      <c r="E20" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="F20" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="G20" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="H20" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="I20" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="M20" s="5" t="s">
+      <c r="F20" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G20" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H20" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="I20" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="M20" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="N20" s="5" t="s">
+      <c r="N20" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="O20" s="6" t="s">
+      <c r="O20" s="14" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="7">
-        <v>45586.615311307869</v>
-      </c>
-      <c r="B21" s="8" t="s">
+    <row r="21">
+      <c r="A21" s="9">
+        <v>45586.61531130787</v>
+      </c>
+      <c r="B21" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="C21" s="8" t="s">
+      <c r="C21" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="D21" s="8">
-        <v>20193810</v>
-      </c>
-      <c r="E21" s="8" t="s">
+      <c r="D21" s="10">
+        <v>2.019381E7</v>
+      </c>
+      <c r="E21" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="F21" s="8" t="s">
+      <c r="F21" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="G21" s="8" t="s">
+      <c r="G21" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="H21" s="8" t="s">
+      <c r="H21" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="I21" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="M21" s="8" t="s">
+      <c r="I21" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="M21" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="N21" s="8" t="s">
+      <c r="N21" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="O21" s="9" t="s">
+      <c r="O21" s="11" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="4">
-        <v>45586.648474722228</v>
-      </c>
-      <c r="B22" s="5" t="s">
+    <row r="22">
+      <c r="A22" s="12">
+        <v>45586.64847472223</v>
+      </c>
+      <c r="B22" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="C22" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="D22" s="5">
-        <v>20243704</v>
-      </c>
-      <c r="E22" s="5" t="s">
+      <c r="D22" s="13">
+        <v>2.0243704E7</v>
+      </c>
+      <c r="E22" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="F22" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="G22" s="5" t="s">
+      <c r="F22" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G22" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="H22" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="I22" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="M22" s="5" t="s">
+      <c r="H22" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="I22" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="M22" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="N22" s="5" t="s">
+      <c r="N22" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="O22" s="6" t="s">
+      <c r="O22" s="14" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="7">
+    <row r="23">
+      <c r="A23" s="9">
         <v>45586.650396122684</v>
       </c>
-      <c r="B23" s="8" t="s">
+      <c r="B23" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="C23" s="8" t="s">
+      <c r="C23" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D23" s="8">
-        <v>20213644</v>
-      </c>
-      <c r="E23" s="8" t="s">
+      <c r="D23" s="10">
+        <v>2.0213644E7</v>
+      </c>
+      <c r="E23" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="F23" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="G23" s="8" t="s">
+      <c r="F23" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G23" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="H23" s="8" t="s">
+      <c r="H23" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="I23" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="M23" s="8" t="s">
+      <c r="I23" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="M23" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="N23" s="8" t="s">
+      <c r="N23" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="O23" s="9" t="s">
+      <c r="O23" s="11" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="24" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="4">
-        <v>45586.673893182873</v>
-      </c>
-      <c r="B24" s="5" t="s">
+    <row r="24">
+      <c r="A24" s="12">
+        <v>45586.67389318287</v>
+      </c>
+      <c r="B24" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="C24" s="5" t="s">
+      <c r="C24" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="D24" s="5">
-        <v>20195170</v>
-      </c>
-      <c r="E24" s="5" t="s">
+      <c r="D24" s="13">
+        <v>2.019517E7</v>
+      </c>
+      <c r="E24" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="F24" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="G24" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="H24" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="I24" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="M24" s="5" t="s">
+      <c r="F24" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G24" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H24" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="I24" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="M24" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="N24" s="5" t="s">
+      <c r="N24" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="O24" s="6" t="s">
+      <c r="O24" s="14" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="25" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="7">
-        <v>45586.678151087966</v>
-      </c>
-      <c r="B25" s="8" t="s">
+    <row r="25">
+      <c r="A25" s="9">
+        <v>45586.67815108797</v>
+      </c>
+      <c r="B25" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="C25" s="8" t="s">
+      <c r="C25" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="D25" s="8">
-        <v>20182118</v>
-      </c>
-      <c r="E25" s="8" t="s">
+      <c r="D25" s="10">
+        <v>2.0182118E7</v>
+      </c>
+      <c r="E25" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="F25" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="G25" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="H25" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="I25" s="8" t="s">
+      <c r="F25" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G25" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H25" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="I25" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="J25" s="8" t="s">
+      <c r="J25" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="K25" s="8" t="s">
+      <c r="K25" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="L25" s="8" t="s">
+      <c r="L25" s="10" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="26" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="4">
-        <v>45586.688721192128</v>
-      </c>
-      <c r="B26" s="5" t="s">
+    <row r="26">
+      <c r="A26" s="12">
+        <v>45586.68872119213</v>
+      </c>
+      <c r="B26" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="C26" s="5" t="s">
+      <c r="C26" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="D26" s="5">
-        <v>20202335</v>
-      </c>
-      <c r="E26" s="5" t="s">
+      <c r="D26" s="13">
+        <v>2.0202335E7</v>
+      </c>
+      <c r="E26" s="13" t="s">
         <v>110</v>
       </c>
-      <c r="F26" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="G26" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="H26" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="I26" s="5" t="s">
+      <c r="F26" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G26" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H26" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="I26" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="J26" s="5" t="s">
+      <c r="J26" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="K26" s="5" t="s">
+      <c r="K26" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="L26" s="5" t="s">
+      <c r="L26" s="13" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="27" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="7">
-        <v>45586.697506898148</v>
-      </c>
-      <c r="B27" s="8" t="s">
+    <row r="27">
+      <c r="A27" s="9">
+        <v>45586.69750689815</v>
+      </c>
+      <c r="B27" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="C27" s="8" t="s">
+      <c r="C27" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="D27" s="8">
-        <v>20243821</v>
-      </c>
-      <c r="E27" s="8" t="s">
+      <c r="D27" s="10">
+        <v>2.0243821E7</v>
+      </c>
+      <c r="E27" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="F27" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="G27" s="8" t="s">
+      <c r="F27" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G27" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="H27" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="I27" s="8" t="s">
+      <c r="H27" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="I27" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="J27" s="8" t="s">
+      <c r="J27" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="K27" s="8" t="s">
+      <c r="K27" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="L27" s="8" t="s">
+      <c r="L27" s="10" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="28" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="4">
+    <row r="28">
+      <c r="A28" s="12">
         <v>45586.709084166665</v>
       </c>
-      <c r="B28" s="5" t="s">
+      <c r="B28" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="C28" s="5" t="s">
+      <c r="C28" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="D28" s="5">
-        <v>20201004</v>
-      </c>
-      <c r="E28" s="5" t="s">
+      <c r="D28" s="13">
+        <v>2.0201004E7</v>
+      </c>
+      <c r="E28" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="F28" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="G28" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="H28" s="5" t="s">
+      <c r="F28" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G28" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H28" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="I28" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="M28" s="5" t="s">
+      <c r="I28" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="M28" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="N28" s="5" t="s">
+      <c r="N28" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="O28" s="6" t="s">
+      <c r="O28" s="14" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="29" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="7">
-        <v>45586.731726712962</v>
-      </c>
-      <c r="B29" s="8" t="s">
+    <row r="29">
+      <c r="A29" s="9">
+        <v>45586.73172671296</v>
+      </c>
+      <c r="B29" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="C29" s="8" t="s">
+      <c r="C29" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="D29" s="8">
-        <v>20243040</v>
-      </c>
-      <c r="E29" s="8" t="s">
+      <c r="D29" s="10">
+        <v>2.024304E7</v>
+      </c>
+      <c r="E29" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="F29" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="G29" s="8" t="s">
+      <c r="F29" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G29" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="H29" s="8" t="s">
+      <c r="H29" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="I29" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="M29" s="8" t="s">
+      <c r="I29" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="M29" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="N29" s="8" t="s">
+      <c r="N29" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="O29" s="9" t="s">
+      <c r="O29" s="11" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="30" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="4">
-        <v>45586.733930995368</v>
-      </c>
-      <c r="B30" s="5" t="s">
+    <row r="30">
+      <c r="A30" s="12">
+        <v>45586.73393099537</v>
+      </c>
+      <c r="B30" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="C30" s="5" t="s">
+      <c r="C30" s="13" t="s">
         <v>120</v>
       </c>
-      <c r="D30" s="5">
-        <v>20242982</v>
-      </c>
-      <c r="E30" s="5" t="s">
+      <c r="D30" s="13">
+        <v>2.0242982E7</v>
+      </c>
+      <c r="E30" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="F30" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="G30" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="H30" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="I30" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="M30" s="5" t="s">
+      <c r="F30" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G30" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H30" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="I30" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="M30" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="N30" s="5" t="s">
+      <c r="N30" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="O30" s="6" t="s">
+      <c r="O30" s="14" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="31" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="7">
-        <v>45586.741578530091</v>
-      </c>
-      <c r="B31" s="8" t="s">
+    <row r="31">
+      <c r="A31" s="9">
+        <v>45586.74157853009</v>
+      </c>
+      <c r="B31" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="C31" s="8" t="s">
+      <c r="C31" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="D31" s="8">
-        <v>20246783</v>
-      </c>
-      <c r="E31" s="8" t="s">
+      <c r="D31" s="10">
+        <v>2.0246783E7</v>
+      </c>
+      <c r="E31" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="F31" s="8" t="s">
+      <c r="F31" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="G31" s="8" t="s">
+      <c r="G31" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="H31" s="8" t="s">
+      <c r="H31" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="I31" s="8" t="s">
+      <c r="I31" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="J31" s="8" t="s">
+      <c r="J31" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="K31" s="8" t="s">
+      <c r="K31" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="L31" s="8" t="s">
+      <c r="L31" s="10" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="32" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="4">
-        <v>45586.746652152782</v>
-      </c>
-      <c r="B32" s="5" t="s">
+    <row r="32">
+      <c r="A32" s="12">
+        <v>45586.74665215278</v>
+      </c>
+      <c r="B32" s="13" t="s">
         <v>125</v>
       </c>
-      <c r="C32" s="5" t="s">
+      <c r="C32" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="D32" s="5">
-        <v>20212754</v>
-      </c>
-      <c r="E32" s="5" t="s">
+      <c r="D32" s="13">
+        <v>2.0212754E7</v>
+      </c>
+      <c r="E32" s="13" t="s">
         <v>126</v>
       </c>
-      <c r="F32" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="G32" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="H32" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="I32" s="5" t="s">
+      <c r="F32" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G32" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H32" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="I32" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="J32" s="5" t="s">
+      <c r="J32" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="K32" s="5" t="s">
+      <c r="K32" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="L32" s="5" t="s">
+      <c r="L32" s="13" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="33" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="7">
-        <v>45586.759635034723</v>
-      </c>
-      <c r="B33" s="8" t="s">
+    <row r="33">
+      <c r="A33" s="9">
+        <v>45586.75963503472</v>
+      </c>
+      <c r="B33" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="C33" s="8" t="s">
+      <c r="C33" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="D33" s="8">
-        <v>20202915</v>
-      </c>
-      <c r="E33" s="8" t="s">
+      <c r="D33" s="10">
+        <v>2.0202915E7</v>
+      </c>
+      <c r="E33" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="F33" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="G33" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="H33" s="8" t="s">
+      <c r="F33" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G33" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H33" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="I33" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="M33" s="8" t="s">
+      <c r="I33" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="M33" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="N33" s="8" t="s">
+      <c r="N33" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="O33" s="9" t="s">
+      <c r="O33" s="11" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="34" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="4">
-        <v>45586.767601192128</v>
-      </c>
-      <c r="B34" s="5" t="s">
+    <row r="34">
+      <c r="A34" s="12">
+        <v>45586.76760119213</v>
+      </c>
+      <c r="B34" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="C34" s="5" t="s">
+      <c r="C34" s="13" t="s">
         <v>130</v>
       </c>
-      <c r="D34" s="5">
-        <v>20243236</v>
-      </c>
-      <c r="E34" s="5" t="s">
+      <c r="D34" s="13">
+        <v>2.0243236E7</v>
+      </c>
+      <c r="E34" s="13" t="s">
         <v>131</v>
       </c>
-      <c r="F34" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="G34" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="H34" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="I34" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="M34" s="5" t="s">
+      <c r="F34" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G34" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H34" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="I34" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="M34" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="N34" s="5" t="s">
+      <c r="N34" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="O34" s="6" t="s">
+      <c r="O34" s="14" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="35" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="7">
-        <v>45586.772772407407</v>
-      </c>
-      <c r="B35" s="8" t="s">
+    <row r="35">
+      <c r="A35" s="9">
+        <v>45586.77277240741</v>
+      </c>
+      <c r="B35" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="C35" s="8" t="s">
+      <c r="C35" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="D35" s="8">
-        <v>20241077</v>
-      </c>
-      <c r="E35" s="8" t="s">
+      <c r="D35" s="10">
+        <v>2.0241077E7</v>
+      </c>
+      <c r="E35" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="F35" s="8" t="s">
+      <c r="F35" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="G35" s="8" t="s">
+      <c r="G35" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="H35" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="I35" s="8" t="s">
+      <c r="H35" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="I35" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="J35" s="8" t="s">
+      <c r="J35" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="K35" s="8" t="s">
+      <c r="K35" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="L35" s="8" t="s">
+      <c r="L35" s="10" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="36" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="4">
+    <row r="36">
+      <c r="A36" s="12">
         <v>45586.806140879635</v>
       </c>
-      <c r="B36" s="5" t="s">
+      <c r="B36" s="13" t="s">
         <v>134</v>
       </c>
-      <c r="C36" s="5" t="s">
+      <c r="C36" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="D36" s="5">
-        <v>20193633</v>
-      </c>
-      <c r="E36" s="5" t="s">
+      <c r="D36" s="13">
+        <v>2.0193633E7</v>
+      </c>
+      <c r="E36" s="13" t="s">
         <v>135</v>
       </c>
-      <c r="F36" s="5" t="s">
+      <c r="F36" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="G36" s="5" t="s">
+      <c r="G36" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="H36" s="5" t="s">
+      <c r="H36" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="I36" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="M36" s="5" t="s">
+      <c r="I36" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="M36" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="N36" s="5" t="s">
+      <c r="N36" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="O36" s="6" t="s">
+      <c r="O36" s="14" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="37" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="7">
-        <v>45586.844755486112</v>
-      </c>
-      <c r="B37" s="8" t="s">
+    <row r="37">
+      <c r="A37" s="9">
+        <v>45586.84475548611</v>
+      </c>
+      <c r="B37" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="C37" s="8" t="s">
+      <c r="C37" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="D37" s="8">
-        <v>20241204</v>
-      </c>
-      <c r="E37" s="8" t="s">
+      <c r="D37" s="10">
+        <v>2.0241204E7</v>
+      </c>
+      <c r="E37" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="F37" s="8" t="s">
+      <c r="F37" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="G37" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="H37" s="8" t="s">
+      <c r="G37" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H37" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="I37" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="M37" s="8" t="s">
+      <c r="I37" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="M37" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="N37" s="8" t="s">
+      <c r="N37" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="O37" s="9" t="s">
+      <c r="O37" s="11" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="38" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="4">
-        <v>45586.847845104166</v>
-      </c>
-      <c r="B38" s="5" t="s">
+    <row r="38">
+      <c r="A38" s="12">
+        <v>45586.84784510417</v>
+      </c>
+      <c r="B38" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="C38" s="5" t="s">
+      <c r="C38" s="13" t="s">
         <v>140</v>
       </c>
-      <c r="D38" s="5">
-        <v>20243941</v>
-      </c>
-      <c r="E38" s="5" t="s">
+      <c r="D38" s="13">
+        <v>2.0243941E7</v>
+      </c>
+      <c r="E38" s="13" t="s">
         <v>141</v>
       </c>
-      <c r="F38" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="G38" s="5" t="s">
+      <c r="F38" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G38" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="H38" s="5" t="s">
+      <c r="H38" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="I38" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="M38" s="5" t="s">
+      <c r="I38" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="M38" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="N38" s="5" t="s">
+      <c r="N38" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="O38" s="6" t="s">
+      <c r="O38" s="14" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="39" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="7">
-        <v>45586.848004699073</v>
-      </c>
-      <c r="B39" s="8" t="s">
+    <row r="39">
+      <c r="A39" s="9">
+        <v>45586.84800469907</v>
+      </c>
+      <c r="B39" s="10" t="s">
         <v>142</v>
       </c>
-      <c r="C39" s="8" t="s">
+      <c r="C39" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="D39" s="8">
-        <v>20246232</v>
-      </c>
-      <c r="E39" s="8" t="s">
+      <c r="D39" s="10">
+        <v>2.0246232E7</v>
+      </c>
+      <c r="E39" s="10" t="s">
         <v>143</v>
       </c>
-      <c r="F39" s="8" t="s">
+      <c r="F39" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="G39" s="8" t="s">
+      <c r="G39" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="H39" s="8" t="s">
+      <c r="H39" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="I39" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="M39" s="8" t="s">
+      <c r="I39" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="M39" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="N39" s="8" t="s">
+      <c r="N39" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="O39" s="9" t="s">
+      <c r="O39" s="11" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="40" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="4">
-        <v>45586.866565092598</v>
-      </c>
-      <c r="B40" s="5" t="s">
+    <row r="40">
+      <c r="A40" s="12">
+        <v>45586.8665650926</v>
+      </c>
+      <c r="B40" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="C40" s="5" t="s">
+      <c r="C40" s="13" t="s">
         <v>145</v>
       </c>
-      <c r="D40" s="5">
-        <v>20235248</v>
-      </c>
-      <c r="E40" s="5" t="s">
+      <c r="D40" s="13">
+        <v>2.0235248E7</v>
+      </c>
+      <c r="E40" s="13" t="s">
         <v>146</v>
       </c>
-      <c r="F40" s="5" t="s">
+      <c r="F40" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="G40" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="H40" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="I40" s="5" t="s">
+      <c r="G40" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H40" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="I40" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="J40" s="5" t="s">
+      <c r="J40" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="K40" s="5" t="s">
+      <c r="K40" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="L40" s="5" t="s">
+      <c r="L40" s="13" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="7">
-        <v>45586.881269548612</v>
-      </c>
-      <c r="B41" s="8" t="s">
+    <row r="41">
+      <c r="A41" s="9">
+        <v>45586.88126954861</v>
+      </c>
+      <c r="B41" s="10" t="s">
         <v>147</v>
       </c>
-      <c r="C41" s="8" t="s">
+      <c r="C41" s="10" t="s">
         <v>148</v>
       </c>
-      <c r="D41" s="8">
-        <v>20213609</v>
-      </c>
-      <c r="E41" s="8" t="s">
+      <c r="D41" s="10">
+        <v>2.0213609E7</v>
+      </c>
+      <c r="E41" s="10" t="s">
         <v>149</v>
       </c>
-      <c r="F41" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="G41" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="H41" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="I41" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="M41" s="8" t="s">
+      <c r="F41" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G41" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H41" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="I41" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="M41" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="N41" s="8" t="s">
+      <c r="N41" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="O41" s="9" t="s">
+      <c r="O41" s="11" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="42" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="4">
-        <v>45586.974828541672</v>
-      </c>
-      <c r="B42" s="5" t="s">
+    <row r="42">
+      <c r="A42" s="12">
+        <v>45586.97482854167</v>
+      </c>
+      <c r="B42" s="13" t="s">
         <v>150</v>
       </c>
-      <c r="C42" s="5" t="s">
+      <c r="C42" s="13" t="s">
         <v>151</v>
       </c>
-      <c r="D42" s="5">
-        <v>20227106</v>
-      </c>
-      <c r="E42" s="5" t="s">
+      <c r="D42" s="13">
+        <v>2.0227106E7</v>
+      </c>
+      <c r="E42" s="13" t="s">
         <v>152</v>
       </c>
-      <c r="F42" s="5" t="s">
+      <c r="F42" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="G42" s="5" t="s">
+      <c r="G42" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="H42" s="5" t="s">
+      <c r="H42" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="I42" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="M42" s="5" t="s">
+      <c r="I42" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="M42" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="N42" s="5" t="s">
+      <c r="N42" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="O42" s="6" t="s">
+      <c r="O42" s="14" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="43" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="7">
-        <v>45586.983428206018</v>
-      </c>
-      <c r="B43" s="8" t="s">
+    <row r="43">
+      <c r="A43" s="9">
+        <v>45586.98342820602</v>
+      </c>
+      <c r="B43" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="C43" s="8" t="s">
+      <c r="C43" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="D43" s="8">
-        <v>20243206</v>
-      </c>
-      <c r="E43" s="8" t="s">
+      <c r="D43" s="10">
+        <v>2.0243206E7</v>
+      </c>
+      <c r="E43" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="F43" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="G43" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="H43" s="8" t="s">
+      <c r="F43" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G43" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H43" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="I43" s="8" t="s">
+      <c r="I43" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="J43" s="8" t="s">
+      <c r="J43" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="K43" s="8" t="s">
+      <c r="K43" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="L43" s="8" t="s">
+      <c r="L43" s="10" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="44" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="4">
+    <row r="44">
+      <c r="A44" s="12">
         <v>45587.003998263885</v>
       </c>
-      <c r="B44" s="5" t="s">
+      <c r="B44" s="13" t="s">
         <v>155</v>
       </c>
-      <c r="C44" s="5" t="s">
+      <c r="C44" s="13" t="s">
         <v>156</v>
       </c>
-      <c r="D44" s="5">
-        <v>20196523</v>
-      </c>
-      <c r="E44" s="5" t="s">
+      <c r="D44" s="13">
+        <v>2.0196523E7</v>
+      </c>
+      <c r="E44" s="13" t="s">
         <v>157</v>
       </c>
-      <c r="F44" s="5" t="s">
+      <c r="F44" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="G44" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="H44" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="I44" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="M44" s="5" t="s">
+      <c r="G44" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H44" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="I44" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="M44" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="N44" s="5" t="s">
+      <c r="N44" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="O44" s="6" t="s">
+      <c r="O44" s="14" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="45" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="7">
-        <v>45587.049067557869</v>
-      </c>
-      <c r="B45" s="8" t="s">
+    <row r="45">
+      <c r="A45" s="9">
+        <v>45587.04906755787</v>
+      </c>
+      <c r="B45" s="10" t="s">
         <v>158</v>
       </c>
-      <c r="C45" s="8" t="s">
+      <c r="C45" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="D45" s="8">
-        <v>20246292</v>
-      </c>
-      <c r="E45" s="8" t="s">
+      <c r="D45" s="10">
+        <v>2.0246292E7</v>
+      </c>
+      <c r="E45" s="10" t="s">
         <v>159</v>
       </c>
-      <c r="F45" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="G45" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="H45" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="I45" s="8" t="s">
+      <c r="F45" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G45" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H45" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="I45" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="J45" s="8" t="s">
+      <c r="J45" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="K45" s="8" t="s">
+      <c r="K45" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="L45" s="8" t="s">
+      <c r="L45" s="10" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="46" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="4">
-        <v>45587.119836562502</v>
-      </c>
-      <c r="B46" s="5" t="s">
+    <row r="46">
+      <c r="A46" s="12">
+        <v>45587.1198365625</v>
+      </c>
+      <c r="B46" s="13" t="s">
         <v>160</v>
       </c>
-      <c r="C46" s="5" t="s">
+      <c r="C46" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="D46" s="5">
-        <v>20221059</v>
-      </c>
-      <c r="E46" s="5" t="s">
+      <c r="D46" s="13">
+        <v>2.0221059E7</v>
+      </c>
+      <c r="E46" s="13" t="s">
         <v>161</v>
       </c>
-      <c r="F46" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="G46" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="H46" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="I46" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="M46" s="5" t="s">
+      <c r="F46" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G46" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H46" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="I46" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="M46" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="N46" s="5" t="s">
+      <c r="N46" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="O46" s="6" t="s">
+      <c r="O46" s="14" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="47" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="7">
+    <row r="47">
+      <c r="A47" s="9">
         <v>45587.16884972222</v>
       </c>
-      <c r="B47" s="8" t="s">
+      <c r="B47" s="10" t="s">
         <v>162</v>
       </c>
-      <c r="C47" s="8" t="s">
+      <c r="C47" s="10" t="s">
         <v>163</v>
       </c>
-      <c r="D47" s="8">
-        <v>20211097</v>
-      </c>
-      <c r="E47" s="8" t="s">
+      <c r="D47" s="10">
+        <v>2.0211097E7</v>
+      </c>
+      <c r="E47" s="10" t="s">
         <v>164</v>
       </c>
-      <c r="F47" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="G47" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="H47" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="I47" s="8" t="s">
+      <c r="F47" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G47" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H47" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="I47" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="J47" s="8" t="s">
+      <c r="J47" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="K47" s="8" t="s">
+      <c r="K47" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="L47" s="8" t="s">
+      <c r="L47" s="10" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="48" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="4">
-        <v>45587.395518356483</v>
-      </c>
-      <c r="B48" s="5" t="s">
+    <row r="48">
+      <c r="A48" s="12">
+        <v>45587.39551835648</v>
+      </c>
+      <c r="B48" s="13" t="s">
         <v>165</v>
       </c>
-      <c r="C48" s="5" t="s">
+      <c r="C48" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="D48" s="5">
-        <v>20246302</v>
-      </c>
-      <c r="E48" s="5" t="s">
+      <c r="D48" s="13">
+        <v>2.0246302E7</v>
+      </c>
+      <c r="E48" s="13" t="s">
         <v>166</v>
       </c>
-      <c r="F48" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="G48" s="5" t="s">
+      <c r="F48" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G48" s="13" t="s">
         <v>113</v>
       </c>
-      <c r="H48" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="I48" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="M48" s="5" t="s">
+      <c r="H48" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="I48" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="M48" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="N48" s="5" t="s">
+      <c r="N48" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="O48" s="6" t="s">
+      <c r="O48" s="14" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="49" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="7">
-        <v>45587.417546759258</v>
-      </c>
-      <c r="B49" s="8" t="s">
+    <row r="49">
+      <c r="A49" s="9">
+        <v>45587.41754675926</v>
+      </c>
+      <c r="B49" s="10" t="s">
         <v>167</v>
       </c>
-      <c r="C49" s="8" t="s">
+      <c r="C49" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="D49" s="8">
-        <v>20203019</v>
-      </c>
-      <c r="E49" s="8" t="s">
+      <c r="D49" s="10">
+        <v>2.0203019E7</v>
+      </c>
+      <c r="E49" s="10" t="s">
         <v>168</v>
       </c>
-      <c r="F49" s="8" t="s">
+      <c r="F49" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="G49" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="H49" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="I49" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="M49" s="8" t="s">
+      <c r="G49" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H49" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="I49" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="M49" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="N49" s="8" t="s">
+      <c r="N49" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="O49" s="9" t="s">
+      <c r="O49" s="11" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="50" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="4">
+    <row r="50">
+      <c r="A50" s="12">
         <v>45587.476138171296</v>
       </c>
-      <c r="B50" s="5" t="s">
+      <c r="B50" s="13" t="s">
         <v>169</v>
       </c>
-      <c r="C50" s="5" t="s">
+      <c r="C50" s="13" t="s">
         <v>170</v>
       </c>
-      <c r="D50" s="5">
-        <v>20172435</v>
-      </c>
-      <c r="E50" s="5" t="s">
+      <c r="D50" s="13">
+        <v>2.0172435E7</v>
+      </c>
+      <c r="E50" s="13" t="s">
         <v>171</v>
       </c>
-      <c r="F50" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="G50" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="H50" s="5" t="s">
+      <c r="F50" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G50" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H50" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="I50" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="M50" s="5" t="s">
+      <c r="I50" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="M50" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="N50" s="5" t="s">
+      <c r="N50" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="O50" s="6" t="s">
+      <c r="O50" s="14" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="51" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="7">
-        <v>45587.482815057869</v>
-      </c>
-      <c r="B51" s="8" t="s">
+    <row r="51">
+      <c r="A51" s="9">
+        <v>45587.48281505787</v>
+      </c>
+      <c r="B51" s="10" t="s">
         <v>172</v>
       </c>
-      <c r="C51" s="8" t="s">
+      <c r="C51" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="D51" s="8">
-        <v>20243062</v>
-      </c>
-      <c r="E51" s="8" t="s">
+      <c r="D51" s="10">
+        <v>2.0243062E7</v>
+      </c>
+      <c r="E51" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="F51" s="8" t="s">
+      <c r="F51" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="G51" s="8" t="s">
+      <c r="G51" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="H51" s="8" t="s">
+      <c r="H51" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="I51" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="M51" s="8" t="s">
+      <c r="I51" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="M51" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="N51" s="8" t="s">
+      <c r="N51" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="O51" s="9" t="s">
+      <c r="O51" s="11" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="52" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="4">
-        <v>45587.630349016203</v>
-      </c>
-      <c r="B52" s="5" t="s">
+    <row r="52">
+      <c r="A52" s="12">
+        <v>45587.6303490162</v>
+      </c>
+      <c r="B52" s="13" t="s">
         <v>174</v>
       </c>
-      <c r="C52" s="5" t="s">
+      <c r="C52" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="D52" s="5">
-        <v>20242551</v>
-      </c>
-      <c r="E52" s="5" t="s">
+      <c r="D52" s="13">
+        <v>2.0242551E7</v>
+      </c>
+      <c r="E52" s="13" t="s">
         <v>175</v>
       </c>
-      <c r="F52" s="5" t="s">
+      <c r="F52" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="G52" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="H52" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="I52" s="5" t="s">
+      <c r="G52" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H52" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="I52" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="J52" s="5" t="s">
+      <c r="J52" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="K52" s="5" t="s">
+      <c r="K52" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="L52" s="5" t="s">
+      <c r="L52" s="13" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="53" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="7">
-        <v>45587.633822962962</v>
-      </c>
-      <c r="B53" s="8" t="s">
+    <row r="53">
+      <c r="A53" s="9">
+        <v>45587.63382296296</v>
+      </c>
+      <c r="B53" s="10" t="s">
         <v>176</v>
       </c>
-      <c r="C53" s="8" t="s">
+      <c r="C53" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="D53" s="8">
-        <v>20232417</v>
-      </c>
-      <c r="E53" s="8" t="s">
+      <c r="D53" s="10">
+        <v>2.0232417E7</v>
+      </c>
+      <c r="E53" s="10" t="s">
         <v>177</v>
       </c>
-      <c r="F53" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="G53" s="8" t="s">
+      <c r="F53" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G53" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="H53" s="8" t="s">
+      <c r="H53" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="I53" s="8" t="s">
+      <c r="I53" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="J53" s="8" t="s">
+      <c r="J53" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="K53" s="8" t="s">
+      <c r="K53" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="L53" s="8" t="s">
+      <c r="L53" s="10" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="54" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="4">
+    <row r="54">
+      <c r="A54" s="12">
         <v>45587.690287523146</v>
       </c>
-      <c r="B54" s="5" t="s">
+      <c r="B54" s="13" t="s">
         <v>178</v>
       </c>
-      <c r="C54" s="5" t="s">
+      <c r="C54" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="D54" s="5">
-        <v>20193010</v>
-      </c>
-      <c r="E54" s="5" t="s">
+      <c r="D54" s="13">
+        <v>2.019301E7</v>
+      </c>
+      <c r="E54" s="13" t="s">
         <v>179</v>
       </c>
-      <c r="F54" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="G54" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="H54" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="I54" s="5" t="s">
+      <c r="F54" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G54" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H54" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="I54" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="J54" s="5" t="s">
+      <c r="J54" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="K54" s="5" t="s">
+      <c r="K54" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="L54" s="5" t="s">
+      <c r="L54" s="13" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="55" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="7">
+    <row r="55">
+      <c r="A55" s="9">
         <v>45587.704430405094</v>
       </c>
-      <c r="B55" s="8" t="s">
+      <c r="B55" s="10" t="s">
         <v>180</v>
       </c>
-      <c r="C55" s="8" t="s">
+      <c r="C55" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="D55" s="8">
-        <v>20243257</v>
-      </c>
-      <c r="E55" s="8" t="s">
+      <c r="D55" s="10">
+        <v>2.0243257E7</v>
+      </c>
+      <c r="E55" s="10" t="s">
         <v>181</v>
       </c>
-      <c r="F55" s="8" t="s">
+      <c r="F55" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="G55" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="H55" s="8" t="s">
+      <c r="G55" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H55" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="I55" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="M55" s="8" t="s">
+      <c r="I55" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="M55" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="N55" s="8" t="s">
+      <c r="N55" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="O55" s="9" t="s">
+      <c r="O55" s="11" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="56" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="4">
-        <v>45587.712868298608</v>
-      </c>
-      <c r="B56" s="5" t="s">
+    <row r="56">
+      <c r="A56" s="12">
+        <v>45587.71286829861</v>
+      </c>
+      <c r="B56" s="13" t="s">
         <v>182</v>
       </c>
-      <c r="C56" s="5" t="s">
+      <c r="C56" s="13" t="s">
         <v>183</v>
       </c>
-      <c r="D56" s="5">
-        <v>20246420</v>
-      </c>
-      <c r="E56" s="5" t="s">
+      <c r="D56" s="13">
+        <v>2.024642E7</v>
+      </c>
+      <c r="E56" s="13" t="s">
         <v>184</v>
       </c>
-      <c r="F56" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="G56" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="H56" s="5" t="s">
+      <c r="F56" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G56" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H56" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="I56" s="5" t="s">
+      <c r="I56" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="J56" s="5" t="s">
+      <c r="J56" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="K56" s="5" t="s">
+      <c r="K56" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="L56" s="5" t="s">
+      <c r="L56" s="13" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="57" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="7">
-        <v>45587.716816087966</v>
-      </c>
-      <c r="B57" s="8" t="s">
+    <row r="57">
+      <c r="A57" s="9">
+        <v>45587.71681608797</v>
+      </c>
+      <c r="B57" s="10" t="s">
         <v>185</v>
       </c>
-      <c r="C57" s="8" t="s">
+      <c r="C57" s="10" t="s">
         <v>186</v>
       </c>
-      <c r="D57" s="8">
-        <v>20203251</v>
-      </c>
-      <c r="E57" s="8" t="s">
+      <c r="D57" s="10">
+        <v>2.0203251E7</v>
+      </c>
+      <c r="E57" s="10" t="s">
         <v>187</v>
       </c>
-      <c r="F57" s="8" t="s">
+      <c r="F57" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="G57" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="H57" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="I57" s="8" t="s">
+      <c r="G57" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H57" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="I57" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="J57" s="8" t="s">
+      <c r="J57" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="K57" s="8" t="s">
+      <c r="K57" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="L57" s="8" t="s">
+      <c r="L57" s="10" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="58" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="4">
-        <v>45587.743274606481</v>
-      </c>
-      <c r="B58" s="5" t="s">
+    <row r="58">
+      <c r="A58" s="12">
+        <v>45587.74327460648</v>
+      </c>
+      <c r="B58" s="13" t="s">
         <v>188</v>
       </c>
-      <c r="C58" s="5" t="s">
+      <c r="C58" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="5">
-        <v>20203211</v>
-      </c>
-      <c r="E58" s="5" t="s">
+      <c r="D58" s="13">
+        <v>2.0203211E7</v>
+      </c>
+      <c r="E58" s="13" t="s">
         <v>189</v>
       </c>
-      <c r="F58" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="G58" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="H58" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="I58" s="5" t="s">
+      <c r="F58" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G58" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H58" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="I58" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="J58" s="5" t="s">
+      <c r="J58" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="K58" s="5" t="s">
+      <c r="K58" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="L58" s="5" t="s">
+      <c r="L58" s="13" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="59" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="7">
+    <row r="59">
+      <c r="A59" s="9">
         <v>45587.748761979165</v>
       </c>
-      <c r="B59" s="8" t="s">
+      <c r="B59" s="10" t="s">
         <v>190</v>
       </c>
-      <c r="C59" s="8" t="s">
+      <c r="C59" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="D59" s="8">
-        <v>20242122</v>
-      </c>
-      <c r="E59" s="8" t="s">
+      <c r="D59" s="10">
+        <v>2.0242122E7</v>
+      </c>
+      <c r="E59" s="10" t="s">
         <v>191</v>
       </c>
-      <c r="F59" s="8" t="s">
+      <c r="F59" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="G59" s="8" t="s">
+      <c r="G59" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="H59" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="I59" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="M59" s="8" t="s">
+      <c r="H59" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="I59" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="M59" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="N59" s="8" t="s">
+      <c r="N59" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="O59" s="9" t="s">
+      <c r="O59" s="11" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="60" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="4">
-        <v>45587.790705173611</v>
-      </c>
-      <c r="B60" s="5" t="s">
+    <row r="60">
+      <c r="A60" s="12">
+        <v>45587.79070517361</v>
+      </c>
+      <c r="B60" s="13" t="s">
         <v>192</v>
       </c>
-      <c r="C60" s="5" t="s">
+      <c r="C60" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="D60" s="5">
-        <v>20233060</v>
-      </c>
-      <c r="E60" s="5" t="s">
+      <c r="D60" s="13">
+        <v>2.023306E7</v>
+      </c>
+      <c r="E60" s="13" t="s">
         <v>193</v>
       </c>
-      <c r="F60" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="G60" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="H60" s="5" t="s">
+      <c r="F60" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G60" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H60" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="I60" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="M60" s="5" t="s">
+      <c r="I60" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="M60" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="N60" s="5" t="s">
+      <c r="N60" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="O60" s="6" t="s">
+      <c r="O60" s="14" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="61" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A61" s="7">
-        <v>45587.810731319449</v>
-      </c>
-      <c r="B61" s="8" t="s">
+    <row r="61">
+      <c r="A61" s="9">
+        <v>45587.81073131945</v>
+      </c>
+      <c r="B61" s="10" t="s">
         <v>194</v>
       </c>
-      <c r="C61" s="8" t="s">
+      <c r="C61" s="10" t="s">
         <v>195</v>
       </c>
-      <c r="D61" s="8">
-        <v>20193003</v>
-      </c>
-      <c r="E61" s="8" t="s">
+      <c r="D61" s="10">
+        <v>2.0193003E7</v>
+      </c>
+      <c r="E61" s="10" t="s">
         <v>196</v>
       </c>
-      <c r="F61" s="8" t="s">
+      <c r="F61" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="G61" s="8" t="s">
+      <c r="G61" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="H61" s="8" t="s">
+      <c r="H61" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="I61" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="M61" s="8" t="s">
+      <c r="I61" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="M61" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="N61" s="8" t="s">
+      <c r="N61" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="O61" s="9" t="s">
+      <c r="O61" s="11" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="62" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A62" s="4">
-        <v>45587.811877962959</v>
-      </c>
-      <c r="B62" s="5" t="s">
+    <row r="62">
+      <c r="A62" s="12">
+        <v>45587.81187796296</v>
+      </c>
+      <c r="B62" s="13" t="s">
         <v>197</v>
       </c>
-      <c r="C62" s="5" t="s">
+      <c r="C62" s="13" t="s">
         <v>198</v>
       </c>
-      <c r="D62" s="5">
-        <v>20245201</v>
-      </c>
-      <c r="E62" s="5" t="s">
+      <c r="D62" s="13">
+        <v>2.0245201E7</v>
+      </c>
+      <c r="E62" s="13" t="s">
         <v>199</v>
       </c>
-      <c r="F62" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="G62" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="H62" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="I62" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="M62" s="5" t="s">
+      <c r="F62" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G62" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H62" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="I62" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="M62" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="N62" s="5" t="s">
+      <c r="N62" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="O62" s="6" t="s">
+      <c r="O62" s="14" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="63" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A63" s="7">
-        <v>45587.820652523151</v>
-      </c>
-      <c r="B63" s="8" t="s">
+    <row r="63">
+      <c r="A63" s="9">
+        <v>45587.82065252315</v>
+      </c>
+      <c r="B63" s="10" t="s">
         <v>200</v>
       </c>
-      <c r="C63" s="8" t="s">
+      <c r="C63" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="D63" s="8">
-        <v>20212418</v>
-      </c>
-      <c r="E63" s="8" t="s">
+      <c r="D63" s="10">
+        <v>2.0212418E7</v>
+      </c>
+      <c r="E63" s="10" t="s">
         <v>201</v>
       </c>
-      <c r="F63" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="G63" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="H63" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="I63" s="8" t="s">
+      <c r="F63" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G63" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H63" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="I63" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="J63" s="8" t="s">
+      <c r="J63" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="K63" s="8" t="s">
+      <c r="K63" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="L63" s="8" t="s">
+      <c r="L63" s="10" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="64" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="4">
-        <v>45587.825792951393</v>
-      </c>
-      <c r="B64" s="5" t="s">
+    <row r="64">
+      <c r="A64" s="12">
+        <v>45587.82579295139</v>
+      </c>
+      <c r="B64" s="13" t="s">
         <v>202</v>
       </c>
-      <c r="C64" s="5" t="s">
+      <c r="C64" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="D64" s="5">
-        <v>20242503</v>
-      </c>
-      <c r="E64" s="5" t="s">
+      <c r="D64" s="13">
+        <v>2.0242503E7</v>
+      </c>
+      <c r="E64" s="13" t="s">
         <v>203</v>
       </c>
-      <c r="F64" s="5" t="s">
+      <c r="F64" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="G64" s="5" t="s">
+      <c r="G64" s="13" t="s">
         <v>113</v>
       </c>
-      <c r="H64" s="5" t="s">
+      <c r="H64" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="I64" s="5" t="s">
+      <c r="I64" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="J64" s="5" t="s">
+      <c r="J64" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="K64" s="5" t="s">
+      <c r="K64" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="L64" s="5" t="s">
+      <c r="L64" s="13" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="65" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A65" s="7">
-        <v>45587.846532233802</v>
-      </c>
-      <c r="B65" s="8" t="s">
+    <row r="65">
+      <c r="A65" s="9">
+        <v>45587.8465322338</v>
+      </c>
+      <c r="B65" s="10" t="s">
         <v>204</v>
       </c>
-      <c r="C65" s="8" t="s">
+      <c r="C65" s="10" t="s">
         <v>205</v>
       </c>
-      <c r="D65" s="8">
-        <v>20202706</v>
-      </c>
-      <c r="E65" s="8" t="s">
+      <c r="D65" s="10">
+        <v>2.0202706E7</v>
+      </c>
+      <c r="E65" s="10" t="s">
         <v>206</v>
       </c>
-      <c r="F65" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="G65" s="8" t="s">
+      <c r="F65" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G65" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="H65" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="I65" s="8" t="s">
+      <c r="H65" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="I65" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="J65" s="8" t="s">
+      <c r="J65" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="K65" s="8" t="s">
+      <c r="K65" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="L65" s="8" t="s">
+      <c r="L65" s="10" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="66" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A66" s="4">
+    <row r="66">
+      <c r="A66" s="12">
         <v>45587.908523252314</v>
       </c>
-      <c r="B66" s="5" t="s">
+      <c r="B66" s="13" t="s">
         <v>207</v>
       </c>
-      <c r="C66" s="5" t="s">
+      <c r="C66" s="13" t="s">
         <v>151</v>
       </c>
-      <c r="D66" s="5">
-        <v>20227157</v>
-      </c>
-      <c r="E66" s="5" t="s">
+      <c r="D66" s="13">
+        <v>2.0227157E7</v>
+      </c>
+      <c r="E66" s="13" t="s">
         <v>208</v>
       </c>
-      <c r="F66" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="G66" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="H66" s="5" t="s">
+      <c r="F66" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G66" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H66" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="I66" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="M66" s="5" t="s">
+      <c r="I66" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="M66" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="N66" s="5" t="s">
+      <c r="N66" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="O66" s="6" t="s">
+      <c r="O66" s="14" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="67" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A67" s="7">
+    <row r="67">
+      <c r="A67" s="9">
         <v>45587.925471712966</v>
       </c>
-      <c r="B67" s="8" t="s">
+      <c r="B67" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="C67" s="8" t="s">
+      <c r="C67" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="D67" s="8">
-        <v>20246294</v>
-      </c>
-      <c r="E67" s="8" t="s">
+      <c r="D67" s="10">
+        <v>2.0246294E7</v>
+      </c>
+      <c r="E67" s="10" t="s">
         <v>210</v>
       </c>
-      <c r="F67" s="8" t="s">
+      <c r="F67" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="G67" s="8" t="s">
+      <c r="G67" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="H67" s="8" t="s">
+      <c r="H67" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="I67" s="8" t="s">
+      <c r="I67" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="J67" s="8" t="s">
+      <c r="J67" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="K67" s="8" t="s">
+      <c r="K67" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="L67" s="8" t="s">
+      <c r="L67" s="10" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="68" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A68" s="4">
-        <v>45587.964343321757</v>
-      </c>
-      <c r="B68" s="5" t="s">
+    <row r="68">
+      <c r="A68" s="12">
+        <v>45587.96434332176</v>
+      </c>
+      <c r="B68" s="13" t="s">
         <v>211</v>
       </c>
-      <c r="C68" s="5" t="s">
+      <c r="C68" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="D68" s="5">
-        <v>20213023</v>
-      </c>
-      <c r="E68" s="5" t="s">
+      <c r="D68" s="13">
+        <v>2.0213023E7</v>
+      </c>
+      <c r="E68" s="13" t="s">
         <v>212</v>
       </c>
-      <c r="F68" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="G68" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="H68" s="5" t="s">
+      <c r="F68" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G68" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H68" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="I68" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="M68" s="5" t="s">
+      <c r="I68" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="M68" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="N68" s="5" t="s">
+      <c r="N68" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="O68" s="6" t="s">
+      <c r="O68" s="14" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="69" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A69" s="7">
+    <row r="69">
+      <c r="A69" s="9">
         <v>45587.972994270836</v>
       </c>
-      <c r="B69" s="8" t="s">
+      <c r="B69" s="10" t="s">
         <v>213</v>
       </c>
-      <c r="C69" s="8" t="s">
+      <c r="C69" s="10" t="s">
         <v>214</v>
       </c>
-      <c r="D69" s="8">
-        <v>20231602</v>
-      </c>
-      <c r="E69" s="8" t="s">
+      <c r="D69" s="10">
+        <v>2.0231602E7</v>
+      </c>
+      <c r="E69" s="10" t="s">
         <v>215</v>
       </c>
-      <c r="F69" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="G69" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="H69" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="I69" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="M69" s="8" t="s">
+      <c r="F69" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G69" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H69" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="I69" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="M69" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="N69" s="8" t="s">
+      <c r="N69" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="O69" s="9" t="s">
+      <c r="O69" s="11" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="70" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A70" s="4">
-        <v>45587.973910474539</v>
-      </c>
-      <c r="B70" s="5" t="s">
+    <row r="70">
+      <c r="A70" s="12">
+        <v>45587.97391047454</v>
+      </c>
+      <c r="B70" s="13" t="s">
         <v>216</v>
       </c>
-      <c r="C70" s="5" t="s">
+      <c r="C70" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="D70" s="5">
-        <v>20243712</v>
-      </c>
-      <c r="E70" s="5" t="s">
+      <c r="D70" s="13">
+        <v>2.0243712E7</v>
+      </c>
+      <c r="E70" s="13" t="s">
         <v>217</v>
       </c>
-      <c r="F70" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="G70" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="H70" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="I70" s="5" t="s">
+      <c r="F70" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G70" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H70" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="I70" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="J70" s="5" t="s">
+      <c r="J70" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="K70" s="5" t="s">
+      <c r="K70" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="L70" s="5" t="s">
+      <c r="L70" s="13" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="71" spans="1:15" ht="13" x14ac:dyDescent="0.15">
-      <c r="A71" s="7">
-        <v>45587.983833599537</v>
-      </c>
-      <c r="B71" s="8" t="s">
+    <row r="71">
+      <c r="A71" s="9">
+        <v>45587.98383359954</v>
+      </c>
+      <c r="B71" s="10" t="s">
         <v>218</v>
       </c>
-      <c r="C71" s="8" t="s">
+      <c r="C71" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="D71" s="8">
-        <v>20193813</v>
-      </c>
-      <c r="E71" s="8" t="s">
+      <c r="D71" s="10">
+        <v>2.0193813E7</v>
+      </c>
+      <c r="E71" s="10" t="s">
         <v>219</v>
       </c>
-      <c r="F71" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="G71" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="H71" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="I71" s="8" t="s">
+      <c r="F71" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G71" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H71" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="I71" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="J71" s="8" t="s">
+      <c r="J71" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="K71" s="8" t="s">
+      <c r="K71" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="L71" s="8" t="s">
+      <c r="L71" s="10" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="72" spans="1:15" ht="13" x14ac:dyDescent="0.15">
-      <c r="A72" s="4">
-        <v>45588.409611736111</v>
-      </c>
-      <c r="B72" s="5" t="s">
+    <row r="72">
+      <c r="A72" s="12">
+        <v>45588.40961173611</v>
+      </c>
+      <c r="B72" s="13" t="s">
         <v>220</v>
       </c>
-      <c r="C72" s="5" t="s">
+      <c r="C72" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="D72" s="5">
-        <v>20246414</v>
-      </c>
-      <c r="E72" s="5" t="s">
+      <c r="D72" s="13">
+        <v>2.0246414E7</v>
+      </c>
+      <c r="E72" s="13" t="s">
         <v>221</v>
       </c>
-      <c r="F72" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="G72" s="5" t="s">
+      <c r="F72" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G72" s="13" t="s">
         <v>113</v>
       </c>
-      <c r="H72" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="I72" s="5" t="s">
+      <c r="H72" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="I72" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="J72" s="5" t="s">
+      <c r="J72" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="K72" s="5" t="s">
+      <c r="K72" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="L72" s="5" t="s">
+      <c r="L72" s="13" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="73" spans="1:15" ht="13" x14ac:dyDescent="0.15">
-      <c r="A73" s="7">
-        <v>45588.412626701393</v>
-      </c>
-      <c r="B73" s="8" t="s">
+    <row r="73">
+      <c r="A73" s="9">
+        <v>45588.41262670139</v>
+      </c>
+      <c r="B73" s="10" t="s">
         <v>222</v>
       </c>
-      <c r="C73" s="8" t="s">
+      <c r="C73" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="D73" s="8">
-        <v>20235210</v>
-      </c>
-      <c r="E73" s="8" t="s">
+      <c r="D73" s="10">
+        <v>2.023521E7</v>
+      </c>
+      <c r="E73" s="10" t="s">
         <v>223</v>
       </c>
-      <c r="F73" s="8" t="s">
+      <c r="F73" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="G73" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="H73" s="8" t="s">
+      <c r="G73" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H73" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="I73" s="8" t="s">
+      <c r="I73" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="J73" s="8" t="s">
+      <c r="J73" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="K73" s="8" t="s">
+      <c r="K73" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="L73" s="8" t="s">
+      <c r="L73" s="10" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="74" spans="1:15" ht="13" x14ac:dyDescent="0.15">
-      <c r="A74" s="4">
+    <row r="74">
+      <c r="A74" s="12">
         <v>45588.424596944446</v>
       </c>
-      <c r="B74" s="5" t="s">
+      <c r="B74" s="13" t="s">
         <v>224</v>
       </c>
-      <c r="C74" s="5" t="s">
+      <c r="C74" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="D74" s="5">
-        <v>20227136</v>
-      </c>
-      <c r="E74" s="5" t="s">
+      <c r="D74" s="13">
+        <v>2.0227136E7</v>
+      </c>
+      <c r="E74" s="13" t="s">
         <v>225</v>
       </c>
-      <c r="F74" s="5" t="s">
+      <c r="F74" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="G74" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="H74" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="I74" s="5" t="s">
+      <c r="G74" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H74" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="I74" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="J74" s="5" t="s">
+      <c r="J74" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="K74" s="5" t="s">
+      <c r="K74" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="L74" s="5" t="s">
+      <c r="L74" s="13" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="75" spans="1:15" ht="13" x14ac:dyDescent="0.15">
-      <c r="A75" s="7">
-        <v>45588.522497916667</v>
-      </c>
-      <c r="B75" s="8" t="s">
+    <row r="75">
+      <c r="A75" s="9">
+        <v>45588.52249791667</v>
+      </c>
+      <c r="B75" s="10" t="s">
         <v>226</v>
       </c>
-      <c r="C75" s="8" t="s">
+      <c r="C75" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="D75" s="8">
-        <v>20242724</v>
-      </c>
-      <c r="E75" s="8" t="s">
+      <c r="D75" s="10">
+        <v>2.0242724E7</v>
+      </c>
+      <c r="E75" s="10" t="s">
         <v>227</v>
       </c>
-      <c r="F75" s="8" t="s">
+      <c r="F75" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="G75" s="8" t="s">
+      <c r="G75" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="H75" s="8" t="s">
+      <c r="H75" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="I75" s="8" t="s">
+      <c r="I75" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="J75" s="8" t="s">
+      <c r="J75" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="K75" s="8" t="s">
+      <c r="K75" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="L75" s="8" t="s">
+      <c r="L75" s="10" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="76" spans="1:15" ht="13" x14ac:dyDescent="0.15">
-      <c r="A76" s="4">
-        <v>45588.566307118061</v>
-      </c>
-      <c r="B76" s="5" t="s">
+    <row r="76">
+      <c r="A76" s="12">
+        <v>45588.56630711806</v>
+      </c>
+      <c r="B76" s="13" t="s">
         <v>228</v>
       </c>
-      <c r="C76" s="5" t="s">
+      <c r="C76" s="13" t="s">
         <v>229</v>
       </c>
-      <c r="D76" s="5">
-        <v>20242607</v>
-      </c>
-      <c r="E76" s="5" t="s">
+      <c r="D76" s="13">
+        <v>2.0242607E7</v>
+      </c>
+      <c r="E76" s="13" t="s">
         <v>230</v>
       </c>
-      <c r="F76" s="5" t="s">
+      <c r="F76" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="G76" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="H76" s="5" t="s">
+      <c r="G76" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H76" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="I76" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="M76" s="5" t="s">
+      <c r="I76" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="M76" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="N76" s="5" t="s">
+      <c r="N76" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="O76" s="6" t="s">
+      <c r="O76" s="14" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="77" spans="1:15" ht="13" x14ac:dyDescent="0.15">
-      <c r="A77" s="7">
-        <v>45588.597423460647</v>
-      </c>
-      <c r="B77" s="8" t="s">
+    <row r="77">
+      <c r="A77" s="9">
+        <v>45588.59742346065</v>
+      </c>
+      <c r="B77" s="10" t="s">
         <v>231</v>
       </c>
-      <c r="C77" s="8" t="s">
+      <c r="C77" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="D77" s="8">
-        <v>20242736</v>
-      </c>
-      <c r="E77" s="8" t="s">
+      <c r="D77" s="10">
+        <v>2.0242736E7</v>
+      </c>
+      <c r="E77" s="10" t="s">
         <v>232</v>
       </c>
-      <c r="F77" s="8" t="s">
+      <c r="F77" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="G77" s="8" t="s">
+      <c r="G77" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="H77" s="8" t="s">
+      <c r="H77" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="I77" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="M77" s="8" t="s">
+      <c r="I77" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="M77" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="N77" s="8" t="s">
+      <c r="N77" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="O77" s="9" t="s">
+      <c r="O77" s="11" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="78" spans="1:15" ht="13" x14ac:dyDescent="0.15">
-      <c r="A78" s="4">
-        <v>45588.627873287041</v>
-      </c>
-      <c r="B78" s="5" t="s">
+    <row r="78">
+      <c r="A78" s="12">
+        <v>45588.62787328704</v>
+      </c>
+      <c r="B78" s="13" t="s">
         <v>233</v>
       </c>
-      <c r="C78" s="5" t="s">
+      <c r="C78" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="D78" s="5">
-        <v>20202911</v>
-      </c>
-      <c r="E78" s="5" t="s">
+      <c r="D78" s="13">
+        <v>2.0202911E7</v>
+      </c>
+      <c r="E78" s="13" t="s">
         <v>234</v>
       </c>
-      <c r="F78" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="G78" s="5" t="s">
+      <c r="F78" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G78" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="H78" s="5" t="s">
+      <c r="H78" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="I78" s="5" t="s">
+      <c r="I78" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="J78" s="5" t="s">
+      <c r="J78" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="K78" s="5" t="s">
+      <c r="K78" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="L78" s="5" t="s">
+      <c r="L78" s="13" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="79" spans="1:15" ht="13" x14ac:dyDescent="0.15">
-      <c r="A79" s="7">
-        <v>45588.654015462962</v>
-      </c>
-      <c r="B79" s="8" t="s">
+    <row r="79">
+      <c r="A79" s="9">
+        <v>45588.65401546296</v>
+      </c>
+      <c r="B79" s="10" t="s">
         <v>235</v>
       </c>
-      <c r="C79" s="8" t="s">
+      <c r="C79" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="D79" s="8">
-        <v>20243065</v>
-      </c>
-      <c r="E79" s="8" t="s">
+      <c r="D79" s="10">
+        <v>2.0243065E7</v>
+      </c>
+      <c r="E79" s="10" t="s">
         <v>236</v>
       </c>
-      <c r="F79" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="G79" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="H79" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="I79" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="M79" s="8" t="s">
+      <c r="F79" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G79" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H79" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="I79" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="M79" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="N79" s="8" t="s">
+      <c r="N79" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="O79" s="9" t="s">
+      <c r="O79" s="11" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="80" spans="1:15" ht="13" x14ac:dyDescent="0.15">
-      <c r="A80" s="4">
-        <v>45588.688986597219</v>
-      </c>
-      <c r="B80" s="5" t="s">
+    <row r="80">
+      <c r="A80" s="12">
+        <v>45588.68898659722</v>
+      </c>
+      <c r="B80" s="13" t="s">
         <v>237</v>
       </c>
-      <c r="C80" s="5" t="s">
+      <c r="C80" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="D80" s="5">
-        <v>20207065</v>
-      </c>
-      <c r="E80" s="5" t="s">
+      <c r="D80" s="13">
+        <v>2.0207065E7</v>
+      </c>
+      <c r="E80" s="13" t="s">
         <v>238</v>
       </c>
-      <c r="F80" s="5" t="s">
+      <c r="F80" s="13" t="s">
         <v>239</v>
       </c>
-      <c r="G80" s="5" t="s">
+      <c r="G80" s="13" t="s">
         <v>113</v>
       </c>
-      <c r="H80" s="5" t="s">
+      <c r="H80" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="I80" s="5" t="s">
+      <c r="I80" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="J80" s="5" t="s">
+      <c r="J80" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="K80" s="5" t="s">
+      <c r="K80" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="L80" s="5" t="s">
+      <c r="L80" s="13" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="81" spans="1:15" ht="13" x14ac:dyDescent="0.15">
-      <c r="A81" s="7">
+    <row r="81">
+      <c r="A81" s="9">
         <v>45588.69695957176</v>
       </c>
-      <c r="B81" s="8" t="s">
+      <c r="B81" s="10" t="s">
         <v>240</v>
       </c>
-      <c r="C81" s="8" t="s">
+      <c r="C81" s="10" t="s">
         <v>229</v>
       </c>
-      <c r="D81" s="8">
-        <v>20222606</v>
-      </c>
-      <c r="E81" s="8" t="s">
+      <c r="D81" s="10">
+        <v>2.0222606E7</v>
+      </c>
+      <c r="E81" s="10" t="s">
         <v>241</v>
       </c>
-      <c r="F81" s="8" t="s">
+      <c r="F81" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="G81" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="H81" s="8" t="s">
+      <c r="G81" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H81" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="I81" s="8" t="s">
+      <c r="I81" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="J81" s="8" t="s">
+      <c r="J81" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="K81" s="8" t="s">
+      <c r="K81" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="L81" s="8" t="s">
+      <c r="L81" s="10" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="82" spans="1:15" ht="13" x14ac:dyDescent="0.15">
-      <c r="A82" s="4">
-        <v>45588.703068425923</v>
-      </c>
-      <c r="B82" s="5" t="s">
+    <row r="82">
+      <c r="A82" s="12">
+        <v>45588.70306842592</v>
+      </c>
+      <c r="B82" s="13" t="s">
         <v>242</v>
       </c>
-      <c r="C82" s="5" t="s">
+      <c r="C82" s="13" t="s">
         <v>140</v>
       </c>
-      <c r="D82" s="5">
-        <v>20243968</v>
-      </c>
-      <c r="E82" s="5" t="s">
+      <c r="D82" s="13">
+        <v>2.0243968E7</v>
+      </c>
+      <c r="E82" s="13" t="s">
         <v>243</v>
       </c>
-      <c r="F82" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="G82" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="H82" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="I82" s="5" t="s">
+      <c r="F82" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G82" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H82" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="I82" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="J82" s="5" t="s">
+      <c r="J82" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="K82" s="5" t="s">
+      <c r="K82" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="L82" s="5" t="s">
+      <c r="L82" s="13" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="83" spans="1:15" ht="13" x14ac:dyDescent="0.15">
-      <c r="A83" s="7">
-        <v>45588.730251655092</v>
-      </c>
-      <c r="B83" s="8" t="s">
+    <row r="83">
+      <c r="A83" s="9">
+        <v>45588.73025165509</v>
+      </c>
+      <c r="B83" s="10" t="s">
         <v>244</v>
       </c>
-      <c r="C83" s="8" t="s">
+      <c r="C83" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="D83" s="8">
-        <v>20242997</v>
-      </c>
-      <c r="E83" s="8" t="s">
+      <c r="D83" s="10">
+        <v>2.0242997E7</v>
+      </c>
+      <c r="E83" s="10" t="s">
         <v>245</v>
       </c>
-      <c r="F83" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="G83" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="H83" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="I83" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="M83" s="8" t="s">
+      <c r="F83" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G83" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H83" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="I83" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="M83" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="N83" s="8" t="s">
+      <c r="N83" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="O83" s="9" t="s">
+      <c r="O83" s="11" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="84" spans="1:15" ht="13" x14ac:dyDescent="0.15">
-      <c r="A84" s="4">
+    <row r="84">
+      <c r="A84" s="12">
         <v>45588.74301387732</v>
       </c>
-      <c r="B84" s="5" t="s">
+      <c r="B84" s="13" t="s">
         <v>246</v>
       </c>
-      <c r="C84" s="5" t="s">
+      <c r="C84" s="13" t="s">
         <v>247</v>
       </c>
-      <c r="D84" s="5">
-        <v>20232527</v>
-      </c>
-      <c r="E84" s="5" t="s">
+      <c r="D84" s="13">
+        <v>2.0232527E7</v>
+      </c>
+      <c r="E84" s="13" t="s">
         <v>248</v>
       </c>
-      <c r="F84" s="5" t="s">
+      <c r="F84" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="G84" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="H84" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="I84" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="M84" s="5" t="s">
+      <c r="G84" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H84" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="I84" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="M84" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="N84" s="5" t="s">
+      <c r="N84" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="O84" s="6" t="s">
+      <c r="O84" s="14" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="85" spans="1:15" ht="13" x14ac:dyDescent="0.15">
-      <c r="A85" s="7">
+    <row r="85">
+      <c r="A85" s="9">
         <v>45588.74999142361</v>
       </c>
-      <c r="B85" s="8" t="s">
+      <c r="B85" s="10" t="s">
         <v>249</v>
       </c>
-      <c r="C85" s="8" t="s">
+      <c r="C85" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="D85" s="8">
-        <v>20227024</v>
-      </c>
-      <c r="E85" s="8" t="s">
+      <c r="D85" s="10">
+        <v>2.0227024E7</v>
+      </c>
+      <c r="E85" s="10" t="s">
         <v>250</v>
       </c>
-      <c r="F85" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="G85" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="H85" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="I85" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="M85" s="8" t="s">
+      <c r="F85" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G85" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H85" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="I85" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="M85" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="N85" s="8" t="s">
+      <c r="N85" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="O85" s="9" t="s">
+      <c r="O85" s="11" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="86" spans="1:15" ht="13" x14ac:dyDescent="0.15">
-      <c r="A86" s="4">
-        <v>45588.774509756942</v>
-      </c>
-      <c r="B86" s="5" t="s">
+    <row r="86">
+      <c r="A86" s="12">
+        <v>45588.77450975694</v>
+      </c>
+      <c r="B86" s="13" t="s">
         <v>251</v>
       </c>
-      <c r="C86" s="5" t="s">
+      <c r="C86" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="D86" s="5">
-        <v>20172896</v>
-      </c>
-      <c r="E86" s="5" t="s">
+      <c r="D86" s="13">
+        <v>2.0172896E7</v>
+      </c>
+      <c r="E86" s="13" t="s">
         <v>252</v>
       </c>
-      <c r="F86" s="5" t="s">
+      <c r="F86" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="G86" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="H86" s="5" t="s">
+      <c r="G86" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H86" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="I86" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="M86" s="5" t="s">
+      <c r="I86" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="M86" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="N86" s="5" t="s">
+      <c r="N86" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="O86" s="6" t="s">
+      <c r="O86" s="14" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="87" spans="1:15" ht="13" x14ac:dyDescent="0.15">
-      <c r="A87" s="7">
-        <v>45588.803714039357</v>
-      </c>
-      <c r="B87" s="8" t="s">
+    <row r="87">
+      <c r="A87" s="9">
+        <v>45588.80371403936</v>
+      </c>
+      <c r="B87" s="10" t="s">
         <v>253</v>
       </c>
-      <c r="C87" s="8" t="s">
+      <c r="C87" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="D87" s="8">
-        <v>20214116</v>
-      </c>
-      <c r="E87" s="8" t="s">
+      <c r="D87" s="10">
+        <v>2.0214116E7</v>
+      </c>
+      <c r="E87" s="10" t="s">
         <v>254</v>
       </c>
-      <c r="F87" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="G87" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="H87" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="I87" s="8" t="s">
+      <c r="F87" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G87" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H87" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="I87" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="J87" s="8" t="s">
+      <c r="J87" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="K87" s="8" t="s">
+      <c r="K87" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="L87" s="8" t="s">
+      <c r="L87" s="10" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="88" spans="1:15" ht="13" x14ac:dyDescent="0.15">
-      <c r="A88" s="4">
-        <v>45588.860096643519</v>
-      </c>
-      <c r="B88" s="5" t="s">
+    <row r="88">
+      <c r="A88" s="12">
+        <v>45588.86009664352</v>
+      </c>
+      <c r="B88" s="13" t="s">
         <v>255</v>
       </c>
-      <c r="C88" s="5" t="s">
+      <c r="C88" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="D88" s="5">
-        <v>20242973</v>
-      </c>
-      <c r="E88" s="5" t="s">
+      <c r="D88" s="13">
+        <v>2.0242973E7</v>
+      </c>
+      <c r="E88" s="13" t="s">
         <v>256</v>
       </c>
-      <c r="F88" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="G88" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="H88" s="5" t="s">
+      <c r="F88" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G88" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H88" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="I88" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="M88" s="5" t="s">
+      <c r="I88" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="M88" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="N88" s="5" t="s">
+      <c r="N88" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="O88" s="6" t="s">
+      <c r="O88" s="14" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="89" spans="1:15" ht="13" x14ac:dyDescent="0.15">
-      <c r="A89" s="7">
-        <v>45588.903845081019</v>
-      </c>
-      <c r="B89" s="8" t="s">
+    <row r="89">
+      <c r="A89" s="9">
+        <v>45588.90384508102</v>
+      </c>
+      <c r="B89" s="10" t="s">
         <v>257</v>
       </c>
-      <c r="C89" s="8" t="s">
+      <c r="C89" s="10" t="s">
         <v>140</v>
       </c>
-      <c r="D89" s="8">
-        <v>20243929</v>
-      </c>
-      <c r="E89" s="8" t="s">
+      <c r="D89" s="10">
+        <v>2.0243929E7</v>
+      </c>
+      <c r="E89" s="10" t="s">
         <v>258</v>
       </c>
-      <c r="F89" s="8" t="s">
+      <c r="F89" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="G89" s="8" t="s">
+      <c r="G89" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="H89" s="8" t="s">
+      <c r="H89" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="I89" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="M89" s="8" t="s">
+      <c r="I89" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="M89" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="N89" s="8" t="s">
+      <c r="N89" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="O89" s="9" t="s">
+      <c r="O89" s="11" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="90" spans="1:15" ht="13" x14ac:dyDescent="0.15">
-      <c r="A90" s="4">
-        <v>45588.906003414348</v>
-      </c>
-      <c r="B90" s="5" t="s">
+    <row r="90">
+      <c r="A90" s="12">
+        <v>45588.90600341435</v>
+      </c>
+      <c r="B90" s="13" t="s">
         <v>259</v>
       </c>
-      <c r="C90" s="5" t="s">
+      <c r="C90" s="13" t="s">
         <v>260</v>
       </c>
-      <c r="D90" s="5">
-        <v>20203957</v>
-      </c>
-      <c r="E90" s="5" t="s">
+      <c r="D90" s="13">
+        <v>2.0203957E7</v>
+      </c>
+      <c r="E90" s="13" t="s">
         <v>261</v>
       </c>
-      <c r="F90" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="G90" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="H90" s="5" t="s">
+      <c r="F90" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G90" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H90" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="I90" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="M90" s="5" t="s">
+      <c r="I90" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="M90" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="N90" s="5" t="s">
+      <c r="N90" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="O90" s="6" t="s">
+      <c r="O90" s="14" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="91" spans="1:15" ht="13" x14ac:dyDescent="0.15">
-      <c r="A91" s="7">
-        <v>45588.926675381939</v>
-      </c>
-      <c r="B91" s="8" t="s">
+    <row r="91">
+      <c r="A91" s="9">
+        <v>45588.92667538194</v>
+      </c>
+      <c r="B91" s="10" t="s">
         <v>262</v>
       </c>
-      <c r="C91" s="8" t="s">
+      <c r="C91" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="D91" s="8">
-        <v>20241106</v>
-      </c>
-      <c r="E91" s="8" t="s">
+      <c r="D91" s="10">
+        <v>2.0241106E7</v>
+      </c>
+      <c r="E91" s="10" t="s">
         <v>263</v>
       </c>
-      <c r="F91" s="8" t="s">
+      <c r="F91" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="G91" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="H91" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="I91" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="M91" s="8" t="s">
+      <c r="G91" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H91" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="I91" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="M91" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="N91" s="8" t="s">
+      <c r="N91" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="O91" s="9" t="s">
+      <c r="O91" s="11" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="92" spans="1:15" ht="13" x14ac:dyDescent="0.15">
-      <c r="A92" s="4">
+    <row r="92">
+      <c r="A92" s="12">
         <v>45588.930629421295</v>
       </c>
-      <c r="B92" s="5" t="s">
+      <c r="B92" s="13" t="s">
         <v>264</v>
       </c>
-      <c r="C92" s="5" t="s">
+      <c r="C92" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="D92" s="5">
-        <v>20193836</v>
-      </c>
-      <c r="E92" s="5" t="s">
+      <c r="D92" s="13">
+        <v>2.0193836E7</v>
+      </c>
+      <c r="E92" s="13" t="s">
         <v>265</v>
       </c>
-      <c r="F92" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="G92" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="H92" s="5" t="s">
+      <c r="F92" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G92" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H92" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="I92" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="M92" s="5" t="s">
+      <c r="I92" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="M92" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="N92" s="5" t="s">
+      <c r="N92" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="O92" s="6" t="s">
+      <c r="O92" s="14" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="93" spans="1:15" ht="13" x14ac:dyDescent="0.15">
-      <c r="A93" s="7">
-        <v>45588.931799733793</v>
-      </c>
-      <c r="B93" s="8" t="s">
+    <row r="93">
+      <c r="A93" s="9">
+        <v>45588.93179973379</v>
+      </c>
+      <c r="B93" s="10" t="s">
         <v>266</v>
       </c>
-      <c r="C93" s="8" t="s">
+      <c r="C93" s="10" t="s">
         <v>267</v>
       </c>
-      <c r="D93" s="8">
-        <v>20236727</v>
-      </c>
-      <c r="E93" s="8" t="s">
+      <c r="D93" s="10">
+        <v>2.0236727E7</v>
+      </c>
+      <c r="E93" s="10" t="s">
         <v>268</v>
       </c>
-      <c r="F93" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="G93" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="H93" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="I93" s="8" t="s">
+      <c r="F93" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G93" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H93" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="I93" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="J93" s="8" t="s">
+      <c r="J93" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="K93" s="8" t="s">
+      <c r="K93" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="L93" s="8" t="s">
+      <c r="L93" s="10" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="94" spans="1:15" ht="13" x14ac:dyDescent="0.15">
-      <c r="A94" s="4">
-        <v>45588.939877164346</v>
-      </c>
-      <c r="B94" s="5" t="s">
+    <row r="94">
+      <c r="A94" s="12">
+        <v>45588.93987716435</v>
+      </c>
+      <c r="B94" s="13" t="s">
         <v>269</v>
       </c>
-      <c r="C94" s="5" t="s">
+      <c r="C94" s="13" t="s">
         <v>270</v>
       </c>
-      <c r="D94" s="5">
-        <v>20222526</v>
-      </c>
-      <c r="E94" s="5" t="s">
+      <c r="D94" s="13">
+        <v>2.0222526E7</v>
+      </c>
+      <c r="E94" s="13" t="s">
         <v>271</v>
       </c>
-      <c r="F94" s="5" t="s">
+      <c r="F94" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="G94" s="5" t="s">
+      <c r="G94" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="H94" s="5" t="s">
+      <c r="H94" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="I94" s="5" t="s">
+      <c r="I94" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="J94" s="5" t="s">
+      <c r="J94" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="K94" s="5" t="s">
+      <c r="K94" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="L94" s="5" t="s">
+      <c r="L94" s="13" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="95" spans="1:15" ht="13" x14ac:dyDescent="0.15">
-      <c r="A95" s="7">
-        <v>45588.948769629627</v>
-      </c>
-      <c r="B95" s="8" t="s">
+    <row r="95">
+      <c r="A95" s="9">
+        <v>45588.94876962963</v>
+      </c>
+      <c r="B95" s="10" t="s">
         <v>272</v>
       </c>
-      <c r="C95" s="8" t="s">
+      <c r="C95" s="10" t="s">
         <v>273</v>
       </c>
-      <c r="D95" s="8">
-        <v>20242356</v>
-      </c>
-      <c r="E95" s="8" t="s">
+      <c r="D95" s="10">
+        <v>2.0242356E7</v>
+      </c>
+      <c r="E95" s="10" t="s">
         <v>274</v>
       </c>
-      <c r="F95" s="8" t="s">
+      <c r="F95" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="G95" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="H95" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="I95" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="M95" s="8" t="s">
+      <c r="G95" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H95" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="I95" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="M95" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="N95" s="8" t="s">
+      <c r="N95" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="O95" s="9" t="s">
+      <c r="O95" s="11" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="96" spans="1:15" ht="13" x14ac:dyDescent="0.15">
-      <c r="A96" s="4">
-        <v>45588.977380520839</v>
-      </c>
-      <c r="B96" s="5" t="s">
+    <row r="96">
+      <c r="A96" s="12">
+        <v>45588.97738052084</v>
+      </c>
+      <c r="B96" s="13" t="s">
         <v>275</v>
       </c>
-      <c r="C96" s="5" t="s">
+      <c r="C96" s="13" t="s">
         <v>151</v>
       </c>
-      <c r="D96" s="5">
-        <v>20194153</v>
-      </c>
-      <c r="E96" s="5" t="s">
+      <c r="D96" s="13">
+        <v>2.0194153E7</v>
+      </c>
+      <c r="E96" s="13" t="s">
         <v>276</v>
       </c>
-      <c r="F96" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="G96" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="H96" s="5" t="s">
+      <c r="F96" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G96" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H96" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="I96" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="M96" s="5" t="s">
+      <c r="I96" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="M96" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="N96" s="5" t="s">
+      <c r="N96" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="O96" s="6" t="s">
+      <c r="O96" s="14" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="97" spans="1:15" ht="13" x14ac:dyDescent="0.15">
-      <c r="A97" s="7">
-        <v>45589.040107083332</v>
-      </c>
-      <c r="B97" s="8" t="s">
+    <row r="97">
+      <c r="A97" s="9">
+        <v>45589.04010708333</v>
+      </c>
+      <c r="B97" s="10" t="s">
         <v>277</v>
       </c>
-      <c r="C97" s="8" t="s">
+      <c r="C97" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="D97" s="8">
-        <v>20222530</v>
-      </c>
-      <c r="E97" s="8" t="s">
+      <c r="D97" s="10">
+        <v>2.022253E7</v>
+      </c>
+      <c r="E97" s="10" t="s">
         <v>278</v>
       </c>
-      <c r="F97" s="8" t="s">
+      <c r="F97" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="G97" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="H97" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="I97" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="M97" s="8" t="s">
+      <c r="G97" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H97" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="I97" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="M97" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="N97" s="8" t="s">
+      <c r="N97" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="O97" s="9" t="s">
+      <c r="O97" s="11" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="98" spans="1:15" ht="13" x14ac:dyDescent="0.15">
-      <c r="A98" s="4">
+    <row r="98">
+      <c r="A98" s="12">
         <v>45589.100165613425</v>
       </c>
-      <c r="B98" s="5" t="s">
+      <c r="B98" s="13" t="s">
         <v>279</v>
       </c>
-      <c r="C98" s="5" t="s">
+      <c r="C98" s="13" t="s">
         <v>280</v>
       </c>
-      <c r="D98" s="5">
-        <v>20201103</v>
-      </c>
-      <c r="E98" s="5" t="s">
+      <c r="D98" s="13">
+        <v>2.0201103E7</v>
+      </c>
+      <c r="E98" s="13" t="s">
         <v>281</v>
       </c>
-      <c r="F98" s="5" t="s">
+      <c r="F98" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="G98" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="H98" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="I98" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="M98" s="5" t="s">
+      <c r="G98" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H98" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="I98" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="M98" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="N98" s="5" t="s">
+      <c r="N98" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="O98" s="6" t="s">
+      <c r="O98" s="14" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="99" spans="1:15" ht="13" x14ac:dyDescent="0.15">
-      <c r="A99" s="7">
+    <row r="99">
+      <c r="A99" s="9">
         <v>45589.15708503472</v>
       </c>
-      <c r="B99" s="8" t="s">
+      <c r="B99" s="10" t="s">
         <v>282</v>
       </c>
-      <c r="C99" s="8" t="s">
+      <c r="C99" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="D99" s="8">
-        <v>20227036</v>
-      </c>
-      <c r="E99" s="8" t="s">
+      <c r="D99" s="10">
+        <v>2.0227036E7</v>
+      </c>
+      <c r="E99" s="10" t="s">
         <v>283</v>
       </c>
-      <c r="F99" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="G99" s="8" t="s">
+      <c r="F99" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G99" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="H99" s="8" t="s">
+      <c r="H99" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="I99" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="M99" s="8" t="s">
+      <c r="I99" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="M99" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="N99" s="8" t="s">
+      <c r="N99" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="O99" s="9" t="s">
+      <c r="O99" s="11" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="100" spans="1:15" ht="13" x14ac:dyDescent="0.15">
-      <c r="A100" s="4">
+    <row r="100">
+      <c r="A100" s="12">
         <v>45589.568398159725</v>
       </c>
-      <c r="B100" s="5" t="s">
+      <c r="B100" s="13" t="s">
         <v>284</v>
       </c>
-      <c r="C100" s="5" t="s">
+      <c r="C100" s="13" t="s">
         <v>195</v>
       </c>
-      <c r="D100" s="5">
-        <v>20202817</v>
-      </c>
-      <c r="E100" s="5" t="s">
+      <c r="D100" s="13">
+        <v>2.0202817E7</v>
+      </c>
+      <c r="E100" s="13" t="s">
         <v>285</v>
       </c>
-      <c r="F100" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="G100" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="H100" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="I100" s="5" t="s">
+      <c r="F100" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G100" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H100" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="I100" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="J100" s="5" t="s">
+      <c r="J100" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="K100" s="5" t="s">
+      <c r="K100" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="L100" s="5" t="s">
+      <c r="L100" s="13" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="101" spans="1:15" ht="13" x14ac:dyDescent="0.15">
-      <c r="A101" s="7">
+    <row r="101">
+      <c r="A101" s="9">
         <v>45589.57184469908</v>
       </c>
-      <c r="B101" s="8" t="s">
+      <c r="B101" s="10" t="s">
         <v>286</v>
       </c>
-      <c r="C101" s="8" t="s">
+      <c r="C101" s="10" t="s">
         <v>287</v>
       </c>
-      <c r="D101" s="8">
-        <v>20216526</v>
-      </c>
-      <c r="E101" s="8" t="s">
+      <c r="D101" s="10">
+        <v>2.0216526E7</v>
+      </c>
+      <c r="E101" s="10" t="s">
         <v>288</v>
       </c>
-      <c r="F101" s="8" t="s">
+      <c r="F101" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="G101" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="H101" s="8" t="s">
+      <c r="G101" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H101" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="I101" s="8" t="s">
+      <c r="I101" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="J101" s="8" t="s">
+      <c r="J101" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="K101" s="8" t="s">
+      <c r="K101" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="L101" s="8" t="s">
+      <c r="L101" s="10" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="102" spans="1:15" ht="13" x14ac:dyDescent="0.15">
-      <c r="A102" s="4">
-        <v>45589.617862592597</v>
-      </c>
-      <c r="B102" s="5" t="s">
+    <row r="102">
+      <c r="A102" s="12">
+        <v>45589.6178625926</v>
+      </c>
+      <c r="B102" s="13" t="s">
         <v>289</v>
       </c>
-      <c r="C102" s="5" t="s">
+      <c r="C102" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="D102" s="5">
-        <v>20243850</v>
-      </c>
-      <c r="E102" s="5" t="s">
+      <c r="D102" s="13">
+        <v>2.024385E7</v>
+      </c>
+      <c r="E102" s="13" t="s">
         <v>290</v>
       </c>
-      <c r="F102" s="5" t="s">
+      <c r="F102" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="G102" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="H102" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="I102" s="5" t="s">
+      <c r="G102" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H102" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="I102" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="J102" s="5" t="s">
+      <c r="J102" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="K102" s="5" t="s">
+      <c r="K102" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="L102" s="5" t="s">
+      <c r="L102" s="13" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="103" spans="1:15" ht="13" x14ac:dyDescent="0.15">
-      <c r="A103" s="7">
-        <v>45589.622911261569</v>
-      </c>
-      <c r="B103" s="8" t="s">
+    <row r="103">
+      <c r="A103" s="9">
+        <v>45589.62291126157</v>
+      </c>
+      <c r="B103" s="10" t="s">
         <v>291</v>
       </c>
-      <c r="C103" s="8" t="s">
+      <c r="C103" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="D103" s="8">
-        <v>20243038</v>
-      </c>
-      <c r="E103" s="8" t="s">
+      <c r="D103" s="10">
+        <v>2.0243038E7</v>
+      </c>
+      <c r="E103" s="10" t="s">
         <v>292</v>
       </c>
-      <c r="F103" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="G103" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="H103" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="I103" s="8" t="s">
+      <c r="F103" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G103" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H103" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="I103" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="J103" s="8" t="s">
+      <c r="J103" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="K103" s="8" t="s">
+      <c r="K103" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="L103" s="8" t="s">
+      <c r="L103" s="10" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="104" spans="1:15" ht="13" x14ac:dyDescent="0.15">
-      <c r="A104" s="4">
-        <v>45589.642753136577</v>
-      </c>
-      <c r="B104" s="5" t="s">
+    <row r="104">
+      <c r="A104" s="12">
+        <v>45589.64275313658</v>
+      </c>
+      <c r="B104" s="13" t="s">
         <v>293</v>
       </c>
-      <c r="C104" s="5" t="s">
+      <c r="C104" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="D104" s="5">
-        <v>20242707</v>
-      </c>
-      <c r="E104" s="5" t="s">
+      <c r="D104" s="13">
+        <v>2.0242707E7</v>
+      </c>
+      <c r="E104" s="13" t="s">
         <v>294</v>
       </c>
-      <c r="F104" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="G104" s="5" t="s">
+      <c r="F104" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G104" s="13" t="s">
         <v>113</v>
       </c>
-      <c r="H104" s="5" t="s">
+      <c r="H104" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="I104" s="5" t="s">
+      <c r="I104" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="J104" s="5" t="s">
+      <c r="J104" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="K104" s="5" t="s">
+      <c r="K104" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="L104" s="5" t="s">
+      <c r="L104" s="13" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="105" spans="1:15" ht="13" x14ac:dyDescent="0.15">
-      <c r="A105" s="7">
-        <v>45589.643396770829</v>
-      </c>
-      <c r="B105" s="8" t="s">
+    <row r="105">
+      <c r="A105" s="9">
+        <v>45589.64339677083</v>
+      </c>
+      <c r="B105" s="10" t="s">
         <v>295</v>
       </c>
-      <c r="C105" s="8" t="s">
+      <c r="C105" s="10" t="s">
         <v>296</v>
       </c>
-      <c r="D105" s="8">
-        <v>20202561</v>
-      </c>
-      <c r="E105" s="8" t="s">
+      <c r="D105" s="10">
+        <v>2.0202561E7</v>
+      </c>
+      <c r="E105" s="10" t="s">
         <v>297</v>
       </c>
-      <c r="F105" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="G105" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="H105" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="I105" s="8" t="s">
+      <c r="F105" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G105" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H105" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="I105" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="J105" s="8" t="s">
+      <c r="J105" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="K105" s="8" t="s">
+      <c r="K105" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="L105" s="8" t="s">
+      <c r="L105" s="10" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="106" spans="1:15" ht="13" x14ac:dyDescent="0.15">
-      <c r="A106" s="4">
-        <v>45589.655544212961</v>
-      </c>
-      <c r="B106" s="5" t="s">
+    <row r="106">
+      <c r="A106" s="12">
+        <v>45589.65554421296</v>
+      </c>
+      <c r="B106" s="13" t="s">
         <v>298</v>
       </c>
-      <c r="C106" s="5" t="s">
+      <c r="C106" s="13" t="s">
         <v>299</v>
       </c>
-      <c r="D106" s="5">
-        <v>20202431</v>
-      </c>
-      <c r="E106" s="5" t="s">
+      <c r="D106" s="13">
+        <v>2.0202431E7</v>
+      </c>
+      <c r="E106" s="13" t="s">
         <v>300</v>
       </c>
-      <c r="F106" s="5" t="s">
+      <c r="F106" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="G106" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="H106" s="5" t="s">
+      <c r="G106" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H106" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="I106" s="5" t="s">
+      <c r="I106" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="J106" s="5" t="s">
+      <c r="J106" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="K106" s="5" t="s">
+      <c r="K106" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="L106" s="5" t="s">
+      <c r="L106" s="13" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="107" spans="1:15" ht="13" x14ac:dyDescent="0.15">
-      <c r="A107" s="7">
-        <v>45589.678086909727</v>
-      </c>
-      <c r="B107" s="8" t="s">
+    <row r="107">
+      <c r="A107" s="9">
+        <v>45589.67808690973</v>
+      </c>
+      <c r="B107" s="10" t="s">
         <v>301</v>
       </c>
-      <c r="C107" s="8" t="s">
+      <c r="C107" s="10" t="s">
         <v>140</v>
       </c>
-      <c r="D107" s="8">
-        <v>20243907</v>
-      </c>
-      <c r="E107" s="8" t="s">
+      <c r="D107" s="10">
+        <v>2.0243907E7</v>
+      </c>
+      <c r="E107" s="10" t="s">
         <v>302</v>
       </c>
-      <c r="F107" s="8" t="s">
+      <c r="F107" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="G107" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="H107" s="8" t="s">
+      <c r="G107" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H107" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="I107" s="8" t="s">
+      <c r="I107" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="J107" s="8" t="s">
+      <c r="J107" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="K107" s="8" t="s">
+      <c r="K107" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="L107" s="8" t="s">
+      <c r="L107" s="10" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="108" spans="1:15" ht="13" x14ac:dyDescent="0.15">
-      <c r="A108" s="4">
-        <v>45589.685419768517</v>
-      </c>
-      <c r="B108" s="5" t="s">
+    <row r="108">
+      <c r="A108" s="12">
+        <v>45589.68541976852</v>
+      </c>
+      <c r="B108" s="13" t="s">
         <v>303</v>
       </c>
-      <c r="C108" s="5" t="s">
+      <c r="C108" s="13" t="s">
         <v>260</v>
       </c>
-      <c r="D108" s="5">
-        <v>20191226</v>
-      </c>
-      <c r="E108" s="5" t="s">
+      <c r="D108" s="13">
+        <v>2.0191226E7</v>
+      </c>
+      <c r="E108" s="13" t="s">
         <v>304</v>
       </c>
-      <c r="F108" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="G108" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="H108" s="5" t="s">
+      <c r="F108" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G108" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H108" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="I108" s="5" t="s">
+      <c r="I108" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="J108" s="5" t="s">
+      <c r="J108" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="K108" s="5" t="s">
+      <c r="K108" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="L108" s="5" t="s">
+      <c r="L108" s="13" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="109" spans="1:15" ht="13" x14ac:dyDescent="0.15">
-      <c r="A109" s="7">
-        <v>45589.697302060187</v>
-      </c>
-      <c r="B109" s="8" t="s">
+    <row r="109">
+      <c r="A109" s="9">
+        <v>45589.69730206019</v>
+      </c>
+      <c r="B109" s="10" t="s">
         <v>305</v>
       </c>
-      <c r="C109" s="8" t="s">
+      <c r="C109" s="10" t="s">
         <v>306</v>
       </c>
-      <c r="D109" s="8">
-        <v>20205206</v>
-      </c>
-      <c r="E109" s="8" t="s">
+      <c r="D109" s="10">
+        <v>2.0205206E7</v>
+      </c>
+      <c r="E109" s="10" t="s">
         <v>307</v>
       </c>
-      <c r="F109" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="G109" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="H109" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="I109" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="M109" s="8" t="s">
+      <c r="F109" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G109" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H109" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="I109" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="M109" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="N109" s="8" t="s">
+      <c r="N109" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="O109" s="9" t="s">
+      <c r="O109" s="11" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="110" spans="1:15" ht="13" x14ac:dyDescent="0.15">
-      <c r="A110" s="4">
-        <v>45589.707615532403</v>
-      </c>
-      <c r="B110" s="5" t="s">
+    <row r="110">
+      <c r="A110" s="12">
+        <v>45589.7076155324</v>
+      </c>
+      <c r="B110" s="13" t="s">
         <v>308</v>
       </c>
-      <c r="C110" s="5" t="s">
+      <c r="C110" s="13" t="s">
         <v>151</v>
       </c>
-      <c r="D110" s="5">
-        <v>20214143</v>
-      </c>
-      <c r="E110" s="5" t="s">
+      <c r="D110" s="13">
+        <v>2.0214143E7</v>
+      </c>
+      <c r="E110" s="13" t="s">
         <v>309</v>
       </c>
-      <c r="F110" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="G110" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="H110" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="I110" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="M110" s="5" t="s">
+      <c r="F110" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G110" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H110" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="I110" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="M110" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="N110" s="5" t="s">
+      <c r="N110" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="O110" s="6" t="s">
+      <c r="O110" s="14" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="111" spans="1:15" ht="13" x14ac:dyDescent="0.15">
-      <c r="A111" s="7">
+    <row r="111">
+      <c r="A111" s="9">
         <v>45589.71399275463</v>
       </c>
-      <c r="B111" s="8" t="s">
+      <c r="B111" s="10" t="s">
         <v>310</v>
       </c>
-      <c r="C111" s="8" t="s">
+      <c r="C111" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="D111" s="8">
-        <v>20241207</v>
-      </c>
-      <c r="E111" s="8" t="s">
+      <c r="D111" s="10">
+        <v>2.0241207E7</v>
+      </c>
+      <c r="E111" s="10" t="s">
         <v>311</v>
       </c>
-      <c r="F111" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="G111" s="8" t="s">
+      <c r="F111" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G111" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="H111" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="I111" s="8" t="s">
+      <c r="H111" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="I111" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="J111" s="8" t="s">
+      <c r="J111" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="K111" s="8" t="s">
+      <c r="K111" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="L111" s="8" t="s">
+      <c r="L111" s="10" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="112" spans="1:15" ht="13" x14ac:dyDescent="0.15">
-      <c r="A112" s="4">
-        <v>45589.722650740739</v>
-      </c>
-      <c r="B112" s="5" t="s">
+    <row r="112">
+      <c r="A112" s="12">
+        <v>45589.72265074074</v>
+      </c>
+      <c r="B112" s="13" t="s">
         <v>312</v>
       </c>
-      <c r="C112" s="5" t="s">
+      <c r="C112" s="13" t="s">
         <v>195</v>
       </c>
-      <c r="D112" s="5">
-        <v>20202809</v>
-      </c>
-      <c r="E112" s="5" t="s">
+      <c r="D112" s="13">
+        <v>2.0202809E7</v>
+      </c>
+      <c r="E112" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="F112" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="G112" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="H112" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="I112" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="M112" s="5" t="s">
+      <c r="F112" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G112" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H112" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="I112" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="M112" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="N112" s="5" t="s">
+      <c r="N112" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="O112" s="6" t="s">
+      <c r="O112" s="14" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="113" spans="1:15" ht="13" x14ac:dyDescent="0.15">
-      <c r="A113" s="7">
-        <v>45589.725092037042</v>
-      </c>
-      <c r="B113" s="8" t="s">
+    <row r="113">
+      <c r="A113" s="9">
+        <v>45589.72509203704</v>
+      </c>
+      <c r="B113" s="10" t="s">
         <v>313</v>
       </c>
-      <c r="C113" s="8" t="s">
+      <c r="C113" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="D113" s="8">
-        <v>20182339</v>
-      </c>
-      <c r="E113" s="8" t="s">
+      <c r="D113" s="10">
+        <v>2.0182339E7</v>
+      </c>
+      <c r="E113" s="10" t="s">
         <v>314</v>
       </c>
-      <c r="F113" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="G113" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="H113" s="8" t="s">
+      <c r="F113" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G113" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H113" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="I113" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="M113" s="8" t="s">
+      <c r="I113" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="M113" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="N113" s="8" t="s">
+      <c r="N113" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="O113" s="9" t="s">
+      <c r="O113" s="11" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="114" spans="1:15" ht="13" x14ac:dyDescent="0.15">
-      <c r="A114" s="4">
-        <v>45589.736952222222</v>
-      </c>
-      <c r="B114" s="5" t="s">
+    <row r="114">
+      <c r="A114" s="12">
+        <v>45589.73695222222</v>
+      </c>
+      <c r="B114" s="13" t="s">
         <v>315</v>
       </c>
-      <c r="C114" s="5" t="s">
+      <c r="C114" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="D114" s="5">
-        <v>20241003</v>
-      </c>
-      <c r="E114" s="5" t="s">
+      <c r="D114" s="13">
+        <v>2.0241003E7</v>
+      </c>
+      <c r="E114" s="13" t="s">
         <v>316</v>
       </c>
-      <c r="F114" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="G114" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="H114" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="I114" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="M114" s="5" t="s">
+      <c r="F114" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G114" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H114" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="I114" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="M114" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="N114" s="5" t="s">
+      <c r="N114" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="O114" s="6" t="s">
+      <c r="O114" s="14" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="115" spans="1:15" ht="13" x14ac:dyDescent="0.15">
-      <c r="A115" s="7">
-        <v>45589.760631099532</v>
-      </c>
-      <c r="B115" s="8" t="s">
+    <row r="115">
+      <c r="A115" s="9">
+        <v>45589.76063109953</v>
+      </c>
+      <c r="B115" s="10" t="s">
         <v>317</v>
       </c>
-      <c r="C115" s="8" t="s">
+      <c r="C115" s="10" t="s">
         <v>318</v>
       </c>
-      <c r="D115" s="8">
-        <v>20217151</v>
-      </c>
-      <c r="E115" s="8" t="s">
+      <c r="D115" s="10">
+        <v>2.0217151E7</v>
+      </c>
+      <c r="E115" s="10" t="s">
         <v>319</v>
       </c>
-      <c r="F115" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="G115" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="H115" s="8" t="s">
+      <c r="F115" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G115" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H115" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="I115" s="8" t="s">
+      <c r="I115" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="J115" s="8" t="s">
+      <c r="J115" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="K115" s="8" t="s">
+      <c r="K115" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="L115" s="8" t="s">
+      <c r="L115" s="10" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="116" spans="1:15" ht="13" x14ac:dyDescent="0.15">
-      <c r="A116" s="4">
-        <v>45589.770121979163</v>
-      </c>
-      <c r="B116" s="5" t="s">
+    <row r="116">
+      <c r="A116" s="12">
+        <v>45589.77012197916</v>
+      </c>
+      <c r="B116" s="13" t="s">
         <v>320</v>
       </c>
-      <c r="C116" s="5" t="s">
+      <c r="C116" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="D116" s="5">
-        <v>20246252</v>
-      </c>
-      <c r="E116" s="5" t="s">
+      <c r="D116" s="13">
+        <v>2.0246252E7</v>
+      </c>
+      <c r="E116" s="13" t="s">
         <v>321</v>
       </c>
-      <c r="F116" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="G116" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="H116" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="I116" s="5" t="s">
+      <c r="F116" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G116" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H116" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="I116" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="J116" s="5" t="s">
+      <c r="J116" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="K116" s="5" t="s">
+      <c r="K116" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="L116" s="5" t="s">
+      <c r="L116" s="13" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="117" spans="1:15" ht="13" x14ac:dyDescent="0.15">
-      <c r="A117" s="7">
+    <row r="117">
+      <c r="A117" s="9">
         <v>45589.781362291666</v>
       </c>
-      <c r="B117" s="8" t="s">
+      <c r="B117" s="10" t="s">
         <v>322</v>
       </c>
-      <c r="C117" s="8" t="s">
+      <c r="C117" s="10" t="s">
         <v>195</v>
       </c>
-      <c r="D117" s="8">
-        <v>20227078</v>
-      </c>
-      <c r="E117" s="8" t="s">
+      <c r="D117" s="10">
+        <v>2.0227078E7</v>
+      </c>
+      <c r="E117" s="10" t="s">
         <v>323</v>
       </c>
-      <c r="F117" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="G117" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="H117" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="I117" s="8" t="s">
+      <c r="F117" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G117" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H117" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="I117" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="J117" s="8" t="s">
+      <c r="J117" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="K117" s="8" t="s">
+      <c r="K117" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="L117" s="8" t="s">
+      <c r="L117" s="10" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="118" spans="1:15" ht="13" x14ac:dyDescent="0.15">
-      <c r="A118" s="4">
-        <v>45589.788237083332</v>
-      </c>
-      <c r="B118" s="5" t="s">
+    <row r="118">
+      <c r="A118" s="12">
+        <v>45589.78823708333</v>
+      </c>
+      <c r="B118" s="13" t="s">
         <v>324</v>
       </c>
-      <c r="C118" s="5" t="s">
+      <c r="C118" s="13" t="s">
         <v>273</v>
       </c>
-      <c r="D118" s="5">
-        <v>20222359</v>
-      </c>
-      <c r="E118" s="5" t="s">
+      <c r="D118" s="13">
+        <v>2.0222359E7</v>
+      </c>
+      <c r="E118" s="13" t="s">
         <v>325</v>
       </c>
-      <c r="F118" s="5" t="s">
+      <c r="F118" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="G118" s="5" t="s">
+      <c r="G118" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="H118" s="5" t="s">
+      <c r="H118" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="I118" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="M118" s="5" t="s">
+      <c r="I118" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="M118" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="N118" s="5" t="s">
+      <c r="N118" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="O118" s="6" t="s">
+      <c r="O118" s="14" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="119" spans="1:15" ht="13" x14ac:dyDescent="0.15">
-      <c r="A119" s="7">
-        <v>45589.802542094912</v>
-      </c>
-      <c r="B119" s="8" t="s">
+    <row r="119">
+      <c r="A119" s="9">
+        <v>45589.80254209491</v>
+      </c>
+      <c r="B119" s="10" t="s">
         <v>326</v>
       </c>
-      <c r="C119" s="8" t="s">
+      <c r="C119" s="10" t="s">
         <v>327</v>
       </c>
-      <c r="D119" s="8">
-        <v>20205133</v>
-      </c>
-      <c r="E119" s="8" t="s">
+      <c r="D119" s="10">
+        <v>2.0205133E7</v>
+      </c>
+      <c r="E119" s="10" t="s">
         <v>328</v>
       </c>
-      <c r="F119" s="8" t="s">
+      <c r="F119" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="G119" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="H119" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="I119" s="8" t="s">
+      <c r="G119" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H119" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="I119" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="J119" s="8" t="s">
+      <c r="J119" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="K119" s="8" t="s">
+      <c r="K119" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="L119" s="8" t="s">
+      <c r="L119" s="10" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="120" spans="1:15" ht="13" x14ac:dyDescent="0.15">
-      <c r="A120" s="4">
-        <v>45589.819998726853</v>
-      </c>
-      <c r="B120" s="5" t="s">
+    <row r="120">
+      <c r="A120" s="12">
+        <v>45589.81999872685</v>
+      </c>
+      <c r="B120" s="13" t="s">
         <v>329</v>
       </c>
-      <c r="C120" s="5" t="s">
+      <c r="C120" s="13" t="s">
         <v>330</v>
       </c>
-      <c r="D120" s="5">
-        <v>20216731</v>
-      </c>
-      <c r="E120" s="5" t="s">
+      <c r="D120" s="13">
+        <v>2.0216731E7</v>
+      </c>
+      <c r="E120" s="13" t="s">
         <v>331</v>
       </c>
-      <c r="F120" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="G120" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="H120" s="5" t="s">
+      <c r="F120" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G120" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H120" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="I120" s="5" t="s">
+      <c r="I120" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="J120" s="5" t="s">
+      <c r="J120" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="K120" s="5" t="s">
+      <c r="K120" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="L120" s="5" t="s">
+      <c r="L120" s="13" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="121" spans="1:15" ht="13" x14ac:dyDescent="0.15">
-      <c r="A121" s="7">
+    <row r="121">
+      <c r="A121" s="9">
         <v>45589.838162581014</v>
       </c>
-      <c r="B121" s="8" t="s">
+      <c r="B121" s="10" t="s">
         <v>332</v>
       </c>
-      <c r="C121" s="8" t="s">
+      <c r="C121" s="10" t="s">
         <v>333</v>
       </c>
-      <c r="D121" s="8">
-        <v>20231506</v>
-      </c>
-      <c r="E121" s="8" t="s">
+      <c r="D121" s="10">
+        <v>2.0231506E7</v>
+      </c>
+      <c r="E121" s="10" t="s">
         <v>334</v>
       </c>
-      <c r="F121" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="G121" s="8" t="s">
+      <c r="F121" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G121" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="H121" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="I121" s="8" t="s">
+      <c r="H121" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="I121" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="J121" s="8" t="s">
+      <c r="J121" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="K121" s="8" t="s">
+      <c r="K121" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="L121" s="8" t="s">
+      <c r="L121" s="10" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="122" spans="1:15" ht="13" x14ac:dyDescent="0.15">
-      <c r="A122" s="4">
-        <v>45589.856663726852</v>
-      </c>
-      <c r="B122" s="5" t="s">
+    <row r="122">
+      <c r="A122" s="12">
+        <v>45589.85666372685</v>
+      </c>
+      <c r="B122" s="13" t="s">
         <v>335</v>
       </c>
-      <c r="C122" s="5" t="s">
+      <c r="C122" s="13" t="s">
         <v>273</v>
       </c>
-      <c r="D122" s="5">
-        <v>20242344</v>
-      </c>
-      <c r="E122" s="5" t="s">
+      <c r="D122" s="13">
+        <v>2.0242344E7</v>
+      </c>
+      <c r="E122" s="13" t="s">
         <v>336</v>
       </c>
-      <c r="F122" s="5" t="s">
+      <c r="F122" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="G122" s="5" t="s">
+      <c r="G122" s="13" t="s">
         <v>113</v>
       </c>
-      <c r="H122" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="I122" s="5" t="s">
+      <c r="H122" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="I122" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="J122" s="5" t="s">
+      <c r="J122" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="K122" s="5" t="s">
+      <c r="K122" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="L122" s="5" t="s">
+      <c r="L122" s="13" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="123" spans="1:15" ht="13" x14ac:dyDescent="0.15">
-      <c r="A123" s="7">
+    <row r="123">
+      <c r="A123" s="9">
         <v>45589.863424560186</v>
       </c>
-      <c r="B123" s="8" t="s">
+      <c r="B123" s="10" t="s">
         <v>337</v>
       </c>
-      <c r="C123" s="8" t="s">
+      <c r="C123" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="D123" s="8">
-        <v>20233055</v>
-      </c>
-      <c r="E123" s="8" t="s">
+      <c r="D123" s="10">
+        <v>2.0233055E7</v>
+      </c>
+      <c r="E123" s="10" t="s">
         <v>338</v>
       </c>
-      <c r="F123" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="G123" s="8" t="s">
+      <c r="F123" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G123" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="H123" s="8" t="s">
+      <c r="H123" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="I123" s="8" t="s">
+      <c r="I123" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="J123" s="8" t="s">
+      <c r="J123" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="K123" s="8" t="s">
+      <c r="K123" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="L123" s="8" t="s">
+      <c r="L123" s="10" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="124" spans="1:15" ht="13" x14ac:dyDescent="0.15">
-      <c r="A124" s="4">
-        <v>45589.885637685184</v>
-      </c>
-      <c r="B124" s="5" t="s">
+    <row r="124">
+      <c r="A124" s="12">
+        <v>45589.88563768518</v>
+      </c>
+      <c r="B124" s="13" t="s">
         <v>339</v>
       </c>
-      <c r="C124" s="5" t="s">
+      <c r="C124" s="13" t="s">
         <v>140</v>
       </c>
-      <c r="D124" s="5">
-        <v>20243961</v>
-      </c>
-      <c r="E124" s="5" t="s">
+      <c r="D124" s="13">
+        <v>2.0243961E7</v>
+      </c>
+      <c r="E124" s="13" t="s">
         <v>340</v>
       </c>
-      <c r="F124" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="G124" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="H124" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="I124" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="M124" s="5" t="s">
+      <c r="F124" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G124" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H124" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="I124" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="M124" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="N124" s="5" t="s">
+      <c r="N124" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="O124" s="6" t="s">
+      <c r="O124" s="14" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="125" spans="1:15" ht="13" x14ac:dyDescent="0.15">
-      <c r="A125" s="7">
-        <v>45589.894851620367</v>
-      </c>
-      <c r="B125" s="8" t="s">
+    <row r="125">
+      <c r="A125" s="9">
+        <v>45589.89485162037</v>
+      </c>
+      <c r="B125" s="10" t="s">
         <v>341</v>
       </c>
-      <c r="C125" s="8" t="s">
+      <c r="C125" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="D125" s="8">
-        <v>20202834</v>
-      </c>
-      <c r="E125" s="8" t="s">
+      <c r="D125" s="10">
+        <v>2.0202834E7</v>
+      </c>
+      <c r="E125" s="10" t="s">
         <v>342</v>
       </c>
-      <c r="F125" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="G125" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="H125" s="8" t="s">
+      <c r="F125" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G125" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H125" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="I125" s="8" t="s">
+      <c r="I125" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="J125" s="8" t="s">
+      <c r="J125" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="K125" s="8" t="s">
+      <c r="K125" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="L125" s="8" t="s">
+      <c r="L125" s="10" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="126" spans="1:15" ht="13" x14ac:dyDescent="0.15">
-      <c r="A126" s="4">
-        <v>45589.898390219911</v>
-      </c>
-      <c r="B126" s="5" t="s">
+    <row r="126">
+      <c r="A126" s="12">
+        <v>45589.89839021991</v>
+      </c>
+      <c r="B126" s="13" t="s">
         <v>343</v>
       </c>
-      <c r="C126" s="5" t="s">
+      <c r="C126" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="D126" s="5">
-        <v>20212801</v>
-      </c>
-      <c r="E126" s="5" t="s">
+      <c r="D126" s="13">
+        <v>2.0212801E7</v>
+      </c>
+      <c r="E126" s="13" t="s">
         <v>344</v>
       </c>
-      <c r="F126" s="5" t="s">
+      <c r="F126" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="G126" s="5" t="s">
+      <c r="G126" s="13" t="s">
         <v>113</v>
       </c>
-      <c r="H126" s="5" t="s">
+      <c r="H126" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="I126" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="M126" s="5" t="s">
+      <c r="I126" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="M126" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="N126" s="5" t="s">
+      <c r="N126" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="O126" s="6" t="s">
+      <c r="O126" s="14" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="127" spans="1:15" ht="13" x14ac:dyDescent="0.15">
-      <c r="A127" s="7">
-        <v>45589.900691666669</v>
-      </c>
-      <c r="B127" s="8" t="s">
+    <row r="127">
+      <c r="A127" s="9">
+        <v>45589.90069166667</v>
+      </c>
+      <c r="B127" s="10" t="s">
         <v>345</v>
       </c>
-      <c r="C127" s="8" t="s">
+      <c r="C127" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="D127" s="8">
-        <v>20246215</v>
-      </c>
-      <c r="E127" s="8" t="s">
+      <c r="D127" s="10">
+        <v>2.0246215E7</v>
+      </c>
+      <c r="E127" s="10" t="s">
         <v>346</v>
       </c>
-      <c r="F127" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="G127" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="H127" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="I127" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="M127" s="8" t="s">
+      <c r="F127" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G127" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H127" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="I127" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="M127" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="N127" s="8" t="s">
+      <c r="N127" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="O127" s="9" t="s">
+      <c r="O127" s="11" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="128" spans="1:15" ht="13" x14ac:dyDescent="0.15">
-      <c r="A128" s="4">
-        <v>45589.906502280093</v>
-      </c>
-      <c r="B128" s="5" t="s">
+    <row r="128">
+      <c r="A128" s="12">
+        <v>45589.90650228009</v>
+      </c>
+      <c r="B128" s="13" t="s">
         <v>347</v>
       </c>
-      <c r="C128" s="5" t="s">
+      <c r="C128" s="13" t="s">
         <v>151</v>
       </c>
-      <c r="D128" s="5">
-        <v>20184132</v>
-      </c>
-      <c r="E128" s="5" t="s">
+      <c r="D128" s="13">
+        <v>2.0184132E7</v>
+      </c>
+      <c r="E128" s="13" t="s">
         <v>348</v>
       </c>
-      <c r="F128" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="G128" s="5" t="s">
+      <c r="F128" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G128" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="H128" s="5" t="s">
+      <c r="H128" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="I128" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="M128" s="5" t="s">
+      <c r="I128" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="M128" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="N128" s="5" t="s">
+      <c r="N128" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="O128" s="6" t="s">
+      <c r="O128" s="14" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="129" spans="1:15" ht="13" x14ac:dyDescent="0.15">
-      <c r="A129" s="7">
+    <row r="129">
+      <c r="A129" s="9">
         <v>45589.938813761575</v>
       </c>
-      <c r="B129" s="8" t="s">
+      <c r="B129" s="10" t="s">
         <v>349</v>
       </c>
-      <c r="C129" s="8" t="s">
+      <c r="C129" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="D129" s="8">
-        <v>20246300</v>
-      </c>
-      <c r="E129" s="8" t="s">
+      <c r="D129" s="10">
+        <v>2.02463E7</v>
+      </c>
+      <c r="E129" s="10" t="s">
         <v>350</v>
       </c>
-      <c r="F129" s="8" t="s">
+      <c r="F129" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="G129" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="H129" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="I129" s="8" t="s">
+      <c r="G129" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H129" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="I129" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="J129" s="8" t="s">
+      <c r="J129" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="K129" s="8" t="s">
+      <c r="K129" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="L129" s="8" t="s">
+      <c r="L129" s="10" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="130" spans="1:15" ht="13" x14ac:dyDescent="0.15">
-      <c r="A130" s="4">
-        <v>45589.939560185187</v>
-      </c>
-      <c r="B130" s="5" t="s">
+    <row r="130">
+      <c r="A130" s="12">
+        <v>45589.93955738426</v>
+      </c>
+      <c r="B130" s="13" t="s">
         <v>351</v>
       </c>
-      <c r="C130" s="5" t="s">
+      <c r="C130" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="D130" s="5">
-        <v>20242525</v>
-      </c>
-      <c r="E130" s="5" t="s">
+      <c r="D130" s="13">
+        <v>2.0242525E7</v>
+      </c>
+      <c r="E130" s="13" t="s">
         <v>352</v>
       </c>
-      <c r="F130" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="G130" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="H130" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="I130" s="5" t="s">
+      <c r="F130" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G130" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H130" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="I130" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="J130" s="5" t="s">
+      <c r="J130" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="K130" s="5" t="s">
+      <c r="K130" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="L130" s="5" t="s">
+      <c r="L130" s="13" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="131" spans="1:15" ht="13" x14ac:dyDescent="0.15">
-      <c r="A131" s="7">
-        <v>45589.942325138887</v>
-      </c>
-      <c r="B131" s="8" t="s">
+    <row r="131">
+      <c r="A131" s="9">
+        <v>45589.94232513889</v>
+      </c>
+      <c r="B131" s="10" t="s">
         <v>353</v>
       </c>
-      <c r="C131" s="8" t="s">
+      <c r="C131" s="10" t="s">
         <v>229</v>
       </c>
-      <c r="D131" s="8">
-        <v>20202637</v>
-      </c>
-      <c r="E131" s="8" t="s">
+      <c r="D131" s="10">
+        <v>2.0202637E7</v>
+      </c>
+      <c r="E131" s="10" t="s">
         <v>354</v>
       </c>
-      <c r="F131" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="G131" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="H131" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="I131" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="M131" s="8" t="s">
+      <c r="F131" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G131" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H131" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="I131" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="M131" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="N131" s="8" t="s">
+      <c r="N131" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="O131" s="9" t="s">
+      <c r="O131" s="11" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="132" spans="1:15" ht="13" x14ac:dyDescent="0.15">
-      <c r="A132" s="4">
-        <v>45589.944831620371</v>
-      </c>
-      <c r="B132" s="5" t="s">
+    <row r="132">
+      <c r="A132" s="12">
+        <v>45589.94483162037</v>
+      </c>
+      <c r="B132" s="13" t="s">
         <v>355</v>
       </c>
-      <c r="C132" s="5" t="s">
+      <c r="C132" s="13" t="s">
         <v>356</v>
       </c>
-      <c r="D132" s="5">
-        <v>20203425</v>
-      </c>
-      <c r="E132" s="5" t="s">
+      <c r="D132" s="13">
+        <v>2.0203425E7</v>
+      </c>
+      <c r="E132" s="13" t="s">
         <v>357</v>
       </c>
-      <c r="F132" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="G132" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="H132" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="I132" s="5" t="s">
+      <c r="F132" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G132" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H132" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="I132" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="J132" s="5" t="s">
+      <c r="J132" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="K132" s="5" t="s">
+      <c r="K132" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="L132" s="5" t="s">
+      <c r="L132" s="13" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="133" spans="1:15" ht="13" x14ac:dyDescent="0.15">
-      <c r="A133" s="7">
-        <v>45589.945280428241</v>
-      </c>
-      <c r="B133" s="8" t="s">
+    <row r="133">
+      <c r="A133" s="9">
+        <v>45589.94528042824</v>
+      </c>
+      <c r="B133" s="10" t="s">
         <v>358</v>
       </c>
-      <c r="C133" s="8" t="s">
+      <c r="C133" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="D133" s="8">
-        <v>20242515</v>
-      </c>
-      <c r="E133" s="8" t="s">
+      <c r="D133" s="10">
+        <v>2.0242515E7</v>
+      </c>
+      <c r="E133" s="10" t="s">
         <v>359</v>
       </c>
-      <c r="F133" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="G133" s="8" t="s">
+      <c r="F133" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G133" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="H133" s="8" t="s">
+      <c r="H133" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="I133" s="8" t="s">
+      <c r="I133" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="J133" s="8" t="s">
+      <c r="J133" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="K133" s="8" t="s">
+      <c r="K133" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="L133" s="8" t="s">
+      <c r="L133" s="10" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="134" spans="1:15" ht="13" x14ac:dyDescent="0.15">
-      <c r="A134" s="4">
+    <row r="134">
+      <c r="A134" s="12">
         <v>45589.951950613424</v>
       </c>
-      <c r="B134" s="5" t="s">
+      <c r="B134" s="13" t="s">
         <v>360</v>
       </c>
-      <c r="C134" s="5" t="s">
+      <c r="C134" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="D134" s="5">
-        <v>20203006</v>
-      </c>
-      <c r="E134" s="5" t="s">
+      <c r="D134" s="13">
+        <v>2.0203006E7</v>
+      </c>
+      <c r="E134" s="13" t="s">
         <v>361</v>
       </c>
-      <c r="F134" s="5" t="s">
+      <c r="F134" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="G134" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="H134" s="5" t="s">
+      <c r="G134" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H134" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="I134" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="M134" s="5" t="s">
+      <c r="I134" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="M134" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="N134" s="5" t="s">
+      <c r="N134" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="O134" s="6" t="s">
+      <c r="O134" s="14" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="135" spans="1:15" ht="13" x14ac:dyDescent="0.15">
-      <c r="A135" s="7">
-        <v>45589.955070625001</v>
-      </c>
-      <c r="B135" s="8" t="s">
+    <row r="135">
+      <c r="A135" s="9">
+        <v>45589.955070625</v>
+      </c>
+      <c r="B135" s="10" t="s">
         <v>362</v>
       </c>
-      <c r="C135" s="8" t="s">
+      <c r="C135" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="D135" s="8">
-        <v>20222367</v>
-      </c>
-      <c r="E135" s="8" t="s">
+      <c r="D135" s="10">
+        <v>2.0222367E7</v>
+      </c>
+      <c r="E135" s="10" t="s">
         <v>363</v>
       </c>
-      <c r="F135" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="G135" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="H135" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="I135" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="M135" s="8" t="s">
+      <c r="F135" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G135" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H135" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="I135" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="M135" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="N135" s="8" t="s">
+      <c r="N135" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="O135" s="9" t="s">
+      <c r="O135" s="11" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="136" spans="1:15" ht="13" x14ac:dyDescent="0.15">
-      <c r="A136" s="4">
-        <v>45589.969431874997</v>
-      </c>
-      <c r="B136" s="5" t="s">
+    <row r="136">
+      <c r="A136" s="12">
+        <v>45589.969431875</v>
+      </c>
+      <c r="B136" s="13" t="s">
         <v>364</v>
       </c>
-      <c r="C136" s="5" t="s">
+      <c r="C136" s="13" t="s">
         <v>195</v>
       </c>
-      <c r="D136" s="5">
-        <v>20212818</v>
-      </c>
-      <c r="E136" s="5" t="s">
+      <c r="D136" s="13">
+        <v>2.0212818E7</v>
+      </c>
+      <c r="E136" s="13" t="s">
         <v>365</v>
       </c>
-      <c r="F136" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="G136" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="H136" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="I136" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="M136" s="5" t="s">
+      <c r="F136" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G136" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H136" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="I136" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="M136" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="N136" s="5" t="s">
+      <c r="N136" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="O136" s="6" t="s">
+      <c r="O136" s="14" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="137" spans="1:15" ht="13" x14ac:dyDescent="0.15">
-      <c r="A137" s="7">
-        <v>45589.972647280098</v>
-      </c>
-      <c r="B137" s="8" t="s">
+    <row r="137">
+      <c r="A137" s="9">
+        <v>45589.9726472801</v>
+      </c>
+      <c r="B137" s="10" t="s">
         <v>366</v>
       </c>
-      <c r="C137" s="8" t="s">
+      <c r="C137" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="D137" s="8">
-        <v>20244120</v>
-      </c>
-      <c r="E137" s="8" t="s">
+      <c r="D137" s="10">
+        <v>2.024412E7</v>
+      </c>
+      <c r="E137" s="10" t="s">
         <v>367</v>
       </c>
-      <c r="F137" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="G137" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="H137" s="8" t="s">
+      <c r="F137" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G137" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H137" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="I137" s="8" t="s">
+      <c r="I137" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="J137" s="8" t="s">
+      <c r="J137" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="K137" s="8" t="s">
+      <c r="K137" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="L137" s="8" t="s">
+      <c r="L137" s="10" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="138" spans="1:15" ht="13" x14ac:dyDescent="0.15">
-      <c r="A138" s="4">
-        <v>45589.973360162039</v>
-      </c>
-      <c r="B138" s="5" t="s">
+    <row r="138">
+      <c r="A138" s="12">
+        <v>45589.97336016204</v>
+      </c>
+      <c r="B138" s="13" t="s">
         <v>368</v>
       </c>
-      <c r="C138" s="5" t="s">
+      <c r="C138" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="D138" s="5">
-        <v>20243804</v>
-      </c>
-      <c r="E138" s="5" t="s">
+      <c r="D138" s="13">
+        <v>2.0243804E7</v>
+      </c>
+      <c r="E138" s="13" t="s">
         <v>369</v>
       </c>
-      <c r="F138" s="5" t="s">
+      <c r="F138" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="G138" s="5" t="s">
+      <c r="G138" s="13" t="s">
         <v>113</v>
       </c>
-      <c r="H138" s="5" t="s">
+      <c r="H138" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="I138" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="M138" s="5" t="s">
+      <c r="I138" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="M138" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="N138" s="5" t="s">
+      <c r="N138" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="O138" s="6" t="s">
+      <c r="O138" s="14" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="139" spans="1:15" ht="13" x14ac:dyDescent="0.15">
-      <c r="A139" s="7">
-        <v>45589.985730243061</v>
-      </c>
-      <c r="B139" s="8" t="s">
+    <row r="139">
+      <c r="A139" s="9">
+        <v>45589.98573024306</v>
+      </c>
+      <c r="B139" s="10" t="s">
         <v>370</v>
       </c>
-      <c r="C139" s="8" t="s">
+      <c r="C139" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="D139" s="8">
-        <v>20192901</v>
-      </c>
-      <c r="E139" s="8" t="s">
+      <c r="D139" s="10">
+        <v>2.0192901E7</v>
+      </c>
+      <c r="E139" s="10" t="s">
         <v>371</v>
       </c>
-      <c r="F139" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="G139" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="H139" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="I139" s="8" t="s">
+      <c r="F139" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G139" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H139" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="I139" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="J139" s="8" t="s">
+      <c r="J139" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="K139" s="8" t="s">
+      <c r="K139" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="L139" s="8" t="s">
+      <c r="L139" s="10" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="140" spans="1:15" ht="13" x14ac:dyDescent="0.15">
-      <c r="A140" s="4">
-        <v>45590.022070150459</v>
-      </c>
-      <c r="B140" s="5" t="s">
+    <row r="140">
+      <c r="A140" s="12">
+        <v>45590.02207015046</v>
+      </c>
+      <c r="B140" s="13" t="s">
         <v>372</v>
       </c>
-      <c r="C140" s="5" t="s">
+      <c r="C140" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="D140" s="5">
-        <v>20242528</v>
-      </c>
-      <c r="E140" s="5" t="s">
+      <c r="D140" s="13">
+        <v>2.0242528E7</v>
+      </c>
+      <c r="E140" s="13" t="s">
         <v>373</v>
       </c>
-      <c r="F140" s="5" t="s">
+      <c r="F140" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="G140" s="5" t="s">
+      <c r="G140" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="H140" s="5" t="s">
+      <c r="H140" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="I140" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="M140" s="5" t="s">
+      <c r="I140" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="M140" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="N140" s="5" t="s">
+      <c r="N140" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="O140" s="6" t="s">
+      <c r="O140" s="14" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="141" spans="1:15" ht="13" x14ac:dyDescent="0.15">
-      <c r="A141" s="7">
-        <v>45590.034851145829</v>
-      </c>
-      <c r="B141" s="8" t="s">
+    <row r="141">
+      <c r="A141" s="9">
+        <v>45590.03485114583</v>
+      </c>
+      <c r="B141" s="10" t="s">
         <v>374</v>
       </c>
-      <c r="C141" s="8" t="s">
+      <c r="C141" s="10" t="s">
         <v>148</v>
       </c>
-      <c r="D141" s="8">
-        <v>20193644</v>
-      </c>
-      <c r="E141" s="8" t="s">
+      <c r="D141" s="10">
+        <v>2.0193644E7</v>
+      </c>
+      <c r="E141" s="10" t="s">
         <v>375</v>
       </c>
-      <c r="F141" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="G141" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="H141" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="I141" s="8" t="s">
+      <c r="F141" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G141" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H141" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="I141" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="J141" s="8" t="s">
+      <c r="J141" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="K141" s="8" t="s">
+      <c r="K141" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="L141" s="8" t="s">
+      <c r="L141" s="10" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="142" spans="1:15" ht="13" x14ac:dyDescent="0.15">
-      <c r="A142" s="4">
+    <row r="142">
+      <c r="A142" s="12">
         <v>45590.066654953705</v>
       </c>
-      <c r="B142" s="5" t="s">
+      <c r="B142" s="13" t="s">
         <v>376</v>
       </c>
-      <c r="C142" s="5" t="s">
+      <c r="C142" s="13" t="s">
         <v>170</v>
       </c>
-      <c r="D142" s="5">
-        <v>20242430</v>
-      </c>
-      <c r="E142" s="5" t="s">
+      <c r="D142" s="13">
+        <v>2.024243E7</v>
+      </c>
+      <c r="E142" s="13" t="s">
         <v>377</v>
       </c>
-      <c r="F142" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="G142" s="5" t="s">
+      <c r="F142" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G142" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="H142" s="5" t="s">
+      <c r="H142" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="I142" s="5" t="s">
+      <c r="I142" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="J142" s="5" t="s">
+      <c r="J142" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="K142" s="5" t="s">
+      <c r="K142" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="L142" s="5" t="s">
+      <c r="L142" s="13" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="143" spans="1:15" ht="13" x14ac:dyDescent="0.15">
-      <c r="A143" s="7">
-        <v>45590.075516064811</v>
-      </c>
-      <c r="B143" s="8" t="s">
+    <row r="143">
+      <c r="A143" s="9">
+        <v>45590.07551606481</v>
+      </c>
+      <c r="B143" s="10" t="s">
         <v>378</v>
       </c>
-      <c r="C143" s="8" t="s">
+      <c r="C143" s="10" t="s">
         <v>296</v>
       </c>
-      <c r="D143" s="8">
-        <v>20212555</v>
-      </c>
-      <c r="E143" s="8" t="s">
+      <c r="D143" s="10">
+        <v>2.0212555E7</v>
+      </c>
+      <c r="E143" s="10" t="s">
         <v>379</v>
       </c>
-      <c r="F143" s="8" t="s">
+      <c r="F143" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="G143" s="8" t="s">
+      <c r="G143" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="H143" s="8" t="s">
+      <c r="H143" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="I143" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="M143" s="8" t="s">
+      <c r="I143" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="M143" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="N143" s="8" t="s">
+      <c r="N143" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="O143" s="9" t="s">
+      <c r="O143" s="11" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="144" spans="1:15" ht="13" x14ac:dyDescent="0.15">
-      <c r="A144" s="4">
-        <v>45590.320415474533</v>
-      </c>
-      <c r="B144" s="5" t="s">
+    <row r="144">
+      <c r="A144" s="12">
+        <v>45590.32041547453</v>
+      </c>
+      <c r="B144" s="13" t="s">
         <v>380</v>
       </c>
-      <c r="C144" s="5" t="s">
+      <c r="C144" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="D144" s="5">
-        <v>20222960</v>
-      </c>
-      <c r="E144" s="5" t="s">
+      <c r="D144" s="13">
+        <v>2.022296E7</v>
+      </c>
+      <c r="E144" s="13" t="s">
         <v>381</v>
       </c>
-      <c r="F144" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="G144" s="5" t="s">
+      <c r="F144" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G144" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="H144" s="5" t="s">
+      <c r="H144" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="I144" s="5" t="s">
+      <c r="I144" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="J144" s="5" t="s">
+      <c r="J144" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="K144" s="5" t="s">
+      <c r="K144" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="L144" s="5" t="s">
+      <c r="L144" s="13" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="145" spans="1:15" ht="13" x14ac:dyDescent="0.15">
-      <c r="A145" s="7">
-        <v>45590.342832916664</v>
-      </c>
-      <c r="B145" s="8" t="s">
+    <row r="145">
+      <c r="A145" s="9">
+        <v>45590.34283291666</v>
+      </c>
+      <c r="B145" s="10" t="s">
         <v>382</v>
       </c>
-      <c r="C145" s="8" t="s">
+      <c r="C145" s="10" t="s">
         <v>267</v>
       </c>
-      <c r="D145" s="8">
-        <v>20246752</v>
-      </c>
-      <c r="E145" s="8" t="s">
+      <c r="D145" s="10">
+        <v>2.0246752E7</v>
+      </c>
+      <c r="E145" s="10" t="s">
         <v>383</v>
       </c>
-      <c r="F145" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="G145" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="H145" s="8" t="s">
+      <c r="F145" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G145" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H145" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="I145" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="M145" s="8" t="s">
+      <c r="I145" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="M145" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="N145" s="8" t="s">
+      <c r="N145" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="O145" s="9" t="s">
+      <c r="O145" s="11" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="146" spans="1:15" ht="13" x14ac:dyDescent="0.15">
-      <c r="A146" s="4">
+    <row r="146">
+      <c r="A146" s="12">
         <v>45590.365371527776</v>
       </c>
-      <c r="B146" s="5" t="s">
+      <c r="B146" s="13" t="s">
         <v>384</v>
       </c>
-      <c r="C146" s="5" t="s">
+      <c r="C146" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="D146" s="5">
-        <v>20243048</v>
-      </c>
-      <c r="E146" s="5" t="s">
+      <c r="D146" s="13">
+        <v>2.0243048E7</v>
+      </c>
+      <c r="E146" s="13" t="s">
         <v>385</v>
       </c>
-      <c r="F146" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="G146" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="H146" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="I146" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="M146" s="5" t="s">
+      <c r="F146" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G146" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H146" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="I146" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="M146" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="N146" s="5" t="s">
+      <c r="N146" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="O146" s="6" t="s">
+      <c r="O146" s="14" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="147" spans="1:15" ht="13" x14ac:dyDescent="0.15">
-      <c r="A147" s="10">
-        <v>45590.372018900467</v>
-      </c>
-      <c r="B147" s="11" t="s">
+    <row r="147">
+      <c r="A147" s="9">
+        <v>45590.37201890047</v>
+      </c>
+      <c r="B147" s="10" t="s">
         <v>386</v>
       </c>
-      <c r="C147" s="11" t="s">
+      <c r="C147" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="D147" s="11">
-        <v>20246214</v>
-      </c>
-      <c r="E147" s="11" t="s">
+      <c r="D147" s="10">
+        <v>2.0246214E7</v>
+      </c>
+      <c r="E147" s="10" t="s">
         <v>387</v>
       </c>
-      <c r="F147" s="11" t="s">
+      <c r="F147" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="G147" s="11" t="s">
+      <c r="G147" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="H147" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="I147" s="11" t="s">
+      <c r="H147" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="I147" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="J147" s="11" t="s">
+      <c r="J147" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="K147" s="11" t="s">
+      <c r="K147" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="L147" s="11" t="s">
+      <c r="L147" s="10" t="s">
         <v>83</v>
       </c>
     </row>
+    <row r="148">
+      <c r="A148" s="12">
+        <v>45590.40581909722</v>
+      </c>
+      <c r="B148" s="13" t="s">
+        <v>388</v>
+      </c>
+      <c r="C148" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="D148" s="13">
+        <v>2.0242428E7</v>
+      </c>
+      <c r="E148" s="13" t="s">
+        <v>389</v>
+      </c>
+      <c r="F148" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G148" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H148" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="I148" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="M148" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="N148" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="O148" s="14" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="9">
+        <v>45590.487673993055</v>
+      </c>
+      <c r="B149" s="10" t="s">
+        <v>390</v>
+      </c>
+      <c r="C149" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="D149" s="10">
+        <v>2.0243933E7</v>
+      </c>
+      <c r="E149" s="10" t="s">
+        <v>391</v>
+      </c>
+      <c r="F149" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G149" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="H149" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="I149" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="M149" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="N149" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="O149" s="11" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="12">
+        <v>45590.53891938657</v>
+      </c>
+      <c r="B150" s="13" t="s">
+        <v>392</v>
+      </c>
+      <c r="C150" s="13" t="s">
+        <v>333</v>
+      </c>
+      <c r="D150" s="13">
+        <v>2.0241517E7</v>
+      </c>
+      <c r="E150" s="13" t="s">
+        <v>393</v>
+      </c>
+      <c r="F150" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G150" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H150" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="I150" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="J150" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="K150" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="L150" s="13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="9">
+        <v>45590.545532523145</v>
+      </c>
+      <c r="B151" s="10" t="s">
+        <v>394</v>
+      </c>
+      <c r="C151" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D151" s="10">
+        <v>2.0233637E7</v>
+      </c>
+      <c r="E151" s="10" t="s">
+        <v>395</v>
+      </c>
+      <c r="F151" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G151" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="H151" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="I151" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="J151" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="K151" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="L151" s="10" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="12">
+        <v>45590.59218224537</v>
+      </c>
+      <c r="B152" s="13" t="s">
+        <v>396</v>
+      </c>
+      <c r="C152" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="D152" s="13">
+        <v>2.0241065E7</v>
+      </c>
+      <c r="E152" s="13" t="s">
+        <v>397</v>
+      </c>
+      <c r="F152" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G152" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H152" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="I152" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="M152" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="N152" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="O152" s="14" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="9">
+        <v>45590.5949805787</v>
+      </c>
+      <c r="B153" s="10" t="s">
+        <v>398</v>
+      </c>
+      <c r="C153" s="10" t="s">
+        <v>356</v>
+      </c>
+      <c r="D153" s="10">
+        <v>2.0243408E7</v>
+      </c>
+      <c r="E153" s="10" t="s">
+        <v>399</v>
+      </c>
+      <c r="F153" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G153" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H153" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="I153" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="J153" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="K153" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="L153" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="12">
+        <v>45590.62965596065</v>
+      </c>
+      <c r="B154" s="13" t="s">
+        <v>400</v>
+      </c>
+      <c r="C154" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="D154" s="13">
+        <v>2.0233031E7</v>
+      </c>
+      <c r="E154" s="13" t="s">
+        <v>375</v>
+      </c>
+      <c r="F154" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G154" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H154" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="I154" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="M154" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="N154" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="O154" s="14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="9">
+        <v>45590.65052542824</v>
+      </c>
+      <c r="B155" s="10" t="s">
+        <v>401</v>
+      </c>
+      <c r="C155" s="10" t="s">
+        <v>273</v>
+      </c>
+      <c r="D155" s="10">
+        <v>2.0242355E7</v>
+      </c>
+      <c r="E155" s="10" t="s">
+        <v>402</v>
+      </c>
+      <c r="F155" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G155" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H155" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="I155" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="M155" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="N155" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="O155" s="11" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="12">
+        <v>45590.65096709491</v>
+      </c>
+      <c r="B156" s="13" t="s">
+        <v>403</v>
+      </c>
+      <c r="C156" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="D156" s="13">
+        <v>2.020257E7</v>
+      </c>
+      <c r="E156" s="13" t="s">
+        <v>404</v>
+      </c>
+      <c r="F156" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G156" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H156" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="I156" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="M156" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="N156" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="O156" s="14" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="9">
+        <v>45590.68035357639</v>
+      </c>
+      <c r="B157" s="10" t="s">
+        <v>405</v>
+      </c>
+      <c r="C157" s="10" t="s">
+        <v>406</v>
+      </c>
+      <c r="D157" s="10">
+        <v>2.0193508E7</v>
+      </c>
+      <c r="E157" s="10" t="s">
+        <v>407</v>
+      </c>
+      <c r="F157" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G157" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="H157" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="I157" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="M157" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="N157" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="O157" s="11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="12">
+        <v>45590.73235146991</v>
+      </c>
+      <c r="B158" s="13" t="s">
+        <v>408</v>
+      </c>
+      <c r="C158" s="13" t="s">
+        <v>296</v>
+      </c>
+      <c r="D158" s="13">
+        <v>2.022704E7</v>
+      </c>
+      <c r="E158" s="13" t="s">
+        <v>409</v>
+      </c>
+      <c r="F158" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G158" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H158" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="I158" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="J158" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="K158" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="L158" s="13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="9">
+        <v>45590.73236355324</v>
+      </c>
+      <c r="B159" s="10" t="s">
+        <v>410</v>
+      </c>
+      <c r="C159" s="10" t="s">
+        <v>411</v>
+      </c>
+      <c r="D159" s="10">
+        <v>2.0213219E7</v>
+      </c>
+      <c r="E159" s="10" t="s">
+        <v>412</v>
+      </c>
+      <c r="F159" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G159" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H159" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="I159" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="J159" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="K159" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="L159" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="12">
+        <v>45590.738286458334</v>
+      </c>
+      <c r="B160" s="13" t="s">
+        <v>413</v>
+      </c>
+      <c r="C160" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="D160" s="13">
+        <v>2.0242138E7</v>
+      </c>
+      <c r="E160" s="13" t="s">
+        <v>414</v>
+      </c>
+      <c r="F160" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G160" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H160" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="I160" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="J160" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="K160" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="L160" s="13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="9">
+        <v>45590.7582128125</v>
+      </c>
+      <c r="B161" s="10" t="s">
+        <v>415</v>
+      </c>
+      <c r="C161" s="10" t="s">
+        <v>411</v>
+      </c>
+      <c r="D161" s="10">
+        <v>2.0223249E7</v>
+      </c>
+      <c r="E161" s="10" t="s">
+        <v>416</v>
+      </c>
+      <c r="F161" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G161" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="H161" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="I161" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="M161" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="N161" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="O161" s="11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="15">
+        <v>45590.80190494213</v>
+      </c>
+      <c r="B162" s="16" t="s">
+        <v>417</v>
+      </c>
+      <c r="C162" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="D162" s="16">
+        <v>2.024291E7</v>
+      </c>
+      <c r="E162" s="16" t="s">
+        <v>418</v>
+      </c>
+      <c r="F162" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="G162" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="H162" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="I162" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="J162" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="K162" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="L162" s="16" t="s">
+        <v>39</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
--- a/R/data/quiz241021_tmp.xlsx
+++ b/R/data/quiz241021_tmp.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1625" uniqueCount="419">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1875" uniqueCount="471">
   <si>
     <t>타임스탬프</t>
   </si>
@@ -1268,6 +1268,162 @@
   </si>
   <si>
     <t>강준우</t>
+  </si>
+  <si>
+    <t>qwe92517@gmail.com</t>
+  </si>
+  <si>
+    <t>이진영</t>
+  </si>
+  <si>
+    <t>cjh5779@naver.com</t>
+  </si>
+  <si>
+    <t>콘텐츠 IT</t>
+  </si>
+  <si>
+    <t>최정환</t>
+  </si>
+  <si>
+    <t>youngold057@gmail.com</t>
+  </si>
+  <si>
+    <t>윤태영</t>
+  </si>
+  <si>
+    <t>sengyu0805@gmail.com</t>
+  </si>
+  <si>
+    <t>나선아</t>
+  </si>
+  <si>
+    <t>jdayeong86@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">경영학과 </t>
+  </si>
+  <si>
+    <t>정다영</t>
+  </si>
+  <si>
+    <t>namryumin@gmail.com</t>
+  </si>
+  <si>
+    <t>남류민</t>
+  </si>
+  <si>
+    <t>ystop061012@naver.com</t>
+  </si>
+  <si>
+    <t>손연수</t>
+  </si>
+  <si>
+    <t>ye1651@naver.com</t>
+  </si>
+  <si>
+    <t>전예은</t>
+  </si>
+  <si>
+    <t>woosm050530@gmail.com</t>
+  </si>
+  <si>
+    <t>우수민</t>
+  </si>
+  <si>
+    <t>bvc023@naver.com</t>
+  </si>
+  <si>
+    <t>김수영</t>
+  </si>
+  <si>
+    <t>orientfun@gmail.com</t>
+  </si>
+  <si>
+    <t>이동화</t>
+  </si>
+  <si>
+    <t>wnsrl2498@naver.com</t>
+  </si>
+  <si>
+    <t>김준기</t>
+  </si>
+  <si>
+    <t>ujeong1030@gmail.com</t>
+  </si>
+  <si>
+    <t>최유정</t>
+  </si>
+  <si>
+    <t>obbobb7@gmail.com</t>
+  </si>
+  <si>
+    <t>구재영</t>
+  </si>
+  <si>
+    <t>efgh124@naver.com</t>
+  </si>
+  <si>
+    <t>정윤서</t>
+  </si>
+  <si>
+    <t>a01051265769@gmail.com</t>
+  </si>
+  <si>
+    <t>안현영</t>
+  </si>
+  <si>
+    <t>yumi0901gami@gmail.com</t>
+  </si>
+  <si>
+    <t>jangjunhyeok1001@naver.com</t>
+  </si>
+  <si>
+    <t>반도체 디스플레이 스쿨</t>
+  </si>
+  <si>
+    <t>장준혁</t>
+  </si>
+  <si>
+    <t>rlaskrud0917@naver.com</t>
+  </si>
+  <si>
+    <t>국어국문학전공</t>
+  </si>
+  <si>
+    <t>김나경</t>
+  </si>
+  <si>
+    <t>liz030404@naver.com</t>
+  </si>
+  <si>
+    <t>yhc0564@naver.com</t>
+  </si>
+  <si>
+    <t>윤홍채</t>
+  </si>
+  <si>
+    <t>oys55735@gmail.com</t>
+  </si>
+  <si>
+    <t>오윤서</t>
+  </si>
+  <si>
+    <t>for1369@gmail.com</t>
+  </si>
+  <si>
+    <t>성동진</t>
+  </si>
+  <si>
+    <t>aj7082331@gmail.com</t>
+  </si>
+  <si>
+    <t>조아나</t>
+  </si>
+  <si>
+    <t>sehyun1901@gmail.com</t>
+  </si>
+  <si>
+    <t>임세현</t>
   </si>
 </sst>
 </file>
@@ -1298,7 +1454,7 @@
       <patternFill patternType="lightGray"/>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="13">
     <border/>
     <border>
       <left style="thin">
@@ -1431,10 +1587,10 @@
         <color rgb="FF442F65"/>
       </left>
       <right style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </right>
       <top style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </top>
       <bottom style="thin">
         <color rgb="FF442F65"/>
@@ -1442,13 +1598,27 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </left>
       <right style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </right>
       <top style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF442F65"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFF8F9FA"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF442F65"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFF8F9FA"/>
       </top>
       <bottom style="thin">
         <color rgb="FF442F65"/>
@@ -1458,7 +1628,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1508,6 +1678,9 @@
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="11" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="12" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
   </cellXfs>
@@ -1568,7 +1741,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:O162" displayName="Form_Responses1" name="Form_Responses1" id="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:O187" displayName="Form_Responses1" name="Form_Responses1" id="1">
   <tableColumns count="15">
     <tableColumn name="타임스탬프" id="1"/>
     <tableColumn name="이메일 주소" id="2"/>
@@ -7936,41 +8109,991 @@
       </c>
     </row>
     <row r="162">
-      <c r="A162" s="15">
+      <c r="A162" s="12">
         <v>45590.80190494213</v>
       </c>
-      <c r="B162" s="16" t="s">
+      <c r="B162" s="13" t="s">
         <v>417</v>
       </c>
-      <c r="C162" s="16" t="s">
+      <c r="C162" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="D162" s="16">
+      <c r="D162" s="13">
         <v>2.024291E7</v>
       </c>
-      <c r="E162" s="16" t="s">
+      <c r="E162" s="13" t="s">
         <v>418</v>
       </c>
-      <c r="F162" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="G162" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="H162" s="16" t="s">
+      <c r="F162" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G162" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H162" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="I162" s="16" t="s">
+      <c r="I162" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="J162" s="16" t="s">
+      <c r="J162" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="K162" s="16" t="s">
+      <c r="K162" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="L162" s="16" t="s">
+      <c r="L162" s="13" t="s">
         <v>39</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="9">
+        <v>45590.82420503472</v>
+      </c>
+      <c r="B163" s="10" t="s">
+        <v>419</v>
+      </c>
+      <c r="C163" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="D163" s="10">
+        <v>2.0246271E7</v>
+      </c>
+      <c r="E163" s="10" t="s">
+        <v>420</v>
+      </c>
+      <c r="F163" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G163" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="H163" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="I163" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="M163" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="N163" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="O163" s="11" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="12">
+        <v>45590.83154528935</v>
+      </c>
+      <c r="B164" s="13" t="s">
+        <v>421</v>
+      </c>
+      <c r="C164" s="13" t="s">
+        <v>422</v>
+      </c>
+      <c r="D164" s="13">
+        <v>2.0215262E7</v>
+      </c>
+      <c r="E164" s="13" t="s">
+        <v>423</v>
+      </c>
+      <c r="F164" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G164" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H164" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="I164" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="J164" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="K164" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="L164" s="13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="9">
+        <v>45590.85131216435</v>
+      </c>
+      <c r="B165" s="10" t="s">
+        <v>424</v>
+      </c>
+      <c r="C165" s="10" t="s">
+        <v>273</v>
+      </c>
+      <c r="D165" s="10">
+        <v>2.0242336E7</v>
+      </c>
+      <c r="E165" s="10" t="s">
+        <v>425</v>
+      </c>
+      <c r="F165" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="G165" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H165" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="I165" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="J165" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="K165" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="L165" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="12">
+        <v>45590.85423777778</v>
+      </c>
+      <c r="B166" s="13" t="s">
+        <v>426</v>
+      </c>
+      <c r="C166" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="D166" s="13">
+        <v>2.0245152E7</v>
+      </c>
+      <c r="E166" s="13" t="s">
+        <v>427</v>
+      </c>
+      <c r="F166" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G166" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H166" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="I166" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="M166" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="N166" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="O166" s="14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="9">
+        <v>45590.86455076389</v>
+      </c>
+      <c r="B167" s="10" t="s">
+        <v>428</v>
+      </c>
+      <c r="C167" s="10" t="s">
+        <v>429</v>
+      </c>
+      <c r="D167" s="10">
+        <v>2.0213035E7</v>
+      </c>
+      <c r="E167" s="10" t="s">
+        <v>430</v>
+      </c>
+      <c r="F167" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G167" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H167" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="I167" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="M167" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="N167" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="O167" s="11" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="12">
+        <v>45590.866361493056</v>
+      </c>
+      <c r="B168" s="13" t="s">
+        <v>431</v>
+      </c>
+      <c r="C168" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="D168" s="13">
+        <v>2.0245154E7</v>
+      </c>
+      <c r="E168" s="13" t="s">
+        <v>432</v>
+      </c>
+      <c r="F168" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G168" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="H168" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="I168" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="J168" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="K168" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="L168" s="13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="9">
+        <v>45590.86686739583</v>
+      </c>
+      <c r="B169" s="10" t="s">
+        <v>433</v>
+      </c>
+      <c r="C169" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="D169" s="10">
+        <v>2.0246628E7</v>
+      </c>
+      <c r="E169" s="10" t="s">
+        <v>434</v>
+      </c>
+      <c r="F169" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G169" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="H169" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="I169" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="M169" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="N169" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="O169" s="11" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="12">
+        <v>45590.884683055556</v>
+      </c>
+      <c r="B170" s="13" t="s">
+        <v>435</v>
+      </c>
+      <c r="C170" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="D170" s="13">
+        <v>2.0243949E7</v>
+      </c>
+      <c r="E170" s="13" t="s">
+        <v>436</v>
+      </c>
+      <c r="F170" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G170" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H170" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="I170" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="M170" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="N170" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="O170" s="14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="9">
+        <v>45590.89450751158</v>
+      </c>
+      <c r="B171" s="10" t="s">
+        <v>437</v>
+      </c>
+      <c r="C171" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D171" s="10">
+        <v>2.024363E7</v>
+      </c>
+      <c r="E171" s="10" t="s">
+        <v>438</v>
+      </c>
+      <c r="F171" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G171" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H171" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="I171" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="M171" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="N171" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="O171" s="11" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="12">
+        <v>45590.949982418984</v>
+      </c>
+      <c r="B172" s="13" t="s">
+        <v>439</v>
+      </c>
+      <c r="C172" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="D172" s="13">
+        <v>2.0217035E7</v>
+      </c>
+      <c r="E172" s="13" t="s">
+        <v>440</v>
+      </c>
+      <c r="F172" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G172" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H172" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="I172" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="J172" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="K172" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="L172" s="13" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="9">
+        <v>45590.96638832176</v>
+      </c>
+      <c r="B173" s="10" t="s">
+        <v>441</v>
+      </c>
+      <c r="C173" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="D173" s="10">
+        <v>2.0245218E7</v>
+      </c>
+      <c r="E173" s="10" t="s">
+        <v>442</v>
+      </c>
+      <c r="F173" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G173" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="H173" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="I173" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="J173" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="K173" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="L173" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="12">
+        <v>45590.985894502315</v>
+      </c>
+      <c r="B174" s="13" t="s">
+        <v>443</v>
+      </c>
+      <c r="C174" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="D174" s="13">
+        <v>2.0227093E7</v>
+      </c>
+      <c r="E174" s="13" t="s">
+        <v>444</v>
+      </c>
+      <c r="F174" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G174" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="H174" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="I174" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="J174" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="K174" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="L174" s="13" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="9">
+        <v>45591.00385768518</v>
+      </c>
+      <c r="B175" s="10" t="s">
+        <v>445</v>
+      </c>
+      <c r="C175" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="D175" s="10">
+        <v>2.0232637E7</v>
+      </c>
+      <c r="E175" s="10" t="s">
+        <v>446</v>
+      </c>
+      <c r="F175" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="G175" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="H175" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="I175" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="J175" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="K175" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="L175" s="10" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="12">
+        <v>45591.00657629629</v>
+      </c>
+      <c r="B176" s="13" t="s">
+        <v>447</v>
+      </c>
+      <c r="C176" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="D176" s="13">
+        <v>2.0193305E7</v>
+      </c>
+      <c r="E176" s="13" t="s">
+        <v>448</v>
+      </c>
+      <c r="F176" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G176" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H176" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="I176" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="M176" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="N176" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="O176" s="14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="9">
+        <v>45591.04461724537</v>
+      </c>
+      <c r="B177" s="10" t="s">
+        <v>449</v>
+      </c>
+      <c r="C177" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="D177" s="10">
+        <v>2.0246282E7</v>
+      </c>
+      <c r="E177" s="10" t="s">
+        <v>450</v>
+      </c>
+      <c r="F177" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G177" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H177" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="I177" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="M177" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="N177" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="O177" s="11" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="12">
+        <v>45591.05097628472</v>
+      </c>
+      <c r="B178" s="13" t="s">
+        <v>451</v>
+      </c>
+      <c r="C178" s="13" t="s">
+        <v>356</v>
+      </c>
+      <c r="D178" s="13">
+        <v>2.0243414E7</v>
+      </c>
+      <c r="E178" s="13" t="s">
+        <v>452</v>
+      </c>
+      <c r="F178" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G178" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="H178" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="I178" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="M178" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="N178" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="O178" s="14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="9">
+        <v>45591.05569869213</v>
+      </c>
+      <c r="B179" s="10" t="s">
+        <v>453</v>
+      </c>
+      <c r="C179" s="10" t="s">
+        <v>333</v>
+      </c>
+      <c r="D179" s="10">
+        <v>2.0241515E7</v>
+      </c>
+      <c r="E179" s="10" t="s">
+        <v>250</v>
+      </c>
+      <c r="F179" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G179" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H179" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="I179" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="M179" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="N179" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="O179" s="11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="12">
+        <v>45591.059276134256</v>
+      </c>
+      <c r="B180" s="13" t="s">
+        <v>454</v>
+      </c>
+      <c r="C180" s="13" t="s">
+        <v>455</v>
+      </c>
+      <c r="D180" s="13">
+        <v>2.0193341E7</v>
+      </c>
+      <c r="E180" s="13" t="s">
+        <v>456</v>
+      </c>
+      <c r="F180" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="G180" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="H180" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="I180" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="M180" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="N180" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="O180" s="14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="9">
+        <v>45591.08433747685</v>
+      </c>
+      <c r="B181" s="10" t="s">
+        <v>457</v>
+      </c>
+      <c r="C181" s="10" t="s">
+        <v>458</v>
+      </c>
+      <c r="D181" s="10">
+        <v>2.0221005E7</v>
+      </c>
+      <c r="E181" s="10" t="s">
+        <v>459</v>
+      </c>
+      <c r="F181" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G181" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H181" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="I181" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="M181" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="N181" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="O181" s="11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="12">
+        <v>45591.08697405092</v>
+      </c>
+      <c r="B182" s="13" t="s">
+        <v>460</v>
+      </c>
+      <c r="C182" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="D182" s="13">
+        <v>2.0243237E7</v>
+      </c>
+      <c r="E182" s="13" t="s">
+        <v>208</v>
+      </c>
+      <c r="F182" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G182" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="H182" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="I182" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="J182" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="K182" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="L182" s="13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="9">
+        <v>45591.09296533564</v>
+      </c>
+      <c r="B183" s="10" t="s">
+        <v>461</v>
+      </c>
+      <c r="C183" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="D183" s="10">
+        <v>2.0192931E7</v>
+      </c>
+      <c r="E183" s="10" t="s">
+        <v>462</v>
+      </c>
+      <c r="F183" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G183" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H183" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="I183" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="M183" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="N183" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="O183" s="11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="12">
+        <v>45591.10687177083</v>
+      </c>
+      <c r="B184" s="13" t="s">
+        <v>463</v>
+      </c>
+      <c r="C184" s="13" t="s">
+        <v>273</v>
+      </c>
+      <c r="D184" s="13">
+        <v>2.0242332E7</v>
+      </c>
+      <c r="E184" s="13" t="s">
+        <v>464</v>
+      </c>
+      <c r="F184" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G184" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H184" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="I184" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="M184" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="N184" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="O184" s="14" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="9">
+        <v>45591.11706849537</v>
+      </c>
+      <c r="B185" s="10" t="s">
+        <v>465</v>
+      </c>
+      <c r="C185" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="D185" s="10">
+        <v>2.0243921E7</v>
+      </c>
+      <c r="E185" s="10" t="s">
+        <v>466</v>
+      </c>
+      <c r="F185" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G185" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="H185" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="I185" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="J185" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="K185" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="L185" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="12">
+        <v>45591.314549409726</v>
+      </c>
+      <c r="B186" s="13" t="s">
+        <v>467</v>
+      </c>
+      <c r="C186" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="D186" s="13">
+        <v>2.0233849E7</v>
+      </c>
+      <c r="E186" s="13" t="s">
+        <v>468</v>
+      </c>
+      <c r="F186" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G186" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H186" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="I186" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="M186" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="N186" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="O186" s="14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="15">
+        <v>45591.391176053236</v>
+      </c>
+      <c r="B187" s="16" t="s">
+        <v>469</v>
+      </c>
+      <c r="C187" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="D187" s="16">
+        <v>2.024302E7</v>
+      </c>
+      <c r="E187" s="16" t="s">
+        <v>470</v>
+      </c>
+      <c r="F187" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="G187" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="H187" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="I187" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="M187" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="N187" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="O187" s="17" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/R/data/quiz241021_tmp.xlsx
+++ b/R/data/quiz241021_tmp.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1875" uniqueCount="471">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2125" uniqueCount="521">
   <si>
     <t>타임스탬프</t>
   </si>
@@ -1424,6 +1424,156 @@
   </si>
   <si>
     <t>임세현</t>
+  </si>
+  <si>
+    <t>anfytlrtk3@naver.com</t>
+  </si>
+  <si>
+    <t>윤가영</t>
+  </si>
+  <si>
+    <t>loollypoolly@naver.com</t>
+  </si>
+  <si>
+    <t>김수정</t>
+  </si>
+  <si>
+    <t>leeaumin1@naver.com</t>
+  </si>
+  <si>
+    <t>이수민</t>
+  </si>
+  <si>
+    <t>stacy4036@naver.com</t>
+  </si>
+  <si>
+    <t>사회복지과</t>
+  </si>
+  <si>
+    <t>최하은</t>
+  </si>
+  <si>
+    <t>bevery2685@gmail.com</t>
+  </si>
+  <si>
+    <t>조영태</t>
+  </si>
+  <si>
+    <t>sin50407899@gmail.com</t>
+  </si>
+  <si>
+    <t>신재화</t>
+  </si>
+  <si>
+    <t>towp7563@gmail.com</t>
+  </si>
+  <si>
+    <t>오승현</t>
+  </si>
+  <si>
+    <t>cjc0623@naver.com</t>
+  </si>
+  <si>
+    <t>소프트웨어학과 콘텐츠IT전공</t>
+  </si>
+  <si>
+    <t>houng5011@naver.com</t>
+  </si>
+  <si>
+    <t>홍성원</t>
+  </si>
+  <si>
+    <t>gmlfkr6241@naver.com</t>
+  </si>
+  <si>
+    <t>한희락</t>
+  </si>
+  <si>
+    <t>sangim041113@gmail.com</t>
+  </si>
+  <si>
+    <t>용상임</t>
+  </si>
+  <si>
+    <t>yeonjej51@gmail.com</t>
+  </si>
+  <si>
+    <t>정연제</t>
+  </si>
+  <si>
+    <t>whrudghks030604@naver.com</t>
+  </si>
+  <si>
+    <t>조경환</t>
+  </si>
+  <si>
+    <t>fkdlsalstjd@naver.com</t>
+  </si>
+  <si>
+    <t>010726kjm@naver.com</t>
+  </si>
+  <si>
+    <t>김정민</t>
+  </si>
+  <si>
+    <t>seohyemin2003@naver.com</t>
+  </si>
+  <si>
+    <t>서혜민</t>
+  </si>
+  <si>
+    <t>parkjinseo23@naver.com</t>
+  </si>
+  <si>
+    <t>tigerhaha1@naver.com</t>
+  </si>
+  <si>
+    <t>김민호</t>
+  </si>
+  <si>
+    <t>leedowon567@naver.com</t>
+  </si>
+  <si>
+    <t>이도원</t>
+  </si>
+  <si>
+    <t>qortjdus27@naver.com</t>
+  </si>
+  <si>
+    <t>백서연</t>
+  </si>
+  <si>
+    <t>huiju4684@naver.com</t>
+  </si>
+  <si>
+    <t>강희주</t>
+  </si>
+  <si>
+    <t>ggamy3637@naver.com</t>
+  </si>
+  <si>
+    <t>러시아학과</t>
+  </si>
+  <si>
+    <t>최효윤</t>
+  </si>
+  <si>
+    <t>dltlgus1119@naver.com</t>
+  </si>
+  <si>
+    <t>이시현</t>
+  </si>
+  <si>
+    <t>ljy46tkd@naver.com</t>
+  </si>
+  <si>
+    <t>이정연</t>
+  </si>
+  <si>
+    <t>y5het3e@naver.com</t>
+  </si>
+  <si>
+    <t>박재근</t>
   </si>
 </sst>
 </file>
@@ -1587,10 +1737,10 @@
         <color rgb="FF442F65"/>
       </left>
       <right style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </right>
       <top style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </top>
       <bottom style="thin">
         <color rgb="FF442F65"/>
@@ -1598,13 +1748,13 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </left>
       <right style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </right>
       <top style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </top>
       <bottom style="thin">
         <color rgb="FF442F65"/>
@@ -1612,13 +1762,13 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </left>
       <right style="thin">
         <color rgb="FF442F65"/>
       </right>
       <top style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </top>
       <bottom style="thin">
         <color rgb="FF442F65"/>
@@ -1741,7 +1891,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:O187" displayName="Form_Responses1" name="Form_Responses1" id="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:O212" displayName="Form_Responses1" name="Form_Responses1" id="1">
   <tableColumns count="15">
     <tableColumn name="타임스탬프" id="1"/>
     <tableColumn name="이메일 주소" id="2"/>
@@ -9059,40 +9209,990 @@
       </c>
     </row>
     <row r="187">
-      <c r="A187" s="15">
+      <c r="A187" s="9">
         <v>45591.391176053236</v>
       </c>
-      <c r="B187" s="16" t="s">
+      <c r="B187" s="10" t="s">
         <v>469</v>
       </c>
-      <c r="C187" s="16" t="s">
+      <c r="C187" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="D187" s="16">
+      <c r="D187" s="10">
         <v>2.024302E7</v>
       </c>
-      <c r="E187" s="16" t="s">
+      <c r="E187" s="10" t="s">
         <v>470</v>
       </c>
-      <c r="F187" s="16" t="s">
+      <c r="F187" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="G187" s="16" t="s">
+      <c r="G187" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="H187" s="16" t="s">
+      <c r="H187" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="I187" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="M187" s="16" t="s">
+      <c r="I187" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="M187" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="N187" s="16" t="s">
+      <c r="N187" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="O187" s="17" t="s">
+      <c r="O187" s="11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="12">
+        <v>45591.4545949537</v>
+      </c>
+      <c r="B188" s="13" t="s">
+        <v>471</v>
+      </c>
+      <c r="C188" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="D188" s="13">
+        <v>2.024383E7</v>
+      </c>
+      <c r="E188" s="13" t="s">
+        <v>472</v>
+      </c>
+      <c r="F188" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G188" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H188" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="I188" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="J188" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="K188" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="L188" s="13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="9">
+        <v>45591.4612369213</v>
+      </c>
+      <c r="B189" s="10" t="s">
+        <v>473</v>
+      </c>
+      <c r="C189" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D189" s="10">
+        <v>2.0243609E7</v>
+      </c>
+      <c r="E189" s="10" t="s">
+        <v>474</v>
+      </c>
+      <c r="F189" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G189" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="H189" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="I189" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="J189" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="K189" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="L189" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="12">
+        <v>45591.46185136574</v>
+      </c>
+      <c r="B190" s="13" t="s">
+        <v>475</v>
+      </c>
+      <c r="C190" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="D190" s="13">
+        <v>2.0243E7</v>
+      </c>
+      <c r="E190" s="13" t="s">
+        <v>476</v>
+      </c>
+      <c r="F190" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G190" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H190" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="I190" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="M190" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="N190" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="O190" s="14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="9">
+        <v>45591.48054700231</v>
+      </c>
+      <c r="B191" s="10" t="s">
+        <v>477</v>
+      </c>
+      <c r="C191" s="10" t="s">
+        <v>478</v>
+      </c>
+      <c r="D191" s="10">
+        <v>2.0227034E7</v>
+      </c>
+      <c r="E191" s="10" t="s">
+        <v>479</v>
+      </c>
+      <c r="F191" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G191" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="H191" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="I191" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="M191" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="N191" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="O191" s="11" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="12">
+        <v>45591.50929991898</v>
+      </c>
+      <c r="B192" s="13" t="s">
+        <v>480</v>
+      </c>
+      <c r="C192" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="D192" s="13">
+        <v>2.0243354E7</v>
+      </c>
+      <c r="E192" s="13" t="s">
+        <v>481</v>
+      </c>
+      <c r="F192" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G192" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H192" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="I192" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="M192" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="N192" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="O192" s="14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="9">
+        <v>45591.51122467592</v>
+      </c>
+      <c r="B193" s="10" t="s">
+        <v>482</v>
+      </c>
+      <c r="C193" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D193" s="10">
+        <v>2.0202538E7</v>
+      </c>
+      <c r="E193" s="10" t="s">
+        <v>483</v>
+      </c>
+      <c r="F193" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G193" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H193" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="I193" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="J193" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="K193" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="L193" s="10" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="12">
+        <v>45591.54076150463</v>
+      </c>
+      <c r="B194" s="13" t="s">
+        <v>484</v>
+      </c>
+      <c r="C194" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="D194" s="13">
+        <v>2.0243826E7</v>
+      </c>
+      <c r="E194" s="13" t="s">
+        <v>485</v>
+      </c>
+      <c r="F194" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G194" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H194" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="I194" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="M194" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="N194" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="O194" s="14" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="9">
+        <v>45591.570444467594</v>
+      </c>
+      <c r="B195" s="10" t="s">
+        <v>486</v>
+      </c>
+      <c r="C195" s="10" t="s">
+        <v>487</v>
+      </c>
+      <c r="D195" s="10">
+        <v>2.0215264E7</v>
+      </c>
+      <c r="E195" s="10" t="s">
+        <v>263</v>
+      </c>
+      <c r="F195" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G195" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="H195" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="I195" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="M195" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="N195" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="O195" s="11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="12">
+        <v>45591.5707684838</v>
+      </c>
+      <c r="B196" s="13" t="s">
+        <v>488</v>
+      </c>
+      <c r="C196" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="D196" s="13">
+        <v>2.0243741E7</v>
+      </c>
+      <c r="E196" s="13" t="s">
+        <v>489</v>
+      </c>
+      <c r="F196" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G196" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H196" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="I196" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="J196" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="K196" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="L196" s="13" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="9">
+        <v>45591.58235483796</v>
+      </c>
+      <c r="B197" s="10" t="s">
+        <v>490</v>
+      </c>
+      <c r="C197" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="D197" s="10">
+        <v>2.0246303E7</v>
+      </c>
+      <c r="E197" s="10" t="s">
+        <v>491</v>
+      </c>
+      <c r="F197" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G197" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H197" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="I197" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="M197" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="N197" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="O197" s="11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="12">
+        <v>45591.61206133102</v>
+      </c>
+      <c r="B198" s="13" t="s">
+        <v>492</v>
+      </c>
+      <c r="C198" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="D198" s="13">
+        <v>2.0235209E7</v>
+      </c>
+      <c r="E198" s="13" t="s">
+        <v>493</v>
+      </c>
+      <c r="F198" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G198" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H198" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="I198" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="M198" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="N198" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="O198" s="14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="9">
+        <v>45591.63270008102</v>
+      </c>
+      <c r="B199" s="10" t="s">
+        <v>494</v>
+      </c>
+      <c r="C199" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="D199" s="10">
+        <v>2.0241234E7</v>
+      </c>
+      <c r="E199" s="10" t="s">
+        <v>495</v>
+      </c>
+      <c r="F199" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G199" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="H199" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="I199" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="M199" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="N199" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="O199" s="11" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="12">
+        <v>45591.63377541667</v>
+      </c>
+      <c r="B200" s="13" t="s">
+        <v>496</v>
+      </c>
+      <c r="C200" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="D200" s="13">
+        <v>2.0243955E7</v>
+      </c>
+      <c r="E200" s="13" t="s">
+        <v>497</v>
+      </c>
+      <c r="F200" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G200" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H200" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="I200" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="M200" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="N200" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="O200" s="14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="9">
+        <v>45591.635903738425</v>
+      </c>
+      <c r="B201" s="10" t="s">
+        <v>498</v>
+      </c>
+      <c r="C201" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="D201" s="10">
+        <v>2.0242924E7</v>
+      </c>
+      <c r="E201" s="10" t="s">
+        <v>328</v>
+      </c>
+      <c r="F201" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G201" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H201" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="I201" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="M201" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="N201" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="O201" s="11" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="12">
+        <v>45591.65297326389</v>
+      </c>
+      <c r="B202" s="13" t="s">
+        <v>499</v>
+      </c>
+      <c r="C202" s="13" t="s">
+        <v>406</v>
+      </c>
+      <c r="D202" s="13">
+        <v>2.0203513E7</v>
+      </c>
+      <c r="E202" s="13" t="s">
+        <v>500</v>
+      </c>
+      <c r="F202" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="G202" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="H202" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="I202" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="J202" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="K202" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="L202" s="13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="9">
+        <v>45591.65409909722</v>
+      </c>
+      <c r="B203" s="10" t="s">
+        <v>501</v>
+      </c>
+      <c r="C203" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="D203" s="10">
+        <v>2.0232216E7</v>
+      </c>
+      <c r="E203" s="10" t="s">
+        <v>502</v>
+      </c>
+      <c r="F203" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="G203" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H203" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="I203" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="M203" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="N203" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="O203" s="11" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="12">
+        <v>45591.67424450231</v>
+      </c>
+      <c r="B204" s="13" t="s">
+        <v>503</v>
+      </c>
+      <c r="C204" s="13" t="s">
+        <v>195</v>
+      </c>
+      <c r="D204" s="13">
+        <v>2.0242824E7</v>
+      </c>
+      <c r="E204" s="13" t="s">
+        <v>268</v>
+      </c>
+      <c r="F204" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G204" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="H204" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="I204" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="J204" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="K204" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="L204" s="13" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="9">
+        <v>45591.68202822917</v>
+      </c>
+      <c r="B205" s="10" t="s">
+        <v>504</v>
+      </c>
+      <c r="C205" s="10" t="s">
+        <v>267</v>
+      </c>
+      <c r="D205" s="10">
+        <v>2.0216716E7</v>
+      </c>
+      <c r="E205" s="10" t="s">
+        <v>505</v>
+      </c>
+      <c r="F205" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G205" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H205" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="I205" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="M205" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="N205" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="O205" s="11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="12">
+        <v>45591.713641608796</v>
+      </c>
+      <c r="B206" s="13" t="s">
+        <v>506</v>
+      </c>
+      <c r="C206" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="D206" s="13">
+        <v>2.0211625E7</v>
+      </c>
+      <c r="E206" s="13" t="s">
+        <v>507</v>
+      </c>
+      <c r="F206" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G206" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H206" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="I206" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="M206" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="N206" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="O206" s="14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="9">
+        <v>45591.71853569444</v>
+      </c>
+      <c r="B207" s="10" t="s">
+        <v>508</v>
+      </c>
+      <c r="C207" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="D207" s="10">
+        <v>2.0242971E7</v>
+      </c>
+      <c r="E207" s="10" t="s">
+        <v>509</v>
+      </c>
+      <c r="F207" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G207" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H207" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="I207" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="J207" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="K207" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="L207" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="12">
+        <v>45591.739140324076</v>
+      </c>
+      <c r="B208" s="13" t="s">
+        <v>510</v>
+      </c>
+      <c r="C208" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="D208" s="13">
+        <v>2.0217097E7</v>
+      </c>
+      <c r="E208" s="13" t="s">
+        <v>511</v>
+      </c>
+      <c r="F208" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="G208" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H208" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="I208" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="M208" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="N208" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="O208" s="14" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="9">
+        <v>45591.744020150465</v>
+      </c>
+      <c r="B209" s="10" t="s">
+        <v>512</v>
+      </c>
+      <c r="C209" s="10" t="s">
+        <v>513</v>
+      </c>
+      <c r="D209" s="10">
+        <v>2.0201733E7</v>
+      </c>
+      <c r="E209" s="10" t="s">
+        <v>514</v>
+      </c>
+      <c r="F209" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G209" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H209" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="I209" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="M209" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="N209" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="O209" s="11" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="12">
+        <v>45591.74561452546</v>
+      </c>
+      <c r="B210" s="13" t="s">
+        <v>515</v>
+      </c>
+      <c r="C210" s="13" t="s">
+        <v>318</v>
+      </c>
+      <c r="D210" s="13">
+        <v>2.0205226E7</v>
+      </c>
+      <c r="E210" s="13" t="s">
+        <v>516</v>
+      </c>
+      <c r="F210" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G210" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H210" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="I210" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="M210" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="N210" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="O210" s="14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="9">
+        <v>45591.751364421296</v>
+      </c>
+      <c r="B211" s="10" t="s">
+        <v>517</v>
+      </c>
+      <c r="C211" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D211" s="10">
+        <v>2.0242737E7</v>
+      </c>
+      <c r="E211" s="10" t="s">
+        <v>518</v>
+      </c>
+      <c r="F211" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G211" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H211" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="I211" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="J211" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="K211" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="L211" s="10" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="15">
+        <v>45591.75703346065</v>
+      </c>
+      <c r="B212" s="16" t="s">
+        <v>519</v>
+      </c>
+      <c r="C212" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="D212" s="16">
+        <v>2.0215158E7</v>
+      </c>
+      <c r="E212" s="16" t="s">
+        <v>520</v>
+      </c>
+      <c r="F212" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="G212" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="H212" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="I212" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="M212" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="N212" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="O212" s="17" t="s">
         <v>24</v>
       </c>
     </row>

--- a/R/data/quiz241021_tmp.xlsx
+++ b/R/data/quiz241021_tmp.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2125" uniqueCount="521">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2265" uniqueCount="552">
   <si>
     <t>타임스탬프</t>
   </si>
@@ -1574,6 +1574,99 @@
   </si>
   <si>
     <t>박재근</t>
+  </si>
+  <si>
+    <t>kimguswls6685@naver.com</t>
+  </si>
+  <si>
+    <t>콘텐츠IT전공</t>
+  </si>
+  <si>
+    <t>김현진</t>
+  </si>
+  <si>
+    <t>lucy1004486@naver.com</t>
+  </si>
+  <si>
+    <t>김소연</t>
+  </si>
+  <si>
+    <t>eung4077@gmail.com</t>
+  </si>
+  <si>
+    <t>강은결</t>
+  </si>
+  <si>
+    <t>hanyeong09@naver.com</t>
+  </si>
+  <si>
+    <t>이한영</t>
+  </si>
+  <si>
+    <t>dbfrhr02@naver.com</t>
+  </si>
+  <si>
+    <t>심건휘</t>
+  </si>
+  <si>
+    <t>cobas67@naver.com</t>
+  </si>
+  <si>
+    <t>스마트iot</t>
+  </si>
+  <si>
+    <t>박근혁</t>
+  </si>
+  <si>
+    <t>chetbaker22@naver.com</t>
+  </si>
+  <si>
+    <t>인문학부 철학전공</t>
+  </si>
+  <si>
+    <t>김채원</t>
+  </si>
+  <si>
+    <t>qaz5316qaz@naver.com</t>
+  </si>
+  <si>
+    <t>이동기</t>
+  </si>
+  <si>
+    <t>u151pp@gmail.com</t>
+  </si>
+  <si>
+    <t>장대건</t>
+  </si>
+  <si>
+    <t>jyc6212@naver.com</t>
+  </si>
+  <si>
+    <t>사회복지학전공</t>
+  </si>
+  <si>
+    <t>정윤채</t>
+  </si>
+  <si>
+    <t>eunse051013@naver.com</t>
+  </si>
+  <si>
+    <t>김은세</t>
+  </si>
+  <si>
+    <t>kate7633@naver.com</t>
+  </si>
+  <si>
+    <t>이지수</t>
+  </si>
+  <si>
+    <t>syw050819@naver.com</t>
+  </si>
+  <si>
+    <t>inheo0428@gmail.com</t>
+  </si>
+  <si>
+    <t>허인</t>
   </si>
 </sst>
 </file>
@@ -1604,7 +1697,7 @@
       <patternFill patternType="lightGray"/>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="12">
     <border/>
     <border>
       <left style="thin">
@@ -1760,25 +1853,11 @@
         <color rgb="FF442F65"/>
       </bottom>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFFFFFFF"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF442F65"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFFFFFFF"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF442F65"/>
-      </bottom>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1828,9 +1907,6 @@
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="11" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
   </cellXfs>
@@ -1891,7 +1967,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:O212" displayName="Form_Responses1" name="Form_Responses1" id="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:O226" displayName="Form_Responses1" name="Form_Responses1" id="1">
   <tableColumns count="15">
     <tableColumn name="타임스탬프" id="1"/>
     <tableColumn name="이메일 주소" id="2"/>
@@ -10159,41 +10235,573 @@
       </c>
     </row>
     <row r="212">
-      <c r="A212" s="15">
+      <c r="A212" s="12">
         <v>45591.75703346065</v>
       </c>
-      <c r="B212" s="16" t="s">
+      <c r="B212" s="13" t="s">
         <v>519</v>
       </c>
-      <c r="C212" s="16" t="s">
+      <c r="C212" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="D212" s="16">
+      <c r="D212" s="13">
         <v>2.0215158E7</v>
       </c>
-      <c r="E212" s="16" t="s">
+      <c r="E212" s="13" t="s">
         <v>520</v>
       </c>
-      <c r="F212" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="G212" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="H212" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="I212" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="M212" s="16" t="s">
+      <c r="F212" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G212" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H212" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="I212" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="M212" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="N212" s="16" t="s">
+      <c r="N212" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="O212" s="17" t="s">
+      <c r="O212" s="14" t="s">
         <v>24</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="9">
+        <v>45591.784390659726</v>
+      </c>
+      <c r="B213" s="10" t="s">
+        <v>521</v>
+      </c>
+      <c r="C213" s="10" t="s">
+        <v>522</v>
+      </c>
+      <c r="D213" s="10">
+        <v>2.0215144E7</v>
+      </c>
+      <c r="E213" s="10" t="s">
+        <v>523</v>
+      </c>
+      <c r="F213" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G213" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H213" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="I213" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="J213" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="K213" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="L213" s="10" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="12">
+        <v>45591.7932421875</v>
+      </c>
+      <c r="B214" s="13" t="s">
+        <v>524</v>
+      </c>
+      <c r="C214" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="D214" s="13">
+        <v>2.0232512E7</v>
+      </c>
+      <c r="E214" s="13" t="s">
+        <v>525</v>
+      </c>
+      <c r="F214" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="G214" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H214" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="I214" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="J214" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="K214" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="L214" s="13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="9">
+        <v>45591.793672141204</v>
+      </c>
+      <c r="B215" s="10" t="s">
+        <v>526</v>
+      </c>
+      <c r="C215" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="D215" s="10">
+        <v>2.0242201E7</v>
+      </c>
+      <c r="E215" s="10" t="s">
+        <v>527</v>
+      </c>
+      <c r="F215" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G215" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H215" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="I215" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="M215" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="N215" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="O215" s="11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="12">
+        <v>45591.81773505787</v>
+      </c>
+      <c r="B216" s="13" t="s">
+        <v>528</v>
+      </c>
+      <c r="C216" s="13" t="s">
+        <v>356</v>
+      </c>
+      <c r="D216" s="13">
+        <v>2.0203423E7</v>
+      </c>
+      <c r="E216" s="13" t="s">
+        <v>529</v>
+      </c>
+      <c r="F216" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G216" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H216" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="I216" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="J216" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="K216" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="L216" s="13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="9">
+        <v>45591.83374724537</v>
+      </c>
+      <c r="B217" s="10" t="s">
+        <v>530</v>
+      </c>
+      <c r="C217" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="D217" s="10">
+        <v>2.0212971E7</v>
+      </c>
+      <c r="E217" s="10" t="s">
+        <v>531</v>
+      </c>
+      <c r="F217" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G217" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H217" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="I217" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="J217" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="K217" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="L217" s="10" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="12">
+        <v>45591.83457450231</v>
+      </c>
+      <c r="B218" s="13" t="s">
+        <v>532</v>
+      </c>
+      <c r="C218" s="13" t="s">
+        <v>533</v>
+      </c>
+      <c r="D218" s="13">
+        <v>2.0205165E7</v>
+      </c>
+      <c r="E218" s="13" t="s">
+        <v>534</v>
+      </c>
+      <c r="F218" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G218" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H218" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="I218" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="M218" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="N218" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="O218" s="14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="9">
+        <v>45591.85709489584</v>
+      </c>
+      <c r="B219" s="10" t="s">
+        <v>535</v>
+      </c>
+      <c r="C219" s="10" t="s">
+        <v>536</v>
+      </c>
+      <c r="D219" s="10">
+        <v>2.0201031E7</v>
+      </c>
+      <c r="E219" s="10" t="s">
+        <v>537</v>
+      </c>
+      <c r="F219" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G219" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H219" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="I219" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="M219" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="N219" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="O219" s="11" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="12">
+        <v>45591.85917322917</v>
+      </c>
+      <c r="B220" s="13" t="s">
+        <v>538</v>
+      </c>
+      <c r="C220" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="D220" s="13">
+        <v>2.0192936E7</v>
+      </c>
+      <c r="E220" s="13" t="s">
+        <v>539</v>
+      </c>
+      <c r="F220" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="G220" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="H220" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="I220" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="J220" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="K220" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="L220" s="13" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="9">
+        <v>45591.86787596065</v>
+      </c>
+      <c r="B221" s="10" t="s">
+        <v>540</v>
+      </c>
+      <c r="C221" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="D221" s="10">
+        <v>2.0243246E7</v>
+      </c>
+      <c r="E221" s="10" t="s">
+        <v>541</v>
+      </c>
+      <c r="F221" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G221" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="H221" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="I221" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="J221" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="K221" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="L221" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="12">
+        <v>45591.870820578704</v>
+      </c>
+      <c r="B222" s="13" t="s">
+        <v>542</v>
+      </c>
+      <c r="C222" s="13" t="s">
+        <v>543</v>
+      </c>
+      <c r="D222" s="13">
+        <v>2.0232361E7</v>
+      </c>
+      <c r="E222" s="13" t="s">
+        <v>544</v>
+      </c>
+      <c r="F222" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G222" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H222" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="I222" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="M222" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="N222" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="O222" s="14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="9">
+        <v>45591.87232342592</v>
+      </c>
+      <c r="B223" s="10" t="s">
+        <v>545</v>
+      </c>
+      <c r="C223" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="D223" s="10">
+        <v>2.0246225E7</v>
+      </c>
+      <c r="E223" s="10" t="s">
+        <v>546</v>
+      </c>
+      <c r="F223" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G223" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H223" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="I223" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="M223" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="N223" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="O223" s="11" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="12">
+        <v>45591.87939743056</v>
+      </c>
+      <c r="B224" s="13" t="s">
+        <v>547</v>
+      </c>
+      <c r="C224" s="13" t="s">
+        <v>229</v>
+      </c>
+      <c r="D224" s="13">
+        <v>2.0242632E7</v>
+      </c>
+      <c r="E224" s="13" t="s">
+        <v>548</v>
+      </c>
+      <c r="F224" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G224" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="H224" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="I224" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="J224" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="K224" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="L224" s="13" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="9">
+        <v>45591.89136415509</v>
+      </c>
+      <c r="B225" s="10" t="s">
+        <v>549</v>
+      </c>
+      <c r="C225" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="D225" s="10">
+        <v>2.0246251E7</v>
+      </c>
+      <c r="E225" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="F225" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G225" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H225" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="I225" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="J225" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="K225" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="L225" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="15">
+        <v>45591.90751751157</v>
+      </c>
+      <c r="B226" s="16" t="s">
+        <v>550</v>
+      </c>
+      <c r="C226" s="16" t="s">
+        <v>273</v>
+      </c>
+      <c r="D226" s="16">
+        <v>2.0242358E7</v>
+      </c>
+      <c r="E226" s="16" t="s">
+        <v>551</v>
+      </c>
+      <c r="F226" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="G226" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="H226" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="I226" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="J226" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="K226" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="L226" s="16" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>

--- a/R/data/quiz241021_tmp.xlsx
+++ b/R/data/quiz241021_tmp.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2265" uniqueCount="552">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2445" uniqueCount="591">
   <si>
     <t>타임스탬프</t>
   </si>
@@ -1667,6 +1667,123 @@
   </si>
   <si>
     <t>허인</t>
+  </si>
+  <si>
+    <t>awinni@naver.com</t>
+  </si>
+  <si>
+    <t>우현진</t>
+  </si>
+  <si>
+    <t>joo061222@gmail.com</t>
+  </si>
+  <si>
+    <t>강민주</t>
+  </si>
+  <si>
+    <t>youjin9387@naver.com</t>
+  </si>
+  <si>
+    <t>김유진</t>
+  </si>
+  <si>
+    <t>zzun1414@naver.com</t>
+  </si>
+  <si>
+    <t>반도체·디스플레이스쿨</t>
+  </si>
+  <si>
+    <t>황준영</t>
+  </si>
+  <si>
+    <t>kkkssshhh2005@naver.com</t>
+  </si>
+  <si>
+    <t>김서희</t>
+  </si>
+  <si>
+    <t>baeksa01@hallym.ac.kr</t>
+  </si>
+  <si>
+    <t>서휘도</t>
+  </si>
+  <si>
+    <t>kjinju0518@naver.com</t>
+  </si>
+  <si>
+    <t>김진주</t>
+  </si>
+  <si>
+    <t>ye_ji_02@naver.com</t>
+  </si>
+  <si>
+    <t>전예지</t>
+  </si>
+  <si>
+    <t>pdh9467472@gmail.com</t>
+  </si>
+  <si>
+    <t>법</t>
+  </si>
+  <si>
+    <t>박두환</t>
+  </si>
+  <si>
+    <t>kangna1448@gmail.com</t>
+  </si>
+  <si>
+    <t>강나현</t>
+  </si>
+  <si>
+    <t>ginny1024@naver.com</t>
+  </si>
+  <si>
+    <t>김희원</t>
+  </si>
+  <si>
+    <t>raon02271@naver.com</t>
+  </si>
+  <si>
+    <t>이채윤</t>
+  </si>
+  <si>
+    <t>kimdonghyeon0869@naver.com</t>
+  </si>
+  <si>
+    <t>김동현</t>
+  </si>
+  <si>
+    <t>snp040609@naver.com</t>
+  </si>
+  <si>
+    <t>박세나</t>
+  </si>
+  <si>
+    <t>grace0388@naver.com</t>
+  </si>
+  <si>
+    <t>김하은</t>
+  </si>
+  <si>
+    <t>tommy21940@gmail.com</t>
+  </si>
+  <si>
+    <t>양민혁</t>
+  </si>
+  <si>
+    <t>mt1661@naver.com</t>
+  </si>
+  <si>
+    <t>콘탠츠IT</t>
+  </si>
+  <si>
+    <t>정성민</t>
+  </si>
+  <si>
+    <t>smartcindyya@gmail.com</t>
+  </si>
+  <si>
+    <t>박지현</t>
   </si>
 </sst>
 </file>
@@ -1967,7 +2084,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:O226" displayName="Form_Responses1" name="Form_Responses1" id="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:O244" displayName="Form_Responses1" name="Form_Responses1" id="1">
   <tableColumns count="15">
     <tableColumn name="타임스탬프" id="1"/>
     <tableColumn name="이메일 주소" id="2"/>
@@ -10767,41 +10884,725 @@
       </c>
     </row>
     <row r="226">
-      <c r="A226" s="15">
+      <c r="A226" s="12">
         <v>45591.90751751157</v>
       </c>
-      <c r="B226" s="16" t="s">
+      <c r="B226" s="13" t="s">
         <v>550</v>
       </c>
-      <c r="C226" s="16" t="s">
+      <c r="C226" s="13" t="s">
         <v>273</v>
       </c>
-      <c r="D226" s="16">
+      <c r="D226" s="13">
         <v>2.0242358E7</v>
       </c>
-      <c r="E226" s="16" t="s">
+      <c r="E226" s="13" t="s">
         <v>551</v>
       </c>
-      <c r="F226" s="16" t="s">
+      <c r="F226" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="G226" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="H226" s="16" t="s">
+      <c r="G226" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H226" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="I226" s="16" t="s">
+      <c r="I226" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="J226" s="16" t="s">
+      <c r="J226" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="K226" s="16" t="s">
+      <c r="K226" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="L226" s="16" t="s">
+      <c r="L226" s="13" t="s">
         <v>83</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="9">
+        <v>45591.91512755787</v>
+      </c>
+      <c r="B227" s="10" t="s">
+        <v>552</v>
+      </c>
+      <c r="C227" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="D227" s="10">
+        <v>2.0245207E7</v>
+      </c>
+      <c r="E227" s="10" t="s">
+        <v>553</v>
+      </c>
+      <c r="F227" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G227" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H227" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="I227" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="J227" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="K227" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="L227" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="12">
+        <v>45591.928285497685</v>
+      </c>
+      <c r="B228" s="13" t="s">
+        <v>554</v>
+      </c>
+      <c r="C228" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="D228" s="13">
+        <v>2.0243801E7</v>
+      </c>
+      <c r="E228" s="13" t="s">
+        <v>555</v>
+      </c>
+      <c r="F228" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G228" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H228" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="I228" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="J228" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="K228" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="L228" s="13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="9">
+        <v>45591.928873020835</v>
+      </c>
+      <c r="B229" s="10" t="s">
+        <v>556</v>
+      </c>
+      <c r="C229" s="10" t="s">
+        <v>513</v>
+      </c>
+      <c r="D229" s="10">
+        <v>2.0241709E7</v>
+      </c>
+      <c r="E229" s="10" t="s">
+        <v>557</v>
+      </c>
+      <c r="F229" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G229" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H229" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="I229" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="M229" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="N229" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="O229" s="11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="12">
+        <v>45591.930553541664</v>
+      </c>
+      <c r="B230" s="13" t="s">
+        <v>558</v>
+      </c>
+      <c r="C230" s="13" t="s">
+        <v>559</v>
+      </c>
+      <c r="D230" s="13">
+        <v>2.0203352E7</v>
+      </c>
+      <c r="E230" s="13" t="s">
+        <v>560</v>
+      </c>
+      <c r="F230" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G230" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H230" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="I230" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="J230" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="K230" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="L230" s="13" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="9">
+        <v>45591.95141068287</v>
+      </c>
+      <c r="B231" s="10" t="s">
+        <v>561</v>
+      </c>
+      <c r="C231" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="D231" s="10">
+        <v>2.024321E7</v>
+      </c>
+      <c r="E231" s="10" t="s">
+        <v>562</v>
+      </c>
+      <c r="F231" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="G231" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H231" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="I231" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="J231" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="K231" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="L231" s="10" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="12">
+        <v>45591.96152150463</v>
+      </c>
+      <c r="B232" s="13" t="s">
+        <v>563</v>
+      </c>
+      <c r="C232" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="D232" s="13">
+        <v>2.0205188E7</v>
+      </c>
+      <c r="E232" s="13" t="s">
+        <v>564</v>
+      </c>
+      <c r="F232" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G232" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H232" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="I232" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="J232" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="K232" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="L232" s="13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="9">
+        <v>45591.96241759259</v>
+      </c>
+      <c r="B233" s="10" t="s">
+        <v>565</v>
+      </c>
+      <c r="C233" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="D233" s="10">
+        <v>2.0232937E7</v>
+      </c>
+      <c r="E233" s="10" t="s">
+        <v>566</v>
+      </c>
+      <c r="F233" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G233" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H233" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="I233" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="M233" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="N233" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="O233" s="11" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="12">
+        <v>45591.97613012731</v>
+      </c>
+      <c r="B234" s="13" t="s">
+        <v>567</v>
+      </c>
+      <c r="C234" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="D234" s="13">
+        <v>2.0213839E7</v>
+      </c>
+      <c r="E234" s="13" t="s">
+        <v>568</v>
+      </c>
+      <c r="F234" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G234" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H234" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="I234" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="J234" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="K234" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="L234" s="13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="9">
+        <v>45591.97763009259</v>
+      </c>
+      <c r="B235" s="10" t="s">
+        <v>569</v>
+      </c>
+      <c r="C235" s="10" t="s">
+        <v>570</v>
+      </c>
+      <c r="D235" s="10">
+        <v>2.0172719E7</v>
+      </c>
+      <c r="E235" s="10" t="s">
+        <v>571</v>
+      </c>
+      <c r="F235" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G235" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H235" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="I235" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="M235" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="N235" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="O235" s="11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="12">
+        <v>45591.9805025463</v>
+      </c>
+      <c r="B236" s="13" t="s">
+        <v>572</v>
+      </c>
+      <c r="C236" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="D236" s="13">
+        <v>2.0243601E7</v>
+      </c>
+      <c r="E236" s="13" t="s">
+        <v>573</v>
+      </c>
+      <c r="F236" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G236" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="H236" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="I236" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="M236" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="N236" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="O236" s="14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="9">
+        <v>45591.986270243055</v>
+      </c>
+      <c r="B237" s="10" t="s">
+        <v>574</v>
+      </c>
+      <c r="C237" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="D237" s="10">
+        <v>2.0246233E7</v>
+      </c>
+      <c r="E237" s="10" t="s">
+        <v>575</v>
+      </c>
+      <c r="F237" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G237" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H237" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="I237" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="J237" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="K237" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="L237" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="12">
+        <v>45591.98701675926</v>
+      </c>
+      <c r="B238" s="13" t="s">
+        <v>576</v>
+      </c>
+      <c r="C238" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="D238" s="13">
+        <v>2.0233954E7</v>
+      </c>
+      <c r="E238" s="13" t="s">
+        <v>577</v>
+      </c>
+      <c r="F238" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G238" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H238" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="I238" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="J238" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="K238" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="L238" s="13" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="9">
+        <v>45591.99027112269</v>
+      </c>
+      <c r="B239" s="10" t="s">
+        <v>578</v>
+      </c>
+      <c r="C239" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="D239" s="10">
+        <v>2.0212912E7</v>
+      </c>
+      <c r="E239" s="10" t="s">
+        <v>579</v>
+      </c>
+      <c r="F239" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="G239" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H239" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="I239" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="M239" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="N239" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="O239" s="11" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="12">
+        <v>45592.0111991088</v>
+      </c>
+      <c r="B240" s="13" t="s">
+        <v>580</v>
+      </c>
+      <c r="C240" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="D240" s="13">
+        <v>2.0242957E7</v>
+      </c>
+      <c r="E240" s="13" t="s">
+        <v>581</v>
+      </c>
+      <c r="F240" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G240" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H240" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="I240" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="M240" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="N240" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="O240" s="14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" s="9">
+        <v>45592.032926388885</v>
+      </c>
+      <c r="B241" s="10" t="s">
+        <v>582</v>
+      </c>
+      <c r="C241" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="D241" s="10">
+        <v>2.0222715E7</v>
+      </c>
+      <c r="E241" s="10" t="s">
+        <v>583</v>
+      </c>
+      <c r="F241" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G241" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H241" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="I241" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="M241" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="N241" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="O241" s="11" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" s="12">
+        <v>45592.060697187495</v>
+      </c>
+      <c r="B242" s="13" t="s">
+        <v>584</v>
+      </c>
+      <c r="C242" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="D242" s="13">
+        <v>2.0241054E7</v>
+      </c>
+      <c r="E242" s="13" t="s">
+        <v>585</v>
+      </c>
+      <c r="F242" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G242" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H242" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="I242" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="J242" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="K242" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="L242" s="13" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" s="9">
+        <v>45592.07957482639</v>
+      </c>
+      <c r="B243" s="10" t="s">
+        <v>586</v>
+      </c>
+      <c r="C243" s="10" t="s">
+        <v>587</v>
+      </c>
+      <c r="D243" s="10">
+        <v>2.0215239E7</v>
+      </c>
+      <c r="E243" s="10" t="s">
+        <v>588</v>
+      </c>
+      <c r="F243" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="G243" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H243" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="I243" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="M243" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="N243" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="O243" s="11" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" s="15">
+        <v>45592.08935776621</v>
+      </c>
+      <c r="B244" s="16" t="s">
+        <v>589</v>
+      </c>
+      <c r="C244" s="16" t="s">
+        <v>145</v>
+      </c>
+      <c r="D244" s="16">
+        <v>2.0245172E7</v>
+      </c>
+      <c r="E244" s="16" t="s">
+        <v>590</v>
+      </c>
+      <c r="F244" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="G244" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H244" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="I244" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="J244" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="K244" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="L244" s="16" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/R/data/quiz241021_tmp.xlsx
+++ b/R/data/quiz241021_tmp.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2445" uniqueCount="591">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2515" uniqueCount="606">
   <si>
     <t>타임스탬프</t>
   </si>
@@ -1784,6 +1784,51 @@
   </si>
   <si>
     <t>박지현</t>
+  </si>
+  <si>
+    <t>wtbaa33@naver.com</t>
+  </si>
+  <si>
+    <t>김민교</t>
+  </si>
+  <si>
+    <t>ade1125@naver.com</t>
+  </si>
+  <si>
+    <t>안다은</t>
+  </si>
+  <si>
+    <t>ab47cd32@gmail.com</t>
+  </si>
+  <si>
+    <t>우로겸</t>
+  </si>
+  <si>
+    <t>cheun0423@gmail.com</t>
+  </si>
+  <si>
+    <t>빅데이터과</t>
+  </si>
+  <si>
+    <t>이채은</t>
+  </si>
+  <si>
+    <t>dayae6762@naver.com</t>
+  </si>
+  <si>
+    <t>장다예</t>
+  </si>
+  <si>
+    <t>rabbit1657@gmail.com</t>
+  </si>
+  <si>
+    <t>이예원</t>
+  </si>
+  <si>
+    <t>ytkay05@gmail.com</t>
+  </si>
+  <si>
+    <t>김영민</t>
   </si>
 </sst>
 </file>
@@ -1947,10 +1992,10 @@
         <color rgb="FF442F65"/>
       </left>
       <right style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </right>
       <top style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </top>
       <bottom style="thin">
         <color rgb="FF442F65"/>
@@ -1958,13 +2003,13 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </left>
       <right style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </right>
       <top style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </top>
       <bottom style="thin">
         <color rgb="FF442F65"/>
@@ -2084,7 +2129,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:O244" displayName="Form_Responses1" name="Form_Responses1" id="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:O251" displayName="Form_Responses1" name="Form_Responses1" id="1">
   <tableColumns count="15">
     <tableColumn name="타임스탬프" id="1"/>
     <tableColumn name="이메일 주소" id="2"/>
@@ -11568,41 +11613,307 @@
       </c>
     </row>
     <row r="244">
-      <c r="A244" s="15">
+      <c r="A244" s="12">
         <v>45592.08935776621</v>
       </c>
-      <c r="B244" s="16" t="s">
+      <c r="B244" s="13" t="s">
         <v>589</v>
       </c>
-      <c r="C244" s="16" t="s">
+      <c r="C244" s="13" t="s">
         <v>145</v>
       </c>
-      <c r="D244" s="16">
+      <c r="D244" s="13">
         <v>2.0245172E7</v>
       </c>
-      <c r="E244" s="16" t="s">
+      <c r="E244" s="13" t="s">
         <v>590</v>
       </c>
-      <c r="F244" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="G244" s="16" t="s">
+      <c r="F244" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G244" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="H244" s="16" t="s">
+      <c r="H244" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="I244" s="16" t="s">
+      <c r="I244" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="J244" s="16" t="s">
+      <c r="J244" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="K244" s="16" t="s">
+      <c r="K244" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="L244" s="16" t="s">
+      <c r="L244" s="13" t="s">
         <v>39</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" s="9">
+        <v>45592.38042583333</v>
+      </c>
+      <c r="B245" s="10" t="s">
+        <v>591</v>
+      </c>
+      <c r="C245" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D245" s="10">
+        <v>2.0241605E7</v>
+      </c>
+      <c r="E245" s="10" t="s">
+        <v>592</v>
+      </c>
+      <c r="F245" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="G245" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H245" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="I245" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="M245" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="N245" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="O245" s="11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" s="12">
+        <v>45592.40519189815</v>
+      </c>
+      <c r="B246" s="13" t="s">
+        <v>593</v>
+      </c>
+      <c r="C246" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="D246" s="13">
+        <v>2.0232548E7</v>
+      </c>
+      <c r="E246" s="13" t="s">
+        <v>594</v>
+      </c>
+      <c r="F246" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G246" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="H246" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="I246" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="M246" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="N246" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="O246" s="14" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" s="9">
+        <v>45592.40964585648</v>
+      </c>
+      <c r="B247" s="10" t="s">
+        <v>595</v>
+      </c>
+      <c r="C247" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="D247" s="10">
+        <v>2.0242128E7</v>
+      </c>
+      <c r="E247" s="10" t="s">
+        <v>596</v>
+      </c>
+      <c r="F247" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G247" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H247" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="I247" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="M247" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="N247" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="O247" s="11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" s="12">
+        <v>45592.41925024305</v>
+      </c>
+      <c r="B248" s="13" t="s">
+        <v>597</v>
+      </c>
+      <c r="C248" s="13" t="s">
+        <v>598</v>
+      </c>
+      <c r="D248" s="13">
+        <v>2.0217152E7</v>
+      </c>
+      <c r="E248" s="13" t="s">
+        <v>599</v>
+      </c>
+      <c r="F248" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G248" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H248" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="I248" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="M248" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="N248" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="O248" s="14" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" s="9">
+        <v>45592.46552309028</v>
+      </c>
+      <c r="B249" s="10" t="s">
+        <v>600</v>
+      </c>
+      <c r="C249" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="D249" s="10">
+        <v>2.0241081E7</v>
+      </c>
+      <c r="E249" s="10" t="s">
+        <v>601</v>
+      </c>
+      <c r="F249" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G249" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H249" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="I249" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="M249" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="N249" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="O249" s="11" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" s="12">
+        <v>45592.47581899306</v>
+      </c>
+      <c r="B250" s="13" t="s">
+        <v>602</v>
+      </c>
+      <c r="C250" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="D250" s="13">
+        <v>2.0243939E7</v>
+      </c>
+      <c r="E250" s="13" t="s">
+        <v>603</v>
+      </c>
+      <c r="F250" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G250" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H250" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="I250" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="J250" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="K250" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="L250" s="13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" s="15">
+        <v>45592.4799096875</v>
+      </c>
+      <c r="B251" s="16" t="s">
+        <v>604</v>
+      </c>
+      <c r="C251" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="D251" s="16">
+        <v>2.0243214E7</v>
+      </c>
+      <c r="E251" s="16" t="s">
+        <v>605</v>
+      </c>
+      <c r="F251" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="G251" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="H251" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="I251" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="J251" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="K251" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="L251" s="16" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>

--- a/R/data/quiz241021_tmp.xlsx
+++ b/R/data/quiz241021_tmp.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2515" uniqueCount="606">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2885" uniqueCount="683">
   <si>
     <t>타임스탬프</t>
   </si>
@@ -1829,6 +1829,237 @@
   </si>
   <si>
     <t>김영민</t>
+  </si>
+  <si>
+    <t>ssw805525@naver.com</t>
+  </si>
+  <si>
+    <t>박찬</t>
+  </si>
+  <si>
+    <t>sshee718@gmail.com</t>
+  </si>
+  <si>
+    <t>권도운</t>
+  </si>
+  <si>
+    <t>kbi70722@gmail.com</t>
+  </si>
+  <si>
+    <t>김병일</t>
+  </si>
+  <si>
+    <t>hhy062700@naver.com</t>
+  </si>
+  <si>
+    <t>황희영</t>
+  </si>
+  <si>
+    <t>raon2812@naver.com</t>
+  </si>
+  <si>
+    <t>최라온</t>
+  </si>
+  <si>
+    <t>baeseung1211@gmail.com</t>
+  </si>
+  <si>
+    <t>배승혁</t>
+  </si>
+  <si>
+    <t>dlaehdghks123@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 금융재무학과</t>
+  </si>
+  <si>
+    <t>임동환</t>
+  </si>
+  <si>
+    <t>kjins1234@naver.com</t>
+  </si>
+  <si>
+    <t>김진수</t>
+  </si>
+  <si>
+    <t>goemf100@naver.com</t>
+  </si>
+  <si>
+    <t>김민정</t>
+  </si>
+  <si>
+    <t>cyj292513@naver.com</t>
+  </si>
+  <si>
+    <t>최영준</t>
+  </si>
+  <si>
+    <t>yxnjxn0331@gmail.com</t>
+  </si>
+  <si>
+    <t>배윤진</t>
+  </si>
+  <si>
+    <t>ataraxia050508@naver.com</t>
+  </si>
+  <si>
+    <t>박정호</t>
+  </si>
+  <si>
+    <t>lindenjw12@gmail.com</t>
+  </si>
+  <si>
+    <t>이지우</t>
+  </si>
+  <si>
+    <t>eojeongmin146@gmail.com</t>
+  </si>
+  <si>
+    <t>어정민</t>
+  </si>
+  <si>
+    <t>hhr0408@naver.com</t>
+  </si>
+  <si>
+    <t>한혜령</t>
+  </si>
+  <si>
+    <t>ansk999@gmail.com</t>
+  </si>
+  <si>
+    <t>위수현</t>
+  </si>
+  <si>
+    <t>lyn392392@naver.com</t>
+  </si>
+  <si>
+    <t>이유나</t>
+  </si>
+  <si>
+    <t>jenniferdy@naver.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">간호학과 </t>
+  </si>
+  <si>
+    <t>권도연</t>
+  </si>
+  <si>
+    <t>seeun1012123@naver.com</t>
+  </si>
+  <si>
+    <t>이세은</t>
+  </si>
+  <si>
+    <t>0616sdh@naver.com</t>
+  </si>
+  <si>
+    <t>신동현</t>
+  </si>
+  <si>
+    <t>rer220@naver.com</t>
+  </si>
+  <si>
+    <t>김대명</t>
+  </si>
+  <si>
+    <t>smarthulk0318@naver.com</t>
+  </si>
+  <si>
+    <t>조성민</t>
+  </si>
+  <si>
+    <t>leedug87@gmail.com</t>
+  </si>
+  <si>
+    <t>이두현</t>
+  </si>
+  <si>
+    <t>a01028349689@gmail.com</t>
+  </si>
+  <si>
+    <t>최다인</t>
+  </si>
+  <si>
+    <t>guj2205146@gmail.com</t>
+  </si>
+  <si>
+    <t>강의주</t>
+  </si>
+  <si>
+    <t>sujdiamond@gmail.com</t>
+  </si>
+  <si>
+    <t>심유진</t>
+  </si>
+  <si>
+    <t>jdragon0151@gmail.com</t>
+  </si>
+  <si>
+    <t>신준용</t>
+  </si>
+  <si>
+    <t>nyj7013@naver.com</t>
+  </si>
+  <si>
+    <t>노예진</t>
+  </si>
+  <si>
+    <t>dkddkd8480@gmail.com</t>
+  </si>
+  <si>
+    <t>유용재</t>
+  </si>
+  <si>
+    <t>mani4262421@naver.com</t>
+  </si>
+  <si>
+    <t>cjfghksznszns1100119@naver.com</t>
+  </si>
+  <si>
+    <t>유철환</t>
+  </si>
+  <si>
+    <t>jiminn101777@gmail.com</t>
+  </si>
+  <si>
+    <t>권지민</t>
+  </si>
+  <si>
+    <t>seollo020531@naver.com</t>
+  </si>
+  <si>
+    <t>소프트웨어학과</t>
+  </si>
+  <si>
+    <t>설창원</t>
+  </si>
+  <si>
+    <t>juhui050356@naver.com</t>
+  </si>
+  <si>
+    <t>김주희</t>
+  </si>
+  <si>
+    <t>giyongi37@gmail.com</t>
+  </si>
+  <si>
+    <t>이기용</t>
+  </si>
+  <si>
+    <t>whalsrl124@naver.com</t>
+  </si>
+  <si>
+    <t>경영</t>
+  </si>
+  <si>
+    <t>조민기</t>
+  </si>
+  <si>
+    <t>seoeunchan5@gmail.com</t>
+  </si>
+  <si>
+    <t>서은찬</t>
   </si>
 </sst>
 </file>
@@ -1859,7 +2090,7 @@
       <patternFill patternType="lightGray"/>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="13">
     <border/>
     <border>
       <left style="thin">
@@ -1992,10 +2223,10 @@
         <color rgb="FF442F65"/>
       </left>
       <right style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </right>
       <top style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </top>
       <bottom style="thin">
         <color rgb="FF442F65"/>
@@ -2003,13 +2234,27 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </left>
       <right style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </right>
       <top style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF442F65"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF442F65"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFFFFFF"/>
       </top>
       <bottom style="thin">
         <color rgb="FF442F65"/>
@@ -2019,7 +2264,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -2069,6 +2314,9 @@
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="11" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="12" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
   </cellXfs>
@@ -2129,7 +2377,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:O251" displayName="Form_Responses1" name="Form_Responses1" id="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:O288" displayName="Form_Responses1" name="Form_Responses1" id="1">
   <tableColumns count="15">
     <tableColumn name="타임스탬프" id="1"/>
     <tableColumn name="이메일 주소" id="2"/>
@@ -11879,41 +12127,1447 @@
       </c>
     </row>
     <row r="251">
-      <c r="A251" s="15">
+      <c r="A251" s="9">
         <v>45592.4799096875</v>
       </c>
-      <c r="B251" s="16" t="s">
+      <c r="B251" s="10" t="s">
         <v>604</v>
       </c>
-      <c r="C251" s="16" t="s">
+      <c r="C251" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="D251" s="16">
+      <c r="D251" s="10">
         <v>2.0243214E7</v>
       </c>
-      <c r="E251" s="16" t="s">
+      <c r="E251" s="10" t="s">
         <v>605</v>
       </c>
-      <c r="F251" s="16" t="s">
+      <c r="F251" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="G251" s="16" t="s">
+      <c r="G251" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="H251" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="I251" s="16" t="s">
+      <c r="H251" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="I251" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="J251" s="16" t="s">
+      <c r="J251" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="K251" s="16" t="s">
+      <c r="K251" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="L251" s="16" t="s">
+      <c r="L251" s="10" t="s">
         <v>83</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" s="12">
+        <v>45592.48948048611</v>
+      </c>
+      <c r="B252" s="13" t="s">
+        <v>606</v>
+      </c>
+      <c r="C252" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="D252" s="13">
+        <v>2.0204123E7</v>
+      </c>
+      <c r="E252" s="13" t="s">
+        <v>607</v>
+      </c>
+      <c r="F252" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G252" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="H252" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="I252" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="M252" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="N252" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="O252" s="14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" s="9">
+        <v>45592.49172523148</v>
+      </c>
+      <c r="B253" s="10" t="s">
+        <v>608</v>
+      </c>
+      <c r="C253" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="D253" s="10">
+        <v>2.0243702E7</v>
+      </c>
+      <c r="E253" s="10" t="s">
+        <v>609</v>
+      </c>
+      <c r="F253" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G253" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H253" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="I253" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="M253" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="N253" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="O253" s="11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" s="12">
+        <v>45592.49657891203</v>
+      </c>
+      <c r="B254" s="13" t="s">
+        <v>610</v>
+      </c>
+      <c r="C254" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="D254" s="13">
+        <v>2.0191604E7</v>
+      </c>
+      <c r="E254" s="13" t="s">
+        <v>611</v>
+      </c>
+      <c r="F254" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G254" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="H254" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="I254" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="J254" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="K254" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="L254" s="13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" s="9">
+        <v>45592.501219247686</v>
+      </c>
+      <c r="B255" s="10" t="s">
+        <v>612</v>
+      </c>
+      <c r="C255" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="D255" s="10">
+        <v>2.0243971E7</v>
+      </c>
+      <c r="E255" s="10" t="s">
+        <v>613</v>
+      </c>
+      <c r="F255" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G255" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H255" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="I255" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="M255" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="N255" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="O255" s="11" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" s="12">
+        <v>45592.525421087965</v>
+      </c>
+      <c r="B256" s="13" t="s">
+        <v>614</v>
+      </c>
+      <c r="C256" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D256" s="13">
+        <v>2.0242751E7</v>
+      </c>
+      <c r="E256" s="13" t="s">
+        <v>615</v>
+      </c>
+      <c r="F256" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G256" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="H256" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="I256" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="J256" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="K256" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="L256" s="13" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" s="9">
+        <v>45592.52953988426</v>
+      </c>
+      <c r="B257" s="10" t="s">
+        <v>616</v>
+      </c>
+      <c r="C257" s="10" t="s">
+        <v>522</v>
+      </c>
+      <c r="D257" s="10">
+        <v>2.0235179E7</v>
+      </c>
+      <c r="E257" s="10" t="s">
+        <v>617</v>
+      </c>
+      <c r="F257" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G257" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H257" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="I257" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="J257" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="K257" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="L257" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" s="12">
+        <v>45592.5307775463</v>
+      </c>
+      <c r="B258" s="13" t="s">
+        <v>618</v>
+      </c>
+      <c r="C258" s="13" t="s">
+        <v>619</v>
+      </c>
+      <c r="D258" s="13">
+        <v>2.0213533E7</v>
+      </c>
+      <c r="E258" s="13" t="s">
+        <v>620</v>
+      </c>
+      <c r="F258" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G258" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H258" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="I258" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="M258" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="N258" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="O258" s="14" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" s="9">
+        <v>45592.54225024306</v>
+      </c>
+      <c r="B259" s="10" t="s">
+        <v>621</v>
+      </c>
+      <c r="C259" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="D259" s="10">
+        <v>2.0182845E7</v>
+      </c>
+      <c r="E259" s="10" t="s">
+        <v>622</v>
+      </c>
+      <c r="F259" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="G259" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="H259" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="I259" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="J259" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="K259" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="L259" s="10" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" s="12">
+        <v>45592.54295422454</v>
+      </c>
+      <c r="B260" s="13" t="s">
+        <v>623</v>
+      </c>
+      <c r="C260" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D260" s="13">
+        <v>2.0222709E7</v>
+      </c>
+      <c r="E260" s="13" t="s">
+        <v>624</v>
+      </c>
+      <c r="F260" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G260" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="H260" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="I260" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="M260" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="N260" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="O260" s="14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" s="9">
+        <v>45592.54351113426</v>
+      </c>
+      <c r="B261" s="10" t="s">
+        <v>625</v>
+      </c>
+      <c r="C261" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="D261" s="10">
+        <v>2.024244E7</v>
+      </c>
+      <c r="E261" s="10" t="s">
+        <v>626</v>
+      </c>
+      <c r="F261" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G261" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H261" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="I261" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="M261" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="N261" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="O261" s="11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" s="12">
+        <v>45592.55239246528</v>
+      </c>
+      <c r="B262" s="13" t="s">
+        <v>627</v>
+      </c>
+      <c r="C262" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="D262" s="13">
+        <v>2.0217015E7</v>
+      </c>
+      <c r="E262" s="13" t="s">
+        <v>628</v>
+      </c>
+      <c r="F262" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G262" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H262" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="I262" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="J262" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="K262" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="L262" s="13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" s="9">
+        <v>45592.5587994213</v>
+      </c>
+      <c r="B263" s="10" t="s">
+        <v>629</v>
+      </c>
+      <c r="C263" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="D263" s="10">
+        <v>2.0242118E7</v>
+      </c>
+      <c r="E263" s="10" t="s">
+        <v>630</v>
+      </c>
+      <c r="F263" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G263" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H263" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="I263" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="M263" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="N263" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="O263" s="11" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" s="12">
+        <v>45592.5589987037</v>
+      </c>
+      <c r="B264" s="13" t="s">
+        <v>631</v>
+      </c>
+      <c r="C264" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="D264" s="13">
+        <v>2.0233016E7</v>
+      </c>
+      <c r="E264" s="13" t="s">
+        <v>632</v>
+      </c>
+      <c r="F264" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G264" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="H264" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="I264" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="J264" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="K264" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="L264" s="13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" s="9">
+        <v>45592.57218474537</v>
+      </c>
+      <c r="B265" s="10" t="s">
+        <v>633</v>
+      </c>
+      <c r="C265" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D265" s="10">
+        <v>2.0242725E7</v>
+      </c>
+      <c r="E265" s="10" t="s">
+        <v>634</v>
+      </c>
+      <c r="F265" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G265" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H265" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="I265" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="J265" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="K265" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="L265" s="10" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" s="12">
+        <v>45592.57335265046</v>
+      </c>
+      <c r="B266" s="13" t="s">
+        <v>635</v>
+      </c>
+      <c r="C266" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="D266" s="13">
+        <v>2.0246648E7</v>
+      </c>
+      <c r="E266" s="13" t="s">
+        <v>636</v>
+      </c>
+      <c r="F266" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="G266" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="H266" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="I266" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="J266" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="K266" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="L266" s="13" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" s="9">
+        <v>45592.58484782407</v>
+      </c>
+      <c r="B267" s="10" t="s">
+        <v>637</v>
+      </c>
+      <c r="C267" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D267" s="10">
+        <v>2.0202736E7</v>
+      </c>
+      <c r="E267" s="10" t="s">
+        <v>638</v>
+      </c>
+      <c r="F267" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G267" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H267" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="I267" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="M267" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="N267" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="O267" s="11" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" s="12">
+        <v>45592.58486613426</v>
+      </c>
+      <c r="B268" s="13" t="s">
+        <v>639</v>
+      </c>
+      <c r="C268" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="D268" s="13">
+        <v>2.0243007E7</v>
+      </c>
+      <c r="E268" s="13" t="s">
+        <v>640</v>
+      </c>
+      <c r="F268" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G268" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H268" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="I268" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="J268" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="K268" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="L268" s="13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" s="9">
+        <v>45592.58839053241</v>
+      </c>
+      <c r="B269" s="10" t="s">
+        <v>641</v>
+      </c>
+      <c r="C269" s="10" t="s">
+        <v>642</v>
+      </c>
+      <c r="D269" s="10">
+        <v>2.0246206E7</v>
+      </c>
+      <c r="E269" s="10" t="s">
+        <v>643</v>
+      </c>
+      <c r="F269" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G269" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="H269" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="I269" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="M269" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="N269" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="O269" s="11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" s="12">
+        <v>45592.59275956018</v>
+      </c>
+      <c r="B270" s="13" t="s">
+        <v>644</v>
+      </c>
+      <c r="C270" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="D270" s="13">
+        <v>2.0241068E7</v>
+      </c>
+      <c r="E270" s="13" t="s">
+        <v>645</v>
+      </c>
+      <c r="F270" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="G270" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="H270" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="I270" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="J270" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="K270" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="L270" s="13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" s="9">
+        <v>45592.60154802083</v>
+      </c>
+      <c r="B271" s="10" t="s">
+        <v>646</v>
+      </c>
+      <c r="C271" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D271" s="10">
+        <v>2.020273E7</v>
+      </c>
+      <c r="E271" s="10" t="s">
+        <v>647</v>
+      </c>
+      <c r="F271" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G271" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H271" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="I271" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="J271" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="K271" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="L271" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" s="12">
+        <v>45592.60313981482</v>
+      </c>
+      <c r="B272" s="13" t="s">
+        <v>648</v>
+      </c>
+      <c r="C272" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="D272" s="13">
+        <v>2.0205124E7</v>
+      </c>
+      <c r="E272" s="13" t="s">
+        <v>649</v>
+      </c>
+      <c r="F272" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G272" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H272" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="I272" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="M272" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="N272" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="O272" s="14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" s="9">
+        <v>45592.603251354165</v>
+      </c>
+      <c r="B273" s="10" t="s">
+        <v>650</v>
+      </c>
+      <c r="C273" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="D273" s="10">
+        <v>2.0241095E7</v>
+      </c>
+      <c r="E273" s="10" t="s">
+        <v>651</v>
+      </c>
+      <c r="F273" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G273" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="H273" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="I273" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="M273" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="N273" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="O273" s="11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" s="12">
+        <v>45592.617668935185</v>
+      </c>
+      <c r="B274" s="13" t="s">
+        <v>652</v>
+      </c>
+      <c r="C274" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="D274" s="13">
+        <v>2.0231623E7</v>
+      </c>
+      <c r="E274" s="13" t="s">
+        <v>653</v>
+      </c>
+      <c r="F274" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G274" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="H274" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="I274" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="M274" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="N274" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="O274" s="14" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" s="9">
+        <v>45592.625826180556</v>
+      </c>
+      <c r="B275" s="10" t="s">
+        <v>654</v>
+      </c>
+      <c r="C275" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="D275" s="10">
+        <v>2.0242635E7</v>
+      </c>
+      <c r="E275" s="10" t="s">
+        <v>655</v>
+      </c>
+      <c r="F275" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G275" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="H275" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="I275" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="M275" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="N275" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="O275" s="11" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" s="12">
+        <v>45592.64537990741</v>
+      </c>
+      <c r="B276" s="13" t="s">
+        <v>656</v>
+      </c>
+      <c r="C276" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="D276" s="13">
+        <v>2.0242101E7</v>
+      </c>
+      <c r="E276" s="13" t="s">
+        <v>657</v>
+      </c>
+      <c r="F276" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G276" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H276" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="I276" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="M276" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="N276" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="O276" s="14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" s="9">
+        <v>45592.664488842594</v>
+      </c>
+      <c r="B277" s="10" t="s">
+        <v>658</v>
+      </c>
+      <c r="C277" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D277" s="10">
+        <v>2.0243627E7</v>
+      </c>
+      <c r="E277" s="10" t="s">
+        <v>659</v>
+      </c>
+      <c r="F277" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G277" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="H277" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="I277" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="M277" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="N277" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="O277" s="11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" s="12">
+        <v>45592.668483333335</v>
+      </c>
+      <c r="B278" s="13" t="s">
+        <v>660</v>
+      </c>
+      <c r="C278" s="13" t="s">
+        <v>318</v>
+      </c>
+      <c r="D278" s="13">
+        <v>2.0205195E7</v>
+      </c>
+      <c r="E278" s="13" t="s">
+        <v>661</v>
+      </c>
+      <c r="F278" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G278" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H278" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="I278" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="M278" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="N278" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="O278" s="14" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" s="9">
+        <v>45592.67010283565</v>
+      </c>
+      <c r="B279" s="10" t="s">
+        <v>662</v>
+      </c>
+      <c r="C279" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="D279" s="10">
+        <v>2.0246235E7</v>
+      </c>
+      <c r="E279" s="10" t="s">
+        <v>663</v>
+      </c>
+      <c r="F279" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G279" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H279" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="I279" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="J279" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="K279" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="L279" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" s="12">
+        <v>45592.675655162035</v>
+      </c>
+      <c r="B280" s="13" t="s">
+        <v>664</v>
+      </c>
+      <c r="C280" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="D280" s="13">
+        <v>2.0243235E7</v>
+      </c>
+      <c r="E280" s="13" t="s">
+        <v>665</v>
+      </c>
+      <c r="F280" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G280" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H280" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="I280" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="M280" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="N280" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="O280" s="14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" s="9">
+        <v>45592.68387810185</v>
+      </c>
+      <c r="B281" s="10" t="s">
+        <v>666</v>
+      </c>
+      <c r="C281" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="D281" s="10">
+        <v>2.0223022E7</v>
+      </c>
+      <c r="E281" s="10" t="s">
+        <v>599</v>
+      </c>
+      <c r="F281" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G281" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H281" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="I281" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="J281" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="K281" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="L281" s="10" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" s="12">
+        <v>45592.68800483797</v>
+      </c>
+      <c r="B282" s="13" t="s">
+        <v>667</v>
+      </c>
+      <c r="C282" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="D282" s="13">
+        <v>2.0243829E7</v>
+      </c>
+      <c r="E282" s="13" t="s">
+        <v>668</v>
+      </c>
+      <c r="F282" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G282" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H282" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="I282" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="M282" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="N282" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="O282" s="14" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" s="9">
+        <v>45592.69292215278</v>
+      </c>
+      <c r="B283" s="10" t="s">
+        <v>669</v>
+      </c>
+      <c r="C283" s="10" t="s">
+        <v>273</v>
+      </c>
+      <c r="D283" s="10">
+        <v>2.0242306E7</v>
+      </c>
+      <c r="E283" s="10" t="s">
+        <v>670</v>
+      </c>
+      <c r="F283" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G283" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H283" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="I283" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="M283" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="N283" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="O283" s="11" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" s="12">
+        <v>45592.69571230324</v>
+      </c>
+      <c r="B284" s="13" t="s">
+        <v>671</v>
+      </c>
+      <c r="C284" s="13" t="s">
+        <v>672</v>
+      </c>
+      <c r="D284" s="13">
+        <v>2.0225175E7</v>
+      </c>
+      <c r="E284" s="13" t="s">
+        <v>673</v>
+      </c>
+      <c r="F284" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G284" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H284" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="I284" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="J284" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="K284" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="L284" s="13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" s="9">
+        <v>45592.697766550926</v>
+      </c>
+      <c r="B285" s="10" t="s">
+        <v>674</v>
+      </c>
+      <c r="C285" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="D285" s="10">
+        <v>2.0242111E7</v>
+      </c>
+      <c r="E285" s="10" t="s">
+        <v>675</v>
+      </c>
+      <c r="F285" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G285" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="H285" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="I285" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="J285" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="K285" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="L285" s="10" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" s="12">
+        <v>45592.69959974537</v>
+      </c>
+      <c r="B286" s="13" t="s">
+        <v>676</v>
+      </c>
+      <c r="C286" s="13" t="s">
+        <v>318</v>
+      </c>
+      <c r="D286" s="13">
+        <v>2.0215199E7</v>
+      </c>
+      <c r="E286" s="13" t="s">
+        <v>677</v>
+      </c>
+      <c r="F286" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G286" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="H286" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="I286" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="M286" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="N286" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="O286" s="14" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" s="9">
+        <v>45592.70333395833</v>
+      </c>
+      <c r="B287" s="10" t="s">
+        <v>678</v>
+      </c>
+      <c r="C287" s="10" t="s">
+        <v>679</v>
+      </c>
+      <c r="D287" s="10">
+        <v>2.0192986E7</v>
+      </c>
+      <c r="E287" s="10" t="s">
+        <v>680</v>
+      </c>
+      <c r="F287" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G287" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H287" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="I287" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="M287" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="N287" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="O287" s="11" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" s="15">
+        <v>45592.71747033564</v>
+      </c>
+      <c r="B288" s="16" t="s">
+        <v>681</v>
+      </c>
+      <c r="C288" s="16" t="s">
+        <v>145</v>
+      </c>
+      <c r="D288" s="16">
+        <v>2.0245183E7</v>
+      </c>
+      <c r="E288" s="16" t="s">
+        <v>682</v>
+      </c>
+      <c r="F288" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="G288" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="H288" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="I288" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="M288" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="N288" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="O288" s="17" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/R/data/quiz241021_tmp.xlsx
+++ b/R/data/quiz241021_tmp.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2885" uniqueCount="683">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3065" uniqueCount="722">
   <si>
     <t>타임스탬프</t>
   </si>
@@ -2060,6 +2060,123 @@
   </si>
   <si>
     <t>서은찬</t>
+  </si>
+  <si>
+    <t>8428kyn@naver.com</t>
+  </si>
+  <si>
+    <t>김예나</t>
+  </si>
+  <si>
+    <t>chiyoon12@gmail.com</t>
+  </si>
+  <si>
+    <t>김치윤</t>
+  </si>
+  <si>
+    <t>ran0753@gmail.com</t>
+  </si>
+  <si>
+    <t>김태란</t>
+  </si>
+  <si>
+    <t>haeunlife@naver.com</t>
+  </si>
+  <si>
+    <t>오하은</t>
+  </si>
+  <si>
+    <t>Psj050317@naver.com</t>
+  </si>
+  <si>
+    <t>박서진</t>
+  </si>
+  <si>
+    <t>wizkids0418@naver.com</t>
+  </si>
+  <si>
+    <t>박혜인</t>
+  </si>
+  <si>
+    <t>yohihong@gmail.com</t>
+  </si>
+  <si>
+    <t>민홍기</t>
+  </si>
+  <si>
+    <t>qkfdmltls@naver.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">사회복지과 </t>
+  </si>
+  <si>
+    <t>조혜람</t>
+  </si>
+  <si>
+    <t>soyeong6832@gmail.com</t>
+  </si>
+  <si>
+    <t>지소영</t>
+  </si>
+  <si>
+    <t>ncu11069@naver.com</t>
+  </si>
+  <si>
+    <t>이규민</t>
+  </si>
+  <si>
+    <t>shinsohee0713@naver.com</t>
+  </si>
+  <si>
+    <t>디지털미디어컨텐츠학과</t>
+  </si>
+  <si>
+    <t>신소희</t>
+  </si>
+  <si>
+    <t>ahrang1225@gmail.com</t>
+  </si>
+  <si>
+    <t>탁아랑</t>
+  </si>
+  <si>
+    <t>siqyy2003@gmail.com</t>
+  </si>
+  <si>
+    <t>양민서</t>
+  </si>
+  <si>
+    <t>aone7537@naver.com</t>
+  </si>
+  <si>
+    <t>박현진</t>
+  </si>
+  <si>
+    <t>syb00syb00@naver.com</t>
+  </si>
+  <si>
+    <t>신유비</t>
+  </si>
+  <si>
+    <t>obokboki@naver.com</t>
+  </si>
+  <si>
+    <t>최서윤</t>
+  </si>
+  <si>
+    <t>dmtn0001@naver.com</t>
+  </si>
+  <si>
+    <t>김의수</t>
+  </si>
+  <si>
+    <t>kms050915@naver.com</t>
+  </si>
+  <si>
+    <t>융합과학수사학과</t>
+  </si>
+  <si>
+    <t>강명수</t>
   </si>
 </sst>
 </file>
@@ -2090,7 +2207,7 @@
       <patternFill patternType="lightGray"/>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="12">
     <border/>
     <border>
       <left style="thin">
@@ -2246,25 +2363,11 @@
         <color rgb="FF442F65"/>
       </bottom>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFFFFFFF"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF442F65"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFFFFFFF"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF442F65"/>
-      </bottom>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -2314,9 +2417,6 @@
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="11" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
   </cellXfs>
@@ -2377,7 +2477,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:O288" displayName="Form_Responses1" name="Form_Responses1" id="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:O306" displayName="Form_Responses1" name="Form_Responses1" id="1">
   <tableColumns count="15">
     <tableColumn name="타임스탬프" id="1"/>
     <tableColumn name="이메일 주소" id="2"/>
@@ -13533,41 +13633,725 @@
       </c>
     </row>
     <row r="288">
-      <c r="A288" s="15">
+      <c r="A288" s="12">
         <v>45592.71747033564</v>
       </c>
-      <c r="B288" s="16" t="s">
+      <c r="B288" s="13" t="s">
         <v>681</v>
       </c>
-      <c r="C288" s="16" t="s">
+      <c r="C288" s="13" t="s">
         <v>145</v>
       </c>
-      <c r="D288" s="16">
+      <c r="D288" s="13">
         <v>2.0245183E7</v>
       </c>
-      <c r="E288" s="16" t="s">
+      <c r="E288" s="13" t="s">
         <v>682</v>
       </c>
-      <c r="F288" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="G288" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="H288" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="I288" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="M288" s="16" t="s">
+      <c r="F288" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G288" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H288" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="I288" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="M288" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="N288" s="16" t="s">
+      <c r="N288" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="O288" s="17" t="s">
+      <c r="O288" s="14" t="s">
         <v>60</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" s="9">
+        <v>45592.72088224537</v>
+      </c>
+      <c r="B289" s="10" t="s">
+        <v>683</v>
+      </c>
+      <c r="C289" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="D289" s="10">
+        <v>2.0241017E7</v>
+      </c>
+      <c r="E289" s="10" t="s">
+        <v>684</v>
+      </c>
+      <c r="F289" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G289" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="H289" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="I289" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="J289" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="K289" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="L289" s="10" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" s="12">
+        <v>45592.722680300925</v>
+      </c>
+      <c r="B290" s="13" t="s">
+        <v>685</v>
+      </c>
+      <c r="C290" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="D290" s="13">
+        <v>2.0232938E7</v>
+      </c>
+      <c r="E290" s="13" t="s">
+        <v>686</v>
+      </c>
+      <c r="F290" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G290" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H290" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="I290" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="M290" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="N290" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="O290" s="14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" s="9">
+        <v>45592.725256238424</v>
+      </c>
+      <c r="B291" s="10" t="s">
+        <v>687</v>
+      </c>
+      <c r="C291" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="D291" s="10">
+        <v>2.0243615E7</v>
+      </c>
+      <c r="E291" s="10" t="s">
+        <v>688</v>
+      </c>
+      <c r="F291" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G291" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H291" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="I291" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="M291" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="N291" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="O291" s="11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" s="12">
+        <v>45592.72972449074</v>
+      </c>
+      <c r="B292" s="13" t="s">
+        <v>689</v>
+      </c>
+      <c r="C292" s="13" t="s">
+        <v>229</v>
+      </c>
+      <c r="D292" s="13">
+        <v>2.0242624E7</v>
+      </c>
+      <c r="E292" s="13" t="s">
+        <v>690</v>
+      </c>
+      <c r="F292" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G292" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="H292" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="I292" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="M292" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="N292" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="O292" s="14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" s="9">
+        <v>45592.7331809375</v>
+      </c>
+      <c r="B293" s="10" t="s">
+        <v>691</v>
+      </c>
+      <c r="C293" s="10" t="s">
+        <v>273</v>
+      </c>
+      <c r="D293" s="10">
+        <v>2.0242323E7</v>
+      </c>
+      <c r="E293" s="10" t="s">
+        <v>692</v>
+      </c>
+      <c r="F293" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G293" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H293" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="I293" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="J293" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="K293" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="L293" s="10" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" s="12">
+        <v>45592.74093746528</v>
+      </c>
+      <c r="B294" s="13" t="s">
+        <v>693</v>
+      </c>
+      <c r="C294" s="13" t="s">
+        <v>273</v>
+      </c>
+      <c r="D294" s="13">
+        <v>2.0242327E7</v>
+      </c>
+      <c r="E294" s="13" t="s">
+        <v>694</v>
+      </c>
+      <c r="F294" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G294" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H294" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="I294" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="J294" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="K294" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="L294" s="13" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" s="9">
+        <v>45592.74253466435</v>
+      </c>
+      <c r="B295" s="10" t="s">
+        <v>695</v>
+      </c>
+      <c r="C295" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="D295" s="10">
+        <v>2.0245161E7</v>
+      </c>
+      <c r="E295" s="10" t="s">
+        <v>696</v>
+      </c>
+      <c r="F295" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G295" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H295" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="I295" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="M295" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="N295" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="O295" s="11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" s="12">
+        <v>45592.74482186342</v>
+      </c>
+      <c r="B296" s="13" t="s">
+        <v>697</v>
+      </c>
+      <c r="C296" s="13" t="s">
+        <v>698</v>
+      </c>
+      <c r="D296" s="13">
+        <v>2.0227022E7</v>
+      </c>
+      <c r="E296" s="13" t="s">
+        <v>699</v>
+      </c>
+      <c r="F296" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="G296" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H296" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="I296" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="J296" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="K296" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="L296" s="13" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" s="9">
+        <v>45592.74719486111</v>
+      </c>
+      <c r="B297" s="10" t="s">
+        <v>700</v>
+      </c>
+      <c r="C297" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="D297" s="10">
+        <v>2.0227111E7</v>
+      </c>
+      <c r="E297" s="10" t="s">
+        <v>701</v>
+      </c>
+      <c r="F297" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G297" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H297" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="I297" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="J297" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="K297" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="L297" s="10" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" s="12">
+        <v>45592.74934579861</v>
+      </c>
+      <c r="B298" s="13" t="s">
+        <v>702</v>
+      </c>
+      <c r="C298" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="D298" s="13">
+        <v>2.0231622E7</v>
+      </c>
+      <c r="E298" s="13" t="s">
+        <v>703</v>
+      </c>
+      <c r="F298" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G298" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H298" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="I298" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="J298" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="K298" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="L298" s="13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" s="9">
+        <v>45592.753411701386</v>
+      </c>
+      <c r="B299" s="10" t="s">
+        <v>704</v>
+      </c>
+      <c r="C299" s="10" t="s">
+        <v>705</v>
+      </c>
+      <c r="D299" s="10">
+        <v>2.0235198E7</v>
+      </c>
+      <c r="E299" s="10" t="s">
+        <v>706</v>
+      </c>
+      <c r="F299" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G299" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H299" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="I299" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="J299" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="K299" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="L299" s="10" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" s="12">
+        <v>45592.76032689815</v>
+      </c>
+      <c r="B300" s="13" t="s">
+        <v>707</v>
+      </c>
+      <c r="C300" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="D300" s="13">
+        <v>2.024224E7</v>
+      </c>
+      <c r="E300" s="13" t="s">
+        <v>708</v>
+      </c>
+      <c r="F300" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G300" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="H300" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="I300" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="J300" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="K300" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="L300" s="13" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" s="9">
+        <v>45592.77400306713</v>
+      </c>
+      <c r="B301" s="10" t="s">
+        <v>709</v>
+      </c>
+      <c r="C301" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="D301" s="10">
+        <v>2.0224123E7</v>
+      </c>
+      <c r="E301" s="10" t="s">
+        <v>710</v>
+      </c>
+      <c r="F301" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="G301" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="H301" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="I301" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="M301" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="N301" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="O301" s="11" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" s="12">
+        <v>45592.78378037037</v>
+      </c>
+      <c r="B302" s="13" t="s">
+        <v>711</v>
+      </c>
+      <c r="C302" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="D302" s="13">
+        <v>2.0246241E7</v>
+      </c>
+      <c r="E302" s="13" t="s">
+        <v>712</v>
+      </c>
+      <c r="F302" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G302" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H302" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="I302" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="J302" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="K302" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="L302" s="13" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" s="9">
+        <v>45592.78399303241</v>
+      </c>
+      <c r="B303" s="10" t="s">
+        <v>713</v>
+      </c>
+      <c r="C303" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="D303" s="10">
+        <v>2.0234128E7</v>
+      </c>
+      <c r="E303" s="10" t="s">
+        <v>714</v>
+      </c>
+      <c r="F303" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="G303" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H303" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="I303" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="J303" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="K303" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="L303" s="10" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" s="12">
+        <v>45592.78602681713</v>
+      </c>
+      <c r="B304" s="13" t="s">
+        <v>715</v>
+      </c>
+      <c r="C304" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="D304" s="13">
+        <v>2.0241236E7</v>
+      </c>
+      <c r="E304" s="13" t="s">
+        <v>716</v>
+      </c>
+      <c r="F304" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="G304" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="H304" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="I304" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="M304" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="N304" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="O304" s="14" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" s="9">
+        <v>45592.78897311343</v>
+      </c>
+      <c r="B305" s="10" t="s">
+        <v>717</v>
+      </c>
+      <c r="C305" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="D305" s="10">
+        <v>2.0212927E7</v>
+      </c>
+      <c r="E305" s="10" t="s">
+        <v>718</v>
+      </c>
+      <c r="F305" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G305" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H305" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="I305" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="J305" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="K305" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="L305" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" s="15">
+        <v>45592.792840462964</v>
+      </c>
+      <c r="B306" s="16" t="s">
+        <v>719</v>
+      </c>
+      <c r="C306" s="16" t="s">
+        <v>720</v>
+      </c>
+      <c r="D306" s="16">
+        <v>2.0246902E7</v>
+      </c>
+      <c r="E306" s="16" t="s">
+        <v>721</v>
+      </c>
+      <c r="F306" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="G306" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="H306" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="I306" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="J306" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="K306" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="L306" s="16" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/R/data/quiz241021_tmp.xlsx
+++ b/R/data/quiz241021_tmp.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3065" uniqueCount="722">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3365" uniqueCount="784">
   <si>
     <t>타임스탬프</t>
   </si>
@@ -2177,6 +2177,192 @@
   </si>
   <si>
     <t>강명수</t>
+  </si>
+  <si>
+    <t>httv08@naver.com</t>
+  </si>
+  <si>
+    <t>전현태</t>
+  </si>
+  <si>
+    <t>ehddn0504@naver.com</t>
+  </si>
+  <si>
+    <t>신동우</t>
+  </si>
+  <si>
+    <t>lucy37lucy37lucy37@nave.com</t>
+  </si>
+  <si>
+    <t>이은지</t>
+  </si>
+  <si>
+    <t>123plokml123@gmail.com</t>
+  </si>
+  <si>
+    <t>지현배</t>
+  </si>
+  <si>
+    <t>scott1234698@naver.com</t>
+  </si>
+  <si>
+    <t>우성진</t>
+  </si>
+  <si>
+    <t>hijgc8282@naver.com</t>
+  </si>
+  <si>
+    <t>윤장근</t>
+  </si>
+  <si>
+    <t>jennydz@naver.com</t>
+  </si>
+  <si>
+    <t>허지수</t>
+  </si>
+  <si>
+    <t>hyeonjin7650@gmail.com</t>
+  </si>
+  <si>
+    <t>류현진</t>
+  </si>
+  <si>
+    <t>jh2600646@naver.com</t>
+  </si>
+  <si>
+    <t>데이터사이언스</t>
+  </si>
+  <si>
+    <t>박지훈</t>
+  </si>
+  <si>
+    <t>chjames2005@naver.com</t>
+  </si>
+  <si>
+    <t>최재현</t>
+  </si>
+  <si>
+    <t>detect5641@gmail.com</t>
+  </si>
+  <si>
+    <t>이주성</t>
+  </si>
+  <si>
+    <t>kcwel1109@gmail.com</t>
+  </si>
+  <si>
+    <t>고미연</t>
+  </si>
+  <si>
+    <t>jsh050906@naver.com</t>
+  </si>
+  <si>
+    <t>정송희</t>
+  </si>
+  <si>
+    <t>kwonseoyoung0923@gmail.com</t>
+  </si>
+  <si>
+    <t>권서영</t>
+  </si>
+  <si>
+    <t>pinkyeon7@gmail.com</t>
+  </si>
+  <si>
+    <t>박채연</t>
+  </si>
+  <si>
+    <t>narinsong3@gmail.com</t>
+  </si>
+  <si>
+    <t>송나린</t>
+  </si>
+  <si>
+    <t>seon93804@gmail.com</t>
+  </si>
+  <si>
+    <t>김인선</t>
+  </si>
+  <si>
+    <t>chorok052150@naver.com</t>
+  </si>
+  <si>
+    <t>김미니</t>
+  </si>
+  <si>
+    <t>tjtkdwns0909@naver.com</t>
+  </si>
+  <si>
+    <t>서상준</t>
+  </si>
+  <si>
+    <t>his86814189@gmail.com</t>
+  </si>
+  <si>
+    <t>융합과학수사</t>
+  </si>
+  <si>
+    <t>황인성</t>
+  </si>
+  <si>
+    <t>ljk2942@gmail.com</t>
+  </si>
+  <si>
+    <t>이재권</t>
+  </si>
+  <si>
+    <t>mjys9155@gmail.com</t>
+  </si>
+  <si>
+    <t>lion5166@naver.com</t>
+  </si>
+  <si>
+    <t>김정연</t>
+  </si>
+  <si>
+    <t>bagminhyeog534@gmail.com</t>
+  </si>
+  <si>
+    <t>박민혁</t>
+  </si>
+  <si>
+    <t>qkhkasin17@naver.com</t>
+  </si>
+  <si>
+    <t>박가현</t>
+  </si>
+  <si>
+    <t>ekzkdi12@naver.com</t>
+  </si>
+  <si>
+    <t>박정민</t>
+  </si>
+  <si>
+    <t>kayla1071702@gmail.com</t>
+  </si>
+  <si>
+    <t>임혜빈</t>
+  </si>
+  <si>
+    <t>kmhhth5@gmail.com</t>
+  </si>
+  <si>
+    <t>최진호</t>
+  </si>
+  <si>
+    <t>captaingogo@naver.com</t>
+  </si>
+  <si>
+    <t>반도체디스플레이</t>
+  </si>
+  <si>
+    <t>김진안</t>
+  </si>
+  <si>
+    <t>jkmy2516@naver.com</t>
+  </si>
+  <si>
+    <t>장석빈</t>
   </si>
 </sst>
 </file>
@@ -2477,7 +2663,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:O306" displayName="Form_Responses1" name="Form_Responses1" id="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:O336" displayName="Form_Responses1" name="Form_Responses1" id="1">
   <tableColumns count="15">
     <tableColumn name="타임스탬프" id="1"/>
     <tableColumn name="이메일 주소" id="2"/>
@@ -14317,41 +14503,1181 @@
       </c>
     </row>
     <row r="306">
-      <c r="A306" s="15">
+      <c r="A306" s="12">
         <v>45592.792840462964</v>
       </c>
-      <c r="B306" s="16" t="s">
+      <c r="B306" s="13" t="s">
         <v>719</v>
       </c>
-      <c r="C306" s="16" t="s">
+      <c r="C306" s="13" t="s">
         <v>720</v>
       </c>
-      <c r="D306" s="16">
+      <c r="D306" s="13">
         <v>2.0246902E7</v>
       </c>
-      <c r="E306" s="16" t="s">
+      <c r="E306" s="13" t="s">
         <v>721</v>
       </c>
-      <c r="F306" s="16" t="s">
+      <c r="F306" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="G306" s="16" t="s">
+      <c r="G306" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="H306" s="16" t="s">
+      <c r="H306" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="I306" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="J306" s="16" t="s">
+      <c r="I306" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="J306" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="K306" s="16" t="s">
+      <c r="K306" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="L306" s="16" t="s">
+      <c r="L306" s="13" t="s">
         <v>39</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" s="9">
+        <v>45592.80845315973</v>
+      </c>
+      <c r="B307" s="10" t="s">
+        <v>722</v>
+      </c>
+      <c r="C307" s="10" t="s">
+        <v>296</v>
+      </c>
+      <c r="D307" s="10">
+        <v>2.0212566E7</v>
+      </c>
+      <c r="E307" s="10" t="s">
+        <v>723</v>
+      </c>
+      <c r="F307" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G307" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H307" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="I307" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="M307" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="N307" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="O307" s="11" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" s="12">
+        <v>45592.81996005787</v>
+      </c>
+      <c r="B308" s="13" t="s">
+        <v>724</v>
+      </c>
+      <c r="C308" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="D308" s="13">
+        <v>2.0245186E7</v>
+      </c>
+      <c r="E308" s="13" t="s">
+        <v>725</v>
+      </c>
+      <c r="F308" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G308" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H308" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="I308" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="M308" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="N308" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="O308" s="14" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" s="9">
+        <v>45592.83663236111</v>
+      </c>
+      <c r="B309" s="10" t="s">
+        <v>726</v>
+      </c>
+      <c r="C309" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="D309" s="10">
+        <v>2.022301E7</v>
+      </c>
+      <c r="E309" s="10" t="s">
+        <v>727</v>
+      </c>
+      <c r="F309" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G309" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H309" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="I309" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="M309" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="N309" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="O309" s="11" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" s="12">
+        <v>45592.8449478588</v>
+      </c>
+      <c r="B310" s="13" t="s">
+        <v>728</v>
+      </c>
+      <c r="C310" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="D310" s="13">
+        <v>2.0245266E7</v>
+      </c>
+      <c r="E310" s="13" t="s">
+        <v>729</v>
+      </c>
+      <c r="F310" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G310" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H310" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="I310" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="M310" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="N310" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="O310" s="14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" s="9">
+        <v>45592.84545815972</v>
+      </c>
+      <c r="B311" s="10" t="s">
+        <v>730</v>
+      </c>
+      <c r="C311" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="D311" s="10">
+        <v>2.0246633E7</v>
+      </c>
+      <c r="E311" s="10" t="s">
+        <v>731</v>
+      </c>
+      <c r="F311" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G311" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H311" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="I311" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="J311" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="K311" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="L311" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" s="12">
+        <v>45592.849201840276</v>
+      </c>
+      <c r="B312" s="13" t="s">
+        <v>732</v>
+      </c>
+      <c r="C312" s="13" t="s">
+        <v>296</v>
+      </c>
+      <c r="D312" s="13">
+        <v>2.019256E7</v>
+      </c>
+      <c r="E312" s="13" t="s">
+        <v>733</v>
+      </c>
+      <c r="F312" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G312" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H312" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="I312" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="J312" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="K312" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="L312" s="13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" s="9">
+        <v>45592.85320545139</v>
+      </c>
+      <c r="B313" s="10" t="s">
+        <v>734</v>
+      </c>
+      <c r="C313" s="10" t="s">
+        <v>406</v>
+      </c>
+      <c r="D313" s="10">
+        <v>2.0213543E7</v>
+      </c>
+      <c r="E313" s="10" t="s">
+        <v>735</v>
+      </c>
+      <c r="F313" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G313" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H313" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="I313" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="M313" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="N313" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="O313" s="11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" s="12">
+        <v>45592.86042916667</v>
+      </c>
+      <c r="B314" s="13" t="s">
+        <v>736</v>
+      </c>
+      <c r="C314" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D314" s="13">
+        <v>2.0192717E7</v>
+      </c>
+      <c r="E314" s="13" t="s">
+        <v>737</v>
+      </c>
+      <c r="F314" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G314" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H314" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="I314" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="M314" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="N314" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="O314" s="14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" s="9">
+        <v>45592.86065446759</v>
+      </c>
+      <c r="B315" s="10" t="s">
+        <v>738</v>
+      </c>
+      <c r="C315" s="10" t="s">
+        <v>739</v>
+      </c>
+      <c r="D315" s="10">
+        <v>2.0213224E7</v>
+      </c>
+      <c r="E315" s="10" t="s">
+        <v>740</v>
+      </c>
+      <c r="F315" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G315" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="H315" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="I315" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="J315" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="K315" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="L315" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" s="12">
+        <v>45592.88179032407</v>
+      </c>
+      <c r="B316" s="13" t="s">
+        <v>741</v>
+      </c>
+      <c r="C316" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="D316" s="13">
+        <v>2.0243259E7</v>
+      </c>
+      <c r="E316" s="13" t="s">
+        <v>742</v>
+      </c>
+      <c r="F316" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G316" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H316" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="I316" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="M316" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="N316" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="O316" s="14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" s="9">
+        <v>45592.88836644676</v>
+      </c>
+      <c r="B317" s="10" t="s">
+        <v>743</v>
+      </c>
+      <c r="C317" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="D317" s="10">
+        <v>2.024523E7</v>
+      </c>
+      <c r="E317" s="10" t="s">
+        <v>744</v>
+      </c>
+      <c r="F317" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G317" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="H317" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="I317" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="J317" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="K317" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="L317" s="10" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" s="12">
+        <v>45592.8966837037</v>
+      </c>
+      <c r="B318" s="13" t="s">
+        <v>745</v>
+      </c>
+      <c r="C318" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="D318" s="13">
+        <v>2.0246204E7</v>
+      </c>
+      <c r="E318" s="13" t="s">
+        <v>746</v>
+      </c>
+      <c r="F318" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G318" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H318" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="I318" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="J318" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="K318" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="L318" s="13" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" s="9">
+        <v>45592.897636712965</v>
+      </c>
+      <c r="B319" s="10" t="s">
+        <v>747</v>
+      </c>
+      <c r="C319" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="D319" s="10">
+        <v>2.0243032E7</v>
+      </c>
+      <c r="E319" s="10" t="s">
+        <v>748</v>
+      </c>
+      <c r="F319" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="G319" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H319" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="I319" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="M319" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="N319" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="O319" s="11" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" s="12">
+        <v>45592.903973541666</v>
+      </c>
+      <c r="B320" s="13" t="s">
+        <v>749</v>
+      </c>
+      <c r="C320" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D320" s="13">
+        <v>2.0243606E7</v>
+      </c>
+      <c r="E320" s="13" t="s">
+        <v>750</v>
+      </c>
+      <c r="F320" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="G320" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H320" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="I320" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="J320" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="K320" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="L320" s="13" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" s="9">
+        <v>45592.90494543982</v>
+      </c>
+      <c r="B321" s="10" t="s">
+        <v>751</v>
+      </c>
+      <c r="C321" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="D321" s="10">
+        <v>2.0227141E7</v>
+      </c>
+      <c r="E321" s="10" t="s">
+        <v>752</v>
+      </c>
+      <c r="F321" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G321" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H321" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="I321" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="M321" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="N321" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="O321" s="11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" s="12">
+        <v>45592.905275868055</v>
+      </c>
+      <c r="B322" s="13" t="s">
+        <v>753</v>
+      </c>
+      <c r="C322" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="D322" s="13">
+        <v>2.0246248E7</v>
+      </c>
+      <c r="E322" s="13" t="s">
+        <v>754</v>
+      </c>
+      <c r="F322" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G322" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H322" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="I322" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="M322" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="N322" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="O322" s="14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" s="9">
+        <v>45592.90974645833</v>
+      </c>
+      <c r="B323" s="10" t="s">
+        <v>755</v>
+      </c>
+      <c r="C323" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="D323" s="10">
+        <v>2.0221209E7</v>
+      </c>
+      <c r="E323" s="10" t="s">
+        <v>756</v>
+      </c>
+      <c r="F323" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="G323" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="H323" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="I323" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="M323" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="N323" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="O323" s="11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" s="12">
+        <v>45592.91062461806</v>
+      </c>
+      <c r="B324" s="13" t="s">
+        <v>757</v>
+      </c>
+      <c r="C324" s="13" t="s">
+        <v>273</v>
+      </c>
+      <c r="D324" s="13">
+        <v>2.0242307E7</v>
+      </c>
+      <c r="E324" s="13" t="s">
+        <v>758</v>
+      </c>
+      <c r="F324" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G324" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H324" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="I324" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="M324" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="N324" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="O324" s="14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" s="9">
+        <v>45592.91421403935</v>
+      </c>
+      <c r="B325" s="10" t="s">
+        <v>759</v>
+      </c>
+      <c r="C325" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="D325" s="10">
+        <v>2.0244123E7</v>
+      </c>
+      <c r="E325" s="10" t="s">
+        <v>760</v>
+      </c>
+      <c r="F325" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G325" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H325" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="I325" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="J325" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="K325" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="L325" s="10" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" s="12">
+        <v>45592.91659636574</v>
+      </c>
+      <c r="B326" s="13" t="s">
+        <v>761</v>
+      </c>
+      <c r="C326" s="13" t="s">
+        <v>762</v>
+      </c>
+      <c r="D326" s="13">
+        <v>2.0246942E7</v>
+      </c>
+      <c r="E326" s="13" t="s">
+        <v>763</v>
+      </c>
+      <c r="F326" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G326" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="H326" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="I326" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="J326" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="K326" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="L326" s="13" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" s="9">
+        <v>45592.921114212964</v>
+      </c>
+      <c r="B327" s="10" t="s">
+        <v>764</v>
+      </c>
+      <c r="C327" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="D327" s="10">
+        <v>2.0241224E7</v>
+      </c>
+      <c r="E327" s="10" t="s">
+        <v>765</v>
+      </c>
+      <c r="F327" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G327" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H327" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="I327" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="M327" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="N327" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="O327" s="11" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" s="12">
+        <v>45592.93311363426</v>
+      </c>
+      <c r="B328" s="13" t="s">
+        <v>766</v>
+      </c>
+      <c r="C328" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="D328" s="13">
+        <v>2.0241044E7</v>
+      </c>
+      <c r="E328" s="13" t="s">
+        <v>352</v>
+      </c>
+      <c r="F328" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G328" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H328" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="I328" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="M328" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="N328" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="O328" s="14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" s="9">
+        <v>45592.96588318287</v>
+      </c>
+      <c r="B329" s="10" t="s">
+        <v>767</v>
+      </c>
+      <c r="C329" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D329" s="10">
+        <v>2.0243612E7</v>
+      </c>
+      <c r="E329" s="10" t="s">
+        <v>768</v>
+      </c>
+      <c r="F329" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G329" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H329" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="I329" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="J329" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="K329" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="L329" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" s="12">
+        <v>45592.9673590162</v>
+      </c>
+      <c r="B330" s="13" t="s">
+        <v>769</v>
+      </c>
+      <c r="C330" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="D330" s="13">
+        <v>2.024232E7</v>
+      </c>
+      <c r="E330" s="13" t="s">
+        <v>770</v>
+      </c>
+      <c r="F330" s="13" t="s">
+        <v>239</v>
+      </c>
+      <c r="G330" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="H330" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="I330" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="M330" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="N330" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="O330" s="14" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" s="9">
+        <v>45592.9702959375</v>
+      </c>
+      <c r="B331" s="10" t="s">
+        <v>771</v>
+      </c>
+      <c r="C331" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="D331" s="10">
+        <v>2.0232953E7</v>
+      </c>
+      <c r="E331" s="10" t="s">
+        <v>772</v>
+      </c>
+      <c r="F331" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G331" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H331" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="I331" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="J331" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="K331" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="L331" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" s="12">
+        <v>45592.98527870371</v>
+      </c>
+      <c r="B332" s="13" t="s">
+        <v>773</v>
+      </c>
+      <c r="C332" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="D332" s="13">
+        <v>2.024296E7</v>
+      </c>
+      <c r="E332" s="13" t="s">
+        <v>774</v>
+      </c>
+      <c r="F332" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G332" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="H332" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="I332" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="M332" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="N332" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="O332" s="14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" s="9">
+        <v>45592.98755447917</v>
+      </c>
+      <c r="B333" s="10" t="s">
+        <v>775</v>
+      </c>
+      <c r="C333" s="10" t="s">
+        <v>273</v>
+      </c>
+      <c r="D333" s="10">
+        <v>2.0242347E7</v>
+      </c>
+      <c r="E333" s="10" t="s">
+        <v>776</v>
+      </c>
+      <c r="F333" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G333" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H333" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="I333" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="J333" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="K333" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="L333" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" s="12">
+        <v>45592.98809304398</v>
+      </c>
+      <c r="B334" s="13" t="s">
+        <v>777</v>
+      </c>
+      <c r="C334" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="D334" s="13">
+        <v>2.024415E7</v>
+      </c>
+      <c r="E334" s="13" t="s">
+        <v>778</v>
+      </c>
+      <c r="F334" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="G334" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="H334" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="I334" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="M334" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="N334" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="O334" s="14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" s="9">
+        <v>45592.98929646991</v>
+      </c>
+      <c r="B335" s="10" t="s">
+        <v>779</v>
+      </c>
+      <c r="C335" s="10" t="s">
+        <v>780</v>
+      </c>
+      <c r="D335" s="10">
+        <v>2.0243311E7</v>
+      </c>
+      <c r="E335" s="10" t="s">
+        <v>781</v>
+      </c>
+      <c r="F335" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G335" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H335" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="I335" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="J335" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="K335" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="L335" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" s="15">
+        <v>45592.99201006944</v>
+      </c>
+      <c r="B336" s="16" t="s">
+        <v>782</v>
+      </c>
+      <c r="C336" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D336" s="16">
+        <v>2.0191084E7</v>
+      </c>
+      <c r="E336" s="16" t="s">
+        <v>783</v>
+      </c>
+      <c r="F336" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="G336" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="H336" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="I336" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="J336" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="K336" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="L336" s="16" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>

--- a/R/data/quiz241021_tmp.xlsx
+++ b/R/data/quiz241021_tmp.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3365" uniqueCount="784">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3465" uniqueCount="804">
   <si>
     <t>타임스탬프</t>
   </si>
@@ -2363,6 +2363,66 @@
   </si>
   <si>
     <t>장석빈</t>
+  </si>
+  <si>
+    <t>sehyeon0330@naver.com</t>
+  </si>
+  <si>
+    <t>김세현</t>
+  </si>
+  <si>
+    <t>withhowon@gmail.com</t>
+  </si>
+  <si>
+    <t>서호원</t>
+  </si>
+  <si>
+    <t>kter0506@naver.com</t>
+  </si>
+  <si>
+    <t>김태은</t>
+  </si>
+  <si>
+    <t>ksong1210@icloud.com</t>
+  </si>
+  <si>
+    <t>곽송</t>
+  </si>
+  <si>
+    <t>erang051216@naver.com</t>
+  </si>
+  <si>
+    <t>박이랑</t>
+  </si>
+  <si>
+    <t>ujs4198@naver.com</t>
+  </si>
+  <si>
+    <t>엄준식</t>
+  </si>
+  <si>
+    <t>ydchufd@naver.com</t>
+  </si>
+  <si>
+    <t>정유민</t>
+  </si>
+  <si>
+    <t>minuhwang16@gmail.com</t>
+  </si>
+  <si>
+    <t>황민우</t>
+  </si>
+  <si>
+    <t>gchans0524@gmail.com</t>
+  </si>
+  <si>
+    <t>한기찬</t>
+  </si>
+  <si>
+    <t>ella2005710@gmail.com</t>
+  </si>
+  <si>
+    <t>김송이</t>
   </si>
 </sst>
 </file>
@@ -2393,7 +2453,7 @@
       <patternFill patternType="lightGray"/>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="13">
     <border/>
     <border>
       <left style="thin">
@@ -2549,11 +2609,25 @@
         <color rgb="FF442F65"/>
       </bottom>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF442F65"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF442F65"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -2603,6 +2677,9 @@
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="11" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="12" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
   </cellXfs>
@@ -2663,7 +2740,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:O336" displayName="Form_Responses1" name="Form_Responses1" id="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:O346" displayName="Form_Responses1" name="Form_Responses1" id="1">
   <tableColumns count="15">
     <tableColumn name="타임스탬프" id="1"/>
     <tableColumn name="이메일 주소" id="2"/>
@@ -15643,41 +15720,421 @@
       </c>
     </row>
     <row r="336">
-      <c r="A336" s="15">
+      <c r="A336" s="12">
         <v>45592.99201006944</v>
       </c>
-      <c r="B336" s="16" t="s">
+      <c r="B336" s="13" t="s">
         <v>782</v>
       </c>
-      <c r="C336" s="16" t="s">
+      <c r="C336" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="D336" s="16">
+      <c r="D336" s="13">
         <v>2.0191084E7</v>
       </c>
-      <c r="E336" s="16" t="s">
+      <c r="E336" s="13" t="s">
         <v>783</v>
       </c>
-      <c r="F336" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="G336" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="H336" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="I336" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="J336" s="16" t="s">
+      <c r="F336" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G336" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H336" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="I336" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="J336" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="K336" s="16" t="s">
+      <c r="K336" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="L336" s="16" t="s">
+      <c r="L336" s="13" t="s">
         <v>83</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" s="9">
+        <v>45593.00751380787</v>
+      </c>
+      <c r="B337" s="10" t="s">
+        <v>784</v>
+      </c>
+      <c r="C337" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="D337" s="10">
+        <v>2.0212609E7</v>
+      </c>
+      <c r="E337" s="10" t="s">
+        <v>785</v>
+      </c>
+      <c r="F337" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G337" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H337" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="I337" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="J337" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="K337" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="L337" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" s="12">
+        <v>45593.012340127316</v>
+      </c>
+      <c r="B338" s="13" t="s">
+        <v>786</v>
+      </c>
+      <c r="C338" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="D338" s="13">
+        <v>2.0246245E7</v>
+      </c>
+      <c r="E338" s="13" t="s">
+        <v>787</v>
+      </c>
+      <c r="F338" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G338" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H338" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="I338" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="M338" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="N338" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="O338" s="14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" s="9">
+        <v>45593.062720347225</v>
+      </c>
+      <c r="B339" s="10" t="s">
+        <v>788</v>
+      </c>
+      <c r="C339" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="D339" s="10">
+        <v>2.0243813E7</v>
+      </c>
+      <c r="E339" s="10" t="s">
+        <v>789</v>
+      </c>
+      <c r="F339" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G339" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H339" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="I339" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="M339" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="N339" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="O339" s="11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" s="12">
+        <v>45593.08464785879</v>
+      </c>
+      <c r="B340" s="13" t="s">
+        <v>790</v>
+      </c>
+      <c r="C340" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="D340" s="13">
+        <v>2.0242304E7</v>
+      </c>
+      <c r="E340" s="13" t="s">
+        <v>791</v>
+      </c>
+      <c r="F340" s="13" t="s">
+        <v>239</v>
+      </c>
+      <c r="G340" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="H340" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="I340" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="J340" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="K340" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="L340" s="13" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" s="9">
+        <v>45593.09993872685</v>
+      </c>
+      <c r="B341" s="10" t="s">
+        <v>792</v>
+      </c>
+      <c r="C341" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="D341" s="10">
+        <v>2.0243223E7</v>
+      </c>
+      <c r="E341" s="10" t="s">
+        <v>793</v>
+      </c>
+      <c r="F341" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G341" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H341" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="I341" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="M341" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="N341" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="O341" s="11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" s="12">
+        <v>45593.10676892361</v>
+      </c>
+      <c r="B342" s="13" t="s">
+        <v>794</v>
+      </c>
+      <c r="C342" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="D342" s="13">
+        <v>2.0197118E7</v>
+      </c>
+      <c r="E342" s="13" t="s">
+        <v>795</v>
+      </c>
+      <c r="F342" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G342" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H342" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="I342" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="M342" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="N342" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="O342" s="14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" s="9">
+        <v>45593.11309408565</v>
+      </c>
+      <c r="B343" s="10" t="s">
+        <v>796</v>
+      </c>
+      <c r="C343" s="10" t="s">
+        <v>273</v>
+      </c>
+      <c r="D343" s="10">
+        <v>2.0242363E7</v>
+      </c>
+      <c r="E343" s="10" t="s">
+        <v>797</v>
+      </c>
+      <c r="F343" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G343" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="H343" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="I343" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="J343" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="K343" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="L343" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" s="12">
+        <v>45593.11768560185</v>
+      </c>
+      <c r="B344" s="13" t="s">
+        <v>798</v>
+      </c>
+      <c r="C344" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="D344" s="13">
+        <v>2.0243967E7</v>
+      </c>
+      <c r="E344" s="13" t="s">
+        <v>799</v>
+      </c>
+      <c r="F344" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G344" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="H344" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="I344" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="J344" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="K344" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="L344" s="13" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" s="9">
+        <v>45593.150069375</v>
+      </c>
+      <c r="B345" s="10" t="s">
+        <v>800</v>
+      </c>
+      <c r="C345" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="D345" s="10">
+        <v>2.0244152E7</v>
+      </c>
+      <c r="E345" s="10" t="s">
+        <v>801</v>
+      </c>
+      <c r="F345" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G345" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H345" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="I345" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="J345" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="K345" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="L345" s="10" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" s="15">
+        <v>45593.23254430556</v>
+      </c>
+      <c r="B346" s="16" t="s">
+        <v>802</v>
+      </c>
+      <c r="C346" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="D346" s="16">
+        <v>2.0246222E7</v>
+      </c>
+      <c r="E346" s="16" t="s">
+        <v>803</v>
+      </c>
+      <c r="F346" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="G346" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="H346" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="I346" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="M346" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="N346" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="O346" s="17" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/R/data/quiz241021_tmp.xlsx
+++ b/R/data/quiz241021_tmp.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3465" uniqueCount="804">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3655" uniqueCount="843">
   <si>
     <t>타임스탬프</t>
   </si>
@@ -2423,6 +2423,123 @@
   </si>
   <si>
     <t>김송이</t>
+  </si>
+  <si>
+    <t>sejun4@naver.com</t>
+  </si>
+  <si>
+    <t>경영/청각</t>
+  </si>
+  <si>
+    <t>박세준</t>
+  </si>
+  <si>
+    <t>kyj57980@gmail.com</t>
+  </si>
+  <si>
+    <t>김예진</t>
+  </si>
+  <si>
+    <t>kwakmin427@gmail.com</t>
+  </si>
+  <si>
+    <t>곽민규</t>
+  </si>
+  <si>
+    <t>06kongkongsoon@gmail.com</t>
+  </si>
+  <si>
+    <t>이서연</t>
+  </si>
+  <si>
+    <t>hihi2679@gmail.com</t>
+  </si>
+  <si>
+    <t>박서현</t>
+  </si>
+  <si>
+    <t>minkyoung961@naver.com</t>
+  </si>
+  <si>
+    <t>wogh1587@naver.com</t>
+  </si>
+  <si>
+    <t>현재호</t>
+  </si>
+  <si>
+    <t>kingdom980201@gmail.com</t>
+  </si>
+  <si>
+    <t>언어청각하과</t>
+  </si>
+  <si>
+    <t>박성경</t>
+  </si>
+  <si>
+    <t>ddoyeong0509@gmail.com</t>
+  </si>
+  <si>
+    <t>윤소영</t>
+  </si>
+  <si>
+    <t>ywj0423@gmail.com</t>
+  </si>
+  <si>
+    <t>장예원</t>
+  </si>
+  <si>
+    <t>wlduddember6@gmail.com</t>
+  </si>
+  <si>
+    <t>이지영</t>
+  </si>
+  <si>
+    <t>4080jjh@gmail.com</t>
+  </si>
+  <si>
+    <t>장재환</t>
+  </si>
+  <si>
+    <t>dongkyo4@gmail.com</t>
+  </si>
+  <si>
+    <t>이동교</t>
+  </si>
+  <si>
+    <t>jin0321558@gmail.com</t>
+  </si>
+  <si>
+    <t>전시연</t>
+  </si>
+  <si>
+    <t>dawn2368@gmail.com</t>
+  </si>
+  <si>
+    <t>허다운</t>
+  </si>
+  <si>
+    <t>ilylive999@gmail.com</t>
+  </si>
+  <si>
+    <t>이가현</t>
+  </si>
+  <si>
+    <t>mmin121420@naver.com</t>
+  </si>
+  <si>
+    <t>김승민</t>
+  </si>
+  <si>
+    <t>gomdolri05@naver.com</t>
+  </si>
+  <si>
+    <t>이아영</t>
+  </si>
+  <si>
+    <t>taehwankim05@gmail.com</t>
+  </si>
+  <si>
+    <t>김태환</t>
   </si>
 </sst>
 </file>
@@ -2586,10 +2703,10 @@
         <color rgb="FF442F65"/>
       </left>
       <right style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </right>
       <top style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </top>
       <bottom style="thin">
         <color rgb="FF442F65"/>
@@ -2597,13 +2714,13 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </left>
       <right style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </right>
       <top style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </top>
       <bottom style="thin">
         <color rgb="FF442F65"/>
@@ -2611,13 +2728,13 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </left>
       <right style="thin">
         <color rgb="FF442F65"/>
       </right>
       <top style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </top>
       <bottom style="thin">
         <color rgb="FF442F65"/>
@@ -2740,7 +2857,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:O346" displayName="Form_Responses1" name="Form_Responses1" id="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:O365" displayName="Form_Responses1" name="Form_Responses1" id="1">
   <tableColumns count="15">
     <tableColumn name="타임스탬프" id="1"/>
     <tableColumn name="이메일 주소" id="2"/>
@@ -16100,41 +16217,763 @@
       </c>
     </row>
     <row r="346">
-      <c r="A346" s="15">
+      <c r="A346" s="12">
         <v>45593.23254430556</v>
       </c>
-      <c r="B346" s="16" t="s">
+      <c r="B346" s="13" t="s">
         <v>802</v>
       </c>
-      <c r="C346" s="16" t="s">
+      <c r="C346" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="D346" s="16">
+      <c r="D346" s="13">
         <v>2.0246222E7</v>
       </c>
-      <c r="E346" s="16" t="s">
+      <c r="E346" s="13" t="s">
         <v>803</v>
       </c>
-      <c r="F346" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="G346" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="H346" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="I346" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="M346" s="16" t="s">
+      <c r="F346" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G346" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H346" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="I346" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="M346" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="N346" s="16" t="s">
+      <c r="N346" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="O346" s="17" t="s">
+      <c r="O346" s="14" t="s">
         <v>24</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" s="9">
+        <v>45593.44205165509</v>
+      </c>
+      <c r="B347" s="10" t="s">
+        <v>804</v>
+      </c>
+      <c r="C347" s="10" t="s">
+        <v>805</v>
+      </c>
+      <c r="D347" s="10">
+        <v>2.0193968E7</v>
+      </c>
+      <c r="E347" s="10" t="s">
+        <v>806</v>
+      </c>
+      <c r="F347" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G347" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="H347" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="I347" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="J347" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="K347" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="L347" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" s="12">
+        <v>45593.48388133102</v>
+      </c>
+      <c r="B348" s="13" t="s">
+        <v>807</v>
+      </c>
+      <c r="C348" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="D348" s="13">
+        <v>2.0202319E7</v>
+      </c>
+      <c r="E348" s="13" t="s">
+        <v>808</v>
+      </c>
+      <c r="F348" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G348" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H348" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="I348" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="M348" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="N348" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="O348" s="14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" s="9">
+        <v>45593.51735278935</v>
+      </c>
+      <c r="B349" s="10" t="s">
+        <v>809</v>
+      </c>
+      <c r="C349" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="D349" s="10">
+        <v>2.0243605E7</v>
+      </c>
+      <c r="E349" s="10" t="s">
+        <v>810</v>
+      </c>
+      <c r="F349" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="G349" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H349" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="I349" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="M349" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="N349" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="O349" s="11" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" s="12">
+        <v>45593.560036828705</v>
+      </c>
+      <c r="B350" s="13" t="s">
+        <v>811</v>
+      </c>
+      <c r="C350" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D350" s="13">
+        <v>2.0242732E7</v>
+      </c>
+      <c r="E350" s="13" t="s">
+        <v>812</v>
+      </c>
+      <c r="F350" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G350" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="H350" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="I350" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="M350" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="N350" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="O350" s="14" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" s="9">
+        <v>45593.6407741088</v>
+      </c>
+      <c r="B351" s="10" t="s">
+        <v>813</v>
+      </c>
+      <c r="C351" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="D351" s="10">
+        <v>2.0243815E7</v>
+      </c>
+      <c r="E351" s="10" t="s">
+        <v>814</v>
+      </c>
+      <c r="F351" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G351" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="H351" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="I351" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="J351" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="K351" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="L351" s="10" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" s="12">
+        <v>45593.641505</v>
+      </c>
+      <c r="B352" s="13" t="s">
+        <v>815</v>
+      </c>
+      <c r="C352" s="13" t="s">
+        <v>720</v>
+      </c>
+      <c r="D352" s="13">
+        <v>2.0231706E7</v>
+      </c>
+      <c r="E352" s="13" t="s">
+        <v>241</v>
+      </c>
+      <c r="F352" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G352" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="H352" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="I352" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="M352" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="N352" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="O352" s="14" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" s="9">
+        <v>45593.644998240736</v>
+      </c>
+      <c r="B353" s="10" t="s">
+        <v>816</v>
+      </c>
+      <c r="C353" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="D353" s="10">
+        <v>2.0192366E7</v>
+      </c>
+      <c r="E353" s="10" t="s">
+        <v>817</v>
+      </c>
+      <c r="F353" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G353" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H353" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="I353" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="J353" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="K353" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="L353" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" s="12">
+        <v>45593.729666458334</v>
+      </c>
+      <c r="B354" s="13" t="s">
+        <v>818</v>
+      </c>
+      <c r="C354" s="13" t="s">
+        <v>819</v>
+      </c>
+      <c r="D354" s="13">
+        <v>2.0243917E7</v>
+      </c>
+      <c r="E354" s="13" t="s">
+        <v>820</v>
+      </c>
+      <c r="F354" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G354" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H354" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="I354" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="J354" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="K354" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="L354" s="13" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" s="9">
+        <v>45593.748010138894</v>
+      </c>
+      <c r="B355" s="10" t="s">
+        <v>821</v>
+      </c>
+      <c r="C355" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="D355" s="10">
+        <v>2.0242424E7</v>
+      </c>
+      <c r="E355" s="10" t="s">
+        <v>822</v>
+      </c>
+      <c r="F355" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G355" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H355" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="I355" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="J355" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="K355" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="L355" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" s="12">
+        <v>45593.75683711805</v>
+      </c>
+      <c r="B356" s="13" t="s">
+        <v>823</v>
+      </c>
+      <c r="C356" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="D356" s="13">
+        <v>2.0241082E7</v>
+      </c>
+      <c r="E356" s="13" t="s">
+        <v>824</v>
+      </c>
+      <c r="F356" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G356" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H356" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="I356" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="J356" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="K356" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="L356" s="13" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" s="9">
+        <v>45593.78158915509</v>
+      </c>
+      <c r="B357" s="10" t="s">
+        <v>825</v>
+      </c>
+      <c r="C357" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="D357" s="10">
+        <v>2.0246639E7</v>
+      </c>
+      <c r="E357" s="10" t="s">
+        <v>826</v>
+      </c>
+      <c r="F357" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="G357" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="H357" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="I357" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="M357" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="N357" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="O357" s="11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" s="12">
+        <v>45593.78250190972</v>
+      </c>
+      <c r="B358" s="13" t="s">
+        <v>827</v>
+      </c>
+      <c r="C358" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="D358" s="13">
+        <v>2.0182436E7</v>
+      </c>
+      <c r="E358" s="13" t="s">
+        <v>828</v>
+      </c>
+      <c r="F358" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G358" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H358" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="I358" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="J358" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="K358" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="L358" s="13" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" s="9">
+        <v>45593.82900827547</v>
+      </c>
+      <c r="B359" s="10" t="s">
+        <v>829</v>
+      </c>
+      <c r="C359" s="10" t="s">
+        <v>411</v>
+      </c>
+      <c r="D359" s="10">
+        <v>2.0213241E7</v>
+      </c>
+      <c r="E359" s="10" t="s">
+        <v>830</v>
+      </c>
+      <c r="F359" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G359" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="H359" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="I359" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="J359" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="K359" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="L359" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" s="12">
+        <v>45593.83393959491</v>
+      </c>
+      <c r="B360" s="13" t="s">
+        <v>831</v>
+      </c>
+      <c r="C360" s="13" t="s">
+        <v>720</v>
+      </c>
+      <c r="D360" s="13">
+        <v>2.0246932E7</v>
+      </c>
+      <c r="E360" s="13" t="s">
+        <v>832</v>
+      </c>
+      <c r="F360" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G360" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="H360" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="I360" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="M360" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="N360" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="O360" s="14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" s="9">
+        <v>45593.83700748843</v>
+      </c>
+      <c r="B361" s="10" t="s">
+        <v>833</v>
+      </c>
+      <c r="C361" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="D361" s="10">
+        <v>2.0197126E7</v>
+      </c>
+      <c r="E361" s="10" t="s">
+        <v>834</v>
+      </c>
+      <c r="F361" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G361" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H361" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="I361" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="J361" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="K361" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="L361" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" s="12">
+        <v>45593.870611018516</v>
+      </c>
+      <c r="B362" s="13" t="s">
+        <v>835</v>
+      </c>
+      <c r="C362" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="D362" s="13">
+        <v>2.0231621E7</v>
+      </c>
+      <c r="E362" s="13" t="s">
+        <v>836</v>
+      </c>
+      <c r="F362" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G362" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H362" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="I362" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="J362" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="K362" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="L362" s="13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" s="9">
+        <v>45593.88579086805</v>
+      </c>
+      <c r="B363" s="10" t="s">
+        <v>837</v>
+      </c>
+      <c r="C363" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="D363" s="10">
+        <v>2.024411E7</v>
+      </c>
+      <c r="E363" s="10" t="s">
+        <v>838</v>
+      </c>
+      <c r="F363" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G363" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="H363" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="I363" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="J363" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="K363" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="L363" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" s="12">
+        <v>45593.88864038195</v>
+      </c>
+      <c r="B364" s="13" t="s">
+        <v>839</v>
+      </c>
+      <c r="C364" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="D364" s="13">
+        <v>2.0242227E7</v>
+      </c>
+      <c r="E364" s="13" t="s">
+        <v>840</v>
+      </c>
+      <c r="F364" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G364" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H364" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="I364" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="J364" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="K364" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="L364" s="13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" s="15">
+        <v>45593.89551511574</v>
+      </c>
+      <c r="B365" s="16" t="s">
+        <v>841</v>
+      </c>
+      <c r="C365" s="16" t="s">
+        <v>170</v>
+      </c>
+      <c r="D365" s="16">
+        <v>2.0242411E7</v>
+      </c>
+      <c r="E365" s="16" t="s">
+        <v>842</v>
+      </c>
+      <c r="F365" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="G365" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="H365" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="I365" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="M365" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="N365" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="O365" s="17" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/R/data/quiz241021_tmp.xlsx
+++ b/R/data/quiz241021_tmp.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3655" uniqueCount="843">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3705" uniqueCount="854">
   <si>
     <t>타임스탬프</t>
   </si>
@@ -2540,6 +2540,39 @@
   </si>
   <si>
     <t>김태환</t>
+  </si>
+  <si>
+    <t>nwjcq14@naver.com</t>
+  </si>
+  <si>
+    <t>임미정</t>
+  </si>
+  <si>
+    <t>chsmdfur123@naver.com</t>
+  </si>
+  <si>
+    <t>금융재무</t>
+  </si>
+  <si>
+    <t>이한얼</t>
+  </si>
+  <si>
+    <t>fruitekomi@naver.com</t>
+  </si>
+  <si>
+    <t>김예은</t>
+  </si>
+  <si>
+    <t>kangyein0810@gmail.com</t>
+  </si>
+  <si>
+    <t>강예인</t>
+  </si>
+  <si>
+    <t>seostone1018@gmail.com</t>
+  </si>
+  <si>
+    <t>서준석</t>
   </si>
 </sst>
 </file>
@@ -2570,7 +2603,7 @@
       <patternFill patternType="lightGray"/>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="12">
     <border/>
     <border>
       <left style="thin">
@@ -2703,10 +2736,10 @@
         <color rgb="FF442F65"/>
       </left>
       <right style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </right>
       <top style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </top>
       <bottom style="thin">
         <color rgb="FF442F65"/>
@@ -2714,27 +2747,13 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </left>
       <right style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </right>
       <top style="thin">
-        <color rgb="FFF8F9FA"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF442F65"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFF8F9FA"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF442F65"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </top>
       <bottom style="thin">
         <color rgb="FF442F65"/>
@@ -2744,7 +2763,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -2794,9 +2813,6 @@
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="11" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
   </cellXfs>
@@ -2857,7 +2873,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:O365" displayName="Form_Responses1" name="Form_Responses1" id="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:O370" displayName="Form_Responses1" name="Form_Responses1" id="1">
   <tableColumns count="15">
     <tableColumn name="타임스탬프" id="1"/>
     <tableColumn name="이메일 주소" id="2"/>
@@ -16939,41 +16955,231 @@
       </c>
     </row>
     <row r="365">
-      <c r="A365" s="15">
+      <c r="A365" s="9">
         <v>45593.89551511574</v>
       </c>
-      <c r="B365" s="16" t="s">
+      <c r="B365" s="10" t="s">
         <v>841</v>
       </c>
-      <c r="C365" s="16" t="s">
+      <c r="C365" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="D365" s="16">
+      <c r="D365" s="10">
         <v>2.0242411E7</v>
       </c>
-      <c r="E365" s="16" t="s">
+      <c r="E365" s="10" t="s">
         <v>842</v>
       </c>
-      <c r="F365" s="16" t="s">
+      <c r="F365" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="G365" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="H365" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="I365" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="M365" s="16" t="s">
+      <c r="G365" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H365" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="I365" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="M365" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="N365" s="16" t="s">
+      <c r="N365" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="O365" s="17" t="s">
+      <c r="O365" s="11" t="s">
         <v>60</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" s="12">
+        <v>45593.946505925924</v>
+      </c>
+      <c r="B366" s="13" t="s">
+        <v>843</v>
+      </c>
+      <c r="C366" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D366" s="13">
+        <v>2.0216631E7</v>
+      </c>
+      <c r="E366" s="13" t="s">
+        <v>844</v>
+      </c>
+      <c r="F366" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G366" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H366" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="I366" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="J366" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="K366" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="L366" s="13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" s="9">
+        <v>45593.95720181713</v>
+      </c>
+      <c r="B367" s="10" t="s">
+        <v>845</v>
+      </c>
+      <c r="C367" s="10" t="s">
+        <v>846</v>
+      </c>
+      <c r="D367" s="10">
+        <v>2.0203026E7</v>
+      </c>
+      <c r="E367" s="10" t="s">
+        <v>847</v>
+      </c>
+      <c r="F367" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G367" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="H367" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="I367" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="M367" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="N367" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="O367" s="11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" s="12">
+        <v>45594.05783965278</v>
+      </c>
+      <c r="B368" s="13" t="s">
+        <v>848</v>
+      </c>
+      <c r="C368" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="D368" s="13">
+        <v>2.023371E7</v>
+      </c>
+      <c r="E368" s="13" t="s">
+        <v>849</v>
+      </c>
+      <c r="F368" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G368" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="H368" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="I368" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="M368" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="N368" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="O368" s="14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" s="9">
+        <v>45594.069364641204</v>
+      </c>
+      <c r="B369" s="10" t="s">
+        <v>850</v>
+      </c>
+      <c r="C369" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="D369" s="10">
+        <v>2.0246603E7</v>
+      </c>
+      <c r="E369" s="10" t="s">
+        <v>851</v>
+      </c>
+      <c r="F369" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G369" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H369" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="I369" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="J369" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="K369" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="L369" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" s="15">
+        <v>45594.39422216435</v>
+      </c>
+      <c r="B370" s="16" t="s">
+        <v>852</v>
+      </c>
+      <c r="C370" s="16" t="s">
+        <v>739</v>
+      </c>
+      <c r="D370" s="16">
+        <v>2.0243227E7</v>
+      </c>
+      <c r="E370" s="16" t="s">
+        <v>853</v>
+      </c>
+      <c r="F370" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="G370" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="H370" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="I370" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="J370" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="K370" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="L370" s="16" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/R/data/quiz241021_tmp.xlsx
+++ b/R/data/quiz241021_tmp.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3705" uniqueCount="854">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3905" uniqueCount="895">
   <si>
     <t>타임스탬프</t>
   </si>
@@ -2573,6 +2573,129 @@
   </si>
   <si>
     <t>서준석</t>
+  </si>
+  <si>
+    <t>sbysooo@naver.com</t>
+  </si>
+  <si>
+    <t>신윤수</t>
+  </si>
+  <si>
+    <t>pjobin0821@naver.com</t>
+  </si>
+  <si>
+    <t>조유빈</t>
+  </si>
+  <si>
+    <t>jiah1622@naver.com</t>
+  </si>
+  <si>
+    <t>최지아</t>
+  </si>
+  <si>
+    <t>r67890@naver.com</t>
+  </si>
+  <si>
+    <t>이규형</t>
+  </si>
+  <si>
+    <t>jym85362@naver.com</t>
+  </si>
+  <si>
+    <t>유수현</t>
+  </si>
+  <si>
+    <t>ksol902@naver.com</t>
+  </si>
+  <si>
+    <t>김은솔</t>
+  </si>
+  <si>
+    <t>jklucky09@naver.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">사회학과 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">최준근 </t>
+  </si>
+  <si>
+    <t>junseok5310@naver.com</t>
+  </si>
+  <si>
+    <t>오준석</t>
+  </si>
+  <si>
+    <t>schoe357@gmail.com</t>
+  </si>
+  <si>
+    <t>최성민</t>
+  </si>
+  <si>
+    <t>dabinchoe05@gmail.com</t>
+  </si>
+  <si>
+    <t>최다빈</t>
+  </si>
+  <si>
+    <t>imhyeongu00@gmail.com</t>
+  </si>
+  <si>
+    <t>언론방송융합미디어전공</t>
+  </si>
+  <si>
+    <t>임현구</t>
+  </si>
+  <si>
+    <t>jione0831@naver.com</t>
+  </si>
+  <si>
+    <t>윤지원</t>
+  </si>
+  <si>
+    <t>yeel6945@naver.com</t>
+  </si>
+  <si>
+    <t>이수빈</t>
+  </si>
+  <si>
+    <t>joazzzzz@naver.com</t>
+  </si>
+  <si>
+    <t>김진구</t>
+  </si>
+  <si>
+    <t>yongwoo7701@gmail.com</t>
+  </si>
+  <si>
+    <t>유용우</t>
+  </si>
+  <si>
+    <t>cindy_lol@naver.com</t>
+  </si>
+  <si>
+    <t>권한별</t>
+  </si>
+  <si>
+    <t>minsung5342@naver.com</t>
+  </si>
+  <si>
+    <t>ohsolbi050521@gmail.com</t>
+  </si>
+  <si>
+    <t>오솔비</t>
+  </si>
+  <si>
+    <t>lucas3767@naver.com</t>
+  </si>
+  <si>
+    <t>권민재</t>
+  </si>
+  <si>
+    <t>msy123581@gmail.com</t>
+  </si>
+  <si>
+    <t>문신영</t>
   </si>
 </sst>
 </file>
@@ -2873,7 +2996,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:O370" displayName="Form_Responses1" name="Form_Responses1" id="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:O390" displayName="Form_Responses1" name="Form_Responses1" id="1">
   <tableColumns count="15">
     <tableColumn name="타임스탬프" id="1"/>
     <tableColumn name="이메일 주소" id="2"/>
@@ -17145,40 +17268,800 @@
       </c>
     </row>
     <row r="370">
-      <c r="A370" s="15">
+      <c r="A370" s="12">
         <v>45594.39422216435</v>
       </c>
-      <c r="B370" s="16" t="s">
+      <c r="B370" s="13" t="s">
         <v>852</v>
       </c>
-      <c r="C370" s="16" t="s">
+      <c r="C370" s="13" t="s">
         <v>739</v>
       </c>
-      <c r="D370" s="16">
+      <c r="D370" s="13">
         <v>2.0243227E7</v>
       </c>
-      <c r="E370" s="16" t="s">
+      <c r="E370" s="13" t="s">
         <v>853</v>
       </c>
-      <c r="F370" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="G370" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="H370" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="I370" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="J370" s="16" t="s">
+      <c r="F370" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G370" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H370" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="I370" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="J370" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="K370" s="16" t="s">
+      <c r="K370" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="L370" s="16" t="s">
+      <c r="L370" s="13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" s="9">
+        <v>45594.407402129626</v>
+      </c>
+      <c r="B371" s="10" t="s">
+        <v>854</v>
+      </c>
+      <c r="C371" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="D371" s="10">
+        <v>2.0227155E7</v>
+      </c>
+      <c r="E371" s="10" t="s">
+        <v>855</v>
+      </c>
+      <c r="F371" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G371" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="H371" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="I371" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="J371" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="K371" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="L371" s="10" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" s="12">
+        <v>45594.40895590278</v>
+      </c>
+      <c r="B372" s="13" t="s">
+        <v>856</v>
+      </c>
+      <c r="C372" s="13" t="s">
+        <v>513</v>
+      </c>
+      <c r="D372" s="13">
+        <v>2.024173E7</v>
+      </c>
+      <c r="E372" s="13" t="s">
+        <v>857</v>
+      </c>
+      <c r="F372" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G372" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H372" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="I372" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="J372" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="K372" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="L372" s="13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" s="9">
+        <v>45594.45314092592</v>
+      </c>
+      <c r="B373" s="10" t="s">
+        <v>858</v>
+      </c>
+      <c r="C373" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="D373" s="10">
+        <v>2.0245271E7</v>
+      </c>
+      <c r="E373" s="10" t="s">
+        <v>859</v>
+      </c>
+      <c r="F373" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G373" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H373" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="I373" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="M373" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="N373" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="O373" s="11" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" s="12">
+        <v>45594.4776722338</v>
+      </c>
+      <c r="B374" s="13" t="s">
+        <v>860</v>
+      </c>
+      <c r="C374" s="13" t="s">
+        <v>533</v>
+      </c>
+      <c r="D374" s="13">
+        <v>2.0205217E7</v>
+      </c>
+      <c r="E374" s="13" t="s">
+        <v>861</v>
+      </c>
+      <c r="F374" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G374" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="H374" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="I374" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="J374" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="K374" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="L374" s="13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" s="9">
+        <v>45594.51212543981</v>
+      </c>
+      <c r="B375" s="10" t="s">
+        <v>862</v>
+      </c>
+      <c r="C375" s="10" t="s">
+        <v>739</v>
+      </c>
+      <c r="D375" s="10">
+        <v>2.0243234E7</v>
+      </c>
+      <c r="E375" s="10" t="s">
+        <v>863</v>
+      </c>
+      <c r="F375" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G375" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="H375" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="I375" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="J375" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="K375" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="L375" s="10" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" s="12">
+        <v>45594.53288690972</v>
+      </c>
+      <c r="B376" s="13" t="s">
+        <v>864</v>
+      </c>
+      <c r="C376" s="13" t="s">
+        <v>739</v>
+      </c>
+      <c r="D376" s="13">
+        <v>2.0243215E7</v>
+      </c>
+      <c r="E376" s="13" t="s">
+        <v>865</v>
+      </c>
+      <c r="F376" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G376" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="H376" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="I376" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="M376" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="N376" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="O376" s="14" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" s="9">
+        <v>45594.5554753125</v>
+      </c>
+      <c r="B377" s="10" t="s">
+        <v>866</v>
+      </c>
+      <c r="C377" s="10" t="s">
+        <v>867</v>
+      </c>
+      <c r="D377" s="10">
+        <v>2.0171101E7</v>
+      </c>
+      <c r="E377" s="10" t="s">
+        <v>868</v>
+      </c>
+      <c r="F377" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G377" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H377" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="I377" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="J377" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="K377" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="L377" s="10" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" s="12">
+        <v>45594.570895625</v>
+      </c>
+      <c r="B378" s="13" t="s">
+        <v>869</v>
+      </c>
+      <c r="C378" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D378" s="13">
+        <v>2.0193626E7</v>
+      </c>
+      <c r="E378" s="13" t="s">
+        <v>870</v>
+      </c>
+      <c r="F378" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G378" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H378" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="I378" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="M378" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="N378" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="O378" s="14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" s="9">
+        <v>45594.717129247685</v>
+      </c>
+      <c r="B379" s="10" t="s">
+        <v>871</v>
+      </c>
+      <c r="C379" s="10" t="s">
+        <v>267</v>
+      </c>
+      <c r="D379" s="10">
+        <v>2.0246782E7</v>
+      </c>
+      <c r="E379" s="10" t="s">
+        <v>872</v>
+      </c>
+      <c r="F379" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G379" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H379" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="I379" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="J379" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="K379" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="L379" s="10" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" s="12">
+        <v>45594.71713447917</v>
+      </c>
+      <c r="B380" s="13" t="s">
+        <v>873</v>
+      </c>
+      <c r="C380" s="13" t="s">
+        <v>267</v>
+      </c>
+      <c r="D380" s="13">
+        <v>2.024678E7</v>
+      </c>
+      <c r="E380" s="13" t="s">
+        <v>874</v>
+      </c>
+      <c r="F380" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G380" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H380" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="I380" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="J380" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="K380" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="L380" s="13" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" s="9">
+        <v>45594.73304571759</v>
+      </c>
+      <c r="B381" s="10" t="s">
+        <v>875</v>
+      </c>
+      <c r="C381" s="10" t="s">
+        <v>876</v>
+      </c>
+      <c r="D381" s="10">
+        <v>2.0192575E7</v>
+      </c>
+      <c r="E381" s="10" t="s">
+        <v>877</v>
+      </c>
+      <c r="F381" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G381" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H381" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="I381" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="J381" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="K381" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="L381" s="10" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" s="12">
+        <v>45594.81128692129</v>
+      </c>
+      <c r="B382" s="13" t="s">
+        <v>878</v>
+      </c>
+      <c r="C382" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="D382" s="13">
+        <v>2.0246262E7</v>
+      </c>
+      <c r="E382" s="13" t="s">
+        <v>879</v>
+      </c>
+      <c r="F382" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G382" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H382" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="I382" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="J382" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="K382" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="L382" s="13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" s="9">
+        <v>45594.871939652774</v>
+      </c>
+      <c r="B383" s="10" t="s">
+        <v>880</v>
+      </c>
+      <c r="C383" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="D383" s="10">
+        <v>2.0203635E7</v>
+      </c>
+      <c r="E383" s="10" t="s">
+        <v>881</v>
+      </c>
+      <c r="F383" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G383" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H383" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="I383" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="J383" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="K383" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="L383" s="10" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" s="12">
+        <v>45594.886753217594</v>
+      </c>
+      <c r="B384" s="13" t="s">
+        <v>882</v>
+      </c>
+      <c r="C384" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="D384" s="13">
+        <v>2.0203213E7</v>
+      </c>
+      <c r="E384" s="13" t="s">
+        <v>883</v>
+      </c>
+      <c r="F384" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G384" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H384" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="I384" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="J384" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="K384" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="L384" s="13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" s="9">
+        <v>45594.895077037036</v>
+      </c>
+      <c r="B385" s="10" t="s">
+        <v>884</v>
+      </c>
+      <c r="C385" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="D385" s="10">
+        <v>2.024413E7</v>
+      </c>
+      <c r="E385" s="10" t="s">
+        <v>885</v>
+      </c>
+      <c r="F385" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G385" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="H385" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="I385" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="J385" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="K385" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="L385" s="10" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" s="12">
+        <v>45594.943638564815</v>
+      </c>
+      <c r="B386" s="13" t="s">
+        <v>886</v>
+      </c>
+      <c r="C386" s="13" t="s">
+        <v>458</v>
+      </c>
+      <c r="D386" s="13">
+        <v>2.0201007E7</v>
+      </c>
+      <c r="E386" s="13" t="s">
+        <v>887</v>
+      </c>
+      <c r="F386" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G386" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H386" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="I386" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="M386" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="N386" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="O386" s="14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" s="9">
+        <v>45594.949528171295</v>
+      </c>
+      <c r="B387" s="10" t="s">
+        <v>888</v>
+      </c>
+      <c r="C387" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="D387" s="10">
+        <v>2.0232311E7</v>
+      </c>
+      <c r="E387" s="10" t="s">
+        <v>328</v>
+      </c>
+      <c r="F387" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G387" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H387" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="I387" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="J387" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="K387" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="L387" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" s="12">
+        <v>45594.95650006944</v>
+      </c>
+      <c r="B388" s="13" t="s">
+        <v>889</v>
+      </c>
+      <c r="C388" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="D388" s="13">
+        <v>2.0246631E7</v>
+      </c>
+      <c r="E388" s="13" t="s">
+        <v>890</v>
+      </c>
+      <c r="F388" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G388" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H388" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="I388" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="M388" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="N388" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="O388" s="14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" s="9">
+        <v>45595.07543189815</v>
+      </c>
+      <c r="B389" s="10" t="s">
+        <v>891</v>
+      </c>
+      <c r="C389" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D389" s="10">
+        <v>2.0242702E7</v>
+      </c>
+      <c r="E389" s="10" t="s">
+        <v>892</v>
+      </c>
+      <c r="F389" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G389" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H389" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="I389" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="M389" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="N389" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="O389" s="11" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" s="15">
+        <v>45595.1459509375</v>
+      </c>
+      <c r="B390" s="16" t="s">
+        <v>893</v>
+      </c>
+      <c r="C390" s="16" t="s">
+        <v>333</v>
+      </c>
+      <c r="D390" s="16">
+        <v>2.0241519E7</v>
+      </c>
+      <c r="E390" s="16" t="s">
+        <v>894</v>
+      </c>
+      <c r="F390" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="G390" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="H390" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="I390" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="J390" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="K390" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="L390" s="16" t="s">
         <v>39</v>
       </c>
     </row>

--- a/R/data/quiz241021_tmp.xlsx
+++ b/R/data/quiz241021_tmp.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3905" uniqueCount="895">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4315" uniqueCount="977">
   <si>
     <t>타임스탬프</t>
   </si>
@@ -2696,6 +2696,252 @@
   </si>
   <si>
     <t>문신영</t>
+  </si>
+  <si>
+    <t>mik21366@naver.com</t>
+  </si>
+  <si>
+    <t>김수진</t>
+  </si>
+  <si>
+    <t>kimteawan347@gmail.com</t>
+  </si>
+  <si>
+    <t>김태완</t>
+  </si>
+  <si>
+    <t>dkhong2003@gmail.com</t>
+  </si>
+  <si>
+    <t>홍다경</t>
+  </si>
+  <si>
+    <t>il8v6u@naver.com</t>
+  </si>
+  <si>
+    <t>최윤서</t>
+  </si>
+  <si>
+    <t>fred0203@naver.com</t>
+  </si>
+  <si>
+    <t>언어청각학부 청각학전공</t>
+  </si>
+  <si>
+    <t>이강준</t>
+  </si>
+  <si>
+    <t>ahfahf12@gmail.com</t>
+  </si>
+  <si>
+    <t>김원준</t>
+  </si>
+  <si>
+    <t>minwl19@naver.com</t>
+  </si>
+  <si>
+    <t>조민지</t>
+  </si>
+  <si>
+    <t>ksfu03@naver.com</t>
+  </si>
+  <si>
+    <t>이규성</t>
+  </si>
+  <si>
+    <t>mi88368836@gmail.com</t>
+  </si>
+  <si>
+    <t>신민서</t>
+  </si>
+  <si>
+    <t>lc990728@naver.com</t>
+  </si>
+  <si>
+    <t>이하은</t>
+  </si>
+  <si>
+    <t>jiyewon5555@gmail.com</t>
+  </si>
+  <si>
+    <t>지예원</t>
+  </si>
+  <si>
+    <t>leeleeya1013@gmail.com</t>
+  </si>
+  <si>
+    <t>김민서</t>
+  </si>
+  <si>
+    <t>hyeonse0@naver.com</t>
+  </si>
+  <si>
+    <t>황현서</t>
+  </si>
+  <si>
+    <t>ryul1128@naver.com</t>
+  </si>
+  <si>
+    <t>김률아</t>
+  </si>
+  <si>
+    <t>jungha051026@naver.com</t>
+  </si>
+  <si>
+    <t>윤정하</t>
+  </si>
+  <si>
+    <t>sf12nam@naver.com</t>
+  </si>
+  <si>
+    <t>남유정</t>
+  </si>
+  <si>
+    <t>kth4159@gmail.com</t>
+  </si>
+  <si>
+    <t>mi3107359@gmail.com</t>
+  </si>
+  <si>
+    <t>이미진</t>
+  </si>
+  <si>
+    <t>kmc20051114@gmail.com</t>
+  </si>
+  <si>
+    <t>김민찬</t>
+  </si>
+  <si>
+    <t>leesy470666@gmail.com</t>
+  </si>
+  <si>
+    <t>이수용</t>
+  </si>
+  <si>
+    <t>soo060102@gmail.com</t>
+  </si>
+  <si>
+    <t>남궁수</t>
+  </si>
+  <si>
+    <t>alyssa3257@naver.com</t>
+  </si>
+  <si>
+    <t>전영주</t>
+  </si>
+  <si>
+    <t>smsong1036@gmail.com</t>
+  </si>
+  <si>
+    <t>송승민</t>
+  </si>
+  <si>
+    <t>chaecjb@naver.com</t>
+  </si>
+  <si>
+    <t>채희수</t>
+  </si>
+  <si>
+    <t>rlashdnr999@naver.com</t>
+  </si>
+  <si>
+    <t>김도욱</t>
+  </si>
+  <si>
+    <t>kangdmscks@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">융합과학수사학과 </t>
+  </si>
+  <si>
+    <t>강은찬</t>
+  </si>
+  <si>
+    <t>kdhmonkeyking@gmail.com</t>
+  </si>
+  <si>
+    <t>xormr1505@naver.com</t>
+  </si>
+  <si>
+    <t>박찬원</t>
+  </si>
+  <si>
+    <t>phc5120@naver.com</t>
+  </si>
+  <si>
+    <t>박희철</t>
+  </si>
+  <si>
+    <t>kimhemi05@gmail.com</t>
+  </si>
+  <si>
+    <t>김혜미</t>
+  </si>
+  <si>
+    <t>kylebusy@naver.com</t>
+  </si>
+  <si>
+    <t>이동훈</t>
+  </si>
+  <si>
+    <t>lg01022928122@gmail.com</t>
+  </si>
+  <si>
+    <t>권주용</t>
+  </si>
+  <si>
+    <t>leeeunbi0717@naver.com</t>
+  </si>
+  <si>
+    <t>이은비</t>
+  </si>
+  <si>
+    <t>jsk991012@naver.com</t>
+  </si>
+  <si>
+    <t>김준서</t>
+  </si>
+  <si>
+    <t>jerryterryharry@gmail.com</t>
+  </si>
+  <si>
+    <t>문진영</t>
+  </si>
+  <si>
+    <t>donghunea@naver.com</t>
+  </si>
+  <si>
+    <t>한동훈</t>
+  </si>
+  <si>
+    <t>yoonsolmin@naver.com</t>
+  </si>
+  <si>
+    <t>윤솔민</t>
+  </si>
+  <si>
+    <t>gyucheol0503@naver.com</t>
+  </si>
+  <si>
+    <t>홍규철</t>
+  </si>
+  <si>
+    <t>leejhzzang2005@naver.com</t>
+  </si>
+  <si>
+    <t>이주현</t>
+  </si>
+  <si>
+    <t>aldidhd1112@naver.com</t>
+  </si>
+  <si>
+    <t>권효서</t>
+  </si>
+  <si>
+    <t>sssm08155@gmail.com</t>
+  </si>
+  <si>
+    <t>윤희주</t>
   </si>
 </sst>
 </file>
@@ -2726,7 +2972,7 @@
       <patternFill patternType="lightGray"/>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="13">
     <border/>
     <border>
       <left style="thin">
@@ -2859,10 +3105,10 @@
         <color rgb="FF442F65"/>
       </left>
       <right style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </right>
       <top style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </top>
       <bottom style="thin">
         <color rgb="FF442F65"/>
@@ -2870,13 +3116,27 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </left>
       <right style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </right>
       <top style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF442F65"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFF8F9FA"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF442F65"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFF8F9FA"/>
       </top>
       <bottom style="thin">
         <color rgb="FF442F65"/>
@@ -2886,7 +3146,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -2936,6 +3196,9 @@
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="11" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="12" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
   </cellXfs>
@@ -2996,7 +3259,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:O390" displayName="Form_Responses1" name="Form_Responses1" id="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:O431" displayName="Form_Responses1" name="Form_Responses1" id="1">
   <tableColumns count="15">
     <tableColumn name="타임스탬프" id="1"/>
     <tableColumn name="이메일 주소" id="2"/>
@@ -18028,41 +18291,1599 @@
       </c>
     </row>
     <row r="390">
-      <c r="A390" s="15">
+      <c r="A390" s="12">
         <v>45595.1459509375</v>
       </c>
-      <c r="B390" s="16" t="s">
+      <c r="B390" s="13" t="s">
         <v>893</v>
       </c>
-      <c r="C390" s="16" t="s">
+      <c r="C390" s="13" t="s">
         <v>333</v>
       </c>
-      <c r="D390" s="16">
+      <c r="D390" s="13">
         <v>2.0241519E7</v>
       </c>
-      <c r="E390" s="16" t="s">
+      <c r="E390" s="13" t="s">
         <v>894</v>
       </c>
-      <c r="F390" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="G390" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="H390" s="16" t="s">
+      <c r="F390" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G390" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H390" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="I390" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="J390" s="16" t="s">
+      <c r="I390" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="J390" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="K390" s="16" t="s">
+      <c r="K390" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="L390" s="16" t="s">
+      <c r="L390" s="13" t="s">
         <v>39</v>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" s="9">
+        <v>45595.51327921296</v>
+      </c>
+      <c r="B391" s="10" t="s">
+        <v>895</v>
+      </c>
+      <c r="C391" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="D391" s="10">
+        <v>2.0233808E7</v>
+      </c>
+      <c r="E391" s="10" t="s">
+        <v>896</v>
+      </c>
+      <c r="F391" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="G391" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="H391" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="I391" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="J391" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="K391" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="L391" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" s="12">
+        <v>45595.533064560186</v>
+      </c>
+      <c r="B392" s="13" t="s">
+        <v>897</v>
+      </c>
+      <c r="C392" s="13" t="s">
+        <v>229</v>
+      </c>
+      <c r="D392" s="13">
+        <v>2.0212613E7</v>
+      </c>
+      <c r="E392" s="13" t="s">
+        <v>898</v>
+      </c>
+      <c r="F392" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G392" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H392" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="I392" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="J392" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="K392" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="L392" s="13" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" s="9">
+        <v>45595.5664182176</v>
+      </c>
+      <c r="B393" s="10" t="s">
+        <v>899</v>
+      </c>
+      <c r="C393" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="D393" s="10">
+        <v>2.0246305E7</v>
+      </c>
+      <c r="E393" s="10" t="s">
+        <v>900</v>
+      </c>
+      <c r="F393" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="G393" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="H393" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="I393" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="M393" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="N393" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="O393" s="11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" s="12">
+        <v>45595.56903075232</v>
+      </c>
+      <c r="B394" s="13" t="s">
+        <v>901</v>
+      </c>
+      <c r="C394" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="D394" s="13">
+        <v>2.0242582E7</v>
+      </c>
+      <c r="E394" s="13" t="s">
+        <v>902</v>
+      </c>
+      <c r="F394" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G394" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="H394" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="I394" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="J394" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="K394" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="L394" s="13" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" s="9">
+        <v>45595.575089606486</v>
+      </c>
+      <c r="B395" s="10" t="s">
+        <v>903</v>
+      </c>
+      <c r="C395" s="10" t="s">
+        <v>904</v>
+      </c>
+      <c r="D395" s="10">
+        <v>2.0227091E7</v>
+      </c>
+      <c r="E395" s="10" t="s">
+        <v>905</v>
+      </c>
+      <c r="F395" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G395" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H395" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="I395" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="J395" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="K395" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="L395" s="10" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" s="12">
+        <v>45595.58219075231</v>
+      </c>
+      <c r="B396" s="13" t="s">
+        <v>906</v>
+      </c>
+      <c r="C396" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="D396" s="13">
+        <v>2020248.0</v>
+      </c>
+      <c r="E396" s="13" t="s">
+        <v>907</v>
+      </c>
+      <c r="F396" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G396" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H396" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="I396" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="M396" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="N396" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="O396" s="14" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" s="9">
+        <v>45595.59626525463</v>
+      </c>
+      <c r="B397" s="10" t="s">
+        <v>908</v>
+      </c>
+      <c r="C397" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="D397" s="10">
+        <v>2.0217178E7</v>
+      </c>
+      <c r="E397" s="10" t="s">
+        <v>909</v>
+      </c>
+      <c r="F397" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G397" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H397" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="I397" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="M397" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="N397" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="O397" s="11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" s="12">
+        <v>45595.59960003472</v>
+      </c>
+      <c r="B398" s="13" t="s">
+        <v>910</v>
+      </c>
+      <c r="C398" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="D398" s="13">
+        <v>2.0201071E7</v>
+      </c>
+      <c r="E398" s="13" t="s">
+        <v>911</v>
+      </c>
+      <c r="F398" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G398" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H398" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="I398" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="M398" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="N398" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="O398" s="14" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" s="9">
+        <v>45595.60179799769</v>
+      </c>
+      <c r="B399" s="10" t="s">
+        <v>912</v>
+      </c>
+      <c r="C399" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="D399" s="10">
+        <v>2.0244126E7</v>
+      </c>
+      <c r="E399" s="10" t="s">
+        <v>913</v>
+      </c>
+      <c r="F399" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G399" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H399" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="I399" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="M399" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="N399" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="O399" s="11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" s="12">
+        <v>45595.63233953704</v>
+      </c>
+      <c r="B400" s="13" t="s">
+        <v>914</v>
+      </c>
+      <c r="C400" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="D400" s="13">
+        <v>2.0245233E7</v>
+      </c>
+      <c r="E400" s="13" t="s">
+        <v>915</v>
+      </c>
+      <c r="F400" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G400" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H400" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="I400" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="J400" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="K400" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="L400" s="13" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" s="9">
+        <v>45595.71364296296</v>
+      </c>
+      <c r="B401" s="10" t="s">
+        <v>916</v>
+      </c>
+      <c r="C401" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="D401" s="10">
+        <v>2.0202641E7</v>
+      </c>
+      <c r="E401" s="10" t="s">
+        <v>917</v>
+      </c>
+      <c r="F401" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G401" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H401" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="I401" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="J401" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="K401" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="L401" s="10" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" s="12">
+        <v>45595.75519894676</v>
+      </c>
+      <c r="B402" s="13" t="s">
+        <v>918</v>
+      </c>
+      <c r="C402" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="D402" s="13">
+        <v>2.024661E7</v>
+      </c>
+      <c r="E402" s="13" t="s">
+        <v>919</v>
+      </c>
+      <c r="F402" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G402" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="H402" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="I402" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="J402" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="K402" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="L402" s="13" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" s="9">
+        <v>45595.775907812495</v>
+      </c>
+      <c r="B403" s="10" t="s">
+        <v>920</v>
+      </c>
+      <c r="C403" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="D403" s="10">
+        <v>2.0202761E7</v>
+      </c>
+      <c r="E403" s="10" t="s">
+        <v>921</v>
+      </c>
+      <c r="F403" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G403" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H403" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="I403" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="M403" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="N403" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="O403" s="11" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" s="12">
+        <v>45595.83290768518</v>
+      </c>
+      <c r="B404" s="13" t="s">
+        <v>922</v>
+      </c>
+      <c r="C404" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="D404" s="13">
+        <v>2.0243806E7</v>
+      </c>
+      <c r="E404" s="13" t="s">
+        <v>923</v>
+      </c>
+      <c r="F404" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G404" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H404" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="I404" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="J404" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="K404" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="L404" s="13" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" s="9">
+        <v>45595.83602672454</v>
+      </c>
+      <c r="B405" s="10" t="s">
+        <v>924</v>
+      </c>
+      <c r="C405" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="D405" s="10">
+        <v>2.0245213E7</v>
+      </c>
+      <c r="E405" s="10" t="s">
+        <v>925</v>
+      </c>
+      <c r="F405" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G405" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H405" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="I405" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="J405" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="K405" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="L405" s="10" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" s="12">
+        <v>45595.85490498843</v>
+      </c>
+      <c r="B406" s="13" t="s">
+        <v>926</v>
+      </c>
+      <c r="C406" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="D406" s="13">
+        <v>2.0233716E7</v>
+      </c>
+      <c r="E406" s="13" t="s">
+        <v>927</v>
+      </c>
+      <c r="F406" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="G406" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="H406" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="I406" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="J406" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="K406" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="L406" s="13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" s="9">
+        <v>45595.877086319444</v>
+      </c>
+      <c r="B407" s="10" t="s">
+        <v>928</v>
+      </c>
+      <c r="C407" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="D407" s="10">
+        <v>2.024623E7</v>
+      </c>
+      <c r="E407" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="F407" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G407" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="H407" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="I407" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="M407" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="N407" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="O407" s="11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" s="12">
+        <v>45595.91486064815</v>
+      </c>
+      <c r="B408" s="13" t="s">
+        <v>929</v>
+      </c>
+      <c r="C408" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="D408" s="13">
+        <v>2.024122E7</v>
+      </c>
+      <c r="E408" s="13" t="s">
+        <v>930</v>
+      </c>
+      <c r="F408" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G408" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="H408" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="I408" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="J408" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="K408" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="L408" s="13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" s="9">
+        <v>45596.02063222222</v>
+      </c>
+      <c r="B409" s="10" t="s">
+        <v>931</v>
+      </c>
+      <c r="C409" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="D409" s="10">
+        <v>2.0243905E7</v>
+      </c>
+      <c r="E409" s="10" t="s">
+        <v>932</v>
+      </c>
+      <c r="F409" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G409" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H409" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="I409" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="J409" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="K409" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="L409" s="10" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" s="12">
+        <v>45596.0247725463</v>
+      </c>
+      <c r="B410" s="13" t="s">
+        <v>933</v>
+      </c>
+      <c r="C410" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="D410" s="13">
+        <v>2.0243938E7</v>
+      </c>
+      <c r="E410" s="13" t="s">
+        <v>934</v>
+      </c>
+      <c r="F410" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G410" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H410" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="I410" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="M410" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="N410" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="O410" s="14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" s="9">
+        <v>45596.065028310186</v>
+      </c>
+      <c r="B411" s="10" t="s">
+        <v>935</v>
+      </c>
+      <c r="C411" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="D411" s="10">
+        <v>2.024371E7</v>
+      </c>
+      <c r="E411" s="10" t="s">
+        <v>936</v>
+      </c>
+      <c r="F411" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G411" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="H411" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="I411" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="J411" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="K411" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="L411" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" s="12">
+        <v>45596.07955076389</v>
+      </c>
+      <c r="B412" s="13" t="s">
+        <v>937</v>
+      </c>
+      <c r="C412" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="D412" s="13">
+        <v>2.0246279E7</v>
+      </c>
+      <c r="E412" s="13" t="s">
+        <v>938</v>
+      </c>
+      <c r="F412" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G412" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="H412" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="I412" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="M412" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="N412" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="O412" s="14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" s="9">
+        <v>45596.094812407406</v>
+      </c>
+      <c r="B413" s="10" t="s">
+        <v>939</v>
+      </c>
+      <c r="C413" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="D413" s="10">
+        <v>2.0243624E7</v>
+      </c>
+      <c r="E413" s="10" t="s">
+        <v>940</v>
+      </c>
+      <c r="F413" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G413" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H413" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="I413" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="J413" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="K413" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="L413" s="10" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" s="12">
+        <v>45596.17591287037</v>
+      </c>
+      <c r="B414" s="13" t="s">
+        <v>941</v>
+      </c>
+      <c r="C414" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="D414" s="13">
+        <v>2.0203046E7</v>
+      </c>
+      <c r="E414" s="13" t="s">
+        <v>942</v>
+      </c>
+      <c r="F414" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G414" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H414" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="I414" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="J414" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="K414" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="L414" s="13" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" s="9">
+        <v>45596.17902241898</v>
+      </c>
+      <c r="B415" s="10" t="s">
+        <v>943</v>
+      </c>
+      <c r="C415" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="D415" s="10">
+        <v>2.0221007E7</v>
+      </c>
+      <c r="E415" s="10" t="s">
+        <v>944</v>
+      </c>
+      <c r="F415" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G415" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H415" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="I415" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="M415" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="N415" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="O415" s="11" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" s="12">
+        <v>45596.38408092593</v>
+      </c>
+      <c r="B416" s="13" t="s">
+        <v>945</v>
+      </c>
+      <c r="C416" s="13" t="s">
+        <v>946</v>
+      </c>
+      <c r="D416" s="13">
+        <v>2.0246904E7</v>
+      </c>
+      <c r="E416" s="13" t="s">
+        <v>947</v>
+      </c>
+      <c r="F416" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G416" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H416" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="I416" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="J416" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="K416" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="L416" s="13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" s="9">
+        <v>45596.40759851852</v>
+      </c>
+      <c r="B417" s="10" t="s">
+        <v>948</v>
+      </c>
+      <c r="C417" s="10" t="s">
+        <v>333</v>
+      </c>
+      <c r="D417" s="10">
+        <v>2.024151E7</v>
+      </c>
+      <c r="E417" s="10" t="s">
+        <v>579</v>
+      </c>
+      <c r="F417" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="G417" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H417" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="I417" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="M417" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="N417" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="O417" s="11" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" s="12">
+        <v>45596.46175284722</v>
+      </c>
+      <c r="B418" s="13" t="s">
+        <v>949</v>
+      </c>
+      <c r="C418" s="13" t="s">
+        <v>318</v>
+      </c>
+      <c r="D418" s="13">
+        <v>2.0205176E7</v>
+      </c>
+      <c r="E418" s="13" t="s">
+        <v>950</v>
+      </c>
+      <c r="F418" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G418" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H418" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="I418" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="J418" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="K418" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="L418" s="13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" s="9">
+        <v>45596.467764189816</v>
+      </c>
+      <c r="B419" s="10" t="s">
+        <v>951</v>
+      </c>
+      <c r="C419" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="D419" s="10">
+        <v>2.0183824E7</v>
+      </c>
+      <c r="E419" s="10" t="s">
+        <v>952</v>
+      </c>
+      <c r="F419" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G419" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="H419" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="I419" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="M419" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="N419" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="O419" s="11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" s="12">
+        <v>45596.52753578704</v>
+      </c>
+      <c r="B420" s="13" t="s">
+        <v>953</v>
+      </c>
+      <c r="C420" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="D420" s="13">
+        <v>2024112.0</v>
+      </c>
+      <c r="E420" s="13" t="s">
+        <v>954</v>
+      </c>
+      <c r="F420" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G420" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H420" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="I420" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="J420" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="K420" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="L420" s="13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" s="9">
+        <v>45596.57866140046</v>
+      </c>
+      <c r="B421" s="10" t="s">
+        <v>955</v>
+      </c>
+      <c r="C421" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="D421" s="10">
+        <v>2.0212551E7</v>
+      </c>
+      <c r="E421" s="10" t="s">
+        <v>956</v>
+      </c>
+      <c r="F421" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G421" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H421" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="I421" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="M421" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="N421" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="O421" s="11" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" s="12">
+        <v>45596.5799</v>
+      </c>
+      <c r="B422" s="13" t="s">
+        <v>957</v>
+      </c>
+      <c r="C422" s="13" t="s">
+        <v>318</v>
+      </c>
+      <c r="D422" s="13">
+        <v>2.0215109E7</v>
+      </c>
+      <c r="E422" s="13" t="s">
+        <v>958</v>
+      </c>
+      <c r="F422" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G422" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="H422" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="I422" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="M422" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="N422" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="O422" s="14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" s="9">
+        <v>45596.61589028935</v>
+      </c>
+      <c r="B423" s="10" t="s">
+        <v>959</v>
+      </c>
+      <c r="C423" s="10" t="s">
+        <v>273</v>
+      </c>
+      <c r="D423" s="10">
+        <v>2.024234E7</v>
+      </c>
+      <c r="E423" s="10" t="s">
+        <v>960</v>
+      </c>
+      <c r="F423" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G423" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H423" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="I423" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="J423" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="K423" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="L423" s="10" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" s="12">
+        <v>45596.63736407408</v>
+      </c>
+      <c r="B424" s="13" t="s">
+        <v>961</v>
+      </c>
+      <c r="C424" s="13" t="s">
+        <v>296</v>
+      </c>
+      <c r="D424" s="13">
+        <v>2.0182519E7</v>
+      </c>
+      <c r="E424" s="13" t="s">
+        <v>962</v>
+      </c>
+      <c r="F424" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="G424" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H424" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="I424" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="J424" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="K424" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="L424" s="13" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" s="9">
+        <v>45596.730369108795</v>
+      </c>
+      <c r="B425" s="10" t="s">
+        <v>963</v>
+      </c>
+      <c r="C425" s="10" t="s">
+        <v>318</v>
+      </c>
+      <c r="D425" s="10">
+        <v>2.0205162E7</v>
+      </c>
+      <c r="E425" s="10" t="s">
+        <v>964</v>
+      </c>
+      <c r="F425" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G425" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H425" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="I425" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="J425" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="K425" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="L425" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" s="12">
+        <v>45596.74112900463</v>
+      </c>
+      <c r="B426" s="13" t="s">
+        <v>965</v>
+      </c>
+      <c r="C426" s="13" t="s">
+        <v>247</v>
+      </c>
+      <c r="D426" s="13">
+        <v>2.0205267E7</v>
+      </c>
+      <c r="E426" s="13" t="s">
+        <v>966</v>
+      </c>
+      <c r="F426" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G426" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H426" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="I426" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="J426" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="K426" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="L426" s="13" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" s="9">
+        <v>45596.77944267361</v>
+      </c>
+      <c r="B427" s="10" t="s">
+        <v>967</v>
+      </c>
+      <c r="C427" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="D427" s="10">
+        <v>2.0222128E7</v>
+      </c>
+      <c r="E427" s="10" t="s">
+        <v>968</v>
+      </c>
+      <c r="F427" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="G427" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H427" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="I427" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="M427" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="N427" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="O427" s="11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" s="12">
+        <v>45596.80778224537</v>
+      </c>
+      <c r="B428" s="13" t="s">
+        <v>969</v>
+      </c>
+      <c r="C428" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D428" s="13">
+        <v>2.024365E7</v>
+      </c>
+      <c r="E428" s="13" t="s">
+        <v>970</v>
+      </c>
+      <c r="F428" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G428" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H428" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="I428" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="J428" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="K428" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="L428" s="13" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" s="9">
+        <v>45596.99451802083</v>
+      </c>
+      <c r="B429" s="10" t="s">
+        <v>971</v>
+      </c>
+      <c r="C429" s="10" t="s">
+        <v>273</v>
+      </c>
+      <c r="D429" s="10">
+        <v>2.0242342E7</v>
+      </c>
+      <c r="E429" s="10" t="s">
+        <v>972</v>
+      </c>
+      <c r="F429" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="G429" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="H429" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="I429" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="J429" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="K429" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="L429" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" s="12">
+        <v>45597.16490746528</v>
+      </c>
+      <c r="B430" s="13" t="s">
+        <v>973</v>
+      </c>
+      <c r="C430" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="D430" s="13">
+        <v>2.0172808E7</v>
+      </c>
+      <c r="E430" s="13" t="s">
+        <v>974</v>
+      </c>
+      <c r="F430" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G430" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H430" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="I430" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="M430" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="N430" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="O430" s="14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" s="15">
+        <v>45597.37227314815</v>
+      </c>
+      <c r="B431" s="16" t="s">
+        <v>975</v>
+      </c>
+      <c r="C431" s="16" t="s">
+        <v>163</v>
+      </c>
+      <c r="D431" s="16">
+        <v>2.020107E7</v>
+      </c>
+      <c r="E431" s="16" t="s">
+        <v>976</v>
+      </c>
+      <c r="F431" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="G431" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="H431" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="I431" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="M431" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="N431" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="O431" s="17" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/R/data/quiz241021_tmp.xlsx
+++ b/R/data/quiz241021_tmp.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4315" uniqueCount="977">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4505" uniqueCount="1016">
   <si>
     <t>타임스탬프</t>
   </si>
@@ -2942,6 +2942,123 @@
   </si>
   <si>
     <t>윤희주</t>
+  </si>
+  <si>
+    <t>iwhwigw836292@naver.com</t>
+  </si>
+  <si>
+    <t>김나현</t>
+  </si>
+  <si>
+    <t>lyjo0823@naver.com</t>
+  </si>
+  <si>
+    <t>콘텐츠IT학과</t>
+  </si>
+  <si>
+    <t>이연주</t>
+  </si>
+  <si>
+    <t>h20191240@glab.hallym.ac.kr</t>
+  </si>
+  <si>
+    <t>홍이래</t>
+  </si>
+  <si>
+    <t>leedongyoung797@gmail.com</t>
+  </si>
+  <si>
+    <t>이동영</t>
+  </si>
+  <si>
+    <t>leehanseo0521@naver.com</t>
+  </si>
+  <si>
+    <t>이한서</t>
+  </si>
+  <si>
+    <t>misunhong0707@gmail.com</t>
+  </si>
+  <si>
+    <t>홍미선</t>
+  </si>
+  <si>
+    <t>youeyd77@gmail.com</t>
+  </si>
+  <si>
+    <t>법학괴</t>
+  </si>
+  <si>
+    <t>임소이</t>
+  </si>
+  <si>
+    <t>jhry0903@naver.com</t>
+  </si>
+  <si>
+    <t>조하령</t>
+  </si>
+  <si>
+    <t>a01053076907@gmail.com</t>
+  </si>
+  <si>
+    <t>원은성</t>
+  </si>
+  <si>
+    <t>tpdkdb0401@gmail.com</t>
+  </si>
+  <si>
+    <t>유세아</t>
+  </si>
+  <si>
+    <t>tngusvhs@gmail.com</t>
+  </si>
+  <si>
+    <t>이수현</t>
+  </si>
+  <si>
+    <t>kimdongx0813@gmail.com</t>
+  </si>
+  <si>
+    <t>swncelt@naver.com</t>
+  </si>
+  <si>
+    <t>박은서</t>
+  </si>
+  <si>
+    <t>leyy2k@naver.com</t>
+  </si>
+  <si>
+    <t>김대현</t>
+  </si>
+  <si>
+    <t>wweufc0913123456@gmail.com</t>
+  </si>
+  <si>
+    <t>지강민</t>
+  </si>
+  <si>
+    <t>sk2000tyr@naver.com</t>
+  </si>
+  <si>
+    <t>이지한</t>
+  </si>
+  <si>
+    <t>tqwquqqi@naver.com</t>
+  </si>
+  <si>
+    <t>강하늘</t>
+  </si>
+  <si>
+    <t>jyb051128@gmail.com</t>
+  </si>
+  <si>
+    <t>전유빈</t>
+  </si>
+  <si>
+    <t>haksun0217@naver.com</t>
+  </si>
+  <si>
+    <t>김학선</t>
   </si>
 </sst>
 </file>
@@ -2972,7 +3089,7 @@
       <patternFill patternType="lightGray"/>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="12">
     <border/>
     <border>
       <left style="thin">
@@ -3105,10 +3222,10 @@
         <color rgb="FF442F65"/>
       </left>
       <right style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </right>
       <top style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </top>
       <bottom style="thin">
         <color rgb="FF442F65"/>
@@ -3116,27 +3233,13 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </left>
       <right style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </right>
       <top style="thin">
-        <color rgb="FFF8F9FA"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF442F65"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFF8F9FA"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF442F65"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </top>
       <bottom style="thin">
         <color rgb="FF442F65"/>
@@ -3146,7 +3249,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -3196,9 +3299,6 @@
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="11" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
   </cellXfs>
@@ -3259,7 +3359,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:O431" displayName="Form_Responses1" name="Form_Responses1" id="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:O450" displayName="Form_Responses1" name="Form_Responses1" id="1">
   <tableColumns count="15">
     <tableColumn name="타임스탬프" id="1"/>
     <tableColumn name="이메일 주소" id="2"/>
@@ -19849,41 +19949,763 @@
       </c>
     </row>
     <row r="431">
-      <c r="A431" s="15">
+      <c r="A431" s="9">
         <v>45597.37227314815</v>
       </c>
-      <c r="B431" s="16" t="s">
+      <c r="B431" s="10" t="s">
         <v>975</v>
       </c>
-      <c r="C431" s="16" t="s">
+      <c r="C431" s="10" t="s">
         <v>163</v>
       </c>
-      <c r="D431" s="16">
+      <c r="D431" s="10">
         <v>2.020107E7</v>
       </c>
-      <c r="E431" s="16" t="s">
+      <c r="E431" s="10" t="s">
         <v>976</v>
       </c>
-      <c r="F431" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="G431" s="16" t="s">
+      <c r="F431" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G431" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="H431" s="16" t="s">
+      <c r="H431" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="I431" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="M431" s="16" t="s">
+      <c r="I431" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="M431" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="N431" s="16" t="s">
+      <c r="N431" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="O431" s="17" t="s">
+      <c r="O431" s="11" t="s">
         <v>60</v>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" s="12">
+        <v>45597.39098482639</v>
+      </c>
+      <c r="B432" s="13" t="s">
+        <v>977</v>
+      </c>
+      <c r="C432" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="D432" s="13">
+        <v>2.0243903E7</v>
+      </c>
+      <c r="E432" s="13" t="s">
+        <v>978</v>
+      </c>
+      <c r="F432" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G432" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H432" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="I432" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="M432" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="N432" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="O432" s="14" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" s="9">
+        <v>45597.43987508102</v>
+      </c>
+      <c r="B433" s="10" t="s">
+        <v>979</v>
+      </c>
+      <c r="C433" s="10" t="s">
+        <v>980</v>
+      </c>
+      <c r="D433" s="10">
+        <v>2.0225218E7</v>
+      </c>
+      <c r="E433" s="10" t="s">
+        <v>981</v>
+      </c>
+      <c r="F433" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G433" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H433" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="I433" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="M433" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="N433" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="O433" s="11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" s="12">
+        <v>45597.49332434028</v>
+      </c>
+      <c r="B434" s="13" t="s">
+        <v>982</v>
+      </c>
+      <c r="C434" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="D434" s="13">
+        <v>2.019124E7</v>
+      </c>
+      <c r="E434" s="13" t="s">
+        <v>983</v>
+      </c>
+      <c r="F434" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="G434" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H434" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="I434" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="M434" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="N434" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="O434" s="14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" s="9">
+        <v>45597.5232921875</v>
+      </c>
+      <c r="B435" s="10" t="s">
+        <v>984</v>
+      </c>
+      <c r="C435" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="D435" s="10">
+        <v>2.0243934E7</v>
+      </c>
+      <c r="E435" s="10" t="s">
+        <v>985</v>
+      </c>
+      <c r="F435" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G435" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H435" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="I435" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="J435" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="K435" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="L435" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" s="12">
+        <v>45597.526870312504</v>
+      </c>
+      <c r="B436" s="13" t="s">
+        <v>986</v>
+      </c>
+      <c r="C436" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="D436" s="13">
+        <v>2.0236283E7</v>
+      </c>
+      <c r="E436" s="13" t="s">
+        <v>987</v>
+      </c>
+      <c r="F436" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G436" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H436" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="I436" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="M436" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="N436" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="O436" s="14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" s="9">
+        <v>45597.56685591435</v>
+      </c>
+      <c r="B437" s="10" t="s">
+        <v>988</v>
+      </c>
+      <c r="C437" s="10" t="s">
+        <v>720</v>
+      </c>
+      <c r="D437" s="10">
+        <v>2.024694E7</v>
+      </c>
+      <c r="E437" s="10" t="s">
+        <v>989</v>
+      </c>
+      <c r="F437" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G437" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="H437" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="I437" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="M437" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="N437" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="O437" s="11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" s="12">
+        <v>45597.58552798611</v>
+      </c>
+      <c r="B438" s="13" t="s">
+        <v>990</v>
+      </c>
+      <c r="C438" s="13" t="s">
+        <v>991</v>
+      </c>
+      <c r="D438" s="13">
+        <v>2.0232745E7</v>
+      </c>
+      <c r="E438" s="13" t="s">
+        <v>992</v>
+      </c>
+      <c r="F438" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G438" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="H438" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="I438" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="M438" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="N438" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="O438" s="14" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" s="9">
+        <v>45597.600147997684</v>
+      </c>
+      <c r="B439" s="10" t="s">
+        <v>993</v>
+      </c>
+      <c r="C439" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="D439" s="10">
+        <v>2.0241097E7</v>
+      </c>
+      <c r="E439" s="10" t="s">
+        <v>994</v>
+      </c>
+      <c r="F439" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G439" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="H439" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="I439" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="J439" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="K439" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="L439" s="10" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" s="12">
+        <v>45597.602696076385</v>
+      </c>
+      <c r="B440" s="13" t="s">
+        <v>995</v>
+      </c>
+      <c r="C440" s="13" t="s">
+        <v>720</v>
+      </c>
+      <c r="D440" s="13">
+        <v>2.0246927E7</v>
+      </c>
+      <c r="E440" s="13" t="s">
+        <v>996</v>
+      </c>
+      <c r="F440" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G440" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H440" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="I440" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="M440" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="N440" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="O440" s="14" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" s="9">
+        <v>45597.627412546295</v>
+      </c>
+      <c r="B441" s="10" t="s">
+        <v>997</v>
+      </c>
+      <c r="C441" s="10" t="s">
+        <v>318</v>
+      </c>
+      <c r="D441" s="10">
+        <v>2.0235213E7</v>
+      </c>
+      <c r="E441" s="10" t="s">
+        <v>998</v>
+      </c>
+      <c r="F441" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G441" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H441" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="I441" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="J441" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="K441" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="L441" s="10" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" s="12">
+        <v>45597.63677016203</v>
+      </c>
+      <c r="B442" s="13" t="s">
+        <v>999</v>
+      </c>
+      <c r="C442" s="13" t="s">
+        <v>406</v>
+      </c>
+      <c r="D442" s="13">
+        <v>2.0243529E7</v>
+      </c>
+      <c r="E442" s="13" t="s">
+        <v>1000</v>
+      </c>
+      <c r="F442" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G442" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H442" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="I442" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="M442" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="N442" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="O442" s="14" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" s="9">
+        <v>45597.69223851852</v>
+      </c>
+      <c r="B443" s="10" t="s">
+        <v>1001</v>
+      </c>
+      <c r="C443" s="10" t="s">
+        <v>273</v>
+      </c>
+      <c r="D443" s="10">
+        <v>2.0182308E7</v>
+      </c>
+      <c r="E443" s="10" t="s">
+        <v>579</v>
+      </c>
+      <c r="F443" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G443" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="H443" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="I443" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="M443" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="N443" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="O443" s="11" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" s="12">
+        <v>45597.7009565162</v>
+      </c>
+      <c r="B444" s="13" t="s">
+        <v>1002</v>
+      </c>
+      <c r="C444" s="13" t="s">
+        <v>195</v>
+      </c>
+      <c r="D444" s="13">
+        <v>2.0192876E7</v>
+      </c>
+      <c r="E444" s="13" t="s">
+        <v>1003</v>
+      </c>
+      <c r="F444" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G444" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H444" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="I444" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="M444" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="N444" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="O444" s="14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" s="9">
+        <v>45597.72549655093</v>
+      </c>
+      <c r="B445" s="10" t="s">
+        <v>1004</v>
+      </c>
+      <c r="C445" s="10" t="s">
+        <v>318</v>
+      </c>
+      <c r="D445" s="10">
+        <v>2.0215115E7</v>
+      </c>
+      <c r="E445" s="10" t="s">
+        <v>1005</v>
+      </c>
+      <c r="F445" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G445" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H445" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="I445" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="J445" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="K445" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="L445" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" s="12">
+        <v>45597.77513371527</v>
+      </c>
+      <c r="B446" s="13" t="s">
+        <v>1006</v>
+      </c>
+      <c r="C446" s="13" t="s">
+        <v>333</v>
+      </c>
+      <c r="D446" s="13">
+        <v>2.0231539E7</v>
+      </c>
+      <c r="E446" s="13" t="s">
+        <v>1007</v>
+      </c>
+      <c r="F446" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G446" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="H446" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="I446" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="J446" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="K446" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="L446" s="13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" s="9">
+        <v>45597.833342314814</v>
+      </c>
+      <c r="B447" s="10" t="s">
+        <v>1008</v>
+      </c>
+      <c r="C447" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="D447" s="10">
+        <v>2.0227073E7</v>
+      </c>
+      <c r="E447" s="10" t="s">
+        <v>1009</v>
+      </c>
+      <c r="F447" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G447" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H447" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="I447" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="J447" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="K447" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="L447" s="10" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" s="12">
+        <v>45597.87309787037</v>
+      </c>
+      <c r="B448" s="13" t="s">
+        <v>1010</v>
+      </c>
+      <c r="C448" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="D448" s="13">
+        <v>2.0222905E7</v>
+      </c>
+      <c r="E448" s="13" t="s">
+        <v>1011</v>
+      </c>
+      <c r="F448" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G448" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H448" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="I448" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="M448" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="N448" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="O448" s="14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" s="9">
+        <v>45597.88187694445</v>
+      </c>
+      <c r="B449" s="10" t="s">
+        <v>1012</v>
+      </c>
+      <c r="C449" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="D449" s="10">
+        <v>2.0243648E7</v>
+      </c>
+      <c r="E449" s="10" t="s">
+        <v>1013</v>
+      </c>
+      <c r="F449" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="G449" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H449" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="I449" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="M449" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="N449" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="O449" s="11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" s="15">
+        <v>45597.89707546296</v>
+      </c>
+      <c r="B450" s="16" t="s">
+        <v>1014</v>
+      </c>
+      <c r="C450" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="D450" s="16">
+        <v>2.0243814E7</v>
+      </c>
+      <c r="E450" s="16" t="s">
+        <v>1015</v>
+      </c>
+      <c r="F450" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="G450" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="H450" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="I450" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="J450" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="K450" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="L450" s="16" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/R/data/quiz241021_tmp.xlsx
+++ b/R/data/quiz241021_tmp.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4505" uniqueCount="1016">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4625" uniqueCount="1039">
   <si>
     <t>타임스탬프</t>
   </si>
@@ -3059,6 +3059,75 @@
   </si>
   <si>
     <t>김학선</t>
+  </si>
+  <si>
+    <t>rachal7449@naver.com</t>
+  </si>
+  <si>
+    <t>최자영</t>
+  </si>
+  <si>
+    <t>jyl06070@naver.com</t>
+  </si>
+  <si>
+    <t>장유림</t>
+  </si>
+  <si>
+    <t>njhouuu05@naver.com</t>
+  </si>
+  <si>
+    <t>남진호</t>
+  </si>
+  <si>
+    <t>ssjm9652@naver.com</t>
+  </si>
+  <si>
+    <t>소정민</t>
+  </si>
+  <si>
+    <t>rlaalstjd051003@naver.com</t>
+  </si>
+  <si>
+    <t>20242925@hallym.ac.kr</t>
+  </si>
+  <si>
+    <t>김민우</t>
+  </si>
+  <si>
+    <t>andy041001@naver.com</t>
+  </si>
+  <si>
+    <t>이형범</t>
+  </si>
+  <si>
+    <t>bjw2934@naver.com</t>
+  </si>
+  <si>
+    <t>방정우</t>
+  </si>
+  <si>
+    <t>corki1234@naver.com</t>
+  </si>
+  <si>
+    <t>윤서웅</t>
+  </si>
+  <si>
+    <t>inju7931@naver.com</t>
+  </si>
+  <si>
+    <t>문인주</t>
+  </si>
+  <si>
+    <t>eunjin6604__@naver.com</t>
+  </si>
+  <si>
+    <t>남은진</t>
+  </si>
+  <si>
+    <t>sojunghanbomul@gmail.com</t>
+  </si>
+  <si>
+    <t>김상준</t>
   </si>
 </sst>
 </file>
@@ -3089,7 +3158,7 @@
       <patternFill patternType="lightGray"/>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="13">
     <border/>
     <border>
       <left style="thin">
@@ -3245,11 +3314,25 @@
         <color rgb="FF442F65"/>
       </bottom>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF442F65"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF442F65"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -3299,6 +3382,9 @@
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="11" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="12" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
   </cellXfs>
@@ -3359,7 +3445,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:O450" displayName="Form_Responses1" name="Form_Responses1" id="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:O462" displayName="Form_Responses1" name="Form_Responses1" id="1">
   <tableColumns count="15">
     <tableColumn name="타임스탬프" id="1"/>
     <tableColumn name="이메일 주소" id="2"/>
@@ -20671,41 +20757,497 @@
       </c>
     </row>
     <row r="450">
-      <c r="A450" s="15">
+      <c r="A450" s="12">
         <v>45597.89707546296</v>
       </c>
-      <c r="B450" s="16" t="s">
+      <c r="B450" s="13" t="s">
         <v>1014</v>
       </c>
-      <c r="C450" s="16" t="s">
+      <c r="C450" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="D450" s="16">
+      <c r="D450" s="13">
         <v>2.0243814E7</v>
       </c>
-      <c r="E450" s="16" t="s">
+      <c r="E450" s="13" t="s">
         <v>1015</v>
       </c>
-      <c r="F450" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="G450" s="16" t="s">
+      <c r="F450" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G450" s="13" t="s">
         <v>113</v>
       </c>
-      <c r="H450" s="16" t="s">
+      <c r="H450" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="I450" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="J450" s="16" t="s">
+      <c r="I450" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="J450" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="K450" s="16" t="s">
+      <c r="K450" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="L450" s="16" t="s">
+      <c r="L450" s="13" t="s">
         <v>39</v>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" s="9">
+        <v>45597.932516319444</v>
+      </c>
+      <c r="B451" s="10" t="s">
+        <v>1016</v>
+      </c>
+      <c r="C451" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D451" s="10">
+        <v>2.0242753E7</v>
+      </c>
+      <c r="E451" s="10" t="s">
+        <v>1017</v>
+      </c>
+      <c r="F451" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G451" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H451" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="I451" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="M451" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="N451" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="O451" s="11" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" s="12">
+        <v>45597.943667604166</v>
+      </c>
+      <c r="B452" s="13" t="s">
+        <v>1018</v>
+      </c>
+      <c r="C452" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="D452" s="13">
+        <v>2.0212749E7</v>
+      </c>
+      <c r="E452" s="13" t="s">
+        <v>1019</v>
+      </c>
+      <c r="F452" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G452" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H452" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="I452" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="M452" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="N452" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="O452" s="14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" s="9">
+        <v>45597.96393225694</v>
+      </c>
+      <c r="B453" s="10" t="s">
+        <v>1020</v>
+      </c>
+      <c r="C453" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="D453" s="10">
+        <v>2.0245156E7</v>
+      </c>
+      <c r="E453" s="10" t="s">
+        <v>1021</v>
+      </c>
+      <c r="F453" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G453" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H453" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="I453" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="J453" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="K453" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="L453" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" s="12">
+        <v>45597.96774125</v>
+      </c>
+      <c r="B454" s="13" t="s">
+        <v>1022</v>
+      </c>
+      <c r="C454" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="D454" s="13">
+        <v>2.0241047E7</v>
+      </c>
+      <c r="E454" s="13" t="s">
+        <v>1023</v>
+      </c>
+      <c r="F454" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G454" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H454" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="I454" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="M454" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="N454" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="O454" s="14" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" s="9">
+        <v>45597.98701027778</v>
+      </c>
+      <c r="B455" s="10" t="s">
+        <v>1024</v>
+      </c>
+      <c r="C455" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="D455" s="10">
+        <v>2.024101E7</v>
+      </c>
+      <c r="E455" s="10" t="s">
+        <v>328</v>
+      </c>
+      <c r="F455" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G455" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H455" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="I455" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="M455" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="N455" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="O455" s="11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" s="12">
+        <v>45598.026740208334</v>
+      </c>
+      <c r="B456" s="13" t="s">
+        <v>1025</v>
+      </c>
+      <c r="C456" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="D456" s="13">
+        <v>2.0242925E7</v>
+      </c>
+      <c r="E456" s="13" t="s">
+        <v>1026</v>
+      </c>
+      <c r="F456" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G456" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H456" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="I456" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="J456" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="K456" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="L456" s="13" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" s="9">
+        <v>45598.03413826389</v>
+      </c>
+      <c r="B457" s="10" t="s">
+        <v>1027</v>
+      </c>
+      <c r="C457" s="10" t="s">
+        <v>513</v>
+      </c>
+      <c r="D457" s="10">
+        <v>2.023172E7</v>
+      </c>
+      <c r="E457" s="10" t="s">
+        <v>1028</v>
+      </c>
+      <c r="F457" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G457" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="H457" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="I457" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="M457" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="N457" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="O457" s="11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" s="12">
+        <v>45598.04037180556</v>
+      </c>
+      <c r="B458" s="13" t="s">
+        <v>1029</v>
+      </c>
+      <c r="C458" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="D458" s="13">
+        <v>2.0205182E7</v>
+      </c>
+      <c r="E458" s="13" t="s">
+        <v>1030</v>
+      </c>
+      <c r="F458" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="G458" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H458" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="I458" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="J458" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="K458" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="L458" s="13" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" s="9">
+        <v>45598.06961125</v>
+      </c>
+      <c r="B459" s="10" t="s">
+        <v>1031</v>
+      </c>
+      <c r="C459" s="10" t="s">
+        <v>333</v>
+      </c>
+      <c r="D459" s="10">
+        <v>2.0211523E7</v>
+      </c>
+      <c r="E459" s="10" t="s">
+        <v>1032</v>
+      </c>
+      <c r="F459" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G459" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H459" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="I459" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="J459" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="K459" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="L459" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" s="12">
+        <v>45598.07849969907</v>
+      </c>
+      <c r="B460" s="13" t="s">
+        <v>1033</v>
+      </c>
+      <c r="C460" s="13" t="s">
+        <v>306</v>
+      </c>
+      <c r="D460" s="13">
+        <v>2.019516E7</v>
+      </c>
+      <c r="E460" s="13" t="s">
+        <v>1034</v>
+      </c>
+      <c r="F460" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G460" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="H460" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="I460" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="J460" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="K460" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="L460" s="13" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" s="9">
+        <v>45598.112098425925</v>
+      </c>
+      <c r="B461" s="10" t="s">
+        <v>1035</v>
+      </c>
+      <c r="C461" s="10" t="s">
+        <v>356</v>
+      </c>
+      <c r="D461" s="10">
+        <v>2.0233408E7</v>
+      </c>
+      <c r="E461" s="10" t="s">
+        <v>1036</v>
+      </c>
+      <c r="F461" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G461" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H461" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="I461" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="M461" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="N461" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="O461" s="11" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" s="15">
+        <v>45598.23033900463</v>
+      </c>
+      <c r="B462" s="16" t="s">
+        <v>1037</v>
+      </c>
+      <c r="C462" s="16" t="s">
+        <v>333</v>
+      </c>
+      <c r="D462" s="16">
+        <v>2.0241513E7</v>
+      </c>
+      <c r="E462" s="16" t="s">
+        <v>1038</v>
+      </c>
+      <c r="F462" s="16" t="s">
+        <v>239</v>
+      </c>
+      <c r="G462" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="H462" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="I462" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="M462" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="N462" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="O462" s="17" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/R/data/quiz241021_tmp.xlsx
+++ b/R/data/quiz241021_tmp.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4625" uniqueCount="1039">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4715" uniqueCount="1058">
   <si>
     <t>타임스탬프</t>
   </si>
@@ -3128,6 +3128,63 @@
   </si>
   <si>
     <t>김상준</t>
+  </si>
+  <si>
+    <t>krdevmon@gmail.com</t>
+  </si>
+  <si>
+    <t>안봉근</t>
+  </si>
+  <si>
+    <t>bamddol2@gmail.com</t>
+  </si>
+  <si>
+    <t>조찬영</t>
+  </si>
+  <si>
+    <t>haeyaxx@naver.com</t>
+  </si>
+  <si>
+    <t>차지혜</t>
+  </si>
+  <si>
+    <t>seomina0503@naver.com</t>
+  </si>
+  <si>
+    <t>서민아</t>
+  </si>
+  <si>
+    <t>youu0729@naver.com</t>
+  </si>
+  <si>
+    <t>유이현</t>
+  </si>
+  <si>
+    <t>zeus0010@naver.com</t>
+  </si>
+  <si>
+    <t>김지우</t>
+  </si>
+  <si>
+    <t>ksy91637@gmail.com</t>
+  </si>
+  <si>
+    <t>스마트IOT</t>
+  </si>
+  <si>
+    <t>김성열</t>
+  </si>
+  <si>
+    <t>hyj13223@naver.com</t>
+  </si>
+  <si>
+    <t>이현진</t>
+  </si>
+  <si>
+    <t>iaan0104@naver.com</t>
+  </si>
+  <si>
+    <t>조이안</t>
   </si>
 </sst>
 </file>
@@ -3158,7 +3215,7 @@
       <patternFill patternType="lightGray"/>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="12">
     <border/>
     <border>
       <left style="thin">
@@ -3291,10 +3348,10 @@
         <color rgb="FF442F65"/>
       </left>
       <right style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </right>
       <top style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </top>
       <bottom style="thin">
         <color rgb="FF442F65"/>
@@ -3302,27 +3359,13 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </left>
       <right style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </right>
       <top style="thin">
-        <color rgb="FFFFFFFF"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF442F65"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFFFFFFF"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF442F65"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </top>
       <bottom style="thin">
         <color rgb="FF442F65"/>
@@ -3332,7 +3375,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -3382,9 +3425,6 @@
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="11" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
   </cellXfs>
@@ -3445,7 +3485,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:O462" displayName="Form_Responses1" name="Form_Responses1" id="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:O471" displayName="Form_Responses1" name="Form_Responses1" id="1">
   <tableColumns count="15">
     <tableColumn name="타임스탬프" id="1"/>
     <tableColumn name="이메일 주소" id="2"/>
@@ -21213,41 +21253,383 @@
       </c>
     </row>
     <row r="462">
-      <c r="A462" s="15">
+      <c r="A462" s="12">
         <v>45598.23033900463</v>
       </c>
-      <c r="B462" s="16" t="s">
+      <c r="B462" s="13" t="s">
         <v>1037</v>
       </c>
-      <c r="C462" s="16" t="s">
+      <c r="C462" s="13" t="s">
         <v>333</v>
       </c>
-      <c r="D462" s="16">
+      <c r="D462" s="13">
         <v>2.0241513E7</v>
       </c>
-      <c r="E462" s="16" t="s">
+      <c r="E462" s="13" t="s">
         <v>1038</v>
       </c>
-      <c r="F462" s="16" t="s">
+      <c r="F462" s="13" t="s">
         <v>239</v>
       </c>
-      <c r="G462" s="16" t="s">
+      <c r="G462" s="13" t="s">
         <v>113</v>
       </c>
-      <c r="H462" s="16" t="s">
+      <c r="H462" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="I462" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="M462" s="16" t="s">
+      <c r="I462" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="M462" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="N462" s="16" t="s">
+      <c r="N462" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="O462" s="17" t="s">
+      <c r="O462" s="14" t="s">
         <v>60</v>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" s="9">
+        <v>45598.31605734954</v>
+      </c>
+      <c r="B463" s="10" t="s">
+        <v>1039</v>
+      </c>
+      <c r="C463" s="10" t="s">
+        <v>318</v>
+      </c>
+      <c r="D463" s="10">
+        <v>2.0205198E7</v>
+      </c>
+      <c r="E463" s="10" t="s">
+        <v>1040</v>
+      </c>
+      <c r="F463" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G463" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H463" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="I463" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="M463" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="N463" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="O463" s="11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" s="12">
+        <v>45598.40273685185</v>
+      </c>
+      <c r="B464" s="13" t="s">
+        <v>1041</v>
+      </c>
+      <c r="C464" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="D464" s="13">
+        <v>2.0161632E7</v>
+      </c>
+      <c r="E464" s="13" t="s">
+        <v>1042</v>
+      </c>
+      <c r="F464" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="G464" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H464" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="I464" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="J464" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="K464" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="L464" s="13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" s="9">
+        <v>45598.40986378472</v>
+      </c>
+      <c r="B465" s="10" t="s">
+        <v>1043</v>
+      </c>
+      <c r="C465" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="D465" s="10">
+        <v>2.0212846E7</v>
+      </c>
+      <c r="E465" s="10" t="s">
+        <v>1044</v>
+      </c>
+      <c r="F465" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G465" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="H465" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="I465" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="M465" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="N465" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="O465" s="11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" s="12">
+        <v>45598.44215924769</v>
+      </c>
+      <c r="B466" s="13" t="s">
+        <v>1045</v>
+      </c>
+      <c r="C466" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="D466" s="13">
+        <v>2.0246244E7</v>
+      </c>
+      <c r="E466" s="13" t="s">
+        <v>1046</v>
+      </c>
+      <c r="F466" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G466" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="H466" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="I466" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="J466" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="K466" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="L466" s="13" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" s="9">
+        <v>45598.48605997685</v>
+      </c>
+      <c r="B467" s="10" t="s">
+        <v>1047</v>
+      </c>
+      <c r="C467" s="10" t="s">
+        <v>273</v>
+      </c>
+      <c r="D467" s="10">
+        <v>2.0242335E7</v>
+      </c>
+      <c r="E467" s="10" t="s">
+        <v>1048</v>
+      </c>
+      <c r="F467" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G467" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H467" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="I467" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="J467" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="K467" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="L467" s="10" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" s="12">
+        <v>45598.51691494213</v>
+      </c>
+      <c r="B468" s="13" t="s">
+        <v>1049</v>
+      </c>
+      <c r="C468" s="13" t="s">
+        <v>318</v>
+      </c>
+      <c r="D468" s="13">
+        <v>2.0205148E7</v>
+      </c>
+      <c r="E468" s="13" t="s">
+        <v>1050</v>
+      </c>
+      <c r="F468" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G468" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H468" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="I468" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="M468" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="N468" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="O468" s="14" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" s="9">
+        <v>45598.527081064814</v>
+      </c>
+      <c r="B469" s="10" t="s">
+        <v>1051</v>
+      </c>
+      <c r="C469" s="10" t="s">
+        <v>1052</v>
+      </c>
+      <c r="D469" s="10">
+        <v>2.0205139E7</v>
+      </c>
+      <c r="E469" s="10" t="s">
+        <v>1053</v>
+      </c>
+      <c r="F469" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G469" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H469" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="I469" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="M469" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="N469" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="O469" s="11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" s="12">
+        <v>45598.572179421295</v>
+      </c>
+      <c r="B470" s="13" t="s">
+        <v>1054</v>
+      </c>
+      <c r="C470" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="D470" s="13">
+        <v>2.0212432E7</v>
+      </c>
+      <c r="E470" s="13" t="s">
+        <v>1055</v>
+      </c>
+      <c r="F470" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G470" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H470" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="I470" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="J470" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="K470" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="L470" s="13" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" s="15">
+        <v>45598.603621180555</v>
+      </c>
+      <c r="B471" s="16" t="s">
+        <v>1056</v>
+      </c>
+      <c r="C471" s="16" t="s">
+        <v>672</v>
+      </c>
+      <c r="D471" s="16">
+        <v>2.0245259E7</v>
+      </c>
+      <c r="E471" s="16" t="s">
+        <v>1057</v>
+      </c>
+      <c r="F471" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="G471" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="H471" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="I471" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="J471" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="K471" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="L471" s="16" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/R/data/quiz241021_tmp.xlsx
+++ b/R/data/quiz241021_tmp.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4715" uniqueCount="1058">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5015" uniqueCount="1122">
   <si>
     <t>타임스탬프</t>
   </si>
@@ -3185,6 +3185,198 @@
   </si>
   <si>
     <t>조이안</t>
+  </si>
+  <si>
+    <t>alwo990@naver.com</t>
+  </si>
+  <si>
+    <t>dnflwlq33!</t>
+  </si>
+  <si>
+    <t>jmju0711@naver.com</t>
+  </si>
+  <si>
+    <t>정민주</t>
+  </si>
+  <si>
+    <t>sohn1118@naver.com</t>
+  </si>
+  <si>
+    <t>손정빈</t>
+  </si>
+  <si>
+    <t>ran8410@naver.com</t>
+  </si>
+  <si>
+    <t>언어병리학과</t>
+  </si>
+  <si>
+    <t>박경란</t>
+  </si>
+  <si>
+    <t>tlsdmsco1130@naver.com</t>
+  </si>
+  <si>
+    <t>신은채</t>
+  </si>
+  <si>
+    <t>wooyoomilk@naver.com</t>
+  </si>
+  <si>
+    <t>우연준</t>
+  </si>
+  <si>
+    <t>hmg4898@naver.com</t>
+  </si>
+  <si>
+    <t>철학전공</t>
+  </si>
+  <si>
+    <t>한민교</t>
+  </si>
+  <si>
+    <t>ojg1476@naver.com</t>
+  </si>
+  <si>
+    <t>오정건</t>
+  </si>
+  <si>
+    <t>mjjb1102@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">경제학과 </t>
+  </si>
+  <si>
+    <t>이민재</t>
+  </si>
+  <si>
+    <t>emf1811@naver.com</t>
+  </si>
+  <si>
+    <t>김들</t>
+  </si>
+  <si>
+    <t>twenty__dec@naver.com</t>
+  </si>
+  <si>
+    <t>채희주</t>
+  </si>
+  <si>
+    <t>scjscj913@naver.com</t>
+  </si>
+  <si>
+    <t>최수정</t>
+  </si>
+  <si>
+    <t>gmldbs0812@gmail.com</t>
+  </si>
+  <si>
+    <t>식품영양</t>
+  </si>
+  <si>
+    <t>강희윤</t>
+  </si>
+  <si>
+    <t>you33013301@gmail.com</t>
+  </si>
+  <si>
+    <t>권유정</t>
+  </si>
+  <si>
+    <t>park_minkyu@naver.com</t>
+  </si>
+  <si>
+    <t>박민규</t>
+  </si>
+  <si>
+    <t>chhs337@naver.com</t>
+  </si>
+  <si>
+    <t>최홍서</t>
+  </si>
+  <si>
+    <t>solepkinsg@gmail.com</t>
+  </si>
+  <si>
+    <t>박인성</t>
+  </si>
+  <si>
+    <t>rhoy3156@hallym.ac.kr</t>
+  </si>
+  <si>
+    <t>노원철</t>
+  </si>
+  <si>
+    <t>lapter1122@naver.com</t>
+  </si>
+  <si>
+    <t>진유진</t>
+  </si>
+  <si>
+    <t>thddnjs1030@naver.com</t>
+  </si>
+  <si>
+    <t>박송원</t>
+  </si>
+  <si>
+    <t>juna324a324@naver.com</t>
+  </si>
+  <si>
+    <t>디지털인문예술</t>
+  </si>
+  <si>
+    <t>정준우</t>
+  </si>
+  <si>
+    <t>leeyubin050328@naver.com</t>
+  </si>
+  <si>
+    <t>soeunjeong0816@naver.com</t>
+  </si>
+  <si>
+    <t>정소은</t>
+  </si>
+  <si>
+    <t>tidlswjddms@naver.com</t>
+  </si>
+  <si>
+    <t>빅데이터전공</t>
+  </si>
+  <si>
+    <t>임정은</t>
+  </si>
+  <si>
+    <t>dlalstmd03@naver.com</t>
+  </si>
+  <si>
+    <t>이민승</t>
+  </si>
+  <si>
+    <t>pintang@naver.com</t>
+  </si>
+  <si>
+    <t>당빈</t>
+  </si>
+  <si>
+    <t>ahry60006@naver.com</t>
+  </si>
+  <si>
+    <t>김성진</t>
+  </si>
+  <si>
+    <t>marlboroe53@naver.com</t>
+  </si>
+  <si>
+    <t>hshkjh1234@naver.com</t>
+  </si>
+  <si>
+    <t>횡소현</t>
+  </si>
+  <si>
+    <t>lhw2565@gmail.com</t>
+  </si>
+  <si>
+    <t>이혜원</t>
   </si>
 </sst>
 </file>
@@ -3215,7 +3407,7 @@
       <patternFill patternType="lightGray"/>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="13">
     <border/>
     <border>
       <left style="thin">
@@ -3371,11 +3563,25 @@
         <color rgb="FF442F65"/>
       </bottom>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFF8F9FA"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF442F65"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFF8F9FA"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF442F65"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -3425,6 +3631,9 @@
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="11" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="12" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
   </cellXfs>
@@ -3485,7 +3694,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:O471" displayName="Form_Responses1" name="Form_Responses1" id="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:O501" displayName="Form_Responses1" name="Form_Responses1" id="1">
   <tableColumns count="15">
     <tableColumn name="타임스탬프" id="1"/>
     <tableColumn name="이메일 주소" id="2"/>
@@ -21595,41 +21804,1181 @@
       </c>
     </row>
     <row r="471">
-      <c r="A471" s="15">
+      <c r="A471" s="9">
         <v>45598.603621180555</v>
       </c>
-      <c r="B471" s="16" t="s">
+      <c r="B471" s="10" t="s">
         <v>1056</v>
       </c>
-      <c r="C471" s="16" t="s">
+      <c r="C471" s="10" t="s">
         <v>672</v>
       </c>
-      <c r="D471" s="16">
+      <c r="D471" s="10">
         <v>2.0245259E7</v>
       </c>
-      <c r="E471" s="16" t="s">
+      <c r="E471" s="10" t="s">
         <v>1057</v>
       </c>
-      <c r="F471" s="16" t="s">
+      <c r="F471" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="G471" s="16" t="s">
+      <c r="G471" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="H471" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="I471" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="J471" s="16" t="s">
+      <c r="H471" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="I471" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="J471" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="K471" s="16" t="s">
+      <c r="K471" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="L471" s="16" t="s">
+      <c r="L471" s="10" t="s">
         <v>39</v>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" s="12">
+        <v>45598.64106616898</v>
+      </c>
+      <c r="B472" s="13" t="s">
+        <v>1058</v>
+      </c>
+      <c r="C472" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="D472" s="13">
+        <v>2.0207133E7</v>
+      </c>
+      <c r="E472" s="13" t="s">
+        <v>1059</v>
+      </c>
+      <c r="F472" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G472" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="H472" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="I472" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="J472" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="K472" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="L472" s="13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" s="9">
+        <v>45598.65563569445</v>
+      </c>
+      <c r="B473" s="10" t="s">
+        <v>1060</v>
+      </c>
+      <c r="C473" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="D473" s="10">
+        <v>2.0241088E7</v>
+      </c>
+      <c r="E473" s="10" t="s">
+        <v>1061</v>
+      </c>
+      <c r="F473" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G473" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H473" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="I473" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="M473" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="N473" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="O473" s="11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" s="12">
+        <v>45598.67785820602</v>
+      </c>
+      <c r="B474" s="13" t="s">
+        <v>1062</v>
+      </c>
+      <c r="C474" s="13" t="s">
+        <v>406</v>
+      </c>
+      <c r="D474" s="13">
+        <v>2.0223519E7</v>
+      </c>
+      <c r="E474" s="13" t="s">
+        <v>1063</v>
+      </c>
+      <c r="F474" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G474" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="H474" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="I474" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="J474" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="K474" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="L474" s="13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" s="9">
+        <v>45598.69220427083</v>
+      </c>
+      <c r="B475" s="10" t="s">
+        <v>1064</v>
+      </c>
+      <c r="C475" s="10" t="s">
+        <v>1065</v>
+      </c>
+      <c r="D475" s="10">
+        <v>2.0203918E7</v>
+      </c>
+      <c r="E475" s="10" t="s">
+        <v>1066</v>
+      </c>
+      <c r="F475" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G475" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="H475" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="I475" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="J475" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="K475" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="L475" s="10" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" s="12">
+        <v>45598.694424270834</v>
+      </c>
+      <c r="B476" s="13" t="s">
+        <v>1067</v>
+      </c>
+      <c r="C476" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="D476" s="13">
+        <v>2.0242532E7</v>
+      </c>
+      <c r="E476" s="13" t="s">
+        <v>1068</v>
+      </c>
+      <c r="F476" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G476" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H476" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="I476" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="J476" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="K476" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="L476" s="13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" s="9">
+        <v>45598.7000025</v>
+      </c>
+      <c r="B477" s="10" t="s">
+        <v>1069</v>
+      </c>
+      <c r="C477" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="D477" s="10">
+        <v>2.0242988E7</v>
+      </c>
+      <c r="E477" s="10" t="s">
+        <v>1070</v>
+      </c>
+      <c r="F477" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G477" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H477" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="I477" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="J477" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="K477" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="L477" s="10" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" s="12">
+        <v>45598.70712554398</v>
+      </c>
+      <c r="B478" s="13" t="s">
+        <v>1071</v>
+      </c>
+      <c r="C478" s="13" t="s">
+        <v>1072</v>
+      </c>
+      <c r="D478" s="13">
+        <v>2.0191106E7</v>
+      </c>
+      <c r="E478" s="13" t="s">
+        <v>1073</v>
+      </c>
+      <c r="F478" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G478" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H478" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="I478" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="M478" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="N478" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="O478" s="14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" s="9">
+        <v>45598.74212456019</v>
+      </c>
+      <c r="B479" s="10" t="s">
+        <v>1074</v>
+      </c>
+      <c r="C479" s="10" t="s">
+        <v>598</v>
+      </c>
+      <c r="D479" s="10">
+        <v>2.0215187E7</v>
+      </c>
+      <c r="E479" s="10" t="s">
+        <v>1075</v>
+      </c>
+      <c r="F479" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G479" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H479" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="I479" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="M479" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="N479" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="O479" s="11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" s="12">
+        <v>45598.74272565972</v>
+      </c>
+      <c r="B480" s="13" t="s">
+        <v>1076</v>
+      </c>
+      <c r="C480" s="13" t="s">
+        <v>1077</v>
+      </c>
+      <c r="D480" s="13">
+        <v>2.0206628E7</v>
+      </c>
+      <c r="E480" s="13" t="s">
+        <v>1078</v>
+      </c>
+      <c r="F480" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G480" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H480" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="I480" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="M480" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="N480" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="O480" s="14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" s="9">
+        <v>45598.77932649305</v>
+      </c>
+      <c r="B481" s="10" t="s">
+        <v>1079</v>
+      </c>
+      <c r="C481" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D481" s="10">
+        <v>2.0233605E7</v>
+      </c>
+      <c r="E481" s="10" t="s">
+        <v>1080</v>
+      </c>
+      <c r="F481" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G481" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="H481" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="I481" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="M481" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="N481" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="O481" s="11" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" s="12">
+        <v>45598.7804462037</v>
+      </c>
+      <c r="B482" s="13" t="s">
+        <v>1081</v>
+      </c>
+      <c r="C482" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="D482" s="13">
+        <v>2.0243959E7</v>
+      </c>
+      <c r="E482" s="13" t="s">
+        <v>1082</v>
+      </c>
+      <c r="F482" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G482" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H482" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="I482" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="M482" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="N482" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="O482" s="14" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" s="9">
+        <v>45598.7866421875</v>
+      </c>
+      <c r="B483" s="10" t="s">
+        <v>1083</v>
+      </c>
+      <c r="C483" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="D483" s="10">
+        <v>2.021718E7</v>
+      </c>
+      <c r="E483" s="10" t="s">
+        <v>1084</v>
+      </c>
+      <c r="F483" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G483" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="H483" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="I483" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="J483" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="K483" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="L483" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" s="12">
+        <v>45598.83397927083</v>
+      </c>
+      <c r="B484" s="13" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C484" s="13" t="s">
+        <v>1086</v>
+      </c>
+      <c r="D484" s="13">
+        <v>2.0223801E7</v>
+      </c>
+      <c r="E484" s="13" t="s">
+        <v>1087</v>
+      </c>
+      <c r="F484" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G484" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H484" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="I484" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="J484" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="K484" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="L484" s="13" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" s="9">
+        <v>45598.835681701385</v>
+      </c>
+      <c r="B485" s="10" t="s">
+        <v>1088</v>
+      </c>
+      <c r="C485" s="10" t="s">
+        <v>406</v>
+      </c>
+      <c r="D485" s="10">
+        <v>2.0223504E7</v>
+      </c>
+      <c r="E485" s="10" t="s">
+        <v>1089</v>
+      </c>
+      <c r="F485" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G485" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H485" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="I485" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="M485" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="N485" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="O485" s="11" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" s="12">
+        <v>45598.836358229164</v>
+      </c>
+      <c r="B486" s="13" t="s">
+        <v>1090</v>
+      </c>
+      <c r="C486" s="13" t="s">
+        <v>598</v>
+      </c>
+      <c r="D486" s="13">
+        <v>2.0205167E7</v>
+      </c>
+      <c r="E486" s="13" t="s">
+        <v>1091</v>
+      </c>
+      <c r="F486" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G486" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H486" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="I486" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="M486" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="N486" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="O486" s="14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" s="9">
+        <v>45598.843048807874</v>
+      </c>
+      <c r="B487" s="10" t="s">
+        <v>1092</v>
+      </c>
+      <c r="C487" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="D487" s="10">
+        <v>2.0183006E7</v>
+      </c>
+      <c r="E487" s="10" t="s">
+        <v>1093</v>
+      </c>
+      <c r="F487" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G487" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H487" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="I487" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="M487" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="N487" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="O487" s="11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" s="12">
+        <v>45598.8502803125</v>
+      </c>
+      <c r="B488" s="13" t="s">
+        <v>1094</v>
+      </c>
+      <c r="C488" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="D488" s="13">
+        <v>2.0236615E7</v>
+      </c>
+      <c r="E488" s="13" t="s">
+        <v>1095</v>
+      </c>
+      <c r="F488" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G488" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H488" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="I488" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="J488" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="K488" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="L488" s="13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" s="9">
+        <v>45598.85183424769</v>
+      </c>
+      <c r="B489" s="10" t="s">
+        <v>1096</v>
+      </c>
+      <c r="C489" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D489" s="10">
+        <v>2.0202719E7</v>
+      </c>
+      <c r="E489" s="10" t="s">
+        <v>1097</v>
+      </c>
+      <c r="F489" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G489" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H489" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="I489" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="J489" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="K489" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="L489" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" s="12">
+        <v>45598.86072702546</v>
+      </c>
+      <c r="B490" s="13" t="s">
+        <v>1098</v>
+      </c>
+      <c r="C490" s="13" t="s">
+        <v>229</v>
+      </c>
+      <c r="D490" s="13">
+        <v>2.0232635E7</v>
+      </c>
+      <c r="E490" s="13" t="s">
+        <v>1099</v>
+      </c>
+      <c r="F490" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G490" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H490" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="I490" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="J490" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="K490" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="L490" s="13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" s="9">
+        <v>45598.88877174769</v>
+      </c>
+      <c r="B491" s="10" t="s">
+        <v>1100</v>
+      </c>
+      <c r="C491" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="D491" s="10">
+        <v>2.0171035E7</v>
+      </c>
+      <c r="E491" s="10" t="s">
+        <v>1101</v>
+      </c>
+      <c r="F491" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G491" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H491" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="I491" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="J491" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="K491" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="L491" s="10" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" s="12">
+        <v>45598.93249481481</v>
+      </c>
+      <c r="B492" s="13" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C492" s="13" t="s">
+        <v>1103</v>
+      </c>
+      <c r="D492" s="13">
+        <v>2.0192983E7</v>
+      </c>
+      <c r="E492" s="13" t="s">
+        <v>1104</v>
+      </c>
+      <c r="F492" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G492" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H492" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="I492" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="J492" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="K492" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="L492" s="13" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" s="9">
+        <v>45598.9387996875</v>
+      </c>
+      <c r="B493" s="10" t="s">
+        <v>1105</v>
+      </c>
+      <c r="C493" s="10" t="s">
+        <v>679</v>
+      </c>
+      <c r="D493" s="10">
+        <v>2.0243008E7</v>
+      </c>
+      <c r="E493" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="F493" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G493" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H493" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="I493" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="M493" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="N493" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="O493" s="11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" s="12">
+        <v>45598.940584131946</v>
+      </c>
+      <c r="B494" s="13" t="s">
+        <v>1106</v>
+      </c>
+      <c r="C494" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D494" s="13">
+        <v>2.0243648E7</v>
+      </c>
+      <c r="E494" s="13" t="s">
+        <v>1107</v>
+      </c>
+      <c r="F494" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G494" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H494" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="I494" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="M494" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="N494" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="O494" s="14" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" s="9">
+        <v>45598.961917175926</v>
+      </c>
+      <c r="B495" s="10" t="s">
+        <v>1108</v>
+      </c>
+      <c r="C495" s="10" t="s">
+        <v>1109</v>
+      </c>
+      <c r="D495" s="10">
+        <v>2.020524E7</v>
+      </c>
+      <c r="E495" s="10" t="s">
+        <v>1110</v>
+      </c>
+      <c r="F495" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="G495" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H495" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="I495" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="M495" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="N495" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="O495" s="11" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" s="12">
+        <v>45598.97458689815</v>
+      </c>
+      <c r="B496" s="13" t="s">
+        <v>1111</v>
+      </c>
+      <c r="C496" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="D496" s="13">
+        <v>2.0227143E7</v>
+      </c>
+      <c r="E496" s="13" t="s">
+        <v>1112</v>
+      </c>
+      <c r="F496" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G496" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H496" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="I496" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="J496" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="K496" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="L496" s="13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" s="9">
+        <v>45598.98041887731</v>
+      </c>
+      <c r="B497" s="10" t="s">
+        <v>1113</v>
+      </c>
+      <c r="C497" s="10" t="s">
+        <v>333</v>
+      </c>
+      <c r="D497" s="10">
+        <v>2.0191514E7</v>
+      </c>
+      <c r="E497" s="10" t="s">
+        <v>1114</v>
+      </c>
+      <c r="F497" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G497" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H497" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="I497" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="M497" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="N497" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="O497" s="11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" s="12">
+        <v>45598.980775034725</v>
+      </c>
+      <c r="B498" s="13" t="s">
+        <v>1115</v>
+      </c>
+      <c r="C498" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D498" s="13">
+        <v>2.0202708E7</v>
+      </c>
+      <c r="E498" s="13" t="s">
+        <v>1116</v>
+      </c>
+      <c r="F498" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G498" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H498" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="I498" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="M498" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="N498" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="O498" s="14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" s="9">
+        <v>45598.98346905093</v>
+      </c>
+      <c r="B499" s="10" t="s">
+        <v>1117</v>
+      </c>
+      <c r="C499" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="D499" s="10">
+        <v>2.0203302E7</v>
+      </c>
+      <c r="E499" s="10" t="s">
+        <v>643</v>
+      </c>
+      <c r="F499" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G499" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H499" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="I499" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="M499" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="N499" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="O499" s="11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" s="12">
+        <v>45598.98478993056</v>
+      </c>
+      <c r="B500" s="13" t="s">
+        <v>1118</v>
+      </c>
+      <c r="C500" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="D500" s="13">
+        <v>2.0243063E7</v>
+      </c>
+      <c r="E500" s="13" t="s">
+        <v>1119</v>
+      </c>
+      <c r="F500" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G500" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H500" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="I500" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="J500" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="K500" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="L500" s="13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" s="15">
+        <v>45598.984859386575</v>
+      </c>
+      <c r="B501" s="16" t="s">
+        <v>1120</v>
+      </c>
+      <c r="C501" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="D501" s="16">
+        <v>2.0242565E7</v>
+      </c>
+      <c r="E501" s="16" t="s">
+        <v>1121</v>
+      </c>
+      <c r="F501" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="G501" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="H501" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="I501" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="M501" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="N501" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="O501" s="17" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/R/data/quiz241021_tmp.xlsx
+++ b/R/data/quiz241021_tmp.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5015" uniqueCount="1122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5175" uniqueCount="1156">
   <si>
     <t>타임스탬프</t>
   </si>
@@ -3377,6 +3377,108 @@
   </si>
   <si>
     <t>이혜원</t>
+  </si>
+  <si>
+    <t>h20202564@glab.hallym.ac.kr</t>
+  </si>
+  <si>
+    <t>이호연</t>
+  </si>
+  <si>
+    <t>you72460601@gmail.com</t>
+  </si>
+  <si>
+    <t>유지원</t>
+  </si>
+  <si>
+    <t>kimeunji0512@naver.com</t>
+  </si>
+  <si>
+    <t>김은지</t>
+  </si>
+  <si>
+    <t>jytoto33@naver.com</t>
+  </si>
+  <si>
+    <t>김지윤</t>
+  </si>
+  <si>
+    <t>hanseoyun392@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">언어청각학부 </t>
+  </si>
+  <si>
+    <t>한서윤</t>
+  </si>
+  <si>
+    <t>benjamin27@naver.com</t>
+  </si>
+  <si>
+    <t>디지털미디어 콘텐츠</t>
+  </si>
+  <si>
+    <t>최재혁</t>
+  </si>
+  <si>
+    <t>hsjenny99@gmail.com</t>
+  </si>
+  <si>
+    <t>전소현</t>
+  </si>
+  <si>
+    <t>moon050123@naver.com</t>
+  </si>
+  <si>
+    <t>문서원</t>
+  </si>
+  <si>
+    <t>ehdus1113kim@naver.com</t>
+  </si>
+  <si>
+    <t>김도연</t>
+  </si>
+  <si>
+    <t>vldzmgha0609@naver.com</t>
+  </si>
+  <si>
+    <t>김지수</t>
+  </si>
+  <si>
+    <t>a35142191@gmail.com</t>
+  </si>
+  <si>
+    <t>이윤재</t>
+  </si>
+  <si>
+    <t>krcar1002@gmail.com</t>
+  </si>
+  <si>
+    <t>김재호</t>
+  </si>
+  <si>
+    <t>hyeonyonga@naver.com</t>
+  </si>
+  <si>
+    <t>안현용</t>
+  </si>
+  <si>
+    <t>jud050207@gmail.com</t>
+  </si>
+  <si>
+    <t>정의돈</t>
+  </si>
+  <si>
+    <t>jyj111212@naver.com</t>
+  </si>
+  <si>
+    <t>장예지</t>
+  </si>
+  <si>
+    <t>dmsdn6462@naver.com</t>
+  </si>
+  <si>
+    <t>김은우</t>
   </si>
 </sst>
 </file>
@@ -3694,7 +3796,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:O501" displayName="Form_Responses1" name="Form_Responses1" id="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:O517" displayName="Form_Responses1" name="Form_Responses1" id="1">
   <tableColumns count="15">
     <tableColumn name="타임스탬프" id="1"/>
     <tableColumn name="이메일 주소" id="2"/>
@@ -22944,40 +23046,648 @@
       </c>
     </row>
     <row r="501">
-      <c r="A501" s="15">
+      <c r="A501" s="9">
         <v>45598.984859386575</v>
       </c>
-      <c r="B501" s="16" t="s">
+      <c r="B501" s="10" t="s">
         <v>1120</v>
       </c>
-      <c r="C501" s="16" t="s">
+      <c r="C501" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="D501" s="16">
+      <c r="D501" s="10">
         <v>2.0242565E7</v>
       </c>
-      <c r="E501" s="16" t="s">
+      <c r="E501" s="10" t="s">
         <v>1121</v>
       </c>
-      <c r="F501" s="16" t="s">
+      <c r="F501" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="G501" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="H501" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="I501" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="M501" s="16" t="s">
+      <c r="G501" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H501" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="I501" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="M501" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="N501" s="16" t="s">
+      <c r="N501" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="O501" s="17" t="s">
+      <c r="O501" s="11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" s="12">
+        <v>45599.00320989583</v>
+      </c>
+      <c r="B502" s="13" t="s">
+        <v>1122</v>
+      </c>
+      <c r="C502" s="13" t="s">
+        <v>296</v>
+      </c>
+      <c r="D502" s="13">
+        <v>2.0202564E7</v>
+      </c>
+      <c r="E502" s="13" t="s">
+        <v>1123</v>
+      </c>
+      <c r="F502" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G502" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H502" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="I502" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="J502" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="K502" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="L502" s="13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" s="9">
+        <v>45599.00509670139</v>
+      </c>
+      <c r="B503" s="10" t="s">
+        <v>1124</v>
+      </c>
+      <c r="C503" s="10" t="s">
+        <v>1103</v>
+      </c>
+      <c r="D503" s="10">
+        <v>2.0201721E7</v>
+      </c>
+      <c r="E503" s="10" t="s">
+        <v>1125</v>
+      </c>
+      <c r="F503" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G503" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H503" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="I503" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="J503" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="K503" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="L503" s="10" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" s="12">
+        <v>45599.01188731482</v>
+      </c>
+      <c r="B504" s="13" t="s">
+        <v>1126</v>
+      </c>
+      <c r="C504" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="D504" s="13">
+        <v>2.024391E7</v>
+      </c>
+      <c r="E504" s="13" t="s">
+        <v>1127</v>
+      </c>
+      <c r="F504" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G504" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="H504" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="I504" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="M504" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="N504" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="O504" s="14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" s="9">
+        <v>45599.03350423611</v>
+      </c>
+      <c r="B505" s="10" t="s">
+        <v>1128</v>
+      </c>
+      <c r="C505" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="D505" s="10">
+        <v>2.0243912E7</v>
+      </c>
+      <c r="E505" s="10" t="s">
+        <v>1129</v>
+      </c>
+      <c r="F505" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G505" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H505" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="I505" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="J505" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="K505" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="L505" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506" s="12">
+        <v>45599.04710865741</v>
+      </c>
+      <c r="B506" s="13" t="s">
+        <v>1130</v>
+      </c>
+      <c r="C506" s="13" t="s">
+        <v>1131</v>
+      </c>
+      <c r="D506" s="13">
+        <v>2.0243964E7</v>
+      </c>
+      <c r="E506" s="13" t="s">
+        <v>1132</v>
+      </c>
+      <c r="F506" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G506" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H506" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="I506" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="M506" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="N506" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="O506" s="14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="507">
+      <c r="A507" s="9">
+        <v>45599.05038975694</v>
+      </c>
+      <c r="B507" s="10" t="s">
+        <v>1133</v>
+      </c>
+      <c r="C507" s="10" t="s">
+        <v>1134</v>
+      </c>
+      <c r="D507" s="10">
+        <v>2.0212583E7</v>
+      </c>
+      <c r="E507" s="10" t="s">
+        <v>1135</v>
+      </c>
+      <c r="F507" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G507" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H507" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="I507" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="J507" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="K507" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="L507" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="508">
+      <c r="A508" s="12">
+        <v>45599.051567766204</v>
+      </c>
+      <c r="B508" s="13" t="s">
+        <v>1136</v>
+      </c>
+      <c r="C508" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="D508" s="13">
+        <v>2.0245246E7</v>
+      </c>
+      <c r="E508" s="13" t="s">
+        <v>1137</v>
+      </c>
+      <c r="F508" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G508" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="H508" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="I508" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="J508" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="K508" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="L508" s="13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="509">
+      <c r="A509" s="9">
+        <v>45599.085377615746</v>
+      </c>
+      <c r="B509" s="10" t="s">
+        <v>1138</v>
+      </c>
+      <c r="C509" s="10" t="s">
+        <v>333</v>
+      </c>
+      <c r="D509" s="10">
+        <v>2.0241518E7</v>
+      </c>
+      <c r="E509" s="10" t="s">
+        <v>1139</v>
+      </c>
+      <c r="F509" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G509" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H509" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="I509" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="J509" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="K509" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="L509" s="10" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="510">
+      <c r="A510" s="12">
+        <v>45599.09575731482</v>
+      </c>
+      <c r="B510" s="13" t="s">
+        <v>1140</v>
+      </c>
+      <c r="C510" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D510" s="13">
+        <v>2.0232705E7</v>
+      </c>
+      <c r="E510" s="13" t="s">
+        <v>1141</v>
+      </c>
+      <c r="F510" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="G510" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="H510" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="I510" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="J510" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="K510" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="L510" s="13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511" s="9">
+        <v>45599.09997949074</v>
+      </c>
+      <c r="B511" s="10" t="s">
+        <v>1142</v>
+      </c>
+      <c r="C511" s="10" t="s">
+        <v>296</v>
+      </c>
+      <c r="D511" s="10">
+        <v>2.0227039E7</v>
+      </c>
+      <c r="E511" s="10" t="s">
+        <v>1143</v>
+      </c>
+      <c r="F511" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="G511" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H511" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="I511" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="M511" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="N511" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="O511" s="11" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="512">
+      <c r="A512" s="12">
+        <v>45599.11320365741</v>
+      </c>
+      <c r="B512" s="13" t="s">
+        <v>1144</v>
+      </c>
+      <c r="C512" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="D512" s="13">
+        <v>2.0243241E7</v>
+      </c>
+      <c r="E512" s="13" t="s">
+        <v>1145</v>
+      </c>
+      <c r="F512" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G512" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H512" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="I512" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="M512" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="N512" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="O512" s="14" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513" s="9">
+        <v>45599.14028357639</v>
+      </c>
+      <c r="B513" s="10" t="s">
+        <v>1146</v>
+      </c>
+      <c r="C513" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="D513" s="10">
+        <v>2.0242109E7</v>
+      </c>
+      <c r="E513" s="10" t="s">
+        <v>1147</v>
+      </c>
+      <c r="F513" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G513" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H513" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="I513" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="M513" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="N513" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="O513" s="11" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514" s="12">
+        <v>45599.14806766204</v>
+      </c>
+      <c r="B514" s="13" t="s">
+        <v>1148</v>
+      </c>
+      <c r="C514" s="13" t="s">
+        <v>356</v>
+      </c>
+      <c r="D514" s="13">
+        <v>2.0243415E7</v>
+      </c>
+      <c r="E514" s="13" t="s">
+        <v>1149</v>
+      </c>
+      <c r="F514" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G514" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H514" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="I514" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="J514" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="K514" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="L514" s="13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" s="9">
+        <v>45599.226665532406</v>
+      </c>
+      <c r="B515" s="10" t="s">
+        <v>1150</v>
+      </c>
+      <c r="C515" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="D515" s="10">
+        <v>2.0245252E7</v>
+      </c>
+      <c r="E515" s="10" t="s">
+        <v>1151</v>
+      </c>
+      <c r="F515" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G515" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H515" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="I515" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="J515" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="K515" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="L515" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="516">
+      <c r="A516" s="12">
+        <v>45599.22714829861</v>
+      </c>
+      <c r="B516" s="13" t="s">
+        <v>1152</v>
+      </c>
+      <c r="C516" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="D516" s="13">
+        <v>2.0241083E7</v>
+      </c>
+      <c r="E516" s="13" t="s">
+        <v>1153</v>
+      </c>
+      <c r="F516" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G516" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="H516" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="I516" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="M516" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="N516" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="O516" s="14" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="517">
+      <c r="A517" s="15">
+        <v>45599.23857908565</v>
+      </c>
+      <c r="B517" s="16" t="s">
+        <v>1154</v>
+      </c>
+      <c r="C517" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="D517" s="16">
+        <v>2.0202106E7</v>
+      </c>
+      <c r="E517" s="16" t="s">
+        <v>1155</v>
+      </c>
+      <c r="F517" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="G517" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="H517" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="I517" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="M517" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="N517" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="O517" s="17" t="s">
         <v>24</v>
       </c>
     </row>

--- a/R/data/quiz241021_tmp.xlsx
+++ b/R/data/quiz241021_tmp.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5175" uniqueCount="1156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5315" uniqueCount="1185">
   <si>
     <t>타임스탬프</t>
   </si>
@@ -3479,6 +3479,93 @@
   </si>
   <si>
     <t>김은우</t>
+  </si>
+  <si>
+    <t>hlu20242513@gmail.com</t>
+  </si>
+  <si>
+    <t>김예준</t>
+  </si>
+  <si>
+    <t>cbh3trust4@naver.com</t>
+  </si>
+  <si>
+    <t>조정현</t>
+  </si>
+  <si>
+    <t>hyeruys2005@naver.com</t>
+  </si>
+  <si>
+    <t>정윤수</t>
+  </si>
+  <si>
+    <t>yeon4262@naver.com</t>
+  </si>
+  <si>
+    <t>신수연</t>
+  </si>
+  <si>
+    <t>sjhaa303028@naver.com</t>
+  </si>
+  <si>
+    <t>신중현</t>
+  </si>
+  <si>
+    <t>ian5791@naver.com</t>
+  </si>
+  <si>
+    <t>박수현</t>
+  </si>
+  <si>
+    <t>ac3512@naver.com</t>
+  </si>
+  <si>
+    <t>융합신소재공학</t>
+  </si>
+  <si>
+    <t>김태근</t>
+  </si>
+  <si>
+    <t>dldpwls5245@naver.com</t>
+  </si>
+  <si>
+    <t>이예진</t>
+  </si>
+  <si>
+    <t>rhkddyd234@naver.com</t>
+  </si>
+  <si>
+    <t>이광용</t>
+  </si>
+  <si>
+    <t>jeongminyoung@naver.com</t>
+  </si>
+  <si>
+    <t>정민영</t>
+  </si>
+  <si>
+    <t>jhkm7400@gmail.com</t>
+  </si>
+  <si>
+    <t>김유건</t>
+  </si>
+  <si>
+    <t>ghskfen1215@naver.com</t>
+  </si>
+  <si>
+    <t>기정윤</t>
+  </si>
+  <si>
+    <t>a22234781@gmail.com</t>
+  </si>
+  <si>
+    <t>hg2635394@gmail.com</t>
+  </si>
+  <si>
+    <t>철학과</t>
+  </si>
+  <si>
+    <t>김현준</t>
   </si>
 </sst>
 </file>
@@ -3509,7 +3596,7 @@
       <patternFill patternType="lightGray"/>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="12">
     <border/>
     <border>
       <left style="thin">
@@ -3665,25 +3752,11 @@
         <color rgb="FF442F65"/>
       </bottom>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFF8F9FA"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF442F65"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFF8F9FA"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF442F65"/>
-      </bottom>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -3733,9 +3806,6 @@
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="11" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
   </cellXfs>
@@ -3796,7 +3866,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:O517" displayName="Form_Responses1" name="Form_Responses1" id="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:O531" displayName="Form_Responses1" name="Form_Responses1" id="1">
   <tableColumns count="15">
     <tableColumn name="타임스탬프" id="1"/>
     <tableColumn name="이메일 주소" id="2"/>
@@ -23654,41 +23724,573 @@
       </c>
     </row>
     <row r="517">
-      <c r="A517" s="15">
+      <c r="A517" s="9">
         <v>45599.23857908565</v>
       </c>
-      <c r="B517" s="16" t="s">
+      <c r="B517" s="10" t="s">
         <v>1154</v>
       </c>
-      <c r="C517" s="16" t="s">
+      <c r="C517" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="D517" s="16">
+      <c r="D517" s="10">
         <v>2.0202106E7</v>
       </c>
-      <c r="E517" s="16" t="s">
+      <c r="E517" s="10" t="s">
         <v>1155</v>
       </c>
-      <c r="F517" s="16" t="s">
+      <c r="F517" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="G517" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="H517" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="I517" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="M517" s="16" t="s">
+      <c r="G517" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H517" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="I517" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="M517" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="N517" s="16" t="s">
+      <c r="N517" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="O517" s="17" t="s">
+      <c r="O517" s="11" t="s">
         <v>24</v>
+      </c>
+    </row>
+    <row r="518">
+      <c r="A518" s="12">
+        <v>45599.28386594907</v>
+      </c>
+      <c r="B518" s="13" t="s">
+        <v>1156</v>
+      </c>
+      <c r="C518" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="D518" s="13">
+        <v>2.0242513E7</v>
+      </c>
+      <c r="E518" s="13" t="s">
+        <v>1157</v>
+      </c>
+      <c r="F518" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G518" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="H518" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="I518" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="J518" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="K518" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="L518" s="13" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="519">
+      <c r="A519" s="9">
+        <v>45599.28940701389</v>
+      </c>
+      <c r="B519" s="10" t="s">
+        <v>1158</v>
+      </c>
+      <c r="C519" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D519" s="10">
+        <v>2.0242749E7</v>
+      </c>
+      <c r="E519" s="10" t="s">
+        <v>1159</v>
+      </c>
+      <c r="F519" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G519" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="H519" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="I519" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="M519" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="N519" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="O519" s="11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="520">
+      <c r="A520" s="12">
+        <v>45599.29588958333</v>
+      </c>
+      <c r="B520" s="13" t="s">
+        <v>1160</v>
+      </c>
+      <c r="C520" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="D520" s="13">
+        <v>2.0242575E7</v>
+      </c>
+      <c r="E520" s="13" t="s">
+        <v>1161</v>
+      </c>
+      <c r="F520" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G520" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="H520" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="I520" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="J520" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="K520" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="L520" s="13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="521">
+      <c r="A521" s="9">
+        <v>45599.29887222222</v>
+      </c>
+      <c r="B521" s="10" t="s">
+        <v>1162</v>
+      </c>
+      <c r="C521" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="D521" s="10">
+        <v>2.0223325E7</v>
+      </c>
+      <c r="E521" s="10" t="s">
+        <v>1163</v>
+      </c>
+      <c r="F521" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G521" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="H521" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="I521" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="M521" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="N521" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="O521" s="11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="522">
+      <c r="A522" s="12">
+        <v>45599.332078356485</v>
+      </c>
+      <c r="B522" s="13" t="s">
+        <v>1164</v>
+      </c>
+      <c r="C522" s="13" t="s">
+        <v>267</v>
+      </c>
+      <c r="D522" s="13">
+        <v>2.0246741E7</v>
+      </c>
+      <c r="E522" s="13" t="s">
+        <v>1165</v>
+      </c>
+      <c r="F522" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="G522" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="H522" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="I522" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="M522" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="N522" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="O522" s="14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="523">
+      <c r="A523" s="9">
+        <v>45599.338345543976</v>
+      </c>
+      <c r="B523" s="10" t="s">
+        <v>1166</v>
+      </c>
+      <c r="C523" s="10" t="s">
+        <v>333</v>
+      </c>
+      <c r="D523" s="10">
+        <v>2.024152E7</v>
+      </c>
+      <c r="E523" s="10" t="s">
+        <v>1167</v>
+      </c>
+      <c r="F523" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G523" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H523" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="I523" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="M523" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="N523" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="O523" s="11" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="524">
+      <c r="A524" s="12">
+        <v>45599.35747077546</v>
+      </c>
+      <c r="B524" s="13" t="s">
+        <v>1168</v>
+      </c>
+      <c r="C524" s="13" t="s">
+        <v>1169</v>
+      </c>
+      <c r="D524" s="13">
+        <v>2.0216609E7</v>
+      </c>
+      <c r="E524" s="13" t="s">
+        <v>1170</v>
+      </c>
+      <c r="F524" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G524" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H524" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="I524" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="M524" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="N524" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="O524" s="14" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="525">
+      <c r="A525" s="9">
+        <v>45599.35930335648</v>
+      </c>
+      <c r="B525" s="10" t="s">
+        <v>1171</v>
+      </c>
+      <c r="C525" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D525" s="10">
+        <v>2.0182747E7</v>
+      </c>
+      <c r="E525" s="10" t="s">
+        <v>1172</v>
+      </c>
+      <c r="F525" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G525" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H525" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="I525" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="J525" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="K525" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="L525" s="10" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="526">
+      <c r="A526" s="12">
+        <v>45599.39208634259</v>
+      </c>
+      <c r="B526" s="13" t="s">
+        <v>1173</v>
+      </c>
+      <c r="C526" s="13" t="s">
+        <v>356</v>
+      </c>
+      <c r="D526" s="13">
+        <v>2.019342E7</v>
+      </c>
+      <c r="E526" s="13" t="s">
+        <v>1174</v>
+      </c>
+      <c r="F526" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="G526" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="H526" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="I526" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="M526" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="N526" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="O526" s="14" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="527">
+      <c r="A527" s="9">
+        <v>45599.41320913195</v>
+      </c>
+      <c r="B527" s="10" t="s">
+        <v>1175</v>
+      </c>
+      <c r="C527" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="D527" s="10">
+        <v>2.0246281E7</v>
+      </c>
+      <c r="E527" s="10" t="s">
+        <v>1176</v>
+      </c>
+      <c r="F527" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G527" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H527" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="I527" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="J527" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="K527" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="L527" s="10" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="528">
+      <c r="A528" s="12">
+        <v>45599.421258125</v>
+      </c>
+      <c r="B528" s="13" t="s">
+        <v>1177</v>
+      </c>
+      <c r="C528" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="D528" s="13">
+        <v>2.0242932E7</v>
+      </c>
+      <c r="E528" s="13" t="s">
+        <v>1178</v>
+      </c>
+      <c r="F528" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G528" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H528" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="I528" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="J528" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="K528" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="L528" s="13" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="529">
+      <c r="A529" s="9">
+        <v>45599.42279474537</v>
+      </c>
+      <c r="B529" s="10" t="s">
+        <v>1179</v>
+      </c>
+      <c r="C529" s="10" t="s">
+        <v>267</v>
+      </c>
+      <c r="D529" s="10">
+        <v>2.0236705E7</v>
+      </c>
+      <c r="E529" s="10" t="s">
+        <v>1180</v>
+      </c>
+      <c r="F529" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G529" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H529" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="I529" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="M529" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="N529" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="O529" s="11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="530">
+      <c r="A530" s="12">
+        <v>45599.42712872685</v>
+      </c>
+      <c r="B530" s="13" t="s">
+        <v>1181</v>
+      </c>
+      <c r="C530" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="D530" s="13">
+        <v>2.0201076E7</v>
+      </c>
+      <c r="E530" s="13" t="s">
+        <v>476</v>
+      </c>
+      <c r="F530" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G530" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="H530" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="I530" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="M530" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="N530" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="O530" s="14" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="531">
+      <c r="A531" s="15">
+        <v>45599.43529364583</v>
+      </c>
+      <c r="B531" s="16" t="s">
+        <v>1182</v>
+      </c>
+      <c r="C531" s="16" t="s">
+        <v>1183</v>
+      </c>
+      <c r="D531" s="16">
+        <v>2.0230133E7</v>
+      </c>
+      <c r="E531" s="16" t="s">
+        <v>1184</v>
+      </c>
+      <c r="F531" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="G531" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="H531" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="I531" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="J531" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="K531" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="L531" s="16" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>

--- a/R/data/quiz241021_tmp.xlsx
+++ b/R/data/quiz241021_tmp.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5315" uniqueCount="1185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5645" uniqueCount="1257">
   <si>
     <t>타임스탬프</t>
   </si>
@@ -3566,6 +3566,222 @@
   </si>
   <si>
     <t>김현준</t>
+  </si>
+  <si>
+    <t>sihyune1104@gmail.com</t>
+  </si>
+  <si>
+    <t>안시현</t>
+  </si>
+  <si>
+    <t>jyoon2233@naver.com</t>
+  </si>
+  <si>
+    <t>신정윤</t>
+  </si>
+  <si>
+    <t>choyunjae2153@gmail.com</t>
+  </si>
+  <si>
+    <t>AI의료융합학과</t>
+  </si>
+  <si>
+    <t>조윤재</t>
+  </si>
+  <si>
+    <t>chanwoo0807@gmail.com</t>
+  </si>
+  <si>
+    <t>반도체 디스플레이</t>
+  </si>
+  <si>
+    <t>김찬우</t>
+  </si>
+  <si>
+    <t>rudongdong0302@naver.com</t>
+  </si>
+  <si>
+    <t>이정효</t>
+  </si>
+  <si>
+    <t>qudcksl1216@gmail.com</t>
+  </si>
+  <si>
+    <t>윤병찬</t>
+  </si>
+  <si>
+    <t>soonbeom1130@naver.com</t>
+  </si>
+  <si>
+    <t>권순범</t>
+  </si>
+  <si>
+    <t>soyeon2025@naver.com</t>
+  </si>
+  <si>
+    <t>youngjookwon44@gmail.com</t>
+  </si>
+  <si>
+    <t>ㄱ광고홍보</t>
+  </si>
+  <si>
+    <t>권영주</t>
+  </si>
+  <si>
+    <t>mingtto0920@gmail.com</t>
+  </si>
+  <si>
+    <t>유민서</t>
+  </si>
+  <si>
+    <t>sueuisa04@gmail.com</t>
+  </si>
+  <si>
+    <t>인공지능융학부</t>
+  </si>
+  <si>
+    <t>신동윤</t>
+  </si>
+  <si>
+    <t>aks186@naver.com</t>
+  </si>
+  <si>
+    <t>안준선</t>
+  </si>
+  <si>
+    <t>bmj4033@gmail.com</t>
+  </si>
+  <si>
+    <t>백민제</t>
+  </si>
+  <si>
+    <t>kt433@naver.com</t>
+  </si>
+  <si>
+    <t>주혜린</t>
+  </si>
+  <si>
+    <t>kty030122@gmail.com</t>
+  </si>
+  <si>
+    <t>김태연</t>
+  </si>
+  <si>
+    <t>csqwe2@naver.com</t>
+  </si>
+  <si>
+    <t>장재호</t>
+  </si>
+  <si>
+    <t>wlgus4770752@naver.com</t>
+  </si>
+  <si>
+    <t>의예과</t>
+  </si>
+  <si>
+    <t>김지현</t>
+  </si>
+  <si>
+    <t>kgh1321@gmail.com</t>
+  </si>
+  <si>
+    <t>김가희</t>
+  </si>
+  <si>
+    <t>psh020509@naver.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 경제학과</t>
+  </si>
+  <si>
+    <t>박시환</t>
+  </si>
+  <si>
+    <t>kje9714@gmail.com</t>
+  </si>
+  <si>
+    <t>김재은</t>
+  </si>
+  <si>
+    <t>byl0730@naver.com</t>
+  </si>
+  <si>
+    <t>변예림</t>
+  </si>
+  <si>
+    <t>to_csm@naver.com</t>
+  </si>
+  <si>
+    <t>천상미</t>
+  </si>
+  <si>
+    <t>koreavjr@naver.com</t>
+  </si>
+  <si>
+    <t>박지성</t>
+  </si>
+  <si>
+    <t>qotnqls1126@naver.com</t>
+  </si>
+  <si>
+    <t>배수빈</t>
+  </si>
+  <si>
+    <t>dong45657@gmail.com</t>
+  </si>
+  <si>
+    <t>채동엽</t>
+  </si>
+  <si>
+    <t>a01075976680@gmail.com</t>
+  </si>
+  <si>
+    <t>김우진</t>
+  </si>
+  <si>
+    <t>abc6518@gmail.com</t>
+  </si>
+  <si>
+    <t>반도체</t>
+  </si>
+  <si>
+    <t>박상준</t>
+  </si>
+  <si>
+    <t>whrhdwn2003@gmail.com</t>
+  </si>
+  <si>
+    <t>조은서</t>
+  </si>
+  <si>
+    <t>wndus6604@naver.com</t>
+  </si>
+  <si>
+    <t>남주연</t>
+  </si>
+  <si>
+    <t>seoeunwkd@gmail.com</t>
+  </si>
+  <si>
+    <t>정서은</t>
+  </si>
+  <si>
+    <t>junwoni20@gmail.com</t>
+  </si>
+  <si>
+    <t>이준원</t>
+  </si>
+  <si>
+    <t>geonu4496@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">이건우 </t>
+  </si>
+  <si>
+    <t>chaseoyeon0103@naver.com</t>
+  </si>
+  <si>
+    <t>차서연</t>
   </si>
 </sst>
 </file>
@@ -3729,10 +3945,10 @@
         <color rgb="FF442F65"/>
       </left>
       <right style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </right>
       <top style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </top>
       <bottom style="thin">
         <color rgb="FF442F65"/>
@@ -3740,13 +3956,13 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </left>
       <right style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </right>
       <top style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </top>
       <bottom style="thin">
         <color rgb="FF442F65"/>
@@ -3866,7 +4082,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:O531" displayName="Form_Responses1" name="Form_Responses1" id="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:O564" displayName="Form_Responses1" name="Form_Responses1" id="1">
   <tableColumns count="15">
     <tableColumn name="타임스탬프" id="1"/>
     <tableColumn name="이메일 주소" id="2"/>
@@ -24256,40 +24472,1294 @@
       </c>
     </row>
     <row r="531">
-      <c r="A531" s="15">
+      <c r="A531" s="9">
         <v>45599.43529364583</v>
       </c>
-      <c r="B531" s="16" t="s">
+      <c r="B531" s="10" t="s">
         <v>1182</v>
       </c>
-      <c r="C531" s="16" t="s">
+      <c r="C531" s="10" t="s">
         <v>1183</v>
       </c>
-      <c r="D531" s="16">
+      <c r="D531" s="10">
         <v>2.0230133E7</v>
       </c>
-      <c r="E531" s="16" t="s">
+      <c r="E531" s="10" t="s">
         <v>1184</v>
       </c>
-      <c r="F531" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="G531" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="H531" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="I531" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="J531" s="16" t="s">
+      <c r="F531" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G531" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H531" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="I531" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="J531" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="K531" s="16" t="s">
+      <c r="K531" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="L531" s="16" t="s">
+      <c r="L531" s="10" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="532">
+      <c r="A532" s="12">
+        <v>45599.43963099537</v>
+      </c>
+      <c r="B532" s="13" t="s">
+        <v>1185</v>
+      </c>
+      <c r="C532" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D532" s="13">
+        <v>2.0232726E7</v>
+      </c>
+      <c r="E532" s="13" t="s">
+        <v>1186</v>
+      </c>
+      <c r="F532" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G532" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H532" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="I532" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="J532" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="K532" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="L532" s="13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="533">
+      <c r="A533" s="9">
+        <v>45599.44059091435</v>
+      </c>
+      <c r="B533" s="10" t="s">
+        <v>1187</v>
+      </c>
+      <c r="C533" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="D533" s="10">
+        <v>2.024519E7</v>
+      </c>
+      <c r="E533" s="10" t="s">
+        <v>1188</v>
+      </c>
+      <c r="F533" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G533" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H533" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="I533" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="J533" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="K533" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="L533" s="10" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="534">
+      <c r="A534" s="12">
+        <v>45599.44517032408</v>
+      </c>
+      <c r="B534" s="13" t="s">
+        <v>1189</v>
+      </c>
+      <c r="C534" s="13" t="s">
+        <v>1190</v>
+      </c>
+      <c r="D534" s="13">
+        <v>2.0227162E7</v>
+      </c>
+      <c r="E534" s="13" t="s">
+        <v>1191</v>
+      </c>
+      <c r="F534" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G534" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H534" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="I534" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="M534" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="N534" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="O534" s="14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="535">
+      <c r="A535" s="9">
+        <v>45599.45626494213</v>
+      </c>
+      <c r="B535" s="10" t="s">
+        <v>1192</v>
+      </c>
+      <c r="C535" s="10" t="s">
+        <v>1193</v>
+      </c>
+      <c r="D535" s="10">
+        <v>2.0223316E7</v>
+      </c>
+      <c r="E535" s="10" t="s">
+        <v>1194</v>
+      </c>
+      <c r="F535" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G535" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H535" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="I535" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="J535" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="K535" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="L535" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="536">
+      <c r="A536" s="12">
+        <v>45599.46499334491</v>
+      </c>
+      <c r="B536" s="13" t="s">
+        <v>1195</v>
+      </c>
+      <c r="C536" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="D536" s="13">
+        <v>2.023243E7</v>
+      </c>
+      <c r="E536" s="13" t="s">
+        <v>1196</v>
+      </c>
+      <c r="F536" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="G536" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="H536" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="I536" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="M536" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="N536" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="O536" s="14" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="537">
+      <c r="A537" s="9">
+        <v>45599.46650106482</v>
+      </c>
+      <c r="B537" s="10" t="s">
+        <v>1197</v>
+      </c>
+      <c r="C537" s="10" t="s">
+        <v>679</v>
+      </c>
+      <c r="D537" s="10">
+        <v>2.0192926E7</v>
+      </c>
+      <c r="E537" s="10" t="s">
+        <v>1198</v>
+      </c>
+      <c r="F537" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G537" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="H537" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="I537" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="J537" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="K537" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="L537" s="10" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="538">
+      <c r="A538" s="12">
+        <v>45599.46897332176</v>
+      </c>
+      <c r="B538" s="13" t="s">
+        <v>1199</v>
+      </c>
+      <c r="C538" s="13" t="s">
+        <v>533</v>
+      </c>
+      <c r="D538" s="13">
+        <v>2.0235112E7</v>
+      </c>
+      <c r="E538" s="13" t="s">
+        <v>1200</v>
+      </c>
+      <c r="F538" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G538" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H538" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="I538" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="M538" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="N538" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="O538" s="14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="539">
+      <c r="A539" s="9">
+        <v>45599.47522259259</v>
+      </c>
+      <c r="B539" s="10" t="s">
+        <v>1201</v>
+      </c>
+      <c r="C539" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="D539" s="10">
+        <v>2.0246221E7</v>
+      </c>
+      <c r="E539" s="10" t="s">
+        <v>525</v>
+      </c>
+      <c r="F539" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="G539" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H539" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="I539" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="M539" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="N539" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="O539" s="11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="540">
+      <c r="A540" s="12">
+        <v>45599.49223872685</v>
+      </c>
+      <c r="B540" s="13" t="s">
+        <v>1202</v>
+      </c>
+      <c r="C540" s="13" t="s">
+        <v>1203</v>
+      </c>
+      <c r="D540" s="13">
+        <v>2.0212603E7</v>
+      </c>
+      <c r="E540" s="13" t="s">
+        <v>1204</v>
+      </c>
+      <c r="F540" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="G540" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="H540" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="I540" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="J540" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="K540" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="L540" s="13" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="541">
+      <c r="A541" s="9">
+        <v>45599.50656729167</v>
+      </c>
+      <c r="B541" s="10" t="s">
+        <v>1205</v>
+      </c>
+      <c r="C541" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D541" s="10">
+        <v>2.024254E7</v>
+      </c>
+      <c r="E541" s="10" t="s">
+        <v>1206</v>
+      </c>
+      <c r="F541" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G541" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H541" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="I541" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="M541" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="N541" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="O541" s="11" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="542">
+      <c r="A542" s="12">
+        <v>45599.52705366898</v>
+      </c>
+      <c r="B542" s="13" t="s">
+        <v>1207</v>
+      </c>
+      <c r="C542" s="13" t="s">
+        <v>1208</v>
+      </c>
+      <c r="D542" s="13">
+        <v>2.0236739E7</v>
+      </c>
+      <c r="E542" s="13" t="s">
+        <v>1209</v>
+      </c>
+      <c r="F542" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G542" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="H542" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="I542" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="M542" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="N542" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="O542" s="14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="543">
+      <c r="A543" s="9">
+        <v>45599.53098195602</v>
+      </c>
+      <c r="B543" s="10" t="s">
+        <v>1210</v>
+      </c>
+      <c r="C543" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D543" s="10">
+        <v>2.0232728E7</v>
+      </c>
+      <c r="E543" s="10" t="s">
+        <v>1211</v>
+      </c>
+      <c r="F543" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G543" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H543" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="I543" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="M543" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="N543" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="O543" s="11" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="544">
+      <c r="A544" s="12">
+        <v>45599.53526048611</v>
+      </c>
+      <c r="B544" s="13" t="s">
+        <v>1212</v>
+      </c>
+      <c r="C544" s="13" t="s">
+        <v>513</v>
+      </c>
+      <c r="D544" s="13">
+        <v>2.0231712E7</v>
+      </c>
+      <c r="E544" s="13" t="s">
+        <v>1213</v>
+      </c>
+      <c r="F544" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G544" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H544" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="I544" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="J544" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="K544" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="L544" s="13" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="545">
+      <c r="A545" s="9">
+        <v>45599.53599556713</v>
+      </c>
+      <c r="B545" s="10" t="s">
+        <v>1214</v>
+      </c>
+      <c r="C545" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="D545" s="10">
+        <v>2.0222361E7</v>
+      </c>
+      <c r="E545" s="10" t="s">
+        <v>1215</v>
+      </c>
+      <c r="F545" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G545" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H545" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="I545" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="M545" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="N545" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="O545" s="11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="546">
+      <c r="A546" s="12">
+        <v>45599.53843789352</v>
+      </c>
+      <c r="B546" s="13" t="s">
+        <v>1216</v>
+      </c>
+      <c r="C546" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="D546" s="13">
+        <v>2.0214113E7</v>
+      </c>
+      <c r="E546" s="13" t="s">
+        <v>1217</v>
+      </c>
+      <c r="F546" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G546" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="H546" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="I546" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="J546" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="K546" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="L546" s="13" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="547">
+      <c r="A547" s="9">
+        <v>45599.53847076389</v>
+      </c>
+      <c r="B547" s="10" t="s">
+        <v>1218</v>
+      </c>
+      <c r="C547" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="D547" s="10">
+        <v>2.0196638E7</v>
+      </c>
+      <c r="E547" s="10" t="s">
+        <v>1219</v>
+      </c>
+      <c r="F547" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G547" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="H547" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="I547" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="M547" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="N547" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="O547" s="11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="548">
+      <c r="A548" s="12">
+        <v>45599.54284358796</v>
+      </c>
+      <c r="B548" s="13" t="s">
+        <v>1220</v>
+      </c>
+      <c r="C548" s="13" t="s">
+        <v>1221</v>
+      </c>
+      <c r="D548" s="13">
+        <v>2.0236121E7</v>
+      </c>
+      <c r="E548" s="13" t="s">
+        <v>1222</v>
+      </c>
+      <c r="F548" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G548" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H548" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="I548" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="J548" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="K548" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="L548" s="13" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="549">
+      <c r="A549" s="9">
+        <v>45599.543691597224</v>
+      </c>
+      <c r="B549" s="10" t="s">
+        <v>1223</v>
+      </c>
+      <c r="C549" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="D549" s="10">
+        <v>2.0242914E7</v>
+      </c>
+      <c r="E549" s="10" t="s">
+        <v>1224</v>
+      </c>
+      <c r="F549" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G549" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H549" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="I549" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="J549" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="K549" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="L549" s="10" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="550">
+      <c r="A550" s="12">
+        <v>45599.54623363426</v>
+      </c>
+      <c r="B550" s="13" t="s">
+        <v>1225</v>
+      </c>
+      <c r="C550" s="13" t="s">
+        <v>1226</v>
+      </c>
+      <c r="D550" s="13">
+        <v>2.021282E7</v>
+      </c>
+      <c r="E550" s="13" t="s">
+        <v>1227</v>
+      </c>
+      <c r="F550" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G550" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H550" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="I550" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="M550" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="N550" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="O550" s="14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="551">
+      <c r="A551" s="9">
+        <v>45599.5477405787</v>
+      </c>
+      <c r="B551" s="10" t="s">
+        <v>1228</v>
+      </c>
+      <c r="C551" s="10" t="s">
+        <v>406</v>
+      </c>
+      <c r="D551" s="10">
+        <v>2.0233509E7</v>
+      </c>
+      <c r="E551" s="10" t="s">
+        <v>1229</v>
+      </c>
+      <c r="F551" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G551" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="H551" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="I551" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="M551" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="N551" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="O551" s="11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="552">
+      <c r="A552" s="12">
+        <v>45599.54885400463</v>
+      </c>
+      <c r="B552" s="13" t="s">
+        <v>1230</v>
+      </c>
+      <c r="C552" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="D552" s="13">
+        <v>2.0243715E7</v>
+      </c>
+      <c r="E552" s="13" t="s">
+        <v>1231</v>
+      </c>
+      <c r="F552" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G552" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="H552" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="I552" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="J552" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="K552" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="L552" s="13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="553">
+      <c r="A553" s="9">
+        <v>45599.549414814814</v>
+      </c>
+      <c r="B553" s="10" t="s">
+        <v>1232</v>
+      </c>
+      <c r="C553" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="D553" s="10">
+        <v>2.0242844E7</v>
+      </c>
+      <c r="E553" s="10" t="s">
+        <v>1233</v>
+      </c>
+      <c r="F553" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G553" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H553" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="I553" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="M553" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="N553" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="O553" s="11" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="554">
+      <c r="A554" s="12">
+        <v>45599.55207160879</v>
+      </c>
+      <c r="B554" s="13" t="s">
+        <v>1234</v>
+      </c>
+      <c r="C554" s="13" t="s">
+        <v>195</v>
+      </c>
+      <c r="D554" s="13">
+        <v>2.0212827E7</v>
+      </c>
+      <c r="E554" s="13" t="s">
+        <v>1235</v>
+      </c>
+      <c r="F554" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="G554" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H554" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="I554" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="J554" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="K554" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="L554" s="13" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="555">
+      <c r="A555" s="9">
+        <v>45599.55422101852</v>
+      </c>
+      <c r="B555" s="10" t="s">
+        <v>1236</v>
+      </c>
+      <c r="C555" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="D555" s="10">
+        <v>2.020382E7</v>
+      </c>
+      <c r="E555" s="10" t="s">
+        <v>1237</v>
+      </c>
+      <c r="F555" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="G555" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H555" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="I555" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="M555" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="N555" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="O555" s="11" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="556">
+      <c r="A556" s="12">
+        <v>45599.55743204861</v>
+      </c>
+      <c r="B556" s="13" t="s">
+        <v>1238</v>
+      </c>
+      <c r="C556" s="13" t="s">
+        <v>598</v>
+      </c>
+      <c r="D556" s="13">
+        <v>2.0193429E7</v>
+      </c>
+      <c r="E556" s="13" t="s">
+        <v>1239</v>
+      </c>
+      <c r="F556" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="G556" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="H556" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="I556" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="M556" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="N556" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="O556" s="14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="557">
+      <c r="A557" s="9">
+        <v>45599.55815384259</v>
+      </c>
+      <c r="B557" s="10" t="s">
+        <v>1240</v>
+      </c>
+      <c r="C557" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="D557" s="10">
+        <v>2.0243309E7</v>
+      </c>
+      <c r="E557" s="10" t="s">
+        <v>1241</v>
+      </c>
+      <c r="F557" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G557" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="H557" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="I557" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="J557" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="K557" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="L557" s="10" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="558">
+      <c r="A558" s="12">
+        <v>45599.56502677083</v>
+      </c>
+      <c r="B558" s="13" t="s">
+        <v>1242</v>
+      </c>
+      <c r="C558" s="13" t="s">
+        <v>1243</v>
+      </c>
+      <c r="D558" s="13">
+        <v>2.0203322E7</v>
+      </c>
+      <c r="E558" s="13" t="s">
+        <v>1244</v>
+      </c>
+      <c r="F558" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G558" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H558" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="I558" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="J558" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="K558" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="L558" s="13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="559">
+      <c r="A559" s="9">
+        <v>45599.56515303241</v>
+      </c>
+      <c r="B559" s="10" t="s">
+        <v>1245</v>
+      </c>
+      <c r="C559" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D559" s="10">
+        <v>2.023275E7</v>
+      </c>
+      <c r="E559" s="10" t="s">
+        <v>1246</v>
+      </c>
+      <c r="F559" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="G559" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="H559" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="I559" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="M559" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="N559" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="O559" s="11" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="560">
+      <c r="A560" s="12">
+        <v>45599.57111767361</v>
+      </c>
+      <c r="B560" s="13" t="s">
+        <v>1247</v>
+      </c>
+      <c r="C560" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D560" s="13">
+        <v>2.0223611E7</v>
+      </c>
+      <c r="E560" s="13" t="s">
+        <v>1248</v>
+      </c>
+      <c r="F560" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="G560" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="H560" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="I560" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="J560" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="K560" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="L560" s="13" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="561">
+      <c r="A561" s="9">
+        <v>45599.573226168985</v>
+      </c>
+      <c r="B561" s="10" t="s">
+        <v>1249</v>
+      </c>
+      <c r="C561" s="10" t="s">
+        <v>356</v>
+      </c>
+      <c r="D561" s="10">
+        <v>2.0243426E7</v>
+      </c>
+      <c r="E561" s="10" t="s">
+        <v>1250</v>
+      </c>
+      <c r="F561" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G561" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H561" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="I561" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="J561" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="K561" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="L561" s="10" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="562">
+      <c r="A562" s="12">
+        <v>45599.57914585648</v>
+      </c>
+      <c r="B562" s="13" t="s">
+        <v>1251</v>
+      </c>
+      <c r="C562" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="D562" s="13">
+        <v>2.021163E7</v>
+      </c>
+      <c r="E562" s="13" t="s">
+        <v>1252</v>
+      </c>
+      <c r="F562" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="G562" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H562" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="I562" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="J562" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="K562" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="L562" s="13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="563">
+      <c r="A563" s="9">
+        <v>45599.57923982639</v>
+      </c>
+      <c r="B563" s="10" t="s">
+        <v>1253</v>
+      </c>
+      <c r="C563" s="10" t="s">
+        <v>270</v>
+      </c>
+      <c r="D563" s="10">
+        <v>2.0212549E7</v>
+      </c>
+      <c r="E563" s="10" t="s">
+        <v>1254</v>
+      </c>
+      <c r="F563" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G563" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H563" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="I563" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="M563" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="N563" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="O563" s="11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="564">
+      <c r="A564" s="15">
+        <v>45599.58003280092</v>
+      </c>
+      <c r="B564" s="16" t="s">
+        <v>1255</v>
+      </c>
+      <c r="C564" s="16" t="s">
+        <v>333</v>
+      </c>
+      <c r="D564" s="16">
+        <v>2.0241537E7</v>
+      </c>
+      <c r="E564" s="16" t="s">
+        <v>1256</v>
+      </c>
+      <c r="F564" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="G564" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="H564" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="I564" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="J564" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="K564" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="L564" s="16" t="s">
         <v>83</v>
       </c>
     </row>

--- a/R/data/quiz241021_tmp.xlsx
+++ b/R/data/quiz241021_tmp.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5645" uniqueCount="1257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6015" uniqueCount="1330">
   <si>
     <t>타임스탬프</t>
   </si>
@@ -3782,6 +3782,225 @@
   </si>
   <si>
     <t>차서연</t>
+  </si>
+  <si>
+    <t>ereere05@naver.com</t>
+  </si>
+  <si>
+    <t>황은상</t>
+  </si>
+  <si>
+    <t>xodet0817@naver.com</t>
+  </si>
+  <si>
+    <t>문종윤</t>
+  </si>
+  <si>
+    <t>kdk3265@naver.com</t>
+  </si>
+  <si>
+    <t>언론방송융합미디어</t>
+  </si>
+  <si>
+    <t>강은비</t>
+  </si>
+  <si>
+    <t>pjy35870859@gmail.com</t>
+  </si>
+  <si>
+    <t>박지연</t>
+  </si>
+  <si>
+    <t>cmin0945@gmail.com</t>
+  </si>
+  <si>
+    <t>조상민</t>
+  </si>
+  <si>
+    <t>whdudgus1013@gmail.com</t>
+  </si>
+  <si>
+    <t>조영현</t>
+  </si>
+  <si>
+    <t>wnsgud9624@naver.com</t>
+  </si>
+  <si>
+    <t>임준형</t>
+  </si>
+  <si>
+    <t>bluelion-gbn9981@naver.com</t>
+  </si>
+  <si>
+    <t>구보늬</t>
+  </si>
+  <si>
+    <t>psw9879@naver.com</t>
+  </si>
+  <si>
+    <t>박상원</t>
+  </si>
+  <si>
+    <t>minchan6020@gmail.com</t>
+  </si>
+  <si>
+    <t>77sunhwa@gmail.com</t>
+  </si>
+  <si>
+    <t>박선화</t>
+  </si>
+  <si>
+    <t>jin050828@gmail.com</t>
+  </si>
+  <si>
+    <t>김진영</t>
+  </si>
+  <si>
+    <t>nyo07@naver.com</t>
+  </si>
+  <si>
+    <t>윤효라</t>
+  </si>
+  <si>
+    <t>zjxps2007@gmail.com</t>
+  </si>
+  <si>
+    <t>콘텐츠 it</t>
+  </si>
+  <si>
+    <t>조인호</t>
+  </si>
+  <si>
+    <t>solar08230@naver.com</t>
+  </si>
+  <si>
+    <t>안다빈</t>
+  </si>
+  <si>
+    <t>duke102426@gmail.com</t>
+  </si>
+  <si>
+    <t>문진혁</t>
+  </si>
+  <si>
+    <t>happyfish123@naver.com</t>
+  </si>
+  <si>
+    <t>dutinwon2005@gmail.com</t>
+  </si>
+  <si>
+    <t>원지현</t>
+  </si>
+  <si>
+    <t>andy9925@naver.com</t>
+  </si>
+  <si>
+    <t>김무극</t>
+  </si>
+  <si>
+    <t>h20231025@glab.hallym.ac.kr</t>
+  </si>
+  <si>
+    <t>choikang2010@naver.com</t>
+  </si>
+  <si>
+    <t>최연희</t>
+  </si>
+  <si>
+    <t>ksj101710@naver.com</t>
+  </si>
+  <si>
+    <t>김경록</t>
+  </si>
+  <si>
+    <t>ahs042400@naver.com</t>
+  </si>
+  <si>
+    <t>안현성</t>
+  </si>
+  <si>
+    <t>dydwndus1115@naver.com</t>
+  </si>
+  <si>
+    <t>용주연</t>
+  </si>
+  <si>
+    <t>rladud624@gmail.com</t>
+  </si>
+  <si>
+    <t>김영</t>
+  </si>
+  <si>
+    <t>rkdwndms112@naver.com</t>
+  </si>
+  <si>
+    <t>강주은</t>
+  </si>
+  <si>
+    <t>dltmdwo0301@naver.com</t>
+  </si>
+  <si>
+    <t>이승재</t>
+  </si>
+  <si>
+    <t>akeb110@naver.com</t>
+  </si>
+  <si>
+    <t>김은빈</t>
+  </si>
+  <si>
+    <t>jina20050429@gmail.com</t>
+  </si>
+  <si>
+    <t>이진아</t>
+  </si>
+  <si>
+    <t>seungye04@naver.com</t>
+  </si>
+  <si>
+    <t>정승예</t>
+  </si>
+  <si>
+    <t>vcx76613@gmail.com</t>
+  </si>
+  <si>
+    <t>황인태</t>
+  </si>
+  <si>
+    <t>jangsinhyeog6@gmail.com</t>
+  </si>
+  <si>
+    <t>장신혁</t>
+  </si>
+  <si>
+    <t>oj5803@naver.com</t>
+  </si>
+  <si>
+    <t>이영주</t>
+  </si>
+  <si>
+    <t>ydy7495@naver.com</t>
+  </si>
+  <si>
+    <t>윤다연</t>
+  </si>
+  <si>
+    <t>kjh54088@gmail.com</t>
+  </si>
+  <si>
+    <t>김재희</t>
+  </si>
+  <si>
+    <t>ziva0726@naver.com</t>
+  </si>
+  <si>
+    <t>김소현</t>
+  </si>
+  <si>
+    <t>dearmy0819@gmail.com</t>
+  </si>
+  <si>
+    <t>박혜원</t>
   </si>
 </sst>
 </file>
@@ -3812,7 +4031,7 @@
       <patternFill patternType="lightGray"/>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="13">
     <border/>
     <border>
       <left style="thin">
@@ -3945,10 +4164,10 @@
         <color rgb="FF442F65"/>
       </left>
       <right style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </right>
       <top style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </top>
       <bottom style="thin">
         <color rgb="FF442F65"/>
@@ -3956,13 +4175,27 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </left>
       <right style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </right>
       <top style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF442F65"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFF8F9FA"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF442F65"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFF8F9FA"/>
       </top>
       <bottom style="thin">
         <color rgb="FF442F65"/>
@@ -3972,7 +4205,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -4022,6 +4255,9 @@
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="11" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="12" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
   </cellXfs>
@@ -4082,7 +4318,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:O564" displayName="Form_Responses1" name="Form_Responses1" id="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:O601" displayName="Form_Responses1" name="Form_Responses1" id="1">
   <tableColumns count="15">
     <tableColumn name="타임스탬프" id="1"/>
     <tableColumn name="이메일 주소" id="2"/>
@@ -25726,41 +25962,1447 @@
       </c>
     </row>
     <row r="564">
-      <c r="A564" s="15">
+      <c r="A564" s="12">
         <v>45599.58003280092</v>
       </c>
-      <c r="B564" s="16" t="s">
+      <c r="B564" s="13" t="s">
         <v>1255</v>
       </c>
-      <c r="C564" s="16" t="s">
+      <c r="C564" s="13" t="s">
         <v>333</v>
       </c>
-      <c r="D564" s="16">
+      <c r="D564" s="13">
         <v>2.0241537E7</v>
       </c>
-      <c r="E564" s="16" t="s">
+      <c r="E564" s="13" t="s">
         <v>1256</v>
       </c>
-      <c r="F564" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="G564" s="16" t="s">
+      <c r="F564" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G564" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="H564" s="16" t="s">
+      <c r="H564" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="I564" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="J564" s="16" t="s">
+      <c r="I564" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="J564" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="K564" s="16" t="s">
+      <c r="K564" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="L564" s="16" t="s">
+      <c r="L564" s="13" t="s">
         <v>83</v>
+      </c>
+    </row>
+    <row r="565">
+      <c r="A565" s="9">
+        <v>45599.58365341435</v>
+      </c>
+      <c r="B565" s="10" t="s">
+        <v>1257</v>
+      </c>
+      <c r="C565" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="D565" s="10">
+        <v>2.0243064E7</v>
+      </c>
+      <c r="E565" s="10" t="s">
+        <v>1258</v>
+      </c>
+      <c r="F565" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G565" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H565" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="I565" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="M565" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="N565" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="O565" s="11" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="566">
+      <c r="A566" s="12">
+        <v>45599.58815523148</v>
+      </c>
+      <c r="B566" s="13" t="s">
+        <v>1259</v>
+      </c>
+      <c r="C566" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D566" s="13">
+        <v>2.0203616E7</v>
+      </c>
+      <c r="E566" s="13" t="s">
+        <v>1260</v>
+      </c>
+      <c r="F566" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G566" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H566" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="I566" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="M566" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="N566" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="O566" s="14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="567">
+      <c r="A567" s="9">
+        <v>45599.59132060185</v>
+      </c>
+      <c r="B567" s="10" t="s">
+        <v>1261</v>
+      </c>
+      <c r="C567" s="10" t="s">
+        <v>1262</v>
+      </c>
+      <c r="D567" s="10">
+        <v>2.0201002E7</v>
+      </c>
+      <c r="E567" s="10" t="s">
+        <v>1263</v>
+      </c>
+      <c r="F567" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G567" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="H567" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="I567" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="J567" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="K567" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="L567" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="568">
+      <c r="A568" s="12">
+        <v>45599.59624423611</v>
+      </c>
+      <c r="B568" s="13" t="s">
+        <v>1264</v>
+      </c>
+      <c r="C568" s="13" t="s">
+        <v>229</v>
+      </c>
+      <c r="D568" s="13">
+        <v>2.0242618E7</v>
+      </c>
+      <c r="E568" s="13" t="s">
+        <v>1265</v>
+      </c>
+      <c r="F568" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G568" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="H568" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="I568" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="J568" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="K568" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="L568" s="13" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="569">
+      <c r="A569" s="9">
+        <v>45599.59880523148</v>
+      </c>
+      <c r="B569" s="10" t="s">
+        <v>1266</v>
+      </c>
+      <c r="C569" s="10" t="s">
+        <v>267</v>
+      </c>
+      <c r="D569" s="10">
+        <v>2.0246776E7</v>
+      </c>
+      <c r="E569" s="10" t="s">
+        <v>1267</v>
+      </c>
+      <c r="F569" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G569" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="H569" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="I569" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="J569" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="K569" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="L569" s="10" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="570">
+      <c r="A570" s="12">
+        <v>45599.60144157408</v>
+      </c>
+      <c r="B570" s="13" t="s">
+        <v>1268</v>
+      </c>
+      <c r="C570" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="D570" s="13">
+        <v>2.0243253E7</v>
+      </c>
+      <c r="E570" s="13" t="s">
+        <v>1269</v>
+      </c>
+      <c r="F570" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G570" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H570" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="I570" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="J570" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="K570" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="L570" s="13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="571">
+      <c r="A571" s="9">
+        <v>45599.60207064815</v>
+      </c>
+      <c r="B571" s="10" t="s">
+        <v>1270</v>
+      </c>
+      <c r="C571" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D571" s="10">
+        <v>2.018109E7</v>
+      </c>
+      <c r="E571" s="10" t="s">
+        <v>1271</v>
+      </c>
+      <c r="F571" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G571" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="H571" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="I571" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="J571" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="K571" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="L571" s="10" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="572">
+      <c r="A572" s="12">
+        <v>45599.6039137037</v>
+      </c>
+      <c r="B572" s="13" t="s">
+        <v>1272</v>
+      </c>
+      <c r="C572" s="13" t="s">
+        <v>356</v>
+      </c>
+      <c r="D572" s="13">
+        <v>2.0243403E7</v>
+      </c>
+      <c r="E572" s="13" t="s">
+        <v>1273</v>
+      </c>
+      <c r="F572" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="G572" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="H572" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="I572" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="M572" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="N572" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="O572" s="14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="573">
+      <c r="A573" s="9">
+        <v>45599.6041796412</v>
+      </c>
+      <c r="B573" s="10" t="s">
+        <v>1274</v>
+      </c>
+      <c r="C573" s="10" t="s">
+        <v>1109</v>
+      </c>
+      <c r="D573" s="10">
+        <v>2.0235164E7</v>
+      </c>
+      <c r="E573" s="10" t="s">
+        <v>1275</v>
+      </c>
+      <c r="F573" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G573" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H573" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="I573" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="M573" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="N573" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="O573" s="11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="574">
+      <c r="A574" s="12">
+        <v>45599.60948105324</v>
+      </c>
+      <c r="B574" s="13" t="s">
+        <v>1276</v>
+      </c>
+      <c r="C574" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="D574" s="13">
+        <v>2.0242508E7</v>
+      </c>
+      <c r="E574" s="13" t="s">
+        <v>932</v>
+      </c>
+      <c r="F574" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G574" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H574" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="I574" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="M574" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="N574" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="O574" s="14" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="575">
+      <c r="A575" s="9">
+        <v>45599.61130849537</v>
+      </c>
+      <c r="B575" s="10" t="s">
+        <v>1277</v>
+      </c>
+      <c r="C575" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="D575" s="10">
+        <v>2.0242956E7</v>
+      </c>
+      <c r="E575" s="10" t="s">
+        <v>1278</v>
+      </c>
+      <c r="F575" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G575" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="H575" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="I575" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="J575" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="K575" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="L575" s="10" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="576">
+      <c r="A576" s="12">
+        <v>45599.6180456713</v>
+      </c>
+      <c r="B576" s="13" t="s">
+        <v>1279</v>
+      </c>
+      <c r="C576" s="13" t="s">
+        <v>267</v>
+      </c>
+      <c r="D576" s="13">
+        <v>2.0246715E7</v>
+      </c>
+      <c r="E576" s="13" t="s">
+        <v>1280</v>
+      </c>
+      <c r="F576" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G576" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="H576" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="I576" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="M576" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="N576" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="O576" s="14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="577">
+      <c r="A577" s="9">
+        <v>45599.62296356482</v>
+      </c>
+      <c r="B577" s="10" t="s">
+        <v>1281</v>
+      </c>
+      <c r="C577" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="D577" s="10">
+        <v>2.0217087E7</v>
+      </c>
+      <c r="E577" s="10" t="s">
+        <v>1282</v>
+      </c>
+      <c r="F577" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="G577" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H577" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="I577" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="J577" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="K577" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="L577" s="10" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="578">
+      <c r="A578" s="12">
+        <v>45599.62591722222</v>
+      </c>
+      <c r="B578" s="13" t="s">
+        <v>1283</v>
+      </c>
+      <c r="C578" s="13" t="s">
+        <v>1284</v>
+      </c>
+      <c r="D578" s="13">
+        <v>2.0195258E7</v>
+      </c>
+      <c r="E578" s="13" t="s">
+        <v>1285</v>
+      </c>
+      <c r="F578" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G578" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H578" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="I578" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="M578" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="N578" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="O578" s="14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="579">
+      <c r="A579" s="9">
+        <v>45599.629302789355</v>
+      </c>
+      <c r="B579" s="10" t="s">
+        <v>1286</v>
+      </c>
+      <c r="C579" s="10" t="s">
+        <v>513</v>
+      </c>
+      <c r="D579" s="10">
+        <v>2.0221717E7</v>
+      </c>
+      <c r="E579" s="10" t="s">
+        <v>1287</v>
+      </c>
+      <c r="F579" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G579" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H579" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="I579" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="J579" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="K579" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="L579" s="10" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="580">
+      <c r="A580" s="12">
+        <v>45599.63168174768</v>
+      </c>
+      <c r="B580" s="13" t="s">
+        <v>1288</v>
+      </c>
+      <c r="C580" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="D580" s="13">
+        <v>2.0182862E7</v>
+      </c>
+      <c r="E580" s="13" t="s">
+        <v>1289</v>
+      </c>
+      <c r="F580" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G580" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H580" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="I580" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="M580" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="N580" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="O580" s="14" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="581">
+      <c r="A581" s="9">
+        <v>45599.633120162034</v>
+      </c>
+      <c r="B581" s="10" t="s">
+        <v>1290</v>
+      </c>
+      <c r="C581" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="D581" s="10">
+        <v>2.0242919E7</v>
+      </c>
+      <c r="E581" s="10" t="s">
+        <v>1141</v>
+      </c>
+      <c r="F581" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G581" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="H581" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="I581" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="J581" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="K581" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="L581" s="10" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="582">
+      <c r="A582" s="12">
+        <v>45599.633206597224</v>
+      </c>
+      <c r="B582" s="13" t="s">
+        <v>1291</v>
+      </c>
+      <c r="C582" s="13" t="s">
+        <v>267</v>
+      </c>
+      <c r="D582" s="13">
+        <v>2.0246747E7</v>
+      </c>
+      <c r="E582" s="13" t="s">
+        <v>1292</v>
+      </c>
+      <c r="F582" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G582" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="H582" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="I582" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="M582" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="N582" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="O582" s="14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="583">
+      <c r="A583" s="9">
+        <v>45599.63472199074</v>
+      </c>
+      <c r="B583" s="10" t="s">
+        <v>1293</v>
+      </c>
+      <c r="C583" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="D583" s="10">
+        <v>2.023411E7</v>
+      </c>
+      <c r="E583" s="10" t="s">
+        <v>1294</v>
+      </c>
+      <c r="F583" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="G583" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="H583" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="I583" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="J583" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="K583" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="L583" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="584">
+      <c r="A584" s="12">
+        <v>45599.63720827547</v>
+      </c>
+      <c r="B584" s="13" t="s">
+        <v>1295</v>
+      </c>
+      <c r="C584" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="D584" s="13">
+        <v>2.0231025E7</v>
+      </c>
+      <c r="E584" s="13" t="s">
+        <v>1222</v>
+      </c>
+      <c r="F584" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G584" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="H584" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="I584" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="M584" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="N584" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="O584" s="14" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="585">
+      <c r="A585" s="9">
+        <v>45599.64950491898</v>
+      </c>
+      <c r="B585" s="10" t="s">
+        <v>1296</v>
+      </c>
+      <c r="C585" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="D585" s="10">
+        <v>2.0222238E7</v>
+      </c>
+      <c r="E585" s="10" t="s">
+        <v>1297</v>
+      </c>
+      <c r="F585" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G585" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="H585" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="I585" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="J585" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="K585" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="L585" s="10" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="586">
+      <c r="A586" s="12">
+        <v>45599.653362129626</v>
+      </c>
+      <c r="B586" s="13" t="s">
+        <v>1298</v>
+      </c>
+      <c r="C586" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="D586" s="13">
+        <v>2.0245117E7</v>
+      </c>
+      <c r="E586" s="13" t="s">
+        <v>1299</v>
+      </c>
+      <c r="F586" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G586" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H586" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="I586" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="J586" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="K586" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="L586" s="13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="587">
+      <c r="A587" s="9">
+        <v>45599.65463747685</v>
+      </c>
+      <c r="B587" s="10" t="s">
+        <v>1300</v>
+      </c>
+      <c r="C587" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="D587" s="10">
+        <v>2.0213719E7</v>
+      </c>
+      <c r="E587" s="10" t="s">
+        <v>1301</v>
+      </c>
+      <c r="F587" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G587" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H587" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="I587" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="M587" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="N587" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="O587" s="11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="588">
+      <c r="A588" s="12">
+        <v>45599.6553927662</v>
+      </c>
+      <c r="B588" s="13" t="s">
+        <v>1302</v>
+      </c>
+      <c r="C588" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="D588" s="13">
+        <v>2.0243723E7</v>
+      </c>
+      <c r="E588" s="13" t="s">
+        <v>1303</v>
+      </c>
+      <c r="F588" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G588" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H588" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="I588" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="M588" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="N588" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="O588" s="14" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="589">
+      <c r="A589" s="9">
+        <v>45599.65628953704</v>
+      </c>
+      <c r="B589" s="10" t="s">
+        <v>1304</v>
+      </c>
+      <c r="C589" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="D589" s="10">
+        <v>2.0202925E7</v>
+      </c>
+      <c r="E589" s="10" t="s">
+        <v>1305</v>
+      </c>
+      <c r="F589" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G589" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H589" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="I589" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="J589" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="K589" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="L589" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="590">
+      <c r="A590" s="12">
+        <v>45599.65832552083</v>
+      </c>
+      <c r="B590" s="13" t="s">
+        <v>1306</v>
+      </c>
+      <c r="C590" s="13" t="s">
+        <v>296</v>
+      </c>
+      <c r="D590" s="13">
+        <v>2.0202501E7</v>
+      </c>
+      <c r="E590" s="13" t="s">
+        <v>1307</v>
+      </c>
+      <c r="F590" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G590" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H590" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="I590" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="J590" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="K590" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="L590" s="13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="591">
+      <c r="A591" s="9">
+        <v>45599.65958011574</v>
+      </c>
+      <c r="B591" s="10" t="s">
+        <v>1308</v>
+      </c>
+      <c r="C591" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="D591" s="10">
+        <v>2.022283E7</v>
+      </c>
+      <c r="E591" s="10" t="s">
+        <v>1309</v>
+      </c>
+      <c r="F591" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G591" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H591" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="I591" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="J591" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="K591" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="L591" s="10" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="592">
+      <c r="A592" s="12">
+        <v>45599.66484702546</v>
+      </c>
+      <c r="B592" s="13" t="s">
+        <v>1310</v>
+      </c>
+      <c r="C592" s="13" t="s">
+        <v>513</v>
+      </c>
+      <c r="D592" s="13">
+        <v>2.0231708E7</v>
+      </c>
+      <c r="E592" s="13" t="s">
+        <v>1311</v>
+      </c>
+      <c r="F592" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G592" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="H592" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="I592" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="J592" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="K592" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="L592" s="13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="593">
+      <c r="A593" s="9">
+        <v>45599.66514395834</v>
+      </c>
+      <c r="B593" s="10" t="s">
+        <v>1312</v>
+      </c>
+      <c r="C593" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="D593" s="10">
+        <v>2.0243731E7</v>
+      </c>
+      <c r="E593" s="10" t="s">
+        <v>1313</v>
+      </c>
+      <c r="F593" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G593" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H593" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="I593" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="J593" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="K593" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="L593" s="10" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="594">
+      <c r="A594" s="12">
+        <v>45599.669439398145</v>
+      </c>
+      <c r="B594" s="13" t="s">
+        <v>1314</v>
+      </c>
+      <c r="C594" s="13" t="s">
+        <v>1262</v>
+      </c>
+      <c r="D594" s="13">
+        <v>2.0233846E7</v>
+      </c>
+      <c r="E594" s="13" t="s">
+        <v>1315</v>
+      </c>
+      <c r="F594" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G594" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H594" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="I594" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="M594" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="N594" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="O594" s="14" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="595">
+      <c r="A595" s="9">
+        <v>45599.669745844905</v>
+      </c>
+      <c r="B595" s="10" t="s">
+        <v>1316</v>
+      </c>
+      <c r="C595" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="D595" s="10">
+        <v>2.0246306E7</v>
+      </c>
+      <c r="E595" s="10" t="s">
+        <v>1317</v>
+      </c>
+      <c r="F595" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G595" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="H595" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="I595" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="M595" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="N595" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="O595" s="11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="596">
+      <c r="A596" s="12">
+        <v>45599.67687201389</v>
+      </c>
+      <c r="B596" s="13" t="s">
+        <v>1318</v>
+      </c>
+      <c r="C596" s="13" t="s">
+        <v>267</v>
+      </c>
+      <c r="D596" s="13">
+        <v>2.0246768E7</v>
+      </c>
+      <c r="E596" s="13" t="s">
+        <v>1319</v>
+      </c>
+      <c r="F596" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G596" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H596" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="I596" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="M596" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="N596" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="O596" s="14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="597">
+      <c r="A597" s="9">
+        <v>45599.679999722226</v>
+      </c>
+      <c r="B597" s="10" t="s">
+        <v>1320</v>
+      </c>
+      <c r="C597" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="D597" s="10">
+        <v>2.0242628E7</v>
+      </c>
+      <c r="E597" s="10" t="s">
+        <v>1321</v>
+      </c>
+      <c r="F597" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G597" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H597" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="I597" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="M597" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="N597" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="O597" s="11" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="598">
+      <c r="A598" s="12">
+        <v>45599.682714490744</v>
+      </c>
+      <c r="B598" s="13" t="s">
+        <v>1322</v>
+      </c>
+      <c r="C598" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="D598" s="13">
+        <v>2.0242423E7</v>
+      </c>
+      <c r="E598" s="13" t="s">
+        <v>1323</v>
+      </c>
+      <c r="F598" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G598" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H598" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="I598" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="M598" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="N598" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="O598" s="14" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="599">
+      <c r="A599" s="9">
+        <v>45599.68477527778</v>
+      </c>
+      <c r="B599" s="10" t="s">
+        <v>1324</v>
+      </c>
+      <c r="C599" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="D599" s="10">
+        <v>2.0243216E7</v>
+      </c>
+      <c r="E599" s="10" t="s">
+        <v>1325</v>
+      </c>
+      <c r="F599" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G599" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="H599" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="I599" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="M599" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="N599" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="O599" s="11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="600">
+      <c r="A600" s="12">
+        <v>45599.685222939814</v>
+      </c>
+      <c r="B600" s="13" t="s">
+        <v>1326</v>
+      </c>
+      <c r="C600" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="D600" s="13">
+        <v>2.0212104E7</v>
+      </c>
+      <c r="E600" s="13" t="s">
+        <v>1327</v>
+      </c>
+      <c r="F600" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G600" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H600" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="I600" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="M600" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="N600" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="O600" s="14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="601">
+      <c r="A601" s="15">
+        <v>45599.685518240745</v>
+      </c>
+      <c r="B601" s="16" t="s">
+        <v>1328</v>
+      </c>
+      <c r="C601" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="D601" s="16">
+        <v>2.0243225E7</v>
+      </c>
+      <c r="E601" s="16" t="s">
+        <v>1329</v>
+      </c>
+      <c r="F601" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="G601" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="H601" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="I601" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="M601" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="N601" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="O601" s="17" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/R/data/quiz241021_tmp.xlsx
+++ b/R/data/quiz241021_tmp.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6015" uniqueCount="1330">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6375" uniqueCount="1404">
   <si>
     <t>타임스탬프</t>
   </si>
@@ -4001,6 +4001,228 @@
   </si>
   <si>
     <t>박혜원</t>
+  </si>
+  <si>
+    <t>taewon16@naver.com</t>
+  </si>
+  <si>
+    <t>류태원</t>
+  </si>
+  <si>
+    <t>kusahana8047@gmail.com</t>
+  </si>
+  <si>
+    <t>유현우</t>
+  </si>
+  <si>
+    <t>goeunsue@naver.com</t>
+  </si>
+  <si>
+    <t>고은수</t>
+  </si>
+  <si>
+    <t>joon020978@gmail.com</t>
+  </si>
+  <si>
+    <t>이준</t>
+  </si>
+  <si>
+    <t>joo6806898@naver.com</t>
+  </si>
+  <si>
+    <t>김승주</t>
+  </si>
+  <si>
+    <t>bhyejin420@gmail.com</t>
+  </si>
+  <si>
+    <t>박혜진</t>
+  </si>
+  <si>
+    <t>kmjung0948@gmail.com</t>
+  </si>
+  <si>
+    <t>진현수</t>
+  </si>
+  <si>
+    <t>kesha11@naver.com</t>
+  </si>
+  <si>
+    <t>윤주호</t>
+  </si>
+  <si>
+    <t>hyerim0v0@gmail.com</t>
+  </si>
+  <si>
+    <t>전혜림</t>
+  </si>
+  <si>
+    <t>hanyejun339@gmail.com</t>
+  </si>
+  <si>
+    <t>한예준</t>
+  </si>
+  <si>
+    <t>crown7308@naver.com</t>
+  </si>
+  <si>
+    <t>콘텐츠it</t>
+  </si>
+  <si>
+    <t>박재환</t>
+  </si>
+  <si>
+    <t>jb9517asd@naver.com</t>
+  </si>
+  <si>
+    <t>곽우주</t>
+  </si>
+  <si>
+    <t>iiiiii3314@naver.com</t>
+  </si>
+  <si>
+    <t>엄수빈</t>
+  </si>
+  <si>
+    <t>sht05137@gmail.com</t>
+  </si>
+  <si>
+    <t>류정석</t>
+  </si>
+  <si>
+    <t>in3019@gmail.com</t>
+  </si>
+  <si>
+    <t>이승윤</t>
+  </si>
+  <si>
+    <t>uj5343@gmail.com</t>
+  </si>
+  <si>
+    <t>장우찬</t>
+  </si>
+  <si>
+    <t>applehanul@naver.com</t>
+  </si>
+  <si>
+    <t>신하늘</t>
+  </si>
+  <si>
+    <t>050624alex@gmail.com</t>
+  </si>
+  <si>
+    <t>이승현</t>
+  </si>
+  <si>
+    <t>kby5432@naver.com</t>
+  </si>
+  <si>
+    <t>윤경빈</t>
+  </si>
+  <si>
+    <t>lendjo@naver.com</t>
+  </si>
+  <si>
+    <t>오한별</t>
+  </si>
+  <si>
+    <t>youmin43@naver.com</t>
+  </si>
+  <si>
+    <t>박유민</t>
+  </si>
+  <si>
+    <t>jign1106@naver.com</t>
+  </si>
+  <si>
+    <t>지은총</t>
+  </si>
+  <si>
+    <t>cth041103@naver.com</t>
+  </si>
+  <si>
+    <t>생명과학</t>
+  </si>
+  <si>
+    <t>최태희</t>
+  </si>
+  <si>
+    <t>ann12ann1209@gmail.com</t>
+  </si>
+  <si>
+    <t>김혜원</t>
+  </si>
+  <si>
+    <t>ghksltrjrl@naver.com</t>
+  </si>
+  <si>
+    <t>이용환</t>
+  </si>
+  <si>
+    <t>peony.chung04@gmail.com</t>
+  </si>
+  <si>
+    <t>정수영</t>
+  </si>
+  <si>
+    <t>csm06125@naver.com</t>
+  </si>
+  <si>
+    <t>박근태</t>
+  </si>
+  <si>
+    <t>ljw76825119@gmail.com</t>
+  </si>
+  <si>
+    <t>johanjoon5734@gmail.com</t>
+  </si>
+  <si>
+    <t>조한준</t>
+  </si>
+  <si>
+    <t>hyu05145@gmail.com</t>
+  </si>
+  <si>
+    <t>정서진</t>
+  </si>
+  <si>
+    <t>mjsong4130@gmail.com</t>
+  </si>
+  <si>
+    <t>인공지능융합학부 ai로봇융합전공</t>
+  </si>
+  <si>
+    <t>송민재</t>
+  </si>
+  <si>
+    <t>p1aymaker9926@gmail.com</t>
+  </si>
+  <si>
+    <t>김대환</t>
+  </si>
+  <si>
+    <t>hyunwoo4223021@naver.com</t>
+  </si>
+  <si>
+    <t>김현우</t>
+  </si>
+  <si>
+    <t>slionrain0819@naver.com</t>
+  </si>
+  <si>
+    <t>정의환</t>
+  </si>
+  <si>
+    <t>sjw9802@naver.com</t>
+  </si>
+  <si>
+    <t>선지우</t>
+  </si>
+  <si>
+    <t>sdw20050421@gmail.com</t>
+  </si>
+  <si>
+    <t>송도원</t>
   </si>
 </sst>
 </file>
@@ -4031,7 +4253,7 @@
       <patternFill patternType="lightGray"/>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="12">
     <border/>
     <border>
       <left style="thin">
@@ -4187,25 +4409,11 @@
         <color rgb="FF442F65"/>
       </bottom>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFF8F9FA"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF442F65"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFF8F9FA"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF442F65"/>
-      </bottom>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -4255,9 +4463,6 @@
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="11" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
   </cellXfs>
@@ -4318,7 +4523,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:O601" displayName="Form_Responses1" name="Form_Responses1" id="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:O637" displayName="Form_Responses1" name="Form_Responses1" id="1">
   <tableColumns count="15">
     <tableColumn name="타임스탬프" id="1"/>
     <tableColumn name="이메일 주소" id="2"/>
@@ -27368,41 +27573,1409 @@
       </c>
     </row>
     <row r="601">
-      <c r="A601" s="15">
+      <c r="A601" s="9">
         <v>45599.685518240745</v>
       </c>
-      <c r="B601" s="16" t="s">
+      <c r="B601" s="10" t="s">
         <v>1328</v>
       </c>
-      <c r="C601" s="16" t="s">
+      <c r="C601" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="D601" s="16">
+      <c r="D601" s="10">
         <v>2.0243225E7</v>
       </c>
-      <c r="E601" s="16" t="s">
+      <c r="E601" s="10" t="s">
         <v>1329</v>
       </c>
-      <c r="F601" s="16" t="s">
+      <c r="F601" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="G601" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="H601" s="16" t="s">
+      <c r="G601" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H601" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="I601" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="M601" s="16" t="s">
+      <c r="I601" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="M601" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="N601" s="16" t="s">
+      <c r="N601" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="O601" s="17" t="s">
+      <c r="O601" s="11" t="s">
         <v>60</v>
+      </c>
+    </row>
+    <row r="602">
+      <c r="A602" s="12">
+        <v>45599.68689295139</v>
+      </c>
+      <c r="B602" s="13" t="s">
+        <v>1330</v>
+      </c>
+      <c r="C602" s="13" t="s">
+        <v>247</v>
+      </c>
+      <c r="D602" s="13">
+        <v>2.0195158E7</v>
+      </c>
+      <c r="E602" s="13" t="s">
+        <v>1331</v>
+      </c>
+      <c r="F602" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G602" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H602" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="I602" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="J602" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="K602" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="L602" s="13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="603">
+      <c r="A603" s="9">
+        <v>45599.689988784725</v>
+      </c>
+      <c r="B603" s="10" t="s">
+        <v>1332</v>
+      </c>
+      <c r="C603" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D603" s="10">
+        <v>2.0192736E7</v>
+      </c>
+      <c r="E603" s="10" t="s">
+        <v>1333</v>
+      </c>
+      <c r="F603" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G603" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H603" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="I603" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="M603" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="N603" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="O603" s="11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="604">
+      <c r="A604" s="12">
+        <v>45599.69026912037</v>
+      </c>
+      <c r="B604" s="13" t="s">
+        <v>1334</v>
+      </c>
+      <c r="C604" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="D604" s="13">
+        <v>2.0242907E7</v>
+      </c>
+      <c r="E604" s="13" t="s">
+        <v>1335</v>
+      </c>
+      <c r="F604" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G604" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H604" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="I604" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="M604" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="N604" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="O604" s="14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="605">
+      <c r="A605" s="9">
+        <v>45599.69197465278</v>
+      </c>
+      <c r="B605" s="10" t="s">
+        <v>1336</v>
+      </c>
+      <c r="C605" s="10" t="s">
+        <v>867</v>
+      </c>
+      <c r="D605" s="10">
+        <v>2.024223E7</v>
+      </c>
+      <c r="E605" s="10" t="s">
+        <v>1337</v>
+      </c>
+      <c r="F605" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="G605" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="H605" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="I605" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="J605" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="K605" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="L605" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="606">
+      <c r="A606" s="12">
+        <v>45599.692097245366</v>
+      </c>
+      <c r="B606" s="13" t="s">
+        <v>1338</v>
+      </c>
+      <c r="C606" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D606" s="13">
+        <v>2.0223605E7</v>
+      </c>
+      <c r="E606" s="13" t="s">
+        <v>1339</v>
+      </c>
+      <c r="F606" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G606" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="H606" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="I606" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="M606" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="N606" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="O606" s="14" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="607">
+      <c r="A607" s="9">
+        <v>45599.69549533565</v>
+      </c>
+      <c r="B607" s="10" t="s">
+        <v>1340</v>
+      </c>
+      <c r="C607" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="D607" s="10">
+        <v>2.0245176E7</v>
+      </c>
+      <c r="E607" s="10" t="s">
+        <v>1341</v>
+      </c>
+      <c r="F607" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G607" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="H607" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="I607" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="J607" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="K607" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="L607" s="10" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="608">
+      <c r="A608" s="12">
+        <v>45599.70181215278</v>
+      </c>
+      <c r="B608" s="13" t="s">
+        <v>1342</v>
+      </c>
+      <c r="C608" s="13" t="s">
+        <v>273</v>
+      </c>
+      <c r="D608" s="13">
+        <v>2.0242352E7</v>
+      </c>
+      <c r="E608" s="13" t="s">
+        <v>1343</v>
+      </c>
+      <c r="F608" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G608" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="H608" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="I608" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="M608" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="N608" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="O608" s="14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="609">
+      <c r="A609" s="9">
+        <v>45599.70195326389</v>
+      </c>
+      <c r="B609" s="10" t="s">
+        <v>1344</v>
+      </c>
+      <c r="C609" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="D609" s="10">
+        <v>2.0211059E7</v>
+      </c>
+      <c r="E609" s="10" t="s">
+        <v>1345</v>
+      </c>
+      <c r="F609" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G609" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="H609" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="I609" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="M609" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="N609" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="O609" s="11" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="610">
+      <c r="A610" s="12">
+        <v>45599.7026687037</v>
+      </c>
+      <c r="B610" s="13" t="s">
+        <v>1346</v>
+      </c>
+      <c r="C610" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="D610" s="13">
+        <v>2.023163E7</v>
+      </c>
+      <c r="E610" s="13" t="s">
+        <v>1347</v>
+      </c>
+      <c r="F610" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G610" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H610" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="I610" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="J610" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="K610" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="L610" s="13" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="611">
+      <c r="A611" s="9">
+        <v>45599.70302905093</v>
+      </c>
+      <c r="B611" s="10" t="s">
+        <v>1348</v>
+      </c>
+      <c r="C611" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="D611" s="10">
+        <v>2.0246649E7</v>
+      </c>
+      <c r="E611" s="10" t="s">
+        <v>1349</v>
+      </c>
+      <c r="F611" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G611" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="H611" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="I611" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="M611" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="N611" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="O611" s="11" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="612">
+      <c r="A612" s="12">
+        <v>45599.70413734954</v>
+      </c>
+      <c r="B612" s="13" t="s">
+        <v>1350</v>
+      </c>
+      <c r="C612" s="13" t="s">
+        <v>1351</v>
+      </c>
+      <c r="D612" s="13">
+        <v>2.0205173E7</v>
+      </c>
+      <c r="E612" s="13" t="s">
+        <v>1352</v>
+      </c>
+      <c r="F612" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G612" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H612" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="I612" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="M612" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="N612" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="O612" s="14" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="613">
+      <c r="A613" s="9">
+        <v>45599.70688543981</v>
+      </c>
+      <c r="B613" s="10" t="s">
+        <v>1353</v>
+      </c>
+      <c r="C613" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="D613" s="10">
+        <v>2.0245109E7</v>
+      </c>
+      <c r="E613" s="10" t="s">
+        <v>1354</v>
+      </c>
+      <c r="F613" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="G613" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H613" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="I613" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="J613" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="K613" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="L613" s="10" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="614">
+      <c r="A614" s="12">
+        <v>45599.70918225695</v>
+      </c>
+      <c r="B614" s="13" t="s">
+        <v>1355</v>
+      </c>
+      <c r="C614" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="D614" s="13">
+        <v>2.0242986E7</v>
+      </c>
+      <c r="E614" s="13" t="s">
+        <v>1356</v>
+      </c>
+      <c r="F614" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G614" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H614" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="I614" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="M614" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="N614" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="O614" s="14" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="615">
+      <c r="A615" s="9">
+        <v>45599.70950306713</v>
+      </c>
+      <c r="B615" s="10" t="s">
+        <v>1357</v>
+      </c>
+      <c r="C615" s="10" t="s">
+        <v>247</v>
+      </c>
+      <c r="D615" s="10">
+        <v>2.0195285E7</v>
+      </c>
+      <c r="E615" s="10" t="s">
+        <v>1358</v>
+      </c>
+      <c r="F615" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G615" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="H615" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="I615" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="M615" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="N615" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="O615" s="11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="616">
+      <c r="A616" s="12">
+        <v>45599.71084745371</v>
+      </c>
+      <c r="B616" s="13" t="s">
+        <v>1359</v>
+      </c>
+      <c r="C616" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="D616" s="13">
+        <v>2.0192229E7</v>
+      </c>
+      <c r="E616" s="13" t="s">
+        <v>1360</v>
+      </c>
+      <c r="F616" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G616" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="H616" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="I616" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="J616" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="K616" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="L616" s="13" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="617">
+      <c r="A617" s="9">
+        <v>45599.711594803244</v>
+      </c>
+      <c r="B617" s="10" t="s">
+        <v>1361</v>
+      </c>
+      <c r="C617" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="D617" s="10">
+        <v>2.0243973E7</v>
+      </c>
+      <c r="E617" s="10" t="s">
+        <v>1362</v>
+      </c>
+      <c r="F617" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G617" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H617" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="I617" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="J617" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="K617" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="L617" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="618">
+      <c r="A618" s="12">
+        <v>45599.716528888894</v>
+      </c>
+      <c r="B618" s="13" t="s">
+        <v>1363</v>
+      </c>
+      <c r="C618" s="13" t="s">
+        <v>356</v>
+      </c>
+      <c r="D618" s="13">
+        <v>2.0233412E7</v>
+      </c>
+      <c r="E618" s="13" t="s">
+        <v>1364</v>
+      </c>
+      <c r="F618" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G618" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H618" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="I618" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="M618" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="N618" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="O618" s="14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="619">
+      <c r="A619" s="9">
+        <v>45599.71681359954</v>
+      </c>
+      <c r="B619" s="10" t="s">
+        <v>1365</v>
+      </c>
+      <c r="C619" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="D619" s="10">
+        <v>2.0245224E7</v>
+      </c>
+      <c r="E619" s="10" t="s">
+        <v>1366</v>
+      </c>
+      <c r="F619" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G619" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H619" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="I619" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="M619" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="N619" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="O619" s="11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="620">
+      <c r="A620" s="12">
+        <v>45599.723883831015</v>
+      </c>
+      <c r="B620" s="13" t="s">
+        <v>1367</v>
+      </c>
+      <c r="C620" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D620" s="13">
+        <v>2.0192737E7</v>
+      </c>
+      <c r="E620" s="13" t="s">
+        <v>1368</v>
+      </c>
+      <c r="F620" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G620" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H620" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="I620" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="J620" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="K620" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="L620" s="13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="621">
+      <c r="A621" s="9">
+        <v>45599.72463965278</v>
+      </c>
+      <c r="B621" s="10" t="s">
+        <v>1369</v>
+      </c>
+      <c r="C621" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="D621" s="10">
+        <v>2.0242625E7</v>
+      </c>
+      <c r="E621" s="10" t="s">
+        <v>1370</v>
+      </c>
+      <c r="F621" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="G621" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H621" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="I621" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="J621" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="K621" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="L621" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="622">
+      <c r="A622" s="12">
+        <v>45599.72596285879</v>
+      </c>
+      <c r="B622" s="13" t="s">
+        <v>1371</v>
+      </c>
+      <c r="C622" s="13" t="s">
+        <v>267</v>
+      </c>
+      <c r="D622" s="13">
+        <v>2.0246728E7</v>
+      </c>
+      <c r="E622" s="13" t="s">
+        <v>1372</v>
+      </c>
+      <c r="F622" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="G622" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="H622" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="I622" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="J622" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="K622" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="L622" s="13" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="623">
+      <c r="A623" s="9">
+        <v>45599.738164560185</v>
+      </c>
+      <c r="B623" s="10" t="s">
+        <v>1373</v>
+      </c>
+      <c r="C623" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="D623" s="10">
+        <v>2.0246289E7</v>
+      </c>
+      <c r="E623" s="10" t="s">
+        <v>1374</v>
+      </c>
+      <c r="F623" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G623" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H623" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="I623" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="J623" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="K623" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="L623" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="624">
+      <c r="A624" s="12">
+        <v>45599.74010763889</v>
+      </c>
+      <c r="B624" s="13" t="s">
+        <v>1375</v>
+      </c>
+      <c r="C624" s="13" t="s">
+        <v>1376</v>
+      </c>
+      <c r="D624" s="13">
+        <v>2.0233544E7</v>
+      </c>
+      <c r="E624" s="13" t="s">
+        <v>1377</v>
+      </c>
+      <c r="F624" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G624" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H624" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="I624" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="J624" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="K624" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="L624" s="13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="625">
+      <c r="A625" s="9">
+        <v>45599.74215342593</v>
+      </c>
+      <c r="B625" s="10" t="s">
+        <v>1378</v>
+      </c>
+      <c r="C625" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="D625" s="10">
+        <v>2.0222933E7</v>
+      </c>
+      <c r="E625" s="10" t="s">
+        <v>1379</v>
+      </c>
+      <c r="F625" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="G625" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H625" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="I625" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="M625" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="N625" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="O625" s="11" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="626">
+      <c r="A626" s="12">
+        <v>45599.74403145834</v>
+      </c>
+      <c r="B626" s="13" t="s">
+        <v>1380</v>
+      </c>
+      <c r="C626" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="D626" s="13">
+        <v>2.0215212E7</v>
+      </c>
+      <c r="E626" s="13" t="s">
+        <v>1381</v>
+      </c>
+      <c r="F626" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G626" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="H626" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="I626" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="M626" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="N626" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="O626" s="14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="627">
+      <c r="A627" s="9">
+        <v>45599.74483848379</v>
+      </c>
+      <c r="B627" s="10" t="s">
+        <v>1382</v>
+      </c>
+      <c r="C627" s="10" t="s">
+        <v>513</v>
+      </c>
+      <c r="D627" s="10">
+        <v>2.0241728E7</v>
+      </c>
+      <c r="E627" s="10" t="s">
+        <v>1383</v>
+      </c>
+      <c r="F627" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G627" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="H627" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="I627" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="J627" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="K627" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="L627" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="628">
+      <c r="A628" s="12">
+        <v>45599.74843137732</v>
+      </c>
+      <c r="B628" s="13" t="s">
+        <v>1384</v>
+      </c>
+      <c r="C628" s="13" t="s">
+        <v>780</v>
+      </c>
+      <c r="D628" s="13">
+        <v>2.0203321E7</v>
+      </c>
+      <c r="E628" s="13" t="s">
+        <v>1385</v>
+      </c>
+      <c r="F628" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G628" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="H628" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="I628" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="M628" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="N628" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="O628" s="14" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="629">
+      <c r="A629" s="9">
+        <v>45599.75013606482</v>
+      </c>
+      <c r="B629" s="10" t="s">
+        <v>1386</v>
+      </c>
+      <c r="C629" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="D629" s="10">
+        <v>2.024664E7</v>
+      </c>
+      <c r="E629" s="10" t="s">
+        <v>297</v>
+      </c>
+      <c r="F629" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G629" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H629" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="I629" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="M629" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="N629" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="O629" s="11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="630">
+      <c r="A630" s="12">
+        <v>45599.756667511574</v>
+      </c>
+      <c r="B630" s="13" t="s">
+        <v>1387</v>
+      </c>
+      <c r="C630" s="13" t="s">
+        <v>780</v>
+      </c>
+      <c r="D630" s="13">
+        <v>2.02043359E8</v>
+      </c>
+      <c r="E630" s="13" t="s">
+        <v>1388</v>
+      </c>
+      <c r="F630" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G630" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="H630" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="I630" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="M630" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="N630" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="O630" s="14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="631">
+      <c r="A631" s="9">
+        <v>45599.75701082176</v>
+      </c>
+      <c r="B631" s="10" t="s">
+        <v>1389</v>
+      </c>
+      <c r="C631" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="D631" s="10">
+        <v>2.0172433E7</v>
+      </c>
+      <c r="E631" s="10" t="s">
+        <v>1390</v>
+      </c>
+      <c r="F631" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="G631" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H631" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="I631" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="M631" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="N631" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="O631" s="11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="632">
+      <c r="A632" s="12">
+        <v>45599.759221319444</v>
+      </c>
+      <c r="B632" s="13" t="s">
+        <v>1391</v>
+      </c>
+      <c r="C632" s="13" t="s">
+        <v>1392</v>
+      </c>
+      <c r="D632" s="13">
+        <v>2.0236736E7</v>
+      </c>
+      <c r="E632" s="13" t="s">
+        <v>1393</v>
+      </c>
+      <c r="F632" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G632" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="H632" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="I632" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="M632" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="N632" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="O632" s="14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="633">
+      <c r="A633" s="9">
+        <v>45599.760540601856</v>
+      </c>
+      <c r="B633" s="10" t="s">
+        <v>1394</v>
+      </c>
+      <c r="C633" s="10" t="s">
+        <v>720</v>
+      </c>
+      <c r="D633" s="10">
+        <v>2.0246909E7</v>
+      </c>
+      <c r="E633" s="10" t="s">
+        <v>1395</v>
+      </c>
+      <c r="F633" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G633" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H633" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="I633" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="J633" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="K633" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="L633" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="634">
+      <c r="A634" s="12">
+        <v>45599.7633783912</v>
+      </c>
+      <c r="B634" s="13" t="s">
+        <v>1396</v>
+      </c>
+      <c r="C634" s="13" t="s">
+        <v>229</v>
+      </c>
+      <c r="D634" s="13">
+        <v>2.0242613E7</v>
+      </c>
+      <c r="E634" s="13" t="s">
+        <v>1397</v>
+      </c>
+      <c r="F634" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G634" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H634" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="I634" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="M634" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="N634" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="O634" s="14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="635">
+      <c r="A635" s="9">
+        <v>45599.76342131944</v>
+      </c>
+      <c r="B635" s="10" t="s">
+        <v>1398</v>
+      </c>
+      <c r="C635" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="D635" s="10">
+        <v>2.0243951E7</v>
+      </c>
+      <c r="E635" s="10" t="s">
+        <v>1399</v>
+      </c>
+      <c r="F635" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G635" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H635" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="I635" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="J635" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="K635" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="L635" s="10" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="636">
+      <c r="A636" s="12">
+        <v>45599.764730740746</v>
+      </c>
+      <c r="B636" s="13" t="s">
+        <v>1400</v>
+      </c>
+      <c r="C636" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="D636" s="13">
+        <v>2.0243622E7</v>
+      </c>
+      <c r="E636" s="13" t="s">
+        <v>1401</v>
+      </c>
+      <c r="F636" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G636" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="H636" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="I636" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="J636" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="K636" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="L636" s="13" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="637">
+      <c r="A637" s="15">
+        <v>45599.764905324075</v>
+      </c>
+      <c r="B637" s="16" t="s">
+        <v>1402</v>
+      </c>
+      <c r="C637" s="16" t="s">
+        <v>170</v>
+      </c>
+      <c r="D637" s="16">
+        <v>2.0242418E7</v>
+      </c>
+      <c r="E637" s="16" t="s">
+        <v>1403</v>
+      </c>
+      <c r="F637" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="G637" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="H637" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="I637" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="J637" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="K637" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="L637" s="16" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>

--- a/R/data/quiz241021_tmp.xlsx
+++ b/R/data/quiz241021_tmp.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6375" uniqueCount="1404">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6655" uniqueCount="1460">
   <si>
     <t>타임스탬프</t>
   </si>
@@ -4223,6 +4223,174 @@
   </si>
   <si>
     <t>송도원</t>
+  </si>
+  <si>
+    <t>chaerin3940@naver.com</t>
+  </si>
+  <si>
+    <t>김채린</t>
+  </si>
+  <si>
+    <t>rlatldbs124@naver.com</t>
+  </si>
+  <si>
+    <t>김시윤</t>
+  </si>
+  <si>
+    <t>saycom816@gmail.com</t>
+  </si>
+  <si>
+    <t>김영빈</t>
+  </si>
+  <si>
+    <t>skyflight0656@gmail.com</t>
+  </si>
+  <si>
+    <t>한충서</t>
+  </si>
+  <si>
+    <t>azxsk0187@gmail.com</t>
+  </si>
+  <si>
+    <t>한윤서</t>
+  </si>
+  <si>
+    <t>dhpark25678@naver.com</t>
+  </si>
+  <si>
+    <t>박도현</t>
+  </si>
+  <si>
+    <t>lgc01040089921@gmail.com</t>
+  </si>
+  <si>
+    <t>이감찬</t>
+  </si>
+  <si>
+    <t>kimw0707@naver.com</t>
+  </si>
+  <si>
+    <t>김원영</t>
+  </si>
+  <si>
+    <t>20182346@hallym.ac.kr</t>
+  </si>
+  <si>
+    <t>이용재</t>
+  </si>
+  <si>
+    <t>osmokroyal1@gmail.com</t>
+  </si>
+  <si>
+    <t>오성민</t>
+  </si>
+  <si>
+    <t>hshljy7@gmail.com</t>
+  </si>
+  <si>
+    <t>디지털 미디어 콘텐츠</t>
+  </si>
+  <si>
+    <t>황성훈</t>
+  </si>
+  <si>
+    <t>junyeong@hallym.ac.kr</t>
+  </si>
+  <si>
+    <t>박준영</t>
+  </si>
+  <si>
+    <t>bcy1976@naver.com</t>
+  </si>
+  <si>
+    <t>변치윤</t>
+  </si>
+  <si>
+    <t>gee30901@naver.com</t>
+  </si>
+  <si>
+    <t>박예원</t>
+  </si>
+  <si>
+    <t>hose0303@gmail.com</t>
+  </si>
+  <si>
+    <t>유정현</t>
+  </si>
+  <si>
+    <t>20235263@hallym.ac.kr</t>
+  </si>
+  <si>
+    <t>wjswlals789@naver.com</t>
+  </si>
+  <si>
+    <t>전지민</t>
+  </si>
+  <si>
+    <t>jsenghun411@gmail.com</t>
+  </si>
+  <si>
+    <t>정성훈</t>
+  </si>
+  <si>
+    <t>seokhoo1@naver.com</t>
+  </si>
+  <si>
+    <t>박석호</t>
+  </si>
+  <si>
+    <t>bottom0406@gmail.com</t>
+  </si>
+  <si>
+    <t>박문형</t>
+  </si>
+  <si>
+    <t>wlghd2352@naver.com</t>
+  </si>
+  <si>
+    <t>안지홍</t>
+  </si>
+  <si>
+    <t>a01091830132@gmail.com</t>
+  </si>
+  <si>
+    <t>황유민</t>
+  </si>
+  <si>
+    <t>yeonh990@naver.com</t>
+  </si>
+  <si>
+    <t>언어병리학전공</t>
+  </si>
+  <si>
+    <t>박현아</t>
+  </si>
+  <si>
+    <t>1202kge@naver.com</t>
+  </si>
+  <si>
+    <t>김가은</t>
+  </si>
+  <si>
+    <t>eunsoljj12@naver.com</t>
+  </si>
+  <si>
+    <t>권은솔</t>
+  </si>
+  <si>
+    <t>kya01095509223@gmail.com</t>
+  </si>
+  <si>
+    <t>간호</t>
+  </si>
+  <si>
+    <t>김윤아</t>
+  </si>
+  <si>
+    <t>yeonju455@naver.com</t>
+  </si>
+  <si>
+    <t>정연주</t>
   </si>
 </sst>
 </file>
@@ -4253,7 +4421,7 @@
       <patternFill patternType="lightGray"/>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="13">
     <border/>
     <border>
       <left style="thin">
@@ -4409,11 +4577,25 @@
         <color rgb="FF442F65"/>
       </bottom>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFF8F9FA"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF442F65"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFF8F9FA"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF442F65"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -4463,6 +4645,9 @@
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="11" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="12" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
   </cellXfs>
@@ -4523,7 +4708,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:O637" displayName="Form_Responses1" name="Form_Responses1" id="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:O665" displayName="Form_Responses1" name="Form_Responses1" id="1">
   <tableColumns count="15">
     <tableColumn name="타임스탬프" id="1"/>
     <tableColumn name="이메일 주소" id="2"/>
@@ -28941,41 +29126,1105 @@
       </c>
     </row>
     <row r="637">
-      <c r="A637" s="15">
+      <c r="A637" s="9">
         <v>45599.764905324075</v>
       </c>
-      <c r="B637" s="16" t="s">
+      <c r="B637" s="10" t="s">
         <v>1402</v>
       </c>
-      <c r="C637" s="16" t="s">
+      <c r="C637" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="D637" s="16">
+      <c r="D637" s="10">
         <v>2.0242418E7</v>
       </c>
-      <c r="E637" s="16" t="s">
+      <c r="E637" s="10" t="s">
         <v>1403</v>
       </c>
-      <c r="F637" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="G637" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="H637" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="I637" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="J637" s="16" t="s">
+      <c r="F637" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G637" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H637" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="I637" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="J637" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="K637" s="16" t="s">
+      <c r="K637" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="L637" s="16" t="s">
+      <c r="L637" s="10" t="s">
         <v>83</v>
+      </c>
+    </row>
+    <row r="638">
+      <c r="A638" s="12">
+        <v>45599.76614107639</v>
+      </c>
+      <c r="B638" s="13" t="s">
+        <v>1404</v>
+      </c>
+      <c r="C638" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="D638" s="13">
+        <v>2.023221E7</v>
+      </c>
+      <c r="E638" s="13" t="s">
+        <v>1405</v>
+      </c>
+      <c r="F638" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G638" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H638" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="I638" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="M638" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="N638" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="O638" s="14" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="639">
+      <c r="A639" s="9">
+        <v>45599.767297812505</v>
+      </c>
+      <c r="B639" s="10" t="s">
+        <v>1406</v>
+      </c>
+      <c r="C639" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="D639" s="10">
+        <v>2.0203807E7</v>
+      </c>
+      <c r="E639" s="10" t="s">
+        <v>1407</v>
+      </c>
+      <c r="F639" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G639" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H639" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="I639" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="M639" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="N639" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="O639" s="11" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="640">
+      <c r="A640" s="12">
+        <v>45599.77245820602</v>
+      </c>
+      <c r="B640" s="13" t="s">
+        <v>1408</v>
+      </c>
+      <c r="C640" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="D640" s="13">
+        <v>2.024293E7</v>
+      </c>
+      <c r="E640" s="13" t="s">
+        <v>1409</v>
+      </c>
+      <c r="F640" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="G640" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="H640" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="I640" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="J640" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="K640" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="L640" s="13" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="641">
+      <c r="A641" s="9">
+        <v>45599.77851224537</v>
+      </c>
+      <c r="B641" s="10" t="s">
+        <v>1410</v>
+      </c>
+      <c r="C641" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="D641" s="10">
+        <v>2.0215269E7</v>
+      </c>
+      <c r="E641" s="10" t="s">
+        <v>1411</v>
+      </c>
+      <c r="F641" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G641" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H641" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="I641" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="J641" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="K641" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="L641" s="10" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="642">
+      <c r="A642" s="12">
+        <v>45599.77965844907</v>
+      </c>
+      <c r="B642" s="13" t="s">
+        <v>1412</v>
+      </c>
+      <c r="C642" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="D642" s="13">
+        <v>2.0246301E7</v>
+      </c>
+      <c r="E642" s="13" t="s">
+        <v>1413</v>
+      </c>
+      <c r="F642" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G642" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H642" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="I642" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="M642" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="N642" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="O642" s="14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="643">
+      <c r="A643" s="9">
+        <v>45599.78363450231</v>
+      </c>
+      <c r="B643" s="10" t="s">
+        <v>1414</v>
+      </c>
+      <c r="C643" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D643" s="10">
+        <v>2.0223224E7</v>
+      </c>
+      <c r="E643" s="10" t="s">
+        <v>1415</v>
+      </c>
+      <c r="F643" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G643" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="H643" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="I643" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="J643" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="K643" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="L643" s="10" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="644">
+      <c r="A644" s="12">
+        <v>45599.78946305555</v>
+      </c>
+      <c r="B644" s="13" t="s">
+        <v>1416</v>
+      </c>
+      <c r="C644" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="D644" s="13">
+        <v>2.0242995E7</v>
+      </c>
+      <c r="E644" s="13" t="s">
+        <v>1417</v>
+      </c>
+      <c r="F644" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="G644" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="H644" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="I644" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="J644" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="K644" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="L644" s="13" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="645">
+      <c r="A645" s="9">
+        <v>45599.7947397338</v>
+      </c>
+      <c r="B645" s="10" t="s">
+        <v>1418</v>
+      </c>
+      <c r="C645" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="D645" s="10">
+        <v>2.0245138E7</v>
+      </c>
+      <c r="E645" s="10" t="s">
+        <v>1419</v>
+      </c>
+      <c r="F645" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G645" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H645" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="I645" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="J645" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="K645" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="L645" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="646">
+      <c r="A646" s="12">
+        <v>45599.79509357639</v>
+      </c>
+      <c r="B646" s="13" t="s">
+        <v>1420</v>
+      </c>
+      <c r="C646" s="13" t="s">
+        <v>273</v>
+      </c>
+      <c r="D646" s="13">
+        <v>2.0182346E7</v>
+      </c>
+      <c r="E646" s="13" t="s">
+        <v>1421</v>
+      </c>
+      <c r="F646" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G646" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="H646" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="I646" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="J646" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="K646" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="L646" s="13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="647">
+      <c r="A647" s="9">
+        <v>45599.795125115736</v>
+      </c>
+      <c r="B647" s="10" t="s">
+        <v>1422</v>
+      </c>
+      <c r="C647" s="10" t="s">
+        <v>333</v>
+      </c>
+      <c r="D647" s="10">
+        <v>2.0241526E7</v>
+      </c>
+      <c r="E647" s="10" t="s">
+        <v>1423</v>
+      </c>
+      <c r="F647" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G647" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H647" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="I647" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="J647" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="K647" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="L647" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="648">
+      <c r="A648" s="12">
+        <v>45599.79719142361</v>
+      </c>
+      <c r="B648" s="13" t="s">
+        <v>1424</v>
+      </c>
+      <c r="C648" s="13" t="s">
+        <v>1425</v>
+      </c>
+      <c r="D648" s="13">
+        <v>2.0193017E7</v>
+      </c>
+      <c r="E648" s="13" t="s">
+        <v>1426</v>
+      </c>
+      <c r="F648" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G648" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H648" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="I648" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="J648" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="K648" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="L648" s="13" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="649">
+      <c r="A649" s="9">
+        <v>45599.79829637731</v>
+      </c>
+      <c r="B649" s="10" t="s">
+        <v>1427</v>
+      </c>
+      <c r="C649" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="D649" s="10">
+        <v>2.0245169E7</v>
+      </c>
+      <c r="E649" s="10" t="s">
+        <v>1428</v>
+      </c>
+      <c r="F649" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G649" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H649" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="I649" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="M649" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="N649" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="O649" s="11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="650">
+      <c r="A650" s="12">
+        <v>45599.79965027778</v>
+      </c>
+      <c r="B650" s="13" t="s">
+        <v>1429</v>
+      </c>
+      <c r="C650" s="13" t="s">
+        <v>247</v>
+      </c>
+      <c r="D650" s="13">
+        <v>2.023518E7</v>
+      </c>
+      <c r="E650" s="13" t="s">
+        <v>1430</v>
+      </c>
+      <c r="F650" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G650" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="H650" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="I650" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="M650" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="N650" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="O650" s="14" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="651">
+      <c r="A651" s="9">
+        <v>45599.801366099535</v>
+      </c>
+      <c r="B651" s="10" t="s">
+        <v>593</v>
+      </c>
+      <c r="C651" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D651" s="10">
+        <v>2.0232548E7</v>
+      </c>
+      <c r="E651" s="10" t="s">
+        <v>594</v>
+      </c>
+      <c r="F651" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G651" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H651" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="I651" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="M651" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="N651" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="O651" s="11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="652">
+      <c r="A652" s="12">
+        <v>45599.80255384259</v>
+      </c>
+      <c r="B652" s="13" t="s">
+        <v>1431</v>
+      </c>
+      <c r="C652" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="D652" s="13">
+        <v>2.0246238E7</v>
+      </c>
+      <c r="E652" s="13" t="s">
+        <v>1432</v>
+      </c>
+      <c r="F652" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G652" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H652" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="I652" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="M652" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="N652" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="O652" s="14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="653">
+      <c r="A653" s="9">
+        <v>45599.80344675926</v>
+      </c>
+      <c r="B653" s="10" t="s">
+        <v>1433</v>
+      </c>
+      <c r="C653" s="10" t="s">
+        <v>406</v>
+      </c>
+      <c r="D653" s="10">
+        <v>2.0223523E7</v>
+      </c>
+      <c r="E653" s="10" t="s">
+        <v>1434</v>
+      </c>
+      <c r="F653" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G653" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="H653" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="I653" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="J653" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="K653" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="L653" s="10" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="654">
+      <c r="A654" s="12">
+        <v>45599.80350450231</v>
+      </c>
+      <c r="B654" s="13" t="s">
+        <v>1435</v>
+      </c>
+      <c r="C654" s="13" t="s">
+        <v>306</v>
+      </c>
+      <c r="D654" s="13">
+        <v>2.0235263E7</v>
+      </c>
+      <c r="E654" s="13" t="s">
+        <v>716</v>
+      </c>
+      <c r="F654" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G654" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="H654" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="I654" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="J654" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="K654" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="L654" s="13" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="655">
+      <c r="A655" s="9">
+        <v>45599.803882719905</v>
+      </c>
+      <c r="B655" s="10" t="s">
+        <v>1436</v>
+      </c>
+      <c r="C655" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="D655" s="10">
+        <v>2.0213731E7</v>
+      </c>
+      <c r="E655" s="10" t="s">
+        <v>1437</v>
+      </c>
+      <c r="F655" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G655" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H655" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="I655" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="J655" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="K655" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="L655" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="656">
+      <c r="A656" s="12">
+        <v>45599.804309328705</v>
+      </c>
+      <c r="B656" s="13" t="s">
+        <v>1438</v>
+      </c>
+      <c r="C656" s="13" t="s">
+        <v>679</v>
+      </c>
+      <c r="D656" s="13">
+        <v>2.0243031E7</v>
+      </c>
+      <c r="E656" s="13" t="s">
+        <v>1439</v>
+      </c>
+      <c r="F656" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G656" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H656" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="I656" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="J656" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="K656" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="L656" s="13" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="657">
+      <c r="A657" s="9">
+        <v>45599.804609189814</v>
+      </c>
+      <c r="B657" s="10" t="s">
+        <v>1440</v>
+      </c>
+      <c r="C657" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="D657" s="10">
+        <v>2.0241038E7</v>
+      </c>
+      <c r="E657" s="10" t="s">
+        <v>1441</v>
+      </c>
+      <c r="F657" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G657" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H657" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="I657" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="J657" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="K657" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="L657" s="10" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="658">
+      <c r="A658" s="12">
+        <v>45599.80554973379</v>
+      </c>
+      <c r="B658" s="13" t="s">
+        <v>1442</v>
+      </c>
+      <c r="C658" s="13" t="s">
+        <v>229</v>
+      </c>
+      <c r="D658" s="13">
+        <v>2.0242616E7</v>
+      </c>
+      <c r="E658" s="13" t="s">
+        <v>1443</v>
+      </c>
+      <c r="F658" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G658" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H658" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="I658" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="J658" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="K658" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="L658" s="13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="659">
+      <c r="A659" s="9">
+        <v>45599.806399918976</v>
+      </c>
+      <c r="B659" s="10" t="s">
+        <v>1444</v>
+      </c>
+      <c r="C659" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="D659" s="10">
+        <v>2.0202418E7</v>
+      </c>
+      <c r="E659" s="10" t="s">
+        <v>1445</v>
+      </c>
+      <c r="F659" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G659" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H659" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="I659" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="J659" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="K659" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="L659" s="10" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="660">
+      <c r="A660" s="12">
+        <v>45599.80639802083</v>
+      </c>
+      <c r="B660" s="13" t="s">
+        <v>1446</v>
+      </c>
+      <c r="C660" s="13" t="s">
+        <v>455</v>
+      </c>
+      <c r="D660" s="13">
+        <v>2.0243368E7</v>
+      </c>
+      <c r="E660" s="13" t="s">
+        <v>1447</v>
+      </c>
+      <c r="F660" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G660" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="H660" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="I660" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="J660" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="K660" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="L660" s="13" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="661">
+      <c r="A661" s="9">
+        <v>45599.80786418982</v>
+      </c>
+      <c r="B661" s="10" t="s">
+        <v>1448</v>
+      </c>
+      <c r="C661" s="10" t="s">
+        <v>1449</v>
+      </c>
+      <c r="D661" s="10">
+        <v>2.023393E7</v>
+      </c>
+      <c r="E661" s="10" t="s">
+        <v>1450</v>
+      </c>
+      <c r="F661" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G661" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H661" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="I661" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="M661" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="N661" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="O661" s="11" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="662">
+      <c r="A662" s="12">
+        <v>45599.808155335646</v>
+      </c>
+      <c r="B662" s="13" t="s">
+        <v>1451</v>
+      </c>
+      <c r="C662" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="D662" s="13">
+        <v>2.0242205E7</v>
+      </c>
+      <c r="E662" s="13" t="s">
+        <v>1452</v>
+      </c>
+      <c r="F662" s="13" t="s">
+        <v>239</v>
+      </c>
+      <c r="G662" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="H662" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="I662" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="J662" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="K662" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="L662" s="13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="663">
+      <c r="A663" s="9">
+        <v>45599.811487349536</v>
+      </c>
+      <c r="B663" s="10" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C663" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="D663" s="10">
+        <v>2.0245113E7</v>
+      </c>
+      <c r="E663" s="10" t="s">
+        <v>1454</v>
+      </c>
+      <c r="F663" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G663" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="H663" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="I663" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="M663" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="N663" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="O663" s="11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="664">
+      <c r="A664" s="12">
+        <v>45599.812146446755</v>
+      </c>
+      <c r="B664" s="13" t="s">
+        <v>1455</v>
+      </c>
+      <c r="C664" s="13" t="s">
+        <v>1456</v>
+      </c>
+      <c r="D664" s="13">
+        <v>2.0246224E7</v>
+      </c>
+      <c r="E664" s="13" t="s">
+        <v>1457</v>
+      </c>
+      <c r="F664" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G664" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H664" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="I664" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="M664" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="N664" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="O664" s="14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="665">
+      <c r="A665" s="15">
+        <v>45599.812724097224</v>
+      </c>
+      <c r="B665" s="16" t="s">
+        <v>1458</v>
+      </c>
+      <c r="C665" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="D665" s="16">
+        <v>2.0226638E7</v>
+      </c>
+      <c r="E665" s="16" t="s">
+        <v>1459</v>
+      </c>
+      <c r="F665" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="G665" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="H665" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="I665" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="M665" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="N665" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="O665" s="17" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/R/data/quiz241021_tmp.xlsx
+++ b/R/data/quiz241021_tmp.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6655" uniqueCount="1460">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7415" uniqueCount="1610">
   <si>
     <t>타임스탬프</t>
   </si>
@@ -4391,6 +4391,456 @@
   </si>
   <si>
     <t>정연주</t>
+  </si>
+  <si>
+    <t>haeun_ob@naver.com</t>
+  </si>
+  <si>
+    <t>박하은</t>
+  </si>
+  <si>
+    <t>skaskgus@gmail.com</t>
+  </si>
+  <si>
+    <t>남나현</t>
+  </si>
+  <si>
+    <t>jongjongsook@naver.com</t>
+  </si>
+  <si>
+    <t>김종숙</t>
+  </si>
+  <si>
+    <t>coreykang3@naver.com</t>
+  </si>
+  <si>
+    <t>반도체공학</t>
+  </si>
+  <si>
+    <t>강동훈</t>
+  </si>
+  <si>
+    <t>mkjk1227@naver.com</t>
+  </si>
+  <si>
+    <t>정민기</t>
+  </si>
+  <si>
+    <t>mire030503@gmail.com</t>
+  </si>
+  <si>
+    <t>디지털미디어콘텐츠 학과</t>
+  </si>
+  <si>
+    <t>김원형</t>
+  </si>
+  <si>
+    <t>dngud4@naver.com</t>
+  </si>
+  <si>
+    <t>이우형</t>
+  </si>
+  <si>
+    <t>lsd5741@naver.com</t>
+  </si>
+  <si>
+    <t>이소담</t>
+  </si>
+  <si>
+    <t>wpghks1145@gmail.com</t>
+  </si>
+  <si>
+    <t>박제환</t>
+  </si>
+  <si>
+    <t>wendy040507@naver.com</t>
+  </si>
+  <si>
+    <t>tmddl3538@naver.com</t>
+  </si>
+  <si>
+    <t>kte1785@naver.com</t>
+  </si>
+  <si>
+    <t>chltjdnjs2421@naver.com</t>
+  </si>
+  <si>
+    <t>최서원</t>
+  </si>
+  <si>
+    <t>sonsumin0304@naver.com</t>
+  </si>
+  <si>
+    <t>손수민</t>
+  </si>
+  <si>
+    <t>dream03064@gmail.com</t>
+  </si>
+  <si>
+    <t>오채연</t>
+  </si>
+  <si>
+    <t>ueusudjsjsksksk@gmail.com</t>
+  </si>
+  <si>
+    <t>강동현</t>
+  </si>
+  <si>
+    <t>hjjj051014@naver.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">안효정 </t>
+  </si>
+  <si>
+    <t>jisung050407@naver.com</t>
+  </si>
+  <si>
+    <t>김지성</t>
+  </si>
+  <si>
+    <t>ysuyes@gmail.com</t>
+  </si>
+  <si>
+    <t>윤승욱</t>
+  </si>
+  <si>
+    <t>oh4559@gmail.com</t>
+  </si>
+  <si>
+    <t>권오현</t>
+  </si>
+  <si>
+    <t>xx0911ram1@gmail.com</t>
+  </si>
+  <si>
+    <t>글로벌비즈니스</t>
+  </si>
+  <si>
+    <t>정하람</t>
+  </si>
+  <si>
+    <t>min010417@gmail.com</t>
+  </si>
+  <si>
+    <t>강채민</t>
+  </si>
+  <si>
+    <t>tlsh1282@naver.com</t>
+  </si>
+  <si>
+    <t>융합관광경영</t>
+  </si>
+  <si>
+    <t>원세한</t>
+  </si>
+  <si>
+    <t>chlwnstn777@naver.com</t>
+  </si>
+  <si>
+    <t>최준수</t>
+  </si>
+  <si>
+    <t>khj000818@naver.com</t>
+  </si>
+  <si>
+    <t>강현준</t>
+  </si>
+  <si>
+    <t>jjhjo2070@gmail.com</t>
+  </si>
+  <si>
+    <t>조정훈</t>
+  </si>
+  <si>
+    <t>yoosun91124@gmail.com</t>
+  </si>
+  <si>
+    <t>박윤선</t>
+  </si>
+  <si>
+    <t>skyhaneul0910@naver.com</t>
+  </si>
+  <si>
+    <t>권하늘</t>
+  </si>
+  <si>
+    <t>hiday_516@naver.com</t>
+  </si>
+  <si>
+    <t>양희지</t>
+  </si>
+  <si>
+    <t>tkddnt0608@gmail.com</t>
+  </si>
+  <si>
+    <t>유상욱</t>
+  </si>
+  <si>
+    <t>hanca0607@naver.com</t>
+  </si>
+  <si>
+    <t>한채아</t>
+  </si>
+  <si>
+    <t>nurasun02@gmail.com</t>
+  </si>
+  <si>
+    <t>이주연</t>
+  </si>
+  <si>
+    <t>seokwony123@gmail.com</t>
+  </si>
+  <si>
+    <t>양석원</t>
+  </si>
+  <si>
+    <t>jaekyung001203@gmail.com</t>
+  </si>
+  <si>
+    <t>안재경</t>
+  </si>
+  <si>
+    <t>uek2002@naver.com</t>
+  </si>
+  <si>
+    <t>김기조</t>
+  </si>
+  <si>
+    <t>xluwq264@gmail.com</t>
+  </si>
+  <si>
+    <t>주시은</t>
+  </si>
+  <si>
+    <t>opix97@naver.com</t>
+  </si>
+  <si>
+    <t>조성훈</t>
+  </si>
+  <si>
+    <t>yerimyerim11@naver.com</t>
+  </si>
+  <si>
+    <t>syuniw26@gmail.com</t>
+  </si>
+  <si>
+    <t>이서윤</t>
+  </si>
+  <si>
+    <t>20222849@hallym.ac.kr</t>
+  </si>
+  <si>
+    <t>한애진</t>
+  </si>
+  <si>
+    <t>seoeun2003@naver.com</t>
+  </si>
+  <si>
+    <t>최서은</t>
+  </si>
+  <si>
+    <t>yule240110@gmail.com</t>
+  </si>
+  <si>
+    <t>조율</t>
+  </si>
+  <si>
+    <t>u2fjfjrjdjjr2@naver.com</t>
+  </si>
+  <si>
+    <t>기소연</t>
+  </si>
+  <si>
+    <t>xhddlfqnxkr@naver.com</t>
+  </si>
+  <si>
+    <t>김보경</t>
+  </si>
+  <si>
+    <t>hcheon27@gmail.com</t>
+  </si>
+  <si>
+    <t>천하윤</t>
+  </si>
+  <si>
+    <t>mnnnmm22@naver.com</t>
+  </si>
+  <si>
+    <t>고현아</t>
+  </si>
+  <si>
+    <t>tlqpfldkghfk@gmail.com</t>
+  </si>
+  <si>
+    <t>jinsol.oh84@gmail.com</t>
+  </si>
+  <si>
+    <t>오진솔</t>
+  </si>
+  <si>
+    <t>hsbg1118@gmail.com</t>
+  </si>
+  <si>
+    <t>전희성</t>
+  </si>
+  <si>
+    <t>tommy580134@naver.com</t>
+  </si>
+  <si>
+    <t>예준원</t>
+  </si>
+  <si>
+    <t>5tmddk@naver.com</t>
+  </si>
+  <si>
+    <t>최승아</t>
+  </si>
+  <si>
+    <t>jiurim0316@naver.com</t>
+  </si>
+  <si>
+    <t>지우림</t>
+  </si>
+  <si>
+    <t>ndd1016@gmail.com</t>
+  </si>
+  <si>
+    <t>최형렬</t>
+  </si>
+  <si>
+    <t>h20216510@glab.hallym.ac.kr</t>
+  </si>
+  <si>
+    <t>AI기술경영융합전공</t>
+  </si>
+  <si>
+    <t>김지인</t>
+  </si>
+  <si>
+    <t>sua@hallym.ac.kr</t>
+  </si>
+  <si>
+    <t>김수아</t>
+  </si>
+  <si>
+    <t>dw060419@naver.com</t>
+  </si>
+  <si>
+    <t>김도원</t>
+  </si>
+  <si>
+    <t>p060627@naver.com</t>
+  </si>
+  <si>
+    <t>박찬혁</t>
+  </si>
+  <si>
+    <t>soomin0282@gmail.com</t>
+  </si>
+  <si>
+    <t>lsarang1311@gmail.com</t>
+  </si>
+  <si>
+    <t>이사랑</t>
+  </si>
+  <si>
+    <t>gordon0625@naver.com</t>
+  </si>
+  <si>
+    <t>김승재</t>
+  </si>
+  <si>
+    <t>ghkdxo2003@gmail.com</t>
+  </si>
+  <si>
+    <t>황이준</t>
+  </si>
+  <si>
+    <t>kentoku0901@naver.com</t>
+  </si>
+  <si>
+    <t>사회복지</t>
+  </si>
+  <si>
+    <t>김헌덕</t>
+  </si>
+  <si>
+    <t>sasa8294@naver.com</t>
+  </si>
+  <si>
+    <t>신승환</t>
+  </si>
+  <si>
+    <t>dkdud4750@naver.com</t>
+  </si>
+  <si>
+    <t>양아영</t>
+  </si>
+  <si>
+    <t>dbsduwls691@naver.com</t>
+  </si>
+  <si>
+    <t>윤여진</t>
+  </si>
+  <si>
+    <t>nye3796@gmail.com</t>
+  </si>
+  <si>
+    <t>노예은</t>
+  </si>
+  <si>
+    <t>featherkim@naver.com</t>
+  </si>
+  <si>
+    <t>김향수</t>
+  </si>
+  <si>
+    <t>dahyeony410@gmail.com</t>
+  </si>
+  <si>
+    <t>윤다현</t>
+  </si>
+  <si>
+    <t>wjdtn2445@naver.com</t>
+  </si>
+  <si>
+    <t>이정수</t>
+  </si>
+  <si>
+    <t>bigeyejimmy1@naver.com</t>
+  </si>
+  <si>
+    <t>wkdgotqlc@gmail.com</t>
+  </si>
+  <si>
+    <t>장햇빛</t>
+  </si>
+  <si>
+    <t>cardinal0507@gmail.com</t>
+  </si>
+  <si>
+    <t>김수환</t>
+  </si>
+  <si>
+    <t>dojunc1@gmail.com</t>
+  </si>
+  <si>
+    <t>차도준</t>
+  </si>
+  <si>
+    <t>ism050204@naver.com</t>
+  </si>
+  <si>
+    <t>sky0219msh@naver.com</t>
+  </si>
+  <si>
+    <t>최하늘</t>
+  </si>
+  <si>
+    <t>shimyuna14@gmail.com</t>
+  </si>
+  <si>
+    <t>심유나</t>
   </si>
 </sst>
 </file>
@@ -4421,7 +4871,7 @@
       <patternFill patternType="lightGray"/>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="12">
     <border/>
     <border>
       <left style="thin">
@@ -4577,25 +5027,11 @@
         <color rgb="FF442F65"/>
       </bottom>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFF8F9FA"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF442F65"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFF8F9FA"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF442F65"/>
-      </bottom>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -4645,9 +5081,6 @@
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="11" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
   </cellXfs>
@@ -4708,7 +5141,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:O665" displayName="Form_Responses1" name="Form_Responses1" id="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:O741" displayName="Form_Responses1" name="Form_Responses1" id="1">
   <tableColumns count="15">
     <tableColumn name="타임스탬프" id="1"/>
     <tableColumn name="이메일 주소" id="2"/>
@@ -30190,41 +30623,2929 @@
       </c>
     </row>
     <row r="665">
-      <c r="A665" s="15">
+      <c r="A665" s="9">
         <v>45599.812724097224</v>
       </c>
-      <c r="B665" s="16" t="s">
+      <c r="B665" s="10" t="s">
         <v>1458</v>
       </c>
-      <c r="C665" s="16" t="s">
+      <c r="C665" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="D665" s="16">
+      <c r="D665" s="10">
         <v>2.0226638E7</v>
       </c>
-      <c r="E665" s="16" t="s">
+      <c r="E665" s="10" t="s">
         <v>1459</v>
       </c>
-      <c r="F665" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="G665" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="H665" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="I665" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="M665" s="16" t="s">
+      <c r="F665" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G665" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H665" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="I665" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="M665" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="N665" s="16" t="s">
+      <c r="N665" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="O665" s="17" t="s">
+      <c r="O665" s="11" t="s">
         <v>60</v>
+      </c>
+    </row>
+    <row r="666">
+      <c r="A666" s="12">
+        <v>45599.814243298606</v>
+      </c>
+      <c r="B666" s="13" t="s">
+        <v>1460</v>
+      </c>
+      <c r="C666" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="D666" s="13">
+        <v>2.0222327E7</v>
+      </c>
+      <c r="E666" s="13" t="s">
+        <v>1461</v>
+      </c>
+      <c r="F666" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G666" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="H666" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="I666" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="M666" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="N666" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="O666" s="14" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="667">
+      <c r="A667" s="9">
+        <v>45599.81493350695</v>
+      </c>
+      <c r="B667" s="10" t="s">
+        <v>1462</v>
+      </c>
+      <c r="C667" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="D667" s="10">
+        <v>2.0202324E7</v>
+      </c>
+      <c r="E667" s="10" t="s">
+        <v>1463</v>
+      </c>
+      <c r="F667" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G667" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H667" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="I667" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="J667" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="K667" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="L667" s="10" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="668">
+      <c r="A668" s="12">
+        <v>45599.81499153935</v>
+      </c>
+      <c r="B668" s="13" t="s">
+        <v>1464</v>
+      </c>
+      <c r="C668" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D668" s="13">
+        <v>2.0243613E7</v>
+      </c>
+      <c r="E668" s="13" t="s">
+        <v>1465</v>
+      </c>
+      <c r="F668" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G668" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H668" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="I668" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="M668" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="N668" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="O668" s="14" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="669">
+      <c r="A669" s="9">
+        <v>45599.81541689815</v>
+      </c>
+      <c r="B669" s="10" t="s">
+        <v>1466</v>
+      </c>
+      <c r="C669" s="10" t="s">
+        <v>1467</v>
+      </c>
+      <c r="D669" s="10">
+        <v>2.0233301E7</v>
+      </c>
+      <c r="E669" s="10" t="s">
+        <v>1468</v>
+      </c>
+      <c r="F669" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="G669" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="H669" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="I669" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="M669" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="N669" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="O669" s="11" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="670">
+      <c r="A670" s="12">
+        <v>45599.815790231485</v>
+      </c>
+      <c r="B670" s="13" t="s">
+        <v>1469</v>
+      </c>
+      <c r="C670" s="13" t="s">
+        <v>1469</v>
+      </c>
+      <c r="D670" s="13">
+        <v>2.021284E7</v>
+      </c>
+      <c r="E670" s="13" t="s">
+        <v>1470</v>
+      </c>
+      <c r="F670" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G670" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="H670" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="I670" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="J670" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="K670" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="L670" s="13" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="671">
+      <c r="A671" s="9">
+        <v>45599.81928060185</v>
+      </c>
+      <c r="B671" s="10" t="s">
+        <v>1471</v>
+      </c>
+      <c r="C671" s="10" t="s">
+        <v>1472</v>
+      </c>
+      <c r="D671" s="10">
+        <v>2.0222514E7</v>
+      </c>
+      <c r="E671" s="10" t="s">
+        <v>1473</v>
+      </c>
+      <c r="F671" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G671" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H671" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="I671" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="J671" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="K671" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="L671" s="10" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="672">
+      <c r="A672" s="12">
+        <v>45599.81971116898</v>
+      </c>
+      <c r="B672" s="13" t="s">
+        <v>1474</v>
+      </c>
+      <c r="C672" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="D672" s="13">
+        <v>2.0222424E7</v>
+      </c>
+      <c r="E672" s="13" t="s">
+        <v>1475</v>
+      </c>
+      <c r="F672" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G672" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="H672" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="I672" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="J672" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="K672" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="L672" s="13" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="673">
+      <c r="A673" s="9">
+        <v>45599.82363309027</v>
+      </c>
+      <c r="B673" s="10" t="s">
+        <v>1476</v>
+      </c>
+      <c r="C673" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="D673" s="10">
+        <v>2.0242225E7</v>
+      </c>
+      <c r="E673" s="10" t="s">
+        <v>1477</v>
+      </c>
+      <c r="F673" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G673" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H673" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="I673" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="M673" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="N673" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="O673" s="11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="674">
+      <c r="A674" s="12">
+        <v>45599.82686017361</v>
+      </c>
+      <c r="B674" s="13" t="s">
+        <v>1478</v>
+      </c>
+      <c r="C674" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="D674" s="13">
+        <v>2.0201046E7</v>
+      </c>
+      <c r="E674" s="13" t="s">
+        <v>1479</v>
+      </c>
+      <c r="F674" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G674" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H674" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="I674" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="J674" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="K674" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="L674" s="13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="675">
+      <c r="A675" s="9">
+        <v>45599.8329069676</v>
+      </c>
+      <c r="B675" s="10" t="s">
+        <v>1480</v>
+      </c>
+      <c r="C675" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="D675" s="10">
+        <v>2.0243002E7</v>
+      </c>
+      <c r="E675" s="10" t="s">
+        <v>881</v>
+      </c>
+      <c r="F675" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="G675" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H675" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="I675" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="J675" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="K675" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="L675" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="676">
+      <c r="A676" s="12">
+        <v>45599.837630567126</v>
+      </c>
+      <c r="B676" s="13" t="s">
+        <v>1481</v>
+      </c>
+      <c r="C676" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="D676" s="13">
+        <v>2.0227037E7</v>
+      </c>
+      <c r="E676" s="13" t="s">
+        <v>1309</v>
+      </c>
+      <c r="F676" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G676" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H676" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="I676" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="J676" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="K676" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="L676" s="13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="677">
+      <c r="A677" s="9">
+        <v>45599.83849450231</v>
+      </c>
+      <c r="B677" s="10" t="s">
+        <v>1482</v>
+      </c>
+      <c r="C677" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="D677" s="10">
+        <v>2.0243913E7</v>
+      </c>
+      <c r="E677" s="10" t="s">
+        <v>789</v>
+      </c>
+      <c r="F677" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G677" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="H677" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="I677" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="M677" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="N677" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="O677" s="11" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="678">
+      <c r="A678" s="12">
+        <v>45599.84030978009</v>
+      </c>
+      <c r="B678" s="13" t="s">
+        <v>1483</v>
+      </c>
+      <c r="C678" s="13" t="s">
+        <v>195</v>
+      </c>
+      <c r="D678" s="13">
+        <v>2.0242848E7</v>
+      </c>
+      <c r="E678" s="13" t="s">
+        <v>1484</v>
+      </c>
+      <c r="F678" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G678" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H678" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="I678" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="M678" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="N678" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="O678" s="14" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="679">
+      <c r="A679" s="9">
+        <v>45599.844793344906</v>
+      </c>
+      <c r="B679" s="10" t="s">
+        <v>1485</v>
+      </c>
+      <c r="C679" s="10" t="s">
+        <v>267</v>
+      </c>
+      <c r="D679" s="10">
+        <v>2.0226748E7</v>
+      </c>
+      <c r="E679" s="10" t="s">
+        <v>1486</v>
+      </c>
+      <c r="F679" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G679" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="H679" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="I679" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="J679" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="K679" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="L679" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="680">
+      <c r="A680" s="12">
+        <v>45599.847778923606</v>
+      </c>
+      <c r="B680" s="13" t="s">
+        <v>1487</v>
+      </c>
+      <c r="C680" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="D680" s="13">
+        <v>2.0243927E7</v>
+      </c>
+      <c r="E680" s="13" t="s">
+        <v>1488</v>
+      </c>
+      <c r="F680" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G680" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H680" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="I680" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="J680" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="K680" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="L680" s="13" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="681">
+      <c r="A681" s="9">
+        <v>45599.848217164355</v>
+      </c>
+      <c r="B681" s="10" t="s">
+        <v>1489</v>
+      </c>
+      <c r="C681" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="D681" s="10">
+        <v>2.0245102E7</v>
+      </c>
+      <c r="E681" s="10" t="s">
+        <v>1490</v>
+      </c>
+      <c r="F681" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G681" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H681" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="I681" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="M681" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="N681" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="O681" s="11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="682">
+      <c r="A682" s="12">
+        <v>45599.84888506944</v>
+      </c>
+      <c r="B682" s="13" t="s">
+        <v>1491</v>
+      </c>
+      <c r="C682" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="D682" s="13">
+        <v>2.0243628E7</v>
+      </c>
+      <c r="E682" s="13" t="s">
+        <v>1492</v>
+      </c>
+      <c r="F682" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="G682" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H682" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="I682" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="M682" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="N682" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="O682" s="14" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="683">
+      <c r="A683" s="9">
+        <v>45599.84901883102</v>
+      </c>
+      <c r="B683" s="10" t="s">
+        <v>1493</v>
+      </c>
+      <c r="C683" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="D683" s="10">
+        <v>2.0242212E7</v>
+      </c>
+      <c r="E683" s="10" t="s">
+        <v>1494</v>
+      </c>
+      <c r="F683" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G683" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H683" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="I683" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="J683" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="K683" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="L683" s="10" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="684">
+      <c r="A684" s="12">
+        <v>45599.84903395834</v>
+      </c>
+      <c r="B684" s="13" t="s">
+        <v>1495</v>
+      </c>
+      <c r="C684" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="D684" s="13">
+        <v>2.0242992E7</v>
+      </c>
+      <c r="E684" s="13" t="s">
+        <v>1496</v>
+      </c>
+      <c r="F684" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G684" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H684" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="I684" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="J684" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="K684" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="L684" s="13" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="685">
+      <c r="A685" s="9">
+        <v>45599.85078354167</v>
+      </c>
+      <c r="B685" s="10" t="s">
+        <v>1497</v>
+      </c>
+      <c r="C685" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="D685" s="10">
+        <v>2.0215108E7</v>
+      </c>
+      <c r="E685" s="10" t="s">
+        <v>1498</v>
+      </c>
+      <c r="F685" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G685" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H685" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="I685" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="J685" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="K685" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="L685" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="686">
+      <c r="A686" s="12">
+        <v>45599.852150983796</v>
+      </c>
+      <c r="B686" s="13" t="s">
+        <v>1499</v>
+      </c>
+      <c r="C686" s="13" t="s">
+        <v>1500</v>
+      </c>
+      <c r="D686" s="13">
+        <v>2.0246422E7</v>
+      </c>
+      <c r="E686" s="13" t="s">
+        <v>1501</v>
+      </c>
+      <c r="F686" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G686" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H686" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="I686" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="J686" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="K686" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="L686" s="13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="687">
+      <c r="A687" s="9">
+        <v>45599.85288644676</v>
+      </c>
+      <c r="B687" s="10" t="s">
+        <v>1502</v>
+      </c>
+      <c r="C687" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="D687" s="10">
+        <v>2.0203702E7</v>
+      </c>
+      <c r="E687" s="10" t="s">
+        <v>1503</v>
+      </c>
+      <c r="F687" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G687" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H687" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="I687" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="M687" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="N687" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="O687" s="11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="688">
+      <c r="A688" s="12">
+        <v>45599.85536997685</v>
+      </c>
+      <c r="B688" s="13" t="s">
+        <v>1504</v>
+      </c>
+      <c r="C688" s="13" t="s">
+        <v>1505</v>
+      </c>
+      <c r="D688" s="13">
+        <v>2.0206623E7</v>
+      </c>
+      <c r="E688" s="13" t="s">
+        <v>1506</v>
+      </c>
+      <c r="F688" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G688" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H688" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="I688" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="M688" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="N688" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="O688" s="14" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="689">
+      <c r="A689" s="9">
+        <v>45599.85726521991</v>
+      </c>
+      <c r="B689" s="10" t="s">
+        <v>1507</v>
+      </c>
+      <c r="C689" s="10" t="s">
+        <v>1109</v>
+      </c>
+      <c r="D689" s="10">
+        <v>2.0193844E7</v>
+      </c>
+      <c r="E689" s="10" t="s">
+        <v>1508</v>
+      </c>
+      <c r="F689" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G689" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H689" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="I689" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="J689" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="K689" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="L689" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="690">
+      <c r="A690" s="12">
+        <v>45599.85757692129</v>
+      </c>
+      <c r="B690" s="13" t="s">
+        <v>1509</v>
+      </c>
+      <c r="C690" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="D690" s="13">
+        <v>2.0204103E7</v>
+      </c>
+      <c r="E690" s="13" t="s">
+        <v>1510</v>
+      </c>
+      <c r="F690" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G690" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H690" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="I690" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="M690" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="N690" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="O690" s="14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="691">
+      <c r="A691" s="9">
+        <v>45599.85823684028</v>
+      </c>
+      <c r="B691" s="10" t="s">
+        <v>1511</v>
+      </c>
+      <c r="C691" s="10" t="s">
+        <v>333</v>
+      </c>
+      <c r="D691" s="10">
+        <v>2.0241536E7</v>
+      </c>
+      <c r="E691" s="10" t="s">
+        <v>1512</v>
+      </c>
+      <c r="F691" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G691" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H691" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="I691" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="J691" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="K691" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="L691" s="10" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="692">
+      <c r="A692" s="12">
+        <v>45599.858616412035</v>
+      </c>
+      <c r="B692" s="13" t="s">
+        <v>1513</v>
+      </c>
+      <c r="C692" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="D692" s="13">
+        <v>2.0245167E7</v>
+      </c>
+      <c r="E692" s="13" t="s">
+        <v>1514</v>
+      </c>
+      <c r="F692" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G692" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H692" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="I692" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="M692" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="N692" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="O692" s="14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="693">
+      <c r="A693" s="9">
+        <v>45599.86109329861</v>
+      </c>
+      <c r="B693" s="10" t="s">
+        <v>1515</v>
+      </c>
+      <c r="C693" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="D693" s="10">
+        <v>2.0243803E7</v>
+      </c>
+      <c r="E693" s="10" t="s">
+        <v>1516</v>
+      </c>
+      <c r="F693" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G693" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H693" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="I693" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="M693" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="N693" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="O693" s="11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="694">
+      <c r="A694" s="12">
+        <v>45599.86406633102</v>
+      </c>
+      <c r="B694" s="13" t="s">
+        <v>1517</v>
+      </c>
+      <c r="C694" s="13" t="s">
+        <v>406</v>
+      </c>
+      <c r="D694" s="13">
+        <v>2.0203523E7</v>
+      </c>
+      <c r="E694" s="13" t="s">
+        <v>1518</v>
+      </c>
+      <c r="F694" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G694" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="H694" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="I694" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="J694" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="K694" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="L694" s="13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="695">
+      <c r="A695" s="9">
+        <v>45599.86523571759</v>
+      </c>
+      <c r="B695" s="10" t="s">
+        <v>1519</v>
+      </c>
+      <c r="C695" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="D695" s="10">
+        <v>2.0182923E7</v>
+      </c>
+      <c r="E695" s="10" t="s">
+        <v>1520</v>
+      </c>
+      <c r="F695" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G695" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="H695" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="I695" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="J695" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="K695" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="L695" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="696">
+      <c r="A696" s="12">
+        <v>45599.869068078704</v>
+      </c>
+      <c r="B696" s="13" t="s">
+        <v>1521</v>
+      </c>
+      <c r="C696" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="D696" s="13">
+        <v>2.0202365E7</v>
+      </c>
+      <c r="E696" s="13" t="s">
+        <v>1522</v>
+      </c>
+      <c r="F696" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G696" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H696" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="I696" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="J696" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="K696" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="L696" s="13" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="697">
+      <c r="A697" s="9">
+        <v>45599.870297256944</v>
+      </c>
+      <c r="B697" s="10" t="s">
+        <v>1523</v>
+      </c>
+      <c r="C697" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="D697" s="10">
+        <v>2.0243636E7</v>
+      </c>
+      <c r="E697" s="10" t="s">
+        <v>1524</v>
+      </c>
+      <c r="F697" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G697" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="H697" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="I697" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="J697" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="K697" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="L697" s="10" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="698">
+      <c r="A698" s="12">
+        <v>45599.873422453704</v>
+      </c>
+      <c r="B698" s="13" t="s">
+        <v>1525</v>
+      </c>
+      <c r="C698" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="D698" s="13">
+        <v>2.0243721E7</v>
+      </c>
+      <c r="E698" s="13" t="s">
+        <v>1526</v>
+      </c>
+      <c r="F698" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G698" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H698" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="I698" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="J698" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="K698" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="L698" s="13" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="699">
+      <c r="A699" s="9">
+        <v>45599.87652034722</v>
+      </c>
+      <c r="B699" s="10" t="s">
+        <v>1527</v>
+      </c>
+      <c r="C699" s="10" t="s">
+        <v>739</v>
+      </c>
+      <c r="D699" s="10">
+        <v>2.021323E7</v>
+      </c>
+      <c r="E699" s="10" t="s">
+        <v>1528</v>
+      </c>
+      <c r="F699" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G699" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H699" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="I699" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="M699" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="N699" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="O699" s="11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="700">
+      <c r="A700" s="12">
+        <v>45599.8771155787</v>
+      </c>
+      <c r="B700" s="13" t="s">
+        <v>1529</v>
+      </c>
+      <c r="C700" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="D700" s="13">
+        <v>2.0233908E7</v>
+      </c>
+      <c r="E700" s="13" t="s">
+        <v>1530</v>
+      </c>
+      <c r="F700" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G700" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H700" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="I700" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="J700" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="K700" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="L700" s="13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="701">
+      <c r="A701" s="9">
+        <v>45599.878131273144</v>
+      </c>
+      <c r="B701" s="10" t="s">
+        <v>1531</v>
+      </c>
+      <c r="C701" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="D701" s="10">
+        <v>2.0233048E7</v>
+      </c>
+      <c r="E701" s="10" t="s">
+        <v>1532</v>
+      </c>
+      <c r="F701" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="G701" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H701" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="I701" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="M701" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="N701" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="O701" s="11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="702">
+      <c r="A702" s="12">
+        <v>45599.879325671296</v>
+      </c>
+      <c r="B702" s="13" t="s">
+        <v>1533</v>
+      </c>
+      <c r="C702" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D702" s="13">
+        <v>2.0162755E7</v>
+      </c>
+      <c r="E702" s="13" t="s">
+        <v>1534</v>
+      </c>
+      <c r="F702" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G702" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H702" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="I702" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="M702" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="N702" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="O702" s="14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="703">
+      <c r="A703" s="9">
+        <v>45599.87972295139</v>
+      </c>
+      <c r="B703" s="10" t="s">
+        <v>1535</v>
+      </c>
+      <c r="C703" s="10" t="s">
+        <v>333</v>
+      </c>
+      <c r="D703" s="10">
+        <v>2.0231532E7</v>
+      </c>
+      <c r="E703" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="F703" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G703" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H703" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="I703" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="M703" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="N703" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="O703" s="11" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="704">
+      <c r="A704" s="12">
+        <v>45599.88096243056</v>
+      </c>
+      <c r="B704" s="13" t="s">
+        <v>1536</v>
+      </c>
+      <c r="C704" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="D704" s="13">
+        <v>2.0243726E7</v>
+      </c>
+      <c r="E704" s="13" t="s">
+        <v>1537</v>
+      </c>
+      <c r="F704" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G704" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H704" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="I704" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="J704" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="K704" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="L704" s="13" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="705">
+      <c r="A705" s="9">
+        <v>45599.88146775463</v>
+      </c>
+      <c r="B705" s="10" t="s">
+        <v>1538</v>
+      </c>
+      <c r="C705" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="D705" s="10">
+        <v>2.0222849E7</v>
+      </c>
+      <c r="E705" s="10" t="s">
+        <v>1539</v>
+      </c>
+      <c r="F705" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G705" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H705" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="I705" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="M705" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="N705" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="O705" s="11" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="706">
+      <c r="A706" s="12">
+        <v>45599.88182523148</v>
+      </c>
+      <c r="B706" s="13" t="s">
+        <v>1540</v>
+      </c>
+      <c r="C706" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="D706" s="13">
+        <v>2.0232238E7</v>
+      </c>
+      <c r="E706" s="13" t="s">
+        <v>1541</v>
+      </c>
+      <c r="F706" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G706" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H706" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="I706" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="M706" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="N706" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="O706" s="14" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="707">
+      <c r="A707" s="9">
+        <v>45599.8822815625</v>
+      </c>
+      <c r="B707" s="10" t="s">
+        <v>1542</v>
+      </c>
+      <c r="C707" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="D707" s="10">
+        <v>2.0243844E7</v>
+      </c>
+      <c r="E707" s="10" t="s">
+        <v>1543</v>
+      </c>
+      <c r="F707" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G707" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H707" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="I707" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="J707" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="K707" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="L707" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="708">
+      <c r="A708" s="12">
+        <v>45599.88259393518</v>
+      </c>
+      <c r="B708" s="13" t="s">
+        <v>1544</v>
+      </c>
+      <c r="C708" s="13" t="s">
+        <v>1262</v>
+      </c>
+      <c r="D708" s="13">
+        <v>2.0232502E7</v>
+      </c>
+      <c r="E708" s="13" t="s">
+        <v>1545</v>
+      </c>
+      <c r="F708" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="G708" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H708" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="I708" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="M708" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="N708" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="O708" s="14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="709">
+      <c r="A709" s="9">
+        <v>45599.88275478009</v>
+      </c>
+      <c r="B709" s="10" t="s">
+        <v>1546</v>
+      </c>
+      <c r="C709" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="D709" s="10">
+        <v>2.0217103E7</v>
+      </c>
+      <c r="E709" s="10" t="s">
+        <v>1547</v>
+      </c>
+      <c r="F709" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G709" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="H709" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="I709" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="M709" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="N709" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="O709" s="11" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="710">
+      <c r="A710" s="12">
+        <v>45599.88519311343</v>
+      </c>
+      <c r="B710" s="13" t="s">
+        <v>1548</v>
+      </c>
+      <c r="C710" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="D710" s="13">
+        <v>2.0246293E7</v>
+      </c>
+      <c r="E710" s="13" t="s">
+        <v>1549</v>
+      </c>
+      <c r="F710" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G710" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H710" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="I710" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="M710" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="N710" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="O710" s="14" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="711">
+      <c r="A711" s="9">
+        <v>45599.887945497685</v>
+      </c>
+      <c r="B711" s="10" t="s">
+        <v>1550</v>
+      </c>
+      <c r="C711" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D711" s="10">
+        <v>2.0226602E7</v>
+      </c>
+      <c r="E711" s="10" t="s">
+        <v>1551</v>
+      </c>
+      <c r="F711" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G711" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H711" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="I711" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="J711" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="K711" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="L711" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="712">
+      <c r="A712" s="12">
+        <v>45599.88933395833</v>
+      </c>
+      <c r="B712" s="13" t="s">
+        <v>1552</v>
+      </c>
+      <c r="C712" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="D712" s="13">
+        <v>2.0202406E7</v>
+      </c>
+      <c r="E712" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="F712" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G712" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="H712" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="I712" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="J712" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="K712" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="L712" s="13" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="713">
+      <c r="A713" s="9">
+        <v>45599.890201539354</v>
+      </c>
+      <c r="B713" s="10" t="s">
+        <v>1553</v>
+      </c>
+      <c r="C713" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="D713" s="10">
+        <v>2.0242987E7</v>
+      </c>
+      <c r="E713" s="10" t="s">
+        <v>1554</v>
+      </c>
+      <c r="F713" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G713" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H713" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="I713" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="M713" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="N713" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="O713" s="11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="714">
+      <c r="A714" s="12">
+        <v>45599.89050692129</v>
+      </c>
+      <c r="B714" s="13" t="s">
+        <v>1555</v>
+      </c>
+      <c r="C714" s="13" t="s">
+        <v>267</v>
+      </c>
+      <c r="D714" s="13">
+        <v>2.024677E7</v>
+      </c>
+      <c r="E714" s="13" t="s">
+        <v>1556</v>
+      </c>
+      <c r="F714" s="13" t="s">
+        <v>239</v>
+      </c>
+      <c r="G714" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="H714" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="I714" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="J714" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="K714" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="L714" s="13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="715">
+      <c r="A715" s="9">
+        <v>45599.89124186343</v>
+      </c>
+      <c r="B715" s="10" t="s">
+        <v>1557</v>
+      </c>
+      <c r="C715" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="D715" s="10">
+        <v>2.024242E7</v>
+      </c>
+      <c r="E715" s="10" t="s">
+        <v>1558</v>
+      </c>
+      <c r="F715" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G715" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H715" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="I715" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="M715" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="N715" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="O715" s="11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="716">
+      <c r="A716" s="12">
+        <v>45599.89178283565</v>
+      </c>
+      <c r="B716" s="13" t="s">
+        <v>1559</v>
+      </c>
+      <c r="C716" s="13" t="s">
+        <v>229</v>
+      </c>
+      <c r="D716" s="13">
+        <v>2.0192634E7</v>
+      </c>
+      <c r="E716" s="13" t="s">
+        <v>1560</v>
+      </c>
+      <c r="F716" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G716" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="H716" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="I716" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="J716" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="K716" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="L716" s="13" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="717">
+      <c r="A717" s="9">
+        <v>45599.89238237268</v>
+      </c>
+      <c r="B717" s="10" t="s">
+        <v>1561</v>
+      </c>
+      <c r="C717" s="10" t="s">
+        <v>318</v>
+      </c>
+      <c r="D717" s="10">
+        <v>2.0202849E7</v>
+      </c>
+      <c r="E717" s="10" t="s">
+        <v>1562</v>
+      </c>
+      <c r="F717" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G717" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H717" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="I717" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="M717" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="N717" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="O717" s="11" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="718">
+      <c r="A718" s="12">
+        <v>45599.893887453705</v>
+      </c>
+      <c r="B718" s="13" t="s">
+        <v>1563</v>
+      </c>
+      <c r="C718" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="D718" s="13">
+        <v>2.0213737E7</v>
+      </c>
+      <c r="E718" s="13" t="s">
+        <v>1564</v>
+      </c>
+      <c r="F718" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G718" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H718" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="I718" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="M718" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="N718" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="O718" s="14" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="719">
+      <c r="A719" s="9">
+        <v>45599.89419091435</v>
+      </c>
+      <c r="B719" s="10" t="s">
+        <v>1565</v>
+      </c>
+      <c r="C719" s="10" t="s">
+        <v>1566</v>
+      </c>
+      <c r="D719" s="10">
+        <v>2.021651E7</v>
+      </c>
+      <c r="E719" s="10" t="s">
+        <v>1567</v>
+      </c>
+      <c r="F719" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G719" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="H719" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="I719" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="J719" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="K719" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="L719" s="10" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="720">
+      <c r="A720" s="12">
+        <v>45599.89457574074</v>
+      </c>
+      <c r="B720" s="13" t="s">
+        <v>1568</v>
+      </c>
+      <c r="C720" s="13" t="s">
+        <v>406</v>
+      </c>
+      <c r="D720" s="13">
+        <v>2.0203507E7</v>
+      </c>
+      <c r="E720" s="13" t="s">
+        <v>1569</v>
+      </c>
+      <c r="F720" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G720" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H720" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="I720" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="M720" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="N720" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="O720" s="14" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="721">
+      <c r="A721" s="9">
+        <v>45599.89502188658</v>
+      </c>
+      <c r="B721" s="10" t="s">
+        <v>1570</v>
+      </c>
+      <c r="C721" s="10" t="s">
+        <v>333</v>
+      </c>
+      <c r="D721" s="10">
+        <v>2.0241509E7</v>
+      </c>
+      <c r="E721" s="10" t="s">
+        <v>1571</v>
+      </c>
+      <c r="F721" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G721" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H721" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="I721" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="M721" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="N721" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="O721" s="11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="722">
+      <c r="A722" s="12">
+        <v>45599.89672640046</v>
+      </c>
+      <c r="B722" s="13" t="s">
+        <v>1572</v>
+      </c>
+      <c r="C722" s="13" t="s">
+        <v>198</v>
+      </c>
+      <c r="D722" s="13">
+        <v>2.0245175E7</v>
+      </c>
+      <c r="E722" s="13" t="s">
+        <v>1573</v>
+      </c>
+      <c r="F722" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G722" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H722" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="I722" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="M722" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="N722" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="O722" s="14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="723">
+      <c r="A723" s="9">
+        <v>45599.89687349537</v>
+      </c>
+      <c r="B723" s="10" t="s">
+        <v>1574</v>
+      </c>
+      <c r="C723" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="D723" s="10">
+        <v>2.0246614E7</v>
+      </c>
+      <c r="E723" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="F723" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G723" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H723" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="I723" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="M723" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="N723" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="O723" s="11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="724">
+      <c r="A724" s="12">
+        <v>45599.89739881945</v>
+      </c>
+      <c r="B724" s="13" t="s">
+        <v>1575</v>
+      </c>
+      <c r="C724" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="D724" s="13">
+        <v>2.0242998E7</v>
+      </c>
+      <c r="E724" s="13" t="s">
+        <v>1576</v>
+      </c>
+      <c r="F724" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G724" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H724" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="I724" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="J724" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="K724" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="L724" s="13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="725">
+      <c r="A725" s="9">
+        <v>45599.899931064814</v>
+      </c>
+      <c r="B725" s="10" t="s">
+        <v>1577</v>
+      </c>
+      <c r="C725" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="D725" s="10">
+        <v>2.0245131E7</v>
+      </c>
+      <c r="E725" s="10" t="s">
+        <v>1578</v>
+      </c>
+      <c r="F725" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G725" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H725" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="I725" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="J725" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="K725" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="L725" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="726">
+      <c r="A726" s="12">
+        <v>45599.90081439815</v>
+      </c>
+      <c r="B726" s="13" t="s">
+        <v>1579</v>
+      </c>
+      <c r="C726" s="13" t="s">
+        <v>513</v>
+      </c>
+      <c r="D726" s="13">
+        <v>2.0231733E7</v>
+      </c>
+      <c r="E726" s="13" t="s">
+        <v>1580</v>
+      </c>
+      <c r="F726" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G726" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H726" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="I726" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="M726" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="N726" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="O726" s="14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="727">
+      <c r="A727" s="9">
+        <v>45599.90346339121</v>
+      </c>
+      <c r="B727" s="10" t="s">
+        <v>1581</v>
+      </c>
+      <c r="C727" s="10" t="s">
+        <v>1582</v>
+      </c>
+      <c r="D727" s="10">
+        <v>2.0242314E7</v>
+      </c>
+      <c r="E727" s="10" t="s">
+        <v>1583</v>
+      </c>
+      <c r="F727" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G727" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H727" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="I727" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="M727" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="N727" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="O727" s="11" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="728">
+      <c r="A728" s="12">
+        <v>45599.90383980324</v>
+      </c>
+      <c r="B728" s="13" t="s">
+        <v>1584</v>
+      </c>
+      <c r="C728" s="13" t="s">
+        <v>411</v>
+      </c>
+      <c r="D728" s="13">
+        <v>2.0193226E7</v>
+      </c>
+      <c r="E728" s="13" t="s">
+        <v>1585</v>
+      </c>
+      <c r="F728" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G728" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H728" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="I728" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="J728" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="K728" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="L728" s="13" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="729">
+      <c r="A729" s="9">
+        <v>45599.903923391204</v>
+      </c>
+      <c r="B729" s="10" t="s">
+        <v>1586</v>
+      </c>
+      <c r="C729" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="D729" s="10">
+        <v>2.0222122E7</v>
+      </c>
+      <c r="E729" s="10" t="s">
+        <v>1587</v>
+      </c>
+      <c r="F729" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="G729" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="H729" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="I729" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="J729" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="K729" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="L729" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="730">
+      <c r="A730" s="12">
+        <v>45599.90636550926</v>
+      </c>
+      <c r="B730" s="13" t="s">
+        <v>1588</v>
+      </c>
+      <c r="C730" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="D730" s="13">
+        <v>2.0191623E7</v>
+      </c>
+      <c r="E730" s="13" t="s">
+        <v>1589</v>
+      </c>
+      <c r="F730" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G730" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H730" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="I730" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="J730" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="K730" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="L730" s="13" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="731">
+      <c r="A731" s="9">
+        <v>45599.908775856486</v>
+      </c>
+      <c r="B731" s="10" t="s">
+        <v>1590</v>
+      </c>
+      <c r="C731" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="D731" s="10">
+        <v>2.0233717E7</v>
+      </c>
+      <c r="E731" s="10" t="s">
+        <v>1591</v>
+      </c>
+      <c r="F731" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G731" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H731" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="I731" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="M731" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="N731" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="O731" s="11" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="732">
+      <c r="A732" s="12">
+        <v>45599.90903329861</v>
+      </c>
+      <c r="B732" s="13" t="s">
+        <v>1592</v>
+      </c>
+      <c r="C732" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="D732" s="13">
+        <v>2.023331E7</v>
+      </c>
+      <c r="E732" s="13" t="s">
+        <v>1593</v>
+      </c>
+      <c r="F732" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G732" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H732" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="I732" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="M732" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="N732" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="O732" s="14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="733">
+      <c r="A733" s="9">
+        <v>45599.90983679398</v>
+      </c>
+      <c r="B733" s="10" t="s">
+        <v>1594</v>
+      </c>
+      <c r="C733" s="10" t="s">
+        <v>356</v>
+      </c>
+      <c r="D733" s="10">
+        <v>2.0233415E7</v>
+      </c>
+      <c r="E733" s="10" t="s">
+        <v>1595</v>
+      </c>
+      <c r="F733" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G733" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H733" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="I733" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="J733" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="K733" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="L733" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="734">
+      <c r="A734" s="12">
+        <v>45599.911594062505</v>
+      </c>
+      <c r="B734" s="13" t="s">
+        <v>1596</v>
+      </c>
+      <c r="C734" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="D734" s="13">
+        <v>2.0227103E7</v>
+      </c>
+      <c r="E734" s="13" t="s">
+        <v>1597</v>
+      </c>
+      <c r="F734" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="G734" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="H734" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="I734" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="M734" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="N734" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="O734" s="14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="735">
+      <c r="A735" s="9">
+        <v>45599.91274730324</v>
+      </c>
+      <c r="B735" s="10" t="s">
+        <v>1598</v>
+      </c>
+      <c r="C735" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="D735" s="10">
+        <v>2.018285E7</v>
+      </c>
+      <c r="E735" s="10" t="s">
+        <v>1184</v>
+      </c>
+      <c r="F735" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="G735" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H735" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="I735" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="M735" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="N735" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="O735" s="11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="736">
+      <c r="A736" s="12">
+        <v>45599.91355907408</v>
+      </c>
+      <c r="B736" s="13" t="s">
+        <v>1599</v>
+      </c>
+      <c r="C736" s="13" t="s">
+        <v>267</v>
+      </c>
+      <c r="D736" s="13">
+        <v>2.0246769E7</v>
+      </c>
+      <c r="E736" s="13" t="s">
+        <v>1600</v>
+      </c>
+      <c r="F736" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G736" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H736" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="I736" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="M736" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="N736" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="O736" s="14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="737">
+      <c r="A737" s="9">
+        <v>45599.91407861111</v>
+      </c>
+      <c r="B737" s="10" t="s">
+        <v>1601</v>
+      </c>
+      <c r="C737" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D737" s="10">
+        <v>2.0242511E7</v>
+      </c>
+      <c r="E737" s="10" t="s">
+        <v>1602</v>
+      </c>
+      <c r="F737" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G737" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="H737" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="I737" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="M737" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="N737" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="O737" s="11" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="738">
+      <c r="A738" s="12">
+        <v>45599.91426157407</v>
+      </c>
+      <c r="B738" s="13" t="s">
+        <v>1603</v>
+      </c>
+      <c r="C738" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="D738" s="13">
+        <v>2.0245268E7</v>
+      </c>
+      <c r="E738" s="13" t="s">
+        <v>1604</v>
+      </c>
+      <c r="F738" s="13" t="s">
+        <v>239</v>
+      </c>
+      <c r="G738" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H738" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="I738" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="M738" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="N738" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="O738" s="14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="739">
+      <c r="A739" s="9">
+        <v>45599.91433932871</v>
+      </c>
+      <c r="B739" s="10" t="s">
+        <v>1605</v>
+      </c>
+      <c r="C739" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="D739" s="10">
+        <v>2.0243001E7</v>
+      </c>
+      <c r="E739" s="10" t="s">
+        <v>476</v>
+      </c>
+      <c r="F739" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G739" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="H739" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="I739" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="M739" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="N739" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="O739" s="11" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="740">
+      <c r="A740" s="12">
+        <v>45599.91477753472</v>
+      </c>
+      <c r="B740" s="13" t="s">
+        <v>1606</v>
+      </c>
+      <c r="C740" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="D740" s="13">
+        <v>2.0201108E7</v>
+      </c>
+      <c r="E740" s="13" t="s">
+        <v>1607</v>
+      </c>
+      <c r="F740" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="G740" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="H740" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="I740" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="J740" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="K740" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="L740" s="13" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="741">
+      <c r="A741" s="15">
+        <v>45599.91608134259</v>
+      </c>
+      <c r="B741" s="16" t="s">
+        <v>1608</v>
+      </c>
+      <c r="C741" s="16" t="s">
+        <v>406</v>
+      </c>
+      <c r="D741" s="16">
+        <v>2.022352E7</v>
+      </c>
+      <c r="E741" s="16" t="s">
+        <v>1609</v>
+      </c>
+      <c r="F741" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="G741" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="H741" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="I741" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="J741" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="K741" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="L741" s="16" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
